--- a/Concept Rapportage VO.xlsx
+++ b/Concept Rapportage VO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ggdghornederland.sharepoint.com/sites/tss_Monitors/Gedeelde documenten/10 c. Gezondheidsmonitor V&amp;O 2022/Rapportage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F14F510-0C08-412F-8590-A3FE1643ACFA}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85BEAC1D-A3ED-4442-BCC3-DA69E1C9A011}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data R" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="901">
   <si>
     <t>Regiofilter:</t>
   </si>
@@ -385,12 +385,6 @@
     <t>AGGWS208</t>
   </si>
   <si>
-    <t>KI_RLBEW2017</t>
-  </si>
-  <si>
-    <t>KIsporter</t>
-  </si>
-  <si>
     <t>LFALA217</t>
   </si>
   <si>
@@ -913,15 +907,6 @@
     <t>KLGGA208_75+</t>
   </si>
   <si>
-    <t>KLGGA208_Laag (LO, MAVO, LBO)</t>
-  </si>
-  <si>
-    <t>KLGGA208_Midden (HAVO, VWO, MBO)</t>
-  </si>
-  <si>
-    <t>KLGGA208_Hoog (HBO, WO)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Man </t>
   </si>
   <si>
@@ -1075,15 +1060,6 @@
     <t>AGGWS204_75+</t>
   </si>
   <si>
-    <t>AGGWS204_Laag (LO, MAVO, LBO)</t>
-  </si>
-  <si>
-    <t>AGGWS204_Midden (HAVO, VWO, MBO)</t>
-  </si>
-  <si>
-    <t>AGGWS204_Hoog (HBO, WO)</t>
-  </si>
-  <si>
     <t>Overgewicht</t>
   </si>
   <si>
@@ -1120,15 +1096,6 @@
     <t>LFALS232_75+</t>
   </si>
   <si>
-    <t>LFALS232_Laag (LO, MAVO, LBO)</t>
-  </si>
-  <si>
-    <t>LFALS232_Midden (HAVO, VWO, MBO)</t>
-  </si>
-  <si>
-    <t>LFALS232_Hoog (HBO, WO)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rookt </t>
   </si>
   <si>
@@ -1153,15 +1120,6 @@
     <t>LFRKA205_75+</t>
   </si>
   <si>
-    <t>LFRKA205_Laag (LO, MAVO, LBO)</t>
-  </si>
-  <si>
-    <t>LFRKA205_Midden (HAVO, VWO, MBO)</t>
-  </si>
-  <si>
-    <t>LFRKA205_Hoog (HBO, WO)</t>
-  </si>
-  <si>
     <t>Overmatige drinker</t>
   </si>
   <si>
@@ -1294,21 +1252,12 @@
     <t>Trend</t>
   </si>
   <si>
-    <t>_Laag (LO, MAVO, LBO)</t>
-  </si>
-  <si>
     <t>_3549</t>
   </si>
   <si>
-    <t>_Midden (HAVO, VWO, MBO)</t>
-  </si>
-  <si>
     <t>_5064</t>
   </si>
   <si>
-    <t>_Hoog (HBO, WO)</t>
-  </si>
-  <si>
     <t>_6574</t>
   </si>
   <si>
@@ -1579,156 +1528,6 @@
     <t>GGD Limburg-Noord</t>
   </si>
   <si>
-    <t>KLGGA208_mean_2022</t>
-  </si>
-  <si>
-    <t>CALGA260_mean_2022</t>
-  </si>
-  <si>
-    <t>AGGWS204_mean_2022</t>
-  </si>
-  <si>
-    <t>KI_RLBEW2017_mean_2022</t>
-  </si>
-  <si>
-    <t>LFALS230_mean_2022</t>
-  </si>
-  <si>
-    <t>GGADA203_mean_2022</t>
-  </si>
-  <si>
-    <t>GGEES218_mean_2022</t>
-  </si>
-  <si>
-    <t>GGEES219_mean_2022</t>
-  </si>
-  <si>
-    <t>MCMZGS203_mean_2022</t>
-  </si>
-  <si>
-    <t>MCMZGS204_mean_2022</t>
-  </si>
-  <si>
-    <t>MMVWA201_mean_2022</t>
-  </si>
-  <si>
-    <t>MMIKA201_mean_2022</t>
-  </si>
-  <si>
-    <t>KLGGA208_mean_2020</t>
-  </si>
-  <si>
-    <t>CALGA260_mean_2020</t>
-  </si>
-  <si>
-    <t>AGGWS204_mean_2020</t>
-  </si>
-  <si>
-    <t>KI_RLBEW2017_mean_2020</t>
-  </si>
-  <si>
-    <t>LFALS230_mean_2020</t>
-  </si>
-  <si>
-    <t>GGADA203_mean_2020</t>
-  </si>
-  <si>
-    <t>GGEES218_mean_2020</t>
-  </si>
-  <si>
-    <t>GGEES219_mean_2020</t>
-  </si>
-  <si>
-    <t>MCMZGS203_mean_2020</t>
-  </si>
-  <si>
-    <t>MCMZGS204_mean_2020</t>
-  </si>
-  <si>
-    <t>MMVWA201_mean_2020</t>
-  </si>
-  <si>
-    <t>MMIKA201_mean_2020</t>
-  </si>
-  <si>
-    <t>MMIKA201_mean_2016</t>
-  </si>
-  <si>
-    <t>KLGGA208_mean_2012</t>
-  </si>
-  <si>
-    <t>KLGGA208_mean_2016</t>
-  </si>
-  <si>
-    <t>CALGA260_mean_2016</t>
-  </si>
-  <si>
-    <t>AGGWS204_mean_2016</t>
-  </si>
-  <si>
-    <t>KI_RLBEW2017_mean_2016</t>
-  </si>
-  <si>
-    <t>LFALS230_mean_2016</t>
-  </si>
-  <si>
-    <t>GGADA203_mean_2016</t>
-  </si>
-  <si>
-    <t>GGEES218_mean_2016</t>
-  </si>
-  <si>
-    <t>GGEES219_mean_2016</t>
-  </si>
-  <si>
-    <t>MCMZGS203_mean_2016</t>
-  </si>
-  <si>
-    <t>MCMZGS204_mean_2016</t>
-  </si>
-  <si>
-    <t>MMVWA201_mean_2016</t>
-  </si>
-  <si>
-    <t>CALGA260_mean_2012</t>
-  </si>
-  <si>
-    <t>AGGWS204_mean_2012</t>
-  </si>
-  <si>
-    <t>KI_RLBEW2017_mean_2012</t>
-  </si>
-  <si>
-    <t>LFALS230_mean_2012</t>
-  </si>
-  <si>
-    <t>GGADA203_mean_2012</t>
-  </si>
-  <si>
-    <t>GGEES218_mean_2012</t>
-  </si>
-  <si>
-    <t>GGEES219_mean_2012</t>
-  </si>
-  <si>
-    <t>MCMZGS203_mean_2012</t>
-  </si>
-  <si>
-    <t>MCMZGS204_mean_2012</t>
-  </si>
-  <si>
-    <t>MMVWA201_mean_2012</t>
-  </si>
-  <si>
-    <t>MMIKA201_mean_2012</t>
-  </si>
-  <si>
-    <t>_mean_2020</t>
-  </si>
-  <si>
-    <t>_mean_2022</t>
-  </si>
-  <si>
     <t>INPUT TRENDFIGUREN</t>
   </si>
   <si>
@@ -2735,18 +2534,242 @@
   </si>
   <si>
     <t>'Input figuren'!F452</t>
+  </si>
+  <si>
+    <t>_Hoog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Midden </t>
+  </si>
+  <si>
+    <t>_Laag</t>
+  </si>
+  <si>
+    <t>KLGGA208_Hoog</t>
+  </si>
+  <si>
+    <t>KLGGA208_Midden</t>
+  </si>
+  <si>
+    <t>KLGGA208_Laag</t>
+  </si>
+  <si>
+    <t>AGGWS204_Hoog</t>
+  </si>
+  <si>
+    <t>AGGWS204_Midden</t>
+  </si>
+  <si>
+    <t>AGGWS204_Laag</t>
+  </si>
+  <si>
+    <t>LFALS232_Hoog</t>
+  </si>
+  <si>
+    <t>LFALS232_Midden</t>
+  </si>
+  <si>
+    <t>LFALS232_Laag</t>
+  </si>
+  <si>
+    <t>LFRKA205_Laag</t>
+  </si>
+  <si>
+    <t>LFRKA205_Midden</t>
+  </si>
+  <si>
+    <t>LFRKA205_Hoog</t>
+  </si>
+  <si>
+    <t>KLGGA208_2012</t>
+  </si>
+  <si>
+    <t>KLGGA208_2016</t>
+  </si>
+  <si>
+    <t>KLGGA208_2020</t>
+  </si>
+  <si>
+    <t>KLGGA208_2022</t>
+  </si>
+  <si>
+    <t>CALGA260_2012</t>
+  </si>
+  <si>
+    <t>CALGA260_2016</t>
+  </si>
+  <si>
+    <t>CALGA260_2020</t>
+  </si>
+  <si>
+    <t>CALGA260_2022</t>
+  </si>
+  <si>
+    <t>AGGWS204_2012</t>
+  </si>
+  <si>
+    <t>AGGWS204_2016</t>
+  </si>
+  <si>
+    <t>AGGWS204_2020</t>
+  </si>
+  <si>
+    <t>AGGWS204_2022</t>
+  </si>
+  <si>
+    <t>LFALS230_2012</t>
+  </si>
+  <si>
+    <t>LFALS230_2016</t>
+  </si>
+  <si>
+    <t>LFALS230_2020</t>
+  </si>
+  <si>
+    <t>LFALS230_2022</t>
+  </si>
+  <si>
+    <t>GGADA203_2012</t>
+  </si>
+  <si>
+    <t>GGADA203_2016</t>
+  </si>
+  <si>
+    <t>GGADA203_2020</t>
+  </si>
+  <si>
+    <t>GGADA203_2022</t>
+  </si>
+  <si>
+    <t>GGEES219_2012</t>
+  </si>
+  <si>
+    <t>GGEES219_2016</t>
+  </si>
+  <si>
+    <t>GGEES219_2020</t>
+  </si>
+  <si>
+    <t>GGEES219_2022</t>
+  </si>
+  <si>
+    <t>GGEES218_2012</t>
+  </si>
+  <si>
+    <t>GGEES218_2016</t>
+  </si>
+  <si>
+    <t>GGEES218_2020</t>
+  </si>
+  <si>
+    <t>GGEES218_2022</t>
+  </si>
+  <si>
+    <t>MCMZGS203_2012</t>
+  </si>
+  <si>
+    <t>MCMZGS203_2016</t>
+  </si>
+  <si>
+    <t>MCMZGS203_2020</t>
+  </si>
+  <si>
+    <t>MCMZGS203_2022</t>
+  </si>
+  <si>
+    <t>MCMZGS204_2012</t>
+  </si>
+  <si>
+    <t>MCMZGS204_2016</t>
+  </si>
+  <si>
+    <t>MCMZGS204_2020</t>
+  </si>
+  <si>
+    <t>MCMZGS204_2022</t>
+  </si>
+  <si>
+    <t>MMVWA201_2016</t>
+  </si>
+  <si>
+    <t>MMVWA201_2020</t>
+  </si>
+  <si>
+    <t>MMVWA201_2022</t>
+  </si>
+  <si>
+    <t>MMIKA201_2012</t>
+  </si>
+  <si>
+    <t>MMIKA201_2016</t>
+  </si>
+  <si>
+    <t>MMIKA201_2020</t>
+  </si>
+  <si>
+    <t>MMIKA201_2022</t>
+  </si>
+  <si>
+    <t>_2020</t>
+  </si>
+  <si>
+    <t>_2022</t>
+  </si>
+  <si>
+    <t>Kisporter_100</t>
+  </si>
+  <si>
+    <t>KI_RLBEW2017_100</t>
+  </si>
+  <si>
+    <t>KI_RLBEW2017_100_2012</t>
+  </si>
+  <si>
+    <t>KI_RLBEW2017_100_2016</t>
+  </si>
+  <si>
+    <t>KI_RLBEW2017_100_2020</t>
+  </si>
+  <si>
+    <t>KI_RLBEW2017_100_2022</t>
+  </si>
+  <si>
+    <t>LFRKA205_2012</t>
+  </si>
+  <si>
+    <t>LFRKA205_2016</t>
+  </si>
+  <si>
+    <t>LFRKA205_2020</t>
+  </si>
+  <si>
+    <t>LFRKA205_2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2884,150 +2907,150 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3039,10 +3062,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3054,14 +3077,20 @@
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10002,14 +10031,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Input figuren'!$B$684:$E$684</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Input figuren'!$C$684:$E$684</c:f>
+              <c:f>'Input figuren'!$B$684:$D$684</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -10027,14 +10049,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Input figuren'!$B$685:$E$685</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Input figuren'!$C$685:$E$685</c:f>
+              <c:f>'Input figuren'!$B$685:$D$685</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -10085,14 +10100,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Input figuren'!$B$684:$E$684</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Input figuren'!$C$684:$E$684</c:f>
+              <c:f>'Input figuren'!$B$684:$D$684</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -10110,14 +10118,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Input figuren'!$B$686:$E$686</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Input figuren'!$C$686:$E$686</c:f>
+              <c:f>'Input figuren'!$B$686:$D$686</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -32286,7 +32287,7 @@
   <dimension ref="A1:DA368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -32295,8 +32296,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
       <c r="BR1" s="2"/>
@@ -32338,8 +32337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE693"/>
   <sheetViews>
-    <sheetView topLeftCell="A665" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B704" sqref="B704"/>
+    <sheetView tabSelected="1" topLeftCell="A574" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -32368,26 +32367,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C2" t="s">
-        <v>591</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
-        <v>592</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>26</v>
@@ -32402,16 +32401,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>611</v>
+        <v>544</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -32423,16 +32422,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>563</v>
+        <v>496</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -32440,10 +32439,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>564</v>
+        <v>497</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -32473,10 +32472,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="E14" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -32485,13 +32484,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="D15" t="s">
-        <v>417</v>
+        <v>833</v>
       </c>
       <c r="E15" t="s">
-        <v>560</v>
+        <v>889</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -32500,40 +32499,40 @@
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D16" t="s">
-        <v>419</v>
+        <v>832</v>
       </c>
       <c r="E16" t="s">
-        <v>561</v>
+        <v>890</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D17" t="s">
-        <v>421</v>
+        <v>831</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="D18" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="C19" s="4" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="K19" s="11"/>
     </row>
@@ -32572,7 +32571,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>15</v>
@@ -32581,18 +32580,18 @@
         <v>19</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="I23" s="31"/>
       <c r="J23" s="11" t="s">
-        <v>593</v>
+        <v>526</v>
       </c>
       <c r="K23" s="31"/>
       <c r="L23" s="11" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -32606,7 +32605,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="E24" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A24 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A24 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -32650,13 +32649,13 @@
         <v>31</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C25" s="4">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="E25" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A25 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A25 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -32700,13 +32699,13 @@
         <v>32</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C26" s="4">
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="E26" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A26 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A26 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -32750,7 +32749,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C27" s="4">
         <v>4</v>
@@ -32800,7 +32799,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C28" s="4">
         <v>4</v>
@@ -32850,7 +32849,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C29" s="4">
         <v>4</v>
@@ -32900,7 +32899,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C30" s="4">
         <v>4</v>
@@ -32950,7 +32949,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C31" s="4">
         <v>4</v>
@@ -33000,7 +32999,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C32" s="4">
         <v>4</v>
@@ -33050,7 +33049,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="4">
         <v>4</v>
@@ -33100,7 +33099,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C34" s="4">
         <v>4</v>
@@ -33150,7 +33149,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C35" s="4">
         <v>4</v>
@@ -33200,7 +33199,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C36" s="4">
         <v>4</v>
@@ -33250,7 +33249,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C37" s="4">
         <v>4</v>
@@ -33300,7 +33299,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C38" s="32">
         <v>4</v>
@@ -33350,7 +33349,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C39" s="4">
         <v>4</v>
@@ -33400,7 +33399,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C40" s="4">
         <v>4</v>
@@ -33450,7 +33449,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C41" s="4">
         <v>4</v>
@@ -33500,7 +33499,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C42" s="4">
         <v>4</v>
@@ -33550,7 +33549,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C43" s="4">
         <v>4</v>
@@ -33600,7 +33599,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C44" s="4">
         <v>4</v>
@@ -33650,7 +33649,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C45" s="4">
         <v>4</v>
@@ -33700,7 +33699,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C46" s="4">
         <v>4</v>
@@ -33750,7 +33749,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C47" s="4">
         <v>4</v>
@@ -33800,7 +33799,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C48" s="4">
         <v>4</v>
@@ -33850,7 +33849,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C49" s="4">
         <v>4</v>
@@ -33900,7 +33899,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C50" s="4">
         <v>4</v>
@@ -33950,7 +33949,7 @@
         <v>57</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C51" s="4">
         <v>4</v>
@@ -34000,7 +33999,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C52" s="4">
         <v>4</v>
@@ -34050,7 +34049,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C53" s="4">
         <v>4</v>
@@ -34100,7 +34099,7 @@
         <v>60</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C54" s="4">
         <v>4</v>
@@ -34150,7 +34149,7 @@
         <v>61</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C55" s="4">
         <v>4</v>
@@ -34200,7 +34199,7 @@
         <v>62</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C56" s="4">
         <v>4</v>
@@ -34250,7 +34249,7 @@
         <v>63</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C57" s="4">
         <v>4</v>
@@ -34300,7 +34299,7 @@
         <v>64</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C58" s="4">
         <v>4</v>
@@ -34350,7 +34349,7 @@
         <v>65</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C59" s="4">
         <v>4</v>
@@ -34400,7 +34399,7 @@
         <v>66</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C60" s="4">
         <v>4</v>
@@ -34447,16 +34446,16 @@
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C61" s="4">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="E61" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A61 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A61 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -34500,7 +34499,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C62" s="4">
         <v>5</v>
@@ -34550,7 +34549,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C63" s="4">
         <v>5</v>
@@ -34600,7 +34599,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C64" s="4">
         <v>5</v>
@@ -34650,7 +34649,7 @@
         <v>70</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C65" s="4">
         <v>5</v>
@@ -34700,7 +34699,7 @@
         <v>71</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C66" s="4">
         <v>5</v>
@@ -34750,7 +34749,7 @@
         <v>72</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C67" s="4">
         <v>5</v>
@@ -34800,7 +34799,7 @@
         <v>73</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C68" s="4">
         <v>5</v>
@@ -34850,7 +34849,7 @@
         <v>74</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C69" s="4">
         <v>5</v>
@@ -34900,7 +34899,7 @@
         <v>75</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C70" s="4">
         <v>5</v>
@@ -34950,7 +34949,7 @@
         <v>76</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C71" s="4">
         <v>5</v>
@@ -35000,7 +34999,7 @@
         <v>77</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C72" s="4">
         <v>5</v>
@@ -35050,7 +35049,7 @@
         <v>78</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C73" s="4">
         <v>5</v>
@@ -35100,7 +35099,7 @@
         <v>79</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C74" s="4">
         <v>5</v>
@@ -35150,7 +35149,7 @@
         <v>80</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C75" s="4">
         <v>5</v>
@@ -35200,7 +35199,7 @@
         <v>81</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C76" s="4">
         <v>5</v>
@@ -35250,7 +35249,7 @@
         <v>82</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C77" s="4">
         <v>5</v>
@@ -35300,7 +35299,7 @@
         <v>83</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C78" s="4">
         <v>5</v>
@@ -35350,7 +35349,7 @@
         <v>84</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C79" s="4">
         <v>5</v>
@@ -35400,7 +35399,7 @@
         <v>85</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C80" s="4">
         <v>5</v>
@@ -35450,7 +35449,7 @@
         <v>86</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C81" s="4">
         <v>5</v>
@@ -35500,7 +35499,7 @@
         <v>87</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C82" s="4">
         <v>5</v>
@@ -35550,7 +35549,7 @@
         <v>88</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C83" s="4">
         <v>5</v>
@@ -35600,7 +35599,7 @@
         <v>89</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C84" s="4">
         <v>5</v>
@@ -35650,7 +35649,7 @@
         <v>90</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C85" s="4">
         <v>5</v>
@@ -35700,7 +35699,7 @@
         <v>91</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C86" s="4">
         <v>5</v>
@@ -35750,7 +35749,7 @@
         <v>92</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C87" s="4">
         <v>5</v>
@@ -35800,7 +35799,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C88" s="4">
         <v>5</v>
@@ -35850,7 +35849,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C89" s="4">
         <v>5</v>
@@ -35900,7 +35899,7 @@
         <v>95</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C90" s="4">
         <v>5</v>
@@ -35950,7 +35949,7 @@
         <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C91" s="4">
         <v>5</v>
@@ -36000,7 +35999,7 @@
         <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C92" s="4">
         <v>5</v>
@@ -36050,7 +36049,7 @@
         <v>98</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C93" s="4">
         <v>5</v>
@@ -36100,7 +36099,7 @@
         <v>99</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C94" s="4">
         <v>5</v>
@@ -36150,7 +36149,7 @@
         <v>100</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C95" s="4">
         <v>5</v>
@@ -36200,7 +36199,7 @@
         <v>101</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C96" s="4">
         <v>5</v>
@@ -36250,7 +36249,7 @@
         <v>102</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C97" s="4">
         <v>5</v>
@@ -36300,7 +36299,7 @@
         <v>103</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C98" s="4">
         <v>5</v>
@@ -36350,7 +36349,7 @@
         <v>104</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C99" s="4">
         <v>5</v>
@@ -36400,7 +36399,7 @@
         <v>105</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C100" s="4">
         <v>5</v>
@@ -36450,7 +36449,7 @@
         <v>106</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C101" s="4">
         <v>5</v>
@@ -36500,7 +36499,7 @@
         <v>107</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -36606,7 +36605,7 @@
         <v>5</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="E104" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A104 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A104 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -36656,7 +36655,7 @@
         <v>5</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="E105" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A105 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A105 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -36700,13 +36699,13 @@
         <v>111</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C106" s="4">
         <v>6</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="E106" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A106 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A106 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -36750,7 +36749,7 @@
         <v>112</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C107" s="4">
         <v>6</v>
@@ -36800,7 +36799,7 @@
         <v>113</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C108" s="4">
         <v>6</v>
@@ -36846,17 +36845,17 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="35" t="s">
-        <v>114</v>
+      <c r="A109" s="69" t="s">
+        <v>892</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C109" s="4">
         <v>6</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="E109" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A109 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A109 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -36896,17 +36895,17 @@
       </c>
     </row>
     <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="53" t="s">
-        <v>115</v>
+      <c r="A110" s="69" t="s">
+        <v>891</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C110" s="4">
         <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="E110" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A110 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A110 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -36947,10 +36946,10 @@
     </row>
     <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C111" s="4">
         <v>7</v>
@@ -36997,10 +36996,10 @@
     </row>
     <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C112" s="4">
         <v>7</v>
@@ -37047,10 +37046,10 @@
     </row>
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C113" s="4">
         <v>7</v>
@@ -37097,7 +37096,7 @@
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B114" s="13" t="s">
         <v>18</v>
@@ -37147,16 +37146,16 @@
     </row>
     <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C115" s="4">
         <v>7</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="E115" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A115 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A115 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37197,16 +37196,16 @@
     </row>
     <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C116" s="4">
         <v>8</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="E116" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A116 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A116 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37247,7 +37246,7 @@
     </row>
     <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>22</v>
@@ -37256,7 +37255,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E117" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A117 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A117 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37297,7 +37296,7 @@
     </row>
     <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B118" s="13" t="s">
         <v>25</v>
@@ -37306,7 +37305,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="E118" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A118 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A118 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37347,16 +37346,16 @@
     </row>
     <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C119" s="4">
         <v>10</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="E119" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A119 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A119 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37397,16 +37396,16 @@
     </row>
     <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C120" s="4">
         <v>10</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="E120" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A120 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A120 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37447,16 +37446,16 @@
     </row>
     <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C121" s="1">
         <v>10</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="E121" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A121 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A121 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37497,16 +37496,16 @@
     </row>
     <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C122" s="1">
         <v>10</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="E122" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A122 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A122 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37547,16 +37546,16 @@
     </row>
     <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C123" s="4">
         <v>10</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E123" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A123 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A123 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37597,10 +37596,10 @@
     </row>
     <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C124" s="4">
         <v>9</v>
@@ -37647,10 +37646,10 @@
     </row>
     <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C125" s="4">
         <v>9</v>
@@ -37697,10 +37696,10 @@
     </row>
     <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C126" s="4">
         <v>9</v>
@@ -37747,10 +37746,10 @@
     </row>
     <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C127" s="4">
         <v>9</v>
@@ -37797,10 +37796,10 @@
     </row>
     <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C128" s="4">
         <v>9</v>
@@ -37847,10 +37846,10 @@
     </row>
     <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C129" s="4">
         <v>9</v>
@@ -37897,10 +37896,10 @@
     </row>
     <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C130" s="4">
         <v>9</v>
@@ -37947,10 +37946,10 @@
     </row>
     <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C131" s="4">
         <v>9</v>
@@ -37997,10 +37996,10 @@
     </row>
     <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C132" s="4">
         <v>9</v>
@@ -38047,10 +38046,10 @@
     </row>
     <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C133" s="4">
         <v>9</v>
@@ -38097,10 +38096,10 @@
     </row>
     <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C134" s="4">
         <v>9</v>
@@ -38147,10 +38146,10 @@
     </row>
     <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C135" s="4">
         <v>9</v>
@@ -38197,10 +38196,10 @@
     </row>
     <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C136" s="4">
         <v>9</v>
@@ -38247,16 +38246,16 @@
     </row>
     <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C137" s="4">
         <v>9</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="E137" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A137 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A137 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -38297,16 +38296,16 @@
     </row>
     <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C138" s="4">
         <v>9</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="E138" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A138 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A138 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -38347,16 +38346,16 @@
     </row>
     <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C139" s="4">
         <v>11</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="E139" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A139 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A139 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -38397,16 +38396,16 @@
     </row>
     <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C140" s="4">
         <v>11</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="E140" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A140 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A140 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -38447,16 +38446,16 @@
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C141" s="4">
         <v>11</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="E141" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A141 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A141 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -38497,16 +38496,16 @@
     </row>
     <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C142" s="4">
         <v>12</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="E142" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A142 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A142 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -38547,16 +38546,16 @@
     </row>
     <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C143" s="4">
         <v>12</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="E143" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A143 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A143 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -38597,10 +38596,10 @@
     </row>
     <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C144" s="4">
         <v>13</v>
@@ -38616,10 +38615,10 @@
     </row>
     <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C145" s="4">
         <v>13</v>
@@ -38635,10 +38634,10 @@
     </row>
     <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C146" s="4">
         <v>13</v>
@@ -38654,10 +38653,10 @@
     </row>
     <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C147" s="4">
         <v>13</v>
@@ -38673,10 +38672,10 @@
     </row>
     <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C148" s="4">
         <v>13</v>
@@ -38692,10 +38691,10 @@
     </row>
     <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C149" s="4">
         <v>13</v>
@@ -38711,10 +38710,10 @@
     </row>
     <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C150" s="4">
         <v>13</v>
@@ -38730,10 +38729,10 @@
     </row>
     <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C151" s="4">
         <v>13</v>
@@ -38749,10 +38748,10 @@
     </row>
     <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C152" s="4">
         <v>13</v>
@@ -38768,10 +38767,10 @@
     </row>
     <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C153" s="4">
         <v>13</v>
@@ -38787,10 +38786,10 @@
     </row>
     <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C154" s="4">
         <v>13</v>
@@ -38808,7 +38807,7 @@
     <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="157" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="41" t="s">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="B157" s="42"/>
       <c r="C157" s="43"/>
@@ -38821,7 +38820,7 @@
     </row>
     <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B158" s="17"/>
       <c r="C158" s="18"/>
@@ -38839,67 +38838,67 @@
         <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>292</v>
+        <v>834</v>
       </c>
       <c r="C159" t="s">
-        <v>291</v>
+        <v>835</v>
       </c>
       <c r="D159" t="s">
-        <v>290</v>
+        <v>836</v>
       </c>
       <c r="E159" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F159" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G159" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H159" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I159" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J159" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K159" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="19"/>
       <c r="B160" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E160" s="63" t="s">
-        <v>862</v>
+        <v>795</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J160" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K160" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39006,7 +39005,7 @@
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="16" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B164" s="17"/>
       <c r="C164" s="18"/>
@@ -39022,37 +39021,37 @@
         <v>1</v>
       </c>
       <c r="B165" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C165" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D165" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E165" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F165" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="19"/>
       <c r="B166" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
@@ -39137,7 +39136,7 @@
     </row>
     <row r="170" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="45" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="B170" s="42"/>
       <c r="C170" s="42"/>
@@ -39152,7 +39151,7 @@
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B171" s="17"/>
       <c r="C171" s="5"/>
@@ -39185,7 +39184,7 @@
     <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="19"/>
       <c r="B173" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -39269,7 +39268,7 @@
     </row>
     <row r="178" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="16" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B178" s="17"/>
       <c r="C178" s="5"/>
@@ -39302,7 +39301,7 @@
     <row r="180" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="19"/>
       <c r="B180" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -39386,7 +39385,7 @@
     </row>
     <row r="185" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="41" t="s">
-        <v>602</v>
+        <v>535</v>
       </c>
       <c r="B185" s="46"/>
       <c r="C185" s="47"/>
@@ -39399,7 +39398,7 @@
     </row>
     <row r="186" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="16" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B186" s="17"/>
       <c r="C186" s="18"/>
@@ -39415,49 +39414,49 @@
         <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C187" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D187" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E187" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F187" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G187" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H187" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="19"/>
       <c r="B188" s="63" t="s">
-        <v>862</v>
+        <v>795</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G188" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H188" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
@@ -39549,7 +39548,7 @@
     </row>
     <row r="192" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="16" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B192" s="17"/>
       <c r="C192" s="18"/>
@@ -39658,94 +39657,94 @@
     <row r="194" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="19"/>
       <c r="B194" s="53" t="s">
-        <v>660</v>
+        <v>593</v>
       </c>
       <c r="C194" s="53" t="s">
-        <v>661</v>
+        <v>594</v>
       </c>
       <c r="D194" s="53" t="s">
-        <v>662</v>
+        <v>595</v>
       </c>
       <c r="E194" s="53" t="s">
-        <v>663</v>
+        <v>596</v>
       </c>
       <c r="F194" s="53" t="s">
-        <v>664</v>
+        <v>597</v>
       </c>
       <c r="G194" s="53" t="s">
-        <v>665</v>
+        <v>598</v>
       </c>
       <c r="H194" s="53" t="s">
-        <v>666</v>
+        <v>599</v>
       </c>
       <c r="I194" s="53" t="s">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="J194" s="53" t="s">
-        <v>668</v>
+        <v>601</v>
       </c>
       <c r="K194" s="53" t="s">
-        <v>669</v>
+        <v>602</v>
       </c>
       <c r="L194" s="53" t="s">
-        <v>670</v>
+        <v>603</v>
       </c>
       <c r="M194" s="53" t="s">
-        <v>671</v>
+        <v>604</v>
       </c>
       <c r="N194" s="53" t="s">
-        <v>672</v>
+        <v>605</v>
       </c>
       <c r="O194" s="53" t="s">
-        <v>673</v>
+        <v>606</v>
       </c>
       <c r="P194" s="53" t="s">
-        <v>674</v>
+        <v>607</v>
       </c>
       <c r="Q194" s="53" t="s">
-        <v>675</v>
+        <v>608</v>
       </c>
       <c r="R194" s="53" t="s">
-        <v>676</v>
+        <v>609</v>
       </c>
       <c r="S194" s="53" t="s">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="T194" s="53" t="s">
-        <v>678</v>
+        <v>611</v>
       </c>
       <c r="U194" s="53" t="s">
-        <v>679</v>
+        <v>612</v>
       </c>
       <c r="V194" s="53" t="s">
-        <v>680</v>
+        <v>613</v>
       </c>
       <c r="W194" s="53" t="s">
-        <v>681</v>
+        <v>614</v>
       </c>
       <c r="X194" s="53" t="s">
-        <v>682</v>
+        <v>615</v>
       </c>
       <c r="Y194" s="53" t="s">
-        <v>683</v>
+        <v>616</v>
       </c>
       <c r="Z194" s="53" t="s">
-        <v>684</v>
+        <v>617</v>
       </c>
       <c r="AA194" s="53" t="s">
-        <v>685</v>
+        <v>618</v>
       </c>
       <c r="AB194" s="53" t="s">
-        <v>686</v>
+        <v>619</v>
       </c>
       <c r="AC194" s="53" t="s">
-        <v>687</v>
+        <v>620</v>
       </c>
       <c r="AD194" s="53" t="s">
-        <v>688</v>
+        <v>621</v>
       </c>
       <c r="AE194" s="53" t="s">
-        <v>689</v>
+        <v>622</v>
       </c>
     </row>
     <row r="195" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -40159,7 +40158,7 @@
     </row>
     <row r="199" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="45" t="s">
-        <v>603</v>
+        <v>536</v>
       </c>
       <c r="B199" s="47"/>
       <c r="C199" s="47"/>
@@ -40194,7 +40193,7 @@
     </row>
     <row r="200" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="16" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B200" s="17"/>
       <c r="C200" s="1"/>
@@ -40267,7 +40266,7 @@
     <row r="202" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="19"/>
       <c r="B202" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -40411,7 +40410,7 @@
     </row>
     <row r="207" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="16" t="s">
-        <v>639</v>
+        <v>572</v>
       </c>
       <c r="B207" s="17"/>
       <c r="C207" s="1"/>
@@ -40449,7 +40448,7 @@
         <v>1</v>
       </c>
       <c r="B208" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -40484,7 +40483,7 @@
     <row r="209" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="19"/>
       <c r="B209" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -40648,7 +40647,7 @@
     </row>
     <row r="214" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="16" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B214" s="17"/>
       <c r="C214" s="1"/>
@@ -40721,7 +40720,7 @@
     <row r="216" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="19"/>
       <c r="B216" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -40885,7 +40884,7 @@
     </row>
     <row r="221" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B221" s="17"/>
       <c r="C221" s="1"/>
@@ -40958,7 +40957,7 @@
     <row r="223" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="19"/>
       <c r="B223" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -41122,7 +41121,7 @@
     </row>
     <row r="228" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B228" s="17"/>
       <c r="C228" s="1"/>
@@ -41195,7 +41194,7 @@
     <row r="230" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="19"/>
       <c r="B230" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -41336,7 +41335,7 @@
     </row>
     <row r="235" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="41" t="s">
-        <v>604</v>
+        <v>537</v>
       </c>
       <c r="B235" s="46"/>
       <c r="C235" s="47"/>
@@ -41349,7 +41348,7 @@
     </row>
     <row r="236" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="16" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B236" s="17"/>
       <c r="C236" s="18"/>
@@ -41383,16 +41382,16 @@
     </row>
     <row r="238" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="13" t="s">
-        <v>607</v>
+        <v>540</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>608</v>
+        <v>541</v>
       </c>
       <c r="D238" s="13" t="s">
-        <v>609</v>
+        <v>542</v>
       </c>
       <c r="E238" s="13" t="s">
-        <v>610</v>
+        <v>543</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="5"/>
@@ -41463,7 +41462,7 @@
     </row>
     <row r="242" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="16" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B242" s="17"/>
       <c r="C242" s="18"/>
@@ -41516,34 +41515,34 @@
     <row r="244" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="19"/>
       <c r="B244" s="54" t="s">
-        <v>690</v>
+        <v>623</v>
       </c>
       <c r="C244" s="54" t="s">
-        <v>692</v>
+        <v>625</v>
       </c>
       <c r="D244" s="54" t="s">
-        <v>691</v>
+        <v>624</v>
       </c>
       <c r="E244" s="54" t="s">
-        <v>693</v>
+        <v>626</v>
       </c>
       <c r="F244" s="54" t="s">
-        <v>694</v>
+        <v>627</v>
       </c>
       <c r="G244" s="54" t="s">
-        <v>695</v>
+        <v>628</v>
       </c>
       <c r="H244" s="54" t="s">
-        <v>696</v>
+        <v>629</v>
       </c>
       <c r="I244" s="54" t="s">
-        <v>697</v>
+        <v>630</v>
       </c>
       <c r="J244" s="53" t="s">
-        <v>698</v>
+        <v>631</v>
       </c>
       <c r="K244" s="53" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="M244" s="13"/>
       <c r="N244" s="13"/>
@@ -41709,7 +41708,7 @@
     </row>
     <row r="249" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="16" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B249" s="17"/>
       <c r="C249" s="18"/>
@@ -41773,49 +41772,49 @@
     <row r="251" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="19"/>
       <c r="B251" s="53" t="s">
-        <v>699</v>
+        <v>632</v>
       </c>
       <c r="C251" s="53" t="s">
-        <v>700</v>
+        <v>633</v>
       </c>
       <c r="D251" s="54" t="s">
-        <v>701</v>
+        <v>634</v>
       </c>
       <c r="E251" s="54" t="s">
-        <v>702</v>
+        <v>635</v>
       </c>
       <c r="F251" s="54" t="s">
-        <v>703</v>
+        <v>636</v>
       </c>
       <c r="G251" s="54" t="s">
-        <v>704</v>
+        <v>637</v>
       </c>
       <c r="H251" s="54" t="s">
-        <v>705</v>
+        <v>638</v>
       </c>
       <c r="I251" s="54" t="s">
-        <v>706</v>
+        <v>639</v>
       </c>
       <c r="J251" s="54" t="s">
-        <v>707</v>
+        <v>640</v>
       </c>
       <c r="K251" s="54" t="s">
-        <v>708</v>
+        <v>641</v>
       </c>
       <c r="L251" s="54" t="s">
-        <v>709</v>
+        <v>642</v>
       </c>
       <c r="M251" s="54" t="s">
-        <v>710</v>
+        <v>643</v>
       </c>
       <c r="N251" s="54" t="s">
-        <v>711</v>
+        <v>644</v>
       </c>
       <c r="O251" s="54" t="s">
-        <v>712</v>
+        <v>645</v>
       </c>
       <c r="P251" s="54" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
     </row>
     <row r="252" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -42034,7 +42033,7 @@
     </row>
     <row r="256" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="16" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B256" s="17"/>
       <c r="C256" s="18"/>
@@ -42071,22 +42070,22 @@
     <row r="258" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="19"/>
       <c r="B258" s="56" t="s">
-        <v>855</v>
+        <v>788</v>
       </c>
       <c r="C258" s="56" t="s">
-        <v>854</v>
+        <v>787</v>
       </c>
       <c r="D258" s="56" t="s">
-        <v>853</v>
+        <v>786</v>
       </c>
       <c r="E258" s="55" t="s">
-        <v>852</v>
+        <v>785</v>
       </c>
       <c r="F258" s="55" t="s">
-        <v>850</v>
+        <v>783</v>
       </c>
       <c r="G258" s="55" t="s">
-        <v>851</v>
+        <v>784</v>
       </c>
       <c r="H258" s="20"/>
       <c r="I258" s="20"/>
@@ -42233,7 +42232,7 @@
     </row>
     <row r="263" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="45" t="s">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="B263" s="48"/>
       <c r="C263" s="47"/>
@@ -42253,7 +42252,7 @@
     </row>
     <row r="264" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="16" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B264" s="17"/>
       <c r="C264" s="1"/>
@@ -42326,7 +42325,7 @@
     <row r="266" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="19"/>
       <c r="B266" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -42475,7 +42474,7 @@
     </row>
     <row r="271" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="16" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B271" s="17"/>
       <c r="C271" s="1"/>
@@ -42548,7 +42547,7 @@
     <row r="273" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="19"/>
       <c r="B273" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -42697,7 +42696,7 @@
     </row>
     <row r="278" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="16" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B278" s="17"/>
       <c r="C278" s="1"/>
@@ -42770,7 +42769,7 @@
     <row r="280" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="19"/>
       <c r="B280" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -42934,7 +42933,7 @@
     </row>
     <row r="285" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="16" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B285" s="17"/>
       <c r="C285" s="1"/>
@@ -43007,7 +43006,7 @@
     <row r="287" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="19"/>
       <c r="B287" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -43176,7 +43175,7 @@
     </row>
     <row r="292" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="16" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B292" s="17"/>
       <c r="C292" s="1"/>
@@ -43249,7 +43248,7 @@
     <row r="294" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="19"/>
       <c r="B294" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -43398,7 +43397,7 @@
     </row>
     <row r="299" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B299" s="17"/>
       <c r="C299" s="1"/>
@@ -43471,7 +43470,7 @@
     <row r="301" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="19"/>
       <c r="B301" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -43708,7 +43707,7 @@
     <row r="308" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3"/>
       <c r="B308" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -43857,7 +43856,7 @@
     </row>
     <row r="313" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="16" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B313" s="21"/>
       <c r="C313" s="4"/>
@@ -43930,7 +43929,7 @@
     <row r="315" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3"/>
       <c r="B315" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
@@ -44079,7 +44078,7 @@
     </row>
     <row r="320" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="16" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B320" s="21"/>
       <c r="C320" s="4"/>
@@ -44152,7 +44151,7 @@
     <row r="322" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3"/>
       <c r="B322" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
@@ -44293,7 +44292,7 @@
     </row>
     <row r="327" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="41" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B327" s="46"/>
       <c r="C327" s="47"/>
@@ -44306,7 +44305,7 @@
     </row>
     <row r="328" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="16" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B328" s="21"/>
       <c r="C328" s="23"/>
@@ -44324,67 +44323,67 @@
         <v>1</v>
       </c>
       <c r="B329" t="s">
-        <v>346</v>
+        <v>837</v>
       </c>
       <c r="C329" t="s">
-        <v>345</v>
+        <v>838</v>
       </c>
       <c r="D329" t="s">
-        <v>344</v>
+        <v>839</v>
       </c>
       <c r="E329" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F329" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G329" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H329" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I329" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J329" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K329" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="330" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3"/>
       <c r="B330" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E330" s="63" t="s">
-        <v>862</v>
+        <v>795</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J330" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K330" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="331" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -44493,7 +44492,7 @@
     </row>
     <row r="334" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="45" t="s">
-        <v>594</v>
+        <v>527</v>
       </c>
       <c r="B334" s="46"/>
       <c r="C334" s="46"/>
@@ -44506,7 +44505,7 @@
     </row>
     <row r="335" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="16" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B335" s="21"/>
       <c r="C335" s="4"/>
@@ -44579,7 +44578,7 @@
     <row r="337" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3"/>
       <c r="B337" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
@@ -44721,7 +44720,7 @@
     </row>
     <row r="342" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="16" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B342" s="21"/>
       <c r="C342" s="4"/>
@@ -44794,7 +44793,7 @@
     <row r="344" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3"/>
       <c r="B344" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -44924,18 +44923,18 @@
       <c r="K347" s="5"/>
     </row>
     <row r="348" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B348" s="67"/>
-      <c r="C348" s="67"/>
+      <c r="B348" s="68"/>
+      <c r="C348" s="68"/>
       <c r="D348" s="3"/>
-      <c r="E348" s="67"/>
-      <c r="F348" s="67"/>
-      <c r="G348" s="67"/>
-      <c r="H348" s="67"/>
-      <c r="I348" s="67"/>
+      <c r="E348" s="68"/>
+      <c r="F348" s="68"/>
+      <c r="G348" s="68"/>
+      <c r="H348" s="68"/>
+      <c r="I348" s="68"/>
     </row>
     <row r="349" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="16" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B349" s="21"/>
       <c r="C349" s="4"/>
@@ -45008,7 +45007,7 @@
     <row r="351" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A351" s="3"/>
       <c r="B351" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -45150,7 +45149,7 @@
     </row>
     <row r="356" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="16" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B356" s="21"/>
       <c r="C356" s="4"/>
@@ -45187,8 +45186,8 @@
       <c r="A357" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B357" s="13" t="s">
-        <v>114</v>
+      <c r="B357" s="67" t="s">
+        <v>892</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -45223,7 +45222,7 @@
     <row r="358" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3"/>
       <c r="B358" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -45367,7 +45366,7 @@
     </row>
     <row r="363" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="16" t="s">
-        <v>729</v>
+        <v>662</v>
       </c>
       <c r="B363" s="21"/>
       <c r="C363" s="4"/>
@@ -45404,8 +45403,8 @@
       <c r="A364" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B364" s="13" t="s">
-        <v>115</v>
+      <c r="B364" s="67" t="s">
+        <v>891</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -45440,7 +45439,7 @@
     <row r="365" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3"/>
       <c r="B365" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
@@ -45582,7 +45581,7 @@
     </row>
     <row r="370" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="45" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="G370" s="46"/>
       <c r="H370" s="46"/>
@@ -45590,7 +45589,7 @@
     </row>
     <row r="371" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="16" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B371" s="21"/>
       <c r="C371" s="23"/>
@@ -45608,67 +45607,67 @@
         <v>1</v>
       </c>
       <c r="B372" t="s">
-        <v>361</v>
+        <v>840</v>
       </c>
       <c r="C372" t="s">
-        <v>360</v>
+        <v>841</v>
       </c>
       <c r="D372" t="s">
-        <v>359</v>
+        <v>842</v>
       </c>
       <c r="E372" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F372" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G372" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H372" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="I372" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="J372" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K372" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="373" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3"/>
       <c r="B373" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D373" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E373" s="63" t="s">
-        <v>862</v>
+        <v>795</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I373" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J373" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K373" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="374" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -45771,7 +45770,7 @@
     </row>
     <row r="377" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="16" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B377" s="21"/>
       <c r="C377" s="23"/>
@@ -45789,67 +45788,67 @@
         <v>1</v>
       </c>
       <c r="B378" t="s">
-        <v>372</v>
+        <v>845</v>
       </c>
       <c r="C378" t="s">
-        <v>371</v>
+        <v>844</v>
       </c>
       <c r="D378" t="s">
-        <v>370</v>
+        <v>843</v>
       </c>
       <c r="E378" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F378" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G378" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="H378" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="I378" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="J378" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="K378" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="379" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3"/>
       <c r="B379" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E379" s="63" t="s">
-        <v>862</v>
+        <v>795</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J379" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K379" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="380" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -45957,7 +45956,7 @@
     </row>
     <row r="383" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="45" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="B383" s="46"/>
       <c r="C383" s="46"/>
@@ -45970,7 +45969,7 @@
     </row>
     <row r="384" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="16" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B384" s="21"/>
       <c r="C384" s="4"/>
@@ -46008,7 +46007,7 @@
         <v>1</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
@@ -46043,7 +46042,7 @@
     <row r="386" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3"/>
       <c r="B386" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
@@ -46185,7 +46184,7 @@
     </row>
     <row r="391" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="16" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B391" s="21"/>
       <c r="C391" s="4"/>
@@ -46223,7 +46222,7 @@
         <v>1</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
@@ -46258,7 +46257,7 @@
     <row r="393" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3"/>
       <c r="B393" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
@@ -46388,18 +46387,18 @@
       <c r="K396" s="5"/>
     </row>
     <row r="397" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B397" s="67"/>
-      <c r="C397" s="67"/>
+      <c r="B397" s="68"/>
+      <c r="C397" s="68"/>
       <c r="D397" s="3"/>
-      <c r="E397" s="67"/>
-      <c r="F397" s="67"/>
-      <c r="G397" s="67"/>
-      <c r="H397" s="67"/>
-      <c r="I397" s="67"/>
+      <c r="E397" s="68"/>
+      <c r="F397" s="68"/>
+      <c r="G397" s="68"/>
+      <c r="H397" s="68"/>
+      <c r="I397" s="68"/>
     </row>
     <row r="398" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="16" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B398" s="21"/>
       <c r="C398" s="4"/>
@@ -46437,7 +46436,7 @@
         <v>1</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
@@ -46472,7 +46471,7 @@
     <row r="400" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A400" s="3"/>
       <c r="B400" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
@@ -46614,7 +46613,7 @@
     </row>
     <row r="405" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="16" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B405" s="21"/>
       <c r="C405" s="4"/>
@@ -46652,7 +46651,7 @@
         <v>1</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
@@ -46687,7 +46686,7 @@
     <row r="407" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3"/>
       <c r="B407" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
@@ -46850,7 +46849,7 @@
     </row>
     <row r="412" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="45" t="s">
-        <v>598</v>
+        <v>531</v>
       </c>
       <c r="B412" s="46"/>
       <c r="C412" s="46"/>
@@ -46901,19 +46900,19 @@
         <v>1</v>
       </c>
       <c r="B414" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C414" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D414" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E414" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F414" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="G414" s="22"/>
       <c r="H414" s="22"/>
@@ -46922,19 +46921,19 @@
     <row r="415" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3"/>
       <c r="B415" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E415" s="22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F415" s="22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
@@ -47017,7 +47016,7 @@
     </row>
     <row r="419" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="16" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B419" s="21"/>
       <c r="C419" s="23"/>
@@ -47055,19 +47054,19 @@
         <v>1</v>
       </c>
       <c r="B420" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C420" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D420" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E420" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F420" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G420" s="22"/>
       <c r="H420" s="22"/>
@@ -47076,19 +47075,19 @@
     <row r="421" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3"/>
       <c r="B421" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E421" s="22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F421" s="22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
@@ -47168,7 +47167,7 @@
     </row>
     <row r="425" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="45" t="s">
-        <v>599</v>
+        <v>532</v>
       </c>
       <c r="B425" s="47"/>
       <c r="C425" s="47"/>
@@ -47216,7 +47215,7 @@
         <v>1</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
@@ -47251,7 +47250,7 @@
     <row r="428" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A428" s="3"/>
       <c r="B428" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
@@ -47381,18 +47380,18 @@
       <c r="K431" s="5"/>
     </row>
     <row r="432" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B432" s="67"/>
-      <c r="C432" s="67"/>
+      <c r="B432" s="68"/>
+      <c r="C432" s="68"/>
       <c r="D432" s="3"/>
-      <c r="E432" s="67"/>
-      <c r="F432" s="67"/>
-      <c r="G432" s="67"/>
-      <c r="H432" s="67"/>
-      <c r="I432" s="67"/>
+      <c r="E432" s="68"/>
+      <c r="F432" s="68"/>
+      <c r="G432" s="68"/>
+      <c r="H432" s="68"/>
+      <c r="I432" s="68"/>
     </row>
     <row r="433" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="16" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B433" s="21"/>
       <c r="C433" s="4"/>
@@ -47430,7 +47429,7 @@
         <v>1</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
@@ -47465,7 +47464,7 @@
     <row r="435" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A435" s="3"/>
       <c r="B435" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
@@ -47607,7 +47606,7 @@
     </row>
     <row r="440" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="16" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B440" s="21"/>
       <c r="C440" s="4"/>
@@ -47645,7 +47644,7 @@
         <v>1</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
@@ -47680,7 +47679,7 @@
     <row r="442" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3"/>
       <c r="B442" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -47823,7 +47822,7 @@
     </row>
     <row r="447" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="41" t="s">
-        <v>577</v>
+        <v>510</v>
       </c>
       <c r="B447" s="45"/>
       <c r="C447" s="46"/>
@@ -47837,7 +47836,7 @@
     </row>
     <row r="448" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="16" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B448" s="21"/>
       <c r="C448" s="23"/>
@@ -47853,73 +47852,73 @@
         <v>1</v>
       </c>
       <c r="B449" t="s">
+        <v>129</v>
+      </c>
+      <c r="C449" t="s">
+        <v>130</v>
+      </c>
+      <c r="D449" t="s">
         <v>131</v>
       </c>
-      <c r="C449" t="s">
+      <c r="E449" t="s">
         <v>132</v>
       </c>
-      <c r="D449" t="s">
+      <c r="F449" t="s">
         <v>133</v>
       </c>
-      <c r="E449" t="s">
+      <c r="G449" t="s">
         <v>134</v>
       </c>
-      <c r="F449" t="s">
+      <c r="H449" t="s">
         <v>135</v>
       </c>
-      <c r="G449" t="s">
+      <c r="I449" t="s">
+        <v>374</v>
+      </c>
+      <c r="J449" t="s">
         <v>136</v>
       </c>
-      <c r="H449" t="s">
+      <c r="K449" t="s">
         <v>137</v>
       </c>
-      <c r="I449" t="s">
-        <v>388</v>
-      </c>
-      <c r="J449" t="s">
+      <c r="L449" t="s">
         <v>138</v>
-      </c>
-      <c r="K449" t="s">
-        <v>139</v>
-      </c>
-      <c r="L449" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="450" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="3"/>
       <c r="B450" s="53" t="s">
-        <v>767</v>
+        <v>700</v>
       </c>
       <c r="C450" s="53" t="s">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D450" s="53" t="s">
-        <v>769</v>
+        <v>702</v>
       </c>
       <c r="E450" s="53" t="s">
-        <v>770</v>
+        <v>703</v>
       </c>
       <c r="F450" s="53" t="s">
-        <v>771</v>
+        <v>704</v>
       </c>
       <c r="G450" s="53" t="s">
-        <v>772</v>
+        <v>705</v>
       </c>
       <c r="H450" s="53" t="s">
-        <v>773</v>
+        <v>706</v>
       </c>
       <c r="I450" s="53" t="s">
-        <v>774</v>
+        <v>707</v>
       </c>
       <c r="J450" s="53" t="s">
-        <v>775</v>
+        <v>708</v>
       </c>
       <c r="K450" s="53" t="s">
-        <v>776</v>
+        <v>709</v>
       </c>
       <c r="L450" s="53" t="s">
-        <v>777</v>
+        <v>710</v>
       </c>
       <c r="N450" s="20"/>
       <c r="O450" s="20"/>
@@ -48136,19 +48135,19 @@
         <v>1</v>
       </c>
       <c r="B456" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C456" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="D456" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="E456" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="F456" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="G456" s="22"/>
       <c r="H456" s="22"/>
@@ -48157,19 +48156,19 @@
     <row r="457" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="3"/>
       <c r="B457" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E457" s="22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F457" s="22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G457" s="2"/>
       <c r="H457" s="2"/>
@@ -48252,7 +48251,7 @@
     </row>
     <row r="461" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="16" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B461" s="21"/>
       <c r="C461" s="23"/>
@@ -48290,19 +48289,19 @@
         <v>1</v>
       </c>
       <c r="B462" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C462" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D462" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="E462" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="F462" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G462" s="22"/>
       <c r="H462" s="22"/>
@@ -48311,19 +48310,19 @@
     <row r="463" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="3"/>
       <c r="B463" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E463" s="22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F463" s="22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G463" s="2"/>
       <c r="H463" s="2"/>
@@ -48399,7 +48398,7 @@
     </row>
     <row r="467" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="45" t="s">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="B467" s="47"/>
       <c r="C467" s="47"/>
@@ -48409,7 +48408,7 @@
     </row>
     <row r="468" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="16" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B468" s="21"/>
       <c r="C468" s="4"/>
@@ -48447,7 +48446,7 @@
         <v>1</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
@@ -48482,7 +48481,7 @@
     <row r="470" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A470" s="3"/>
       <c r="B470" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
@@ -48612,18 +48611,18 @@
       <c r="K473" s="5"/>
     </row>
     <row r="474" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B474" s="67"/>
-      <c r="C474" s="67"/>
+      <c r="B474" s="68"/>
+      <c r="C474" s="68"/>
       <c r="D474" s="3"/>
-      <c r="E474" s="67"/>
-      <c r="F474" s="67"/>
-      <c r="G474" s="67"/>
-      <c r="H474" s="67"/>
-      <c r="I474" s="67"/>
+      <c r="E474" s="68"/>
+      <c r="F474" s="68"/>
+      <c r="G474" s="68"/>
+      <c r="H474" s="68"/>
+      <c r="I474" s="68"/>
     </row>
     <row r="475" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="16" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B475" s="21"/>
       <c r="C475" s="4"/>
@@ -48661,7 +48660,7 @@
         <v>1</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
@@ -48696,7 +48695,7 @@
     <row r="477" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A477" s="3"/>
       <c r="B477" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
@@ -48838,7 +48837,7 @@
     </row>
     <row r="482" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="16" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B482" s="21"/>
       <c r="C482" s="4"/>
@@ -48876,7 +48875,7 @@
         <v>1</v>
       </c>
       <c r="B483" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
@@ -48911,7 +48910,7 @@
     <row r="484" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="3"/>
       <c r="B484" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
@@ -49045,7 +49044,7 @@
     </row>
     <row r="489" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="16" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B489" s="21"/>
       <c r="C489" s="4"/>
@@ -49083,7 +49082,7 @@
         <v>1</v>
       </c>
       <c r="B490" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
@@ -49118,7 +49117,7 @@
     <row r="491" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="3"/>
       <c r="B491" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
@@ -49256,14 +49255,14 @@
     </row>
     <row r="496" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="41" t="s">
-        <v>579</v>
+        <v>512</v>
       </c>
       <c r="B496" s="45"/>
       <c r="E496" s="47"/>
     </row>
     <row r="497" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B497" s="21"/>
       <c r="C497" s="23"/>
@@ -49301,19 +49300,19 @@
         <v>1</v>
       </c>
       <c r="B498" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="C498" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D498" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="E498" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="F498" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="G498" s="22"/>
       <c r="H498" s="22"/>
@@ -49322,19 +49321,19 @@
     <row r="499" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="3"/>
       <c r="B499" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E499" s="22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F499" s="22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G499" s="2"/>
       <c r="H499" s="2"/>
@@ -49407,14 +49406,14 @@
     </row>
     <row r="503" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="41" t="s">
-        <v>580</v>
+        <v>513</v>
       </c>
       <c r="B503" s="45"/>
       <c r="E503" s="47"/>
     </row>
     <row r="504" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="16" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="B504" s="21"/>
       <c r="C504" s="23"/>
@@ -49452,19 +49451,19 @@
         <v>1</v>
       </c>
       <c r="B505" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C505" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D505" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="E505" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="F505" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="G505" s="22"/>
       <c r="H505" s="22"/>
@@ -49473,19 +49472,19 @@
     <row r="506" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="3"/>
       <c r="B506" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E506" s="22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F506" s="22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G506" s="2"/>
       <c r="H506" s="2"/>
@@ -49589,7 +49588,7 @@
     </row>
     <row r="511" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="16" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="B511" s="21"/>
       <c r="C511" s="4"/>
@@ -49627,7 +49626,7 @@
         <v>1</v>
       </c>
       <c r="B512" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
@@ -49662,7 +49661,7 @@
     <row r="513" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="3"/>
       <c r="B513" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
@@ -49797,7 +49796,7 @@
     </row>
     <row r="518" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="16" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="B518" s="21"/>
       <c r="C518" s="23"/>
@@ -49835,19 +49834,19 @@
         <v>1</v>
       </c>
       <c r="B519" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="C519" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="D519" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="E519" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="F519" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="G519" s="22"/>
       <c r="H519" s="22"/>
@@ -49856,19 +49855,19 @@
     <row r="520" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="3"/>
       <c r="B520" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D520" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E520" s="22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F520" s="22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G520" s="2"/>
       <c r="H520" s="2"/>
@@ -49972,7 +49971,7 @@
     </row>
     <row r="525" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="16" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B525" s="21"/>
       <c r="C525" s="23"/>
@@ -50010,19 +50009,19 @@
         <v>1</v>
       </c>
       <c r="B526" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C526" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="D526" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="E526" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="F526" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="G526" s="22"/>
       <c r="H526" s="22"/>
@@ -50031,19 +50030,19 @@
     <row r="527" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="3"/>
       <c r="B527" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D527" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E527" s="22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F527" s="22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G527" s="2"/>
       <c r="H527" s="2"/>
@@ -50147,7 +50146,7 @@
     </row>
     <row r="532" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="16" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B532" s="21"/>
       <c r="C532" s="4"/>
@@ -50185,7 +50184,7 @@
         <v>1</v>
       </c>
       <c r="B533" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
@@ -50220,7 +50219,7 @@
     <row r="534" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="3"/>
       <c r="B534" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
@@ -50355,14 +50354,14 @@
     </row>
     <row r="539" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A539" s="41" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="B539" s="45"/>
       <c r="E539" s="47"/>
     </row>
     <row r="540" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="16" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="B540" s="21"/>
       <c r="C540" s="23"/>
@@ -50378,55 +50377,55 @@
         <v>1</v>
       </c>
       <c r="B541" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C541" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D541" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="E541" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="F541" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="G541" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="H541" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="I541" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="542" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="3"/>
       <c r="B542" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C542" t="s">
+        <v>288</v>
+      </c>
+      <c r="D542" t="s">
+        <v>289</v>
+      </c>
+      <c r="E542" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F542" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G542" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H542" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="D542" t="s">
+      <c r="I542" s="22" t="s">
         <v>294</v>
-      </c>
-      <c r="E542" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F542" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="G542" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H542" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="I542" s="22" t="s">
-        <v>299</v>
       </c>
       <c r="J542" s="22"/>
       <c r="K542" s="22"/>
@@ -50557,7 +50556,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="16" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B547" s="21"/>
       <c r="C547" s="23"/>
@@ -50569,26 +50568,26 @@
         <v>1</v>
       </c>
       <c r="B548" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C548" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="D548" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="E548" s="4"/>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="3"/>
       <c r="B549" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C549" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D549" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E549" s="4"/>
     </row>
@@ -50661,7 +50660,7 @@
     </row>
     <row r="554" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="16" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B554" s="21"/>
       <c r="C554" s="23"/>
@@ -50677,55 +50676,55 @@
         <v>1</v>
       </c>
       <c r="B555" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C555" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="D555" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="E555" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="F555" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="G555" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="H555" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="I555" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
     </row>
     <row r="556" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="3"/>
       <c r="B556" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C556" t="s">
+        <v>288</v>
+      </c>
+      <c r="D556" t="s">
+        <v>289</v>
+      </c>
+      <c r="E556" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F556" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G556" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H556" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="D556" t="s">
+      <c r="I556" s="22" t="s">
         <v>294</v>
-      </c>
-      <c r="E556" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F556" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="G556" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H556" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="I556" s="22" t="s">
-        <v>299</v>
       </c>
       <c r="J556" s="22"/>
       <c r="K556" s="22"/>
@@ -50856,14 +50855,14 @@
     </row>
     <row r="561" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A561" s="41" t="s">
-        <v>582</v>
+        <v>515</v>
       </c>
       <c r="B561" s="45"/>
       <c r="E561" s="47"/>
     </row>
     <row r="562" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="16" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="B562" s="21"/>
       <c r="C562" s="4"/>
@@ -50901,7 +50900,7 @@
         <v>1</v>
       </c>
       <c r="B563" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
@@ -50936,7 +50935,7 @@
     <row r="564" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="3"/>
       <c r="B564" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
@@ -51071,7 +51070,7 @@
     </row>
     <row r="569" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="16" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="B569" s="21"/>
       <c r="C569" s="23"/>
@@ -51109,19 +51108,19 @@
         <v>1</v>
       </c>
       <c r="B570" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="C570" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="D570" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="E570" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="F570" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="G570" s="22"/>
       <c r="H570" s="22"/>
@@ -51130,19 +51129,19 @@
     <row r="571" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="3"/>
       <c r="B571" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E571" s="22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F571" s="22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G571" s="2"/>
       <c r="H571" s="2"/>
@@ -51254,7 +51253,7 @@
     </row>
     <row r="576" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="45" t="s">
-        <v>583</v>
+        <v>516</v>
       </c>
       <c r="B576" s="46"/>
       <c r="C576" s="46"/>
@@ -51268,7 +51267,7 @@
     </row>
     <row r="577" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="16" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="B577" s="21"/>
       <c r="C577" s="23"/>
@@ -51285,13 +51284,13 @@
         <v>1</v>
       </c>
       <c r="B578" s="20" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="C578" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="D578" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="E578" s="22"/>
       <c r="F578" s="22"/>
@@ -51303,13 +51302,13 @@
     <row r="579" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="3"/>
       <c r="B579" s="4" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D579" s="4" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="E579" s="22"/>
       <c r="F579" s="22"/>
@@ -51418,19 +51417,19 @@
         <v>1</v>
       </c>
       <c r="B584" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C584" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D584" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C584" s="20" t="s">
+      <c r="E584" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D584" s="20" t="s">
+      <c r="F584" s="20" t="s">
         <v>149</v>
-      </c>
-      <c r="E584" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F584" s="20" t="s">
-        <v>151</v>
       </c>
       <c r="G584" s="22"/>
       <c r="H584" s="22"/>
@@ -51439,19 +51438,19 @@
     <row r="585" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="3"/>
       <c r="B585" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D585" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E585" s="22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F585" s="22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G585" s="2"/>
       <c r="H585" s="2"/>
@@ -51532,7 +51531,7 @@
     </row>
     <row r="589" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="16" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="B589" s="21"/>
       <c r="C589" s="23"/>
@@ -51549,13 +51548,13 @@
         <v>1</v>
       </c>
       <c r="B590" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C590" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D590" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E590" s="22"/>
       <c r="F590" s="22"/>
@@ -51567,13 +51566,13 @@
     <row r="591" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="3"/>
       <c r="B591" s="4" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="E591" s="22"/>
       <c r="F591" s="22"/>
@@ -51663,12 +51662,12 @@
     </row>
     <row r="598" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A598" s="41" t="s">
-        <v>606</v>
+        <v>539</v>
       </c>
     </row>
     <row r="599" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="16" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="B599" s="21"/>
       <c r="C599" s="23"/>
@@ -51706,19 +51705,19 @@
         <v>1</v>
       </c>
       <c r="B600" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="C600" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
     </row>
     <row r="601" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A601" s="3"/>
       <c r="B601" s="4" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="E601" s="4"/>
     </row>
@@ -51765,17 +51764,17 @@
     </row>
     <row r="609" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A609" s="49" t="s">
-        <v>562</v>
+        <v>495</v>
       </c>
     </row>
     <row r="610" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A610" s="41" t="s">
-        <v>584</v>
+        <v>517</v>
       </c>
     </row>
     <row r="611" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B611" s="17"/>
       <c r="C611" s="18"/>
@@ -51791,16 +51790,16 @@
         <v>1</v>
       </c>
       <c r="B612" t="s">
-        <v>537</v>
+        <v>846</v>
       </c>
       <c r="C612" t="s">
-        <v>538</v>
+        <v>847</v>
       </c>
       <c r="D612" t="s">
-        <v>524</v>
+        <v>848</v>
       </c>
       <c r="E612" t="s">
-        <v>512</v>
+        <v>849</v>
       </c>
     </row>
     <row r="613" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -51882,7 +51881,7 @@
     </row>
     <row r="617" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="16" t="s">
-        <v>565</v>
+        <v>498</v>
       </c>
       <c r="B617" s="17"/>
       <c r="C617" s="18"/>
@@ -51898,16 +51897,16 @@
         <v>1</v>
       </c>
       <c r="B618" t="s">
-        <v>549</v>
+        <v>850</v>
       </c>
       <c r="C618" t="s">
-        <v>539</v>
+        <v>851</v>
       </c>
       <c r="D618" t="s">
-        <v>525</v>
+        <v>852</v>
       </c>
       <c r="E618" t="s">
-        <v>513</v>
+        <v>853</v>
       </c>
     </row>
     <row r="619" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -51989,12 +51988,12 @@
     </row>
     <row r="623" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A623" s="41" t="s">
-        <v>585</v>
+        <v>518</v>
       </c>
     </row>
     <row r="624" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="16" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B624" s="17"/>
       <c r="C624" s="18"/>
@@ -52010,16 +52009,16 @@
         <v>1</v>
       </c>
       <c r="B625" t="s">
-        <v>550</v>
+        <v>854</v>
       </c>
       <c r="C625" t="s">
-        <v>540</v>
+        <v>855</v>
       </c>
       <c r="D625" t="s">
-        <v>526</v>
+        <v>856</v>
       </c>
       <c r="E625" t="s">
-        <v>514</v>
+        <v>857</v>
       </c>
     </row>
     <row r="626" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52101,7 +52100,7 @@
     </row>
     <row r="630" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="16" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B630" s="17"/>
       <c r="C630" s="18"/>
@@ -52117,16 +52116,16 @@
         <v>1</v>
       </c>
       <c r="B631" t="s">
-        <v>551</v>
+        <v>893</v>
       </c>
       <c r="C631" t="s">
-        <v>541</v>
+        <v>894</v>
       </c>
       <c r="D631" t="s">
-        <v>527</v>
+        <v>895</v>
       </c>
       <c r="E631" t="s">
-        <v>515</v>
+        <v>896</v>
       </c>
     </row>
     <row r="632" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52208,12 +52207,12 @@
     </row>
     <row r="636" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A636" s="41" t="s">
-        <v>586</v>
+        <v>519</v>
       </c>
     </row>
     <row r="637" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="16" t="s">
-        <v>566</v>
+        <v>499</v>
       </c>
       <c r="B637" s="17"/>
       <c r="C637" s="18"/>
@@ -52229,16 +52228,16 @@
         <v>1</v>
       </c>
       <c r="B638" t="s">
-        <v>552</v>
+        <v>858</v>
       </c>
       <c r="C638" t="s">
-        <v>542</v>
+        <v>859</v>
       </c>
       <c r="D638" t="s">
-        <v>528</v>
+        <v>860</v>
       </c>
       <c r="E638" t="s">
-        <v>516</v>
+        <v>861</v>
       </c>
     </row>
     <row r="639" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52320,7 +52319,7 @@
     </row>
     <row r="643" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B643" s="17"/>
       <c r="C643" s="18"/>
@@ -52336,16 +52335,16 @@
         <v>1</v>
       </c>
       <c r="B644" t="s">
-        <v>552</v>
+        <v>897</v>
       </c>
       <c r="C644" t="s">
-        <v>542</v>
+        <v>898</v>
       </c>
       <c r="D644" t="s">
-        <v>528</v>
+        <v>899</v>
       </c>
       <c r="E644" t="s">
-        <v>516</v>
+        <v>900</v>
       </c>
     </row>
     <row r="645" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52427,12 +52426,12 @@
     </row>
     <row r="649" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A649" s="41" t="s">
-        <v>587</v>
+        <v>520</v>
       </c>
     </row>
     <row r="650" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="16" t="s">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="B650" s="17"/>
       <c r="C650" s="18"/>
@@ -52448,16 +52447,16 @@
         <v>1</v>
       </c>
       <c r="B651" t="s">
-        <v>553</v>
+        <v>862</v>
       </c>
       <c r="C651" t="s">
-        <v>543</v>
+        <v>863</v>
       </c>
       <c r="D651" t="s">
-        <v>529</v>
+        <v>864</v>
       </c>
       <c r="E651" t="s">
-        <v>517</v>
+        <v>865</v>
       </c>
     </row>
     <row r="652" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52539,12 +52538,12 @@
     </row>
     <row r="656" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A656" s="41" t="s">
-        <v>588</v>
+        <v>521</v>
       </c>
     </row>
     <row r="657" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="16" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B657" s="17"/>
       <c r="C657" s="18"/>
@@ -52560,16 +52559,16 @@
         <v>1</v>
       </c>
       <c r="B658" t="s">
-        <v>555</v>
+        <v>866</v>
       </c>
       <c r="C658" t="s">
-        <v>545</v>
+        <v>867</v>
       </c>
       <c r="D658" t="s">
-        <v>531</v>
+        <v>868</v>
       </c>
       <c r="E658" t="s">
-        <v>519</v>
+        <v>869</v>
       </c>
     </row>
     <row r="659" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52651,7 +52650,7 @@
     </row>
     <row r="663" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="16" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="B663" s="17"/>
       <c r="C663" s="18"/>
@@ -52667,16 +52666,16 @@
         <v>1</v>
       </c>
       <c r="B664" t="s">
-        <v>554</v>
+        <v>870</v>
       </c>
       <c r="C664" t="s">
-        <v>544</v>
+        <v>871</v>
       </c>
       <c r="D664" t="s">
-        <v>530</v>
+        <v>872</v>
       </c>
       <c r="E664" t="s">
-        <v>518</v>
+        <v>873</v>
       </c>
     </row>
     <row r="665" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52758,12 +52757,12 @@
     </row>
     <row r="669" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A669" s="41" t="s">
-        <v>590</v>
+        <v>523</v>
       </c>
     </row>
     <row r="670" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="16" t="s">
-        <v>568</v>
+        <v>501</v>
       </c>
       <c r="B670" s="17"/>
       <c r="C670" s="18"/>
@@ -52779,16 +52778,16 @@
         <v>1</v>
       </c>
       <c r="B671" t="s">
-        <v>556</v>
+        <v>874</v>
       </c>
       <c r="C671" t="s">
-        <v>546</v>
+        <v>875</v>
       </c>
       <c r="D671" t="s">
-        <v>532</v>
+        <v>876</v>
       </c>
       <c r="E671" t="s">
-        <v>520</v>
+        <v>877</v>
       </c>
     </row>
     <row r="672" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52870,7 +52869,7 @@
     </row>
     <row r="676" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="16" t="s">
-        <v>569</v>
+        <v>502</v>
       </c>
       <c r="B676" s="17"/>
       <c r="C676" s="18"/>
@@ -52886,16 +52885,16 @@
         <v>1</v>
       </c>
       <c r="B677" t="s">
-        <v>557</v>
+        <v>878</v>
       </c>
       <c r="C677" t="s">
-        <v>547</v>
+        <v>879</v>
       </c>
       <c r="D677" t="s">
-        <v>533</v>
+        <v>880</v>
       </c>
       <c r="E677" t="s">
-        <v>521</v>
+        <v>881</v>
       </c>
     </row>
     <row r="678" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52977,7 +52976,7 @@
     </row>
     <row r="682" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="16" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B682" s="17"/>
       <c r="C682" s="18"/>
@@ -52993,30 +52992,24 @@
         <v>1</v>
       </c>
       <c r="B683" t="s">
-        <v>558</v>
+        <v>882</v>
       </c>
       <c r="C683" t="s">
-        <v>548</v>
+        <v>883</v>
       </c>
       <c r="D683" t="s">
-        <v>534</v>
-      </c>
-      <c r="E683" t="s">
-        <v>522</v>
+        <v>884</v>
       </c>
     </row>
     <row r="684" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="19"/>
       <c r="B684">
-        <v>2012</v>
-      </c>
-      <c r="C684">
         <v>2016</v>
       </c>
+      <c r="C684" s="1">
+        <v>2020</v>
+      </c>
       <c r="D684" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E684" s="1">
         <v>2022</v>
       </c>
       <c r="F684" s="1"/>
@@ -53043,10 +53036,6 @@
         <f>IF(VLOOKUP($B$10,'Data R trends'!$1:$9999,MATCH(D683,'Data R trends'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$10,'Data R trends'!$1:$9999,MATCH(D683,'Data R trends'!$1:$1,),FALSE),"-"))</f>
         <v>#N/A</v>
       </c>
-      <c r="E685" s="5" t="e">
-        <f>IF(VLOOKUP($B$10,'Data R trends'!$1:$9999,MATCH(E683,'Data R trends'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$10,'Data R trends'!$1:$9999,MATCH(E683,'Data R trends'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
       <c r="F685" s="5"/>
       <c r="G685" s="5"/>
       <c r="H685" s="5"/>
@@ -53071,10 +53060,6 @@
         <f>IF(VLOOKUP($B$11,'Data R trends'!$1:$9999,MATCH(D683,'Data R trends'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$11,'Data R trends'!$1:$9999,MATCH(D683,'Data R trends'!$1:$1,),FALSE),"-"))</f>
         <v>#N/A</v>
       </c>
-      <c r="E686" s="5" t="e">
-        <f>IF(VLOOKUP($B$11,'Data R trends'!$1:$9999,MATCH(E683,'Data R trends'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$11,'Data R trends'!$1:$9999,MATCH(E683,'Data R trends'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
       <c r="F686" s="5"/>
       <c r="G686" s="5"/>
       <c r="H686" s="5"/>
@@ -53084,12 +53069,12 @@
     </row>
     <row r="688" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A688" s="41" t="s">
-        <v>589</v>
+        <v>522</v>
       </c>
     </row>
     <row r="689" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="16" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="B689" s="17"/>
       <c r="C689" s="18"/>
@@ -53105,16 +53090,16 @@
         <v>1</v>
       </c>
       <c r="B690" t="s">
-        <v>559</v>
+        <v>885</v>
       </c>
       <c r="C690" t="s">
-        <v>536</v>
+        <v>886</v>
       </c>
       <c r="D690" t="s">
-        <v>535</v>
+        <v>887</v>
       </c>
       <c r="E690" t="s">
-        <v>523</v>
+        <v>888</v>
       </c>
     </row>
     <row r="691" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -53257,98 +53242,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G198" workbookViewId="0">
-      <selection activeCell="M160" sqref="M160"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K184" sqref="K184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>575</v>
+        <v>508</v>
       </c>
       <c r="B1" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="B23" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="B43" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="B62" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="B82" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="B102" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="B122" t="s">
-        <v>570</v>
+        <v>503</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="B140" t="s">
-        <v>571</v>
+        <v>504</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="B159" t="s">
-        <v>572</v>
+        <v>505</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="B178" t="s">
-        <v>573</v>
+        <v>506</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="B197" t="s">
-        <v>574</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -53362,8 +53347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DA447F-6B7F-45F8-94A4-FAECCB6EDF2E}">
   <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -53375,25 +53360,25 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>616</v>
+        <v>549</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>615</v>
+        <v>548</v>
       </c>
       <c r="C1" t="s">
-        <v>614</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>613</v>
+        <v>546</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'Input figuren'!$B$2</f>
         <v>'s-Gravenhage</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>860</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -53402,7 +53387,7 @@
         <v>GGD Limburg-Noord</v>
       </c>
       <c r="C3" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -53412,7 +53397,7 @@
     </row>
     <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B5" s="62" t="s">
-        <v>856</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -53420,19 +53405,19 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>859</v>
+        <v>792</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>617</v>
+        <v>550</v>
       </c>
       <c r="B7" s="58" t="e">
         <f>'Input figuren'!B174</f>
         <v>#N/A</v>
       </c>
       <c r="C7" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -53441,7 +53426,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C8" t="s">
-        <v>621</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -53450,7 +53435,7 @@
         <v>#N/A</v>
       </c>
       <c r="C9" t="s">
-        <v>622</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -53459,7 +53444,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C10" t="s">
-        <v>623</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -53468,7 +53453,7 @@
         <v>#N/A</v>
       </c>
       <c r="C11" t="s">
-        <v>624</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -53477,25 +53462,25 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>861</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B13" s="62" t="s">
-        <v>858</v>
+        <v>791</v>
       </c>
       <c r="C13" s="52"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>618</v>
+        <v>551</v>
       </c>
       <c r="B14" s="57" t="str">
         <f>'Input figuren'!$M$25</f>
         <v>Geen waarde bekend</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>625</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -53504,7 +53489,7 @@
         <v>#N/A</v>
       </c>
       <c r="C15" t="s">
-        <v>626</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -53513,7 +53498,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C16" t="s">
-        <v>629</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -53522,7 +53507,7 @@
         <v>#N/A</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>627</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -53531,7 +53516,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C18" t="s">
-        <v>630</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -53540,19 +53525,19 @@
         <v>#N/A</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>628</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>631</v>
+        <v>564</v>
       </c>
       <c r="B20" s="58" t="e">
         <f>'Input figuren'!B217</f>
         <v>#N/A</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>636</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -53561,7 +53546,7 @@
         <v>#N/A</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>637</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -53570,7 +53555,7 @@
         <v>#N/A</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>638</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -53579,7 +53564,7 @@
         <v/>
       </c>
       <c r="C23" t="s">
-        <v>632</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -53588,7 +53573,7 @@
         <v>-</v>
       </c>
       <c r="C24" t="s">
-        <v>881</v>
+        <v>814</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -53597,7 +53582,7 @@
         <v/>
       </c>
       <c r="C25" t="s">
-        <v>633</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -53606,7 +53591,7 @@
         <v>-</v>
       </c>
       <c r="C26" t="s">
-        <v>882</v>
+        <v>815</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -53615,7 +53600,7 @@
         <v/>
       </c>
       <c r="C27" s="52" t="s">
-        <v>634</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -53624,19 +53609,19 @@
         <v>-</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>883</v>
+        <v>816</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>635</v>
+        <v>568</v>
       </c>
       <c r="B29" s="58" t="e">
         <f>'Input figuren'!B203</f>
         <v>#N/A</v>
       </c>
       <c r="C29" t="s">
-        <v>640</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -53645,25 +53630,25 @@
         <v>#N/A</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>641</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B31" s="64" t="s">
-        <v>863</v>
+        <v>796</v>
       </c>
       <c r="C31" s="52"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>642</v>
+        <v>575</v>
       </c>
       <c r="B32" s="57" t="str">
         <f>'Input figuren'!B247</f>
         <v/>
       </c>
       <c r="C32" t="s">
-        <v>643</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -53672,7 +53657,7 @@
         <v>-</v>
       </c>
       <c r="C33" t="s">
-        <v>884</v>
+        <v>817</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -53681,7 +53666,7 @@
         <v/>
       </c>
       <c r="C34" s="52" t="s">
-        <v>644</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -53690,7 +53675,7 @@
         <v>-</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>885</v>
+        <v>818</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -53699,7 +53684,7 @@
         <v/>
       </c>
       <c r="C36" s="52" t="s">
-        <v>645</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -53708,7 +53693,7 @@
         <v>-</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>886</v>
+        <v>819</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -53717,7 +53702,7 @@
         <v/>
       </c>
       <c r="C38" s="52" t="s">
-        <v>646</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -53726,7 +53711,7 @@
         <v>-</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>887</v>
+        <v>820</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -53735,7 +53720,7 @@
         <v/>
       </c>
       <c r="C40" s="52" t="s">
-        <v>647</v>
+        <v>580</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -53744,7 +53729,7 @@
         <v>-</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>888</v>
+        <v>821</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -53753,7 +53738,7 @@
         <v/>
       </c>
       <c r="C42" s="52" t="s">
-        <v>648</v>
+        <v>581</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -53762,19 +53747,19 @@
         <v>-</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>889</v>
+        <v>822</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="B44" s="58" t="e">
         <f>'Input figuren'!B267</f>
         <v>#N/A</v>
       </c>
       <c r="C44" t="s">
-        <v>650</v>
+        <v>583</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -53783,7 +53768,7 @@
         <v>#N/A</v>
       </c>
       <c r="C45" t="s">
-        <v>651</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -53792,7 +53777,7 @@
         <v>#N/A</v>
       </c>
       <c r="C46" t="s">
-        <v>652</v>
+        <v>585</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -53801,7 +53786,7 @@
         <v>#N/A</v>
       </c>
       <c r="C47" t="s">
-        <v>653</v>
+        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -53810,7 +53795,7 @@
         <v>#N/A</v>
       </c>
       <c r="C48" t="s">
-        <v>654</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -53819,7 +53804,7 @@
         <v/>
       </c>
       <c r="C49" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -53828,7 +53813,7 @@
         <v>-</v>
       </c>
       <c r="C50" t="s">
-        <v>890</v>
+        <v>823</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -53837,7 +53822,7 @@
         <v/>
       </c>
       <c r="C51" s="52" t="s">
-        <v>656</v>
+        <v>589</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -53846,7 +53831,7 @@
         <v>-</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>891</v>
+        <v>824</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -53855,7 +53840,7 @@
         <v/>
       </c>
       <c r="C53" s="52" t="s">
-        <v>657</v>
+        <v>590</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -53864,7 +53849,7 @@
         <v>-</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>892</v>
+        <v>825</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -53873,19 +53858,19 @@
         <v>#N/A</v>
       </c>
       <c r="C55" t="s">
-        <v>658</v>
+        <v>591</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>659</v>
+        <v>592</v>
       </c>
       <c r="B56" s="58" t="e">
         <f>'Input figuren'!B309</f>
         <v>#N/A</v>
       </c>
       <c r="C56" t="s">
-        <v>713</v>
+        <v>646</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -53894,7 +53879,7 @@
         <v>#N/A</v>
       </c>
       <c r="C57" t="s">
-        <v>714</v>
+        <v>647</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -53903,7 +53888,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C58" t="s">
-        <v>715</v>
+        <v>648</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -53912,7 +53897,7 @@
         <v>#N/A</v>
       </c>
       <c r="C59" t="s">
-        <v>716</v>
+        <v>649</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -53921,7 +53906,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C60" t="s">
-        <v>717</v>
+        <v>650</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -53930,7 +53915,7 @@
         <v>#N/A</v>
       </c>
       <c r="C61" t="s">
-        <v>718</v>
+        <v>651</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -53939,7 +53924,7 @@
         <v>#N/A</v>
       </c>
       <c r="C62" t="s">
-        <v>719</v>
+        <v>652</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -53948,7 +53933,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C63" t="s">
-        <v>720</v>
+        <v>653</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -53957,7 +53942,7 @@
         <v>#N/A</v>
       </c>
       <c r="C64" t="s">
-        <v>721</v>
+        <v>654</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -53966,7 +53951,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C65" t="s">
-        <v>722</v>
+        <v>655</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -53975,19 +53960,19 @@
         <v>#N/A</v>
       </c>
       <c r="C66" t="s">
-        <v>723</v>
+        <v>656</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B67" s="58" t="e">
         <f>'Input figuren'!B338</f>
         <v>#N/A</v>
       </c>
       <c r="C67" t="s">
-        <v>724</v>
+        <v>657</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -53996,7 +53981,7 @@
         <v>#N/A</v>
       </c>
       <c r="C68" t="s">
-        <v>725</v>
+        <v>658</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -54005,7 +53990,7 @@
         <v>#N/A</v>
       </c>
       <c r="C69" t="s">
-        <v>726</v>
+        <v>659</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -54014,7 +53999,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C70" t="s">
-        <v>730</v>
+        <v>663</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -54023,7 +54008,7 @@
         <v>#N/A</v>
       </c>
       <c r="C71" t="s">
-        <v>731</v>
+        <v>664</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -54032,7 +54017,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C72" t="s">
-        <v>732</v>
+        <v>665</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -54041,12 +54026,12 @@
         <v>#N/A</v>
       </c>
       <c r="C73" t="s">
-        <v>733</v>
+        <v>666</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B74" s="62" t="s">
-        <v>864</v>
+        <v>797</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -54055,19 +54040,19 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>865</v>
+        <v>798</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>727</v>
+        <v>660</v>
       </c>
       <c r="B76" s="58" t="e">
         <f>'Input figuren'!B359</f>
         <v>#N/A</v>
       </c>
       <c r="C76" t="s">
-        <v>734</v>
+        <v>667</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -54076,7 +54061,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C77" t="s">
-        <v>735</v>
+        <v>668</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -54085,7 +54070,7 @@
         <v>#N/A</v>
       </c>
       <c r="C78" t="s">
-        <v>736</v>
+        <v>669</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -54094,7 +54079,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C79" t="s">
-        <v>737</v>
+        <v>670</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -54103,12 +54088,12 @@
         <v>#N/A</v>
       </c>
       <c r="C80" t="s">
-        <v>738</v>
+        <v>671</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B81" s="64" t="s">
-        <v>866</v>
+        <v>799</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -54117,19 +54102,19 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C82" t="s">
-        <v>739</v>
+        <v>672</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>728</v>
+        <v>661</v>
       </c>
       <c r="B83" s="58" t="e">
         <f>'Input figuren'!B366</f>
         <v>#N/A</v>
       </c>
       <c r="C83" t="s">
-        <v>740</v>
+        <v>673</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -54138,7 +54123,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>741</v>
+        <v>674</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -54147,7 +54132,7 @@
         <v>#N/A</v>
       </c>
       <c r="C85" t="s">
-        <v>742</v>
+        <v>675</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -54156,7 +54141,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C86" t="s">
-        <v>743</v>
+        <v>676</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -54165,19 +54150,19 @@
         <v>#N/A</v>
       </c>
       <c r="C87" t="s">
-        <v>744</v>
+        <v>677</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>745</v>
+        <v>678</v>
       </c>
       <c r="B88" s="58" t="e">
         <f>'Input figuren'!B387</f>
         <v>#N/A</v>
       </c>
       <c r="C88" t="s">
-        <v>747</v>
+        <v>680</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -54186,7 +54171,7 @@
         <v>#N/A</v>
       </c>
       <c r="C89" t="s">
-        <v>748</v>
+        <v>681</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -54195,19 +54180,19 @@
         <v>#N/A</v>
       </c>
       <c r="C90" t="s">
-        <v>749</v>
+        <v>682</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>746</v>
+        <v>679</v>
       </c>
       <c r="B91" s="58" t="e">
         <f>'Input figuren'!B408</f>
         <v>#N/A</v>
       </c>
       <c r="C91" t="s">
-        <v>750</v>
+        <v>683</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -54216,24 +54201,24 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C92" t="s">
-        <v>751</v>
+        <v>684</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B93" s="57" t="s">
-        <v>867</v>
+        <v>800</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>752</v>
+        <v>685</v>
       </c>
       <c r="B94" s="58" t="e">
         <f>'Input figuren'!B429</f>
         <v>#N/A</v>
       </c>
       <c r="C94" t="s">
-        <v>755</v>
+        <v>688</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -54242,7 +54227,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C95" t="s">
-        <v>756</v>
+        <v>689</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -54251,7 +54236,7 @@
         <v>#N/A</v>
       </c>
       <c r="C96" s="51" t="s">
-        <v>757</v>
+        <v>690</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -54260,7 +54245,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C97" t="s">
-        <v>758</v>
+        <v>691</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -54269,24 +54254,24 @@
         <v>#N/A</v>
       </c>
       <c r="C98" s="51" t="s">
-        <v>759</v>
+        <v>692</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B99" s="62" t="s">
-        <v>868</v>
+        <v>801</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>753</v>
+        <v>686</v>
       </c>
       <c r="B100" s="58" t="e">
         <f>'Input figuren'!B436</f>
         <v>#N/A</v>
       </c>
       <c r="C100" s="51" t="s">
-        <v>760</v>
+        <v>693</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -54295,7 +54280,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C101" t="s">
-        <v>761</v>
+        <v>694</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -54304,7 +54289,7 @@
         <v>#N/A</v>
       </c>
       <c r="C102" s="51" t="s">
-        <v>762</v>
+        <v>695</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -54313,7 +54298,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C103" t="s">
-        <v>763</v>
+        <v>696</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -54322,7 +54307,7 @@
         <v>#N/A</v>
       </c>
       <c r="C104" s="51" t="s">
-        <v>764</v>
+        <v>697</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -54331,24 +54316,24 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C105" t="s">
-        <v>765</v>
+        <v>698</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>754</v>
+        <v>687</v>
       </c>
       <c r="B106" s="58" t="e">
         <f>'Input figuren'!B443</f>
         <v>#N/A</v>
       </c>
       <c r="C106" s="51" t="s">
-        <v>766</v>
+        <v>699</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B107" s="64" t="s">
-        <v>869</v>
+        <v>802</v>
       </c>
       <c r="C107" s="51"/>
     </row>
@@ -54361,7 +54346,7 @@
         <v>#N/A</v>
       </c>
       <c r="C108" t="s">
-        <v>779</v>
+        <v>712</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -54370,7 +54355,7 @@
         <v>#N/A</v>
       </c>
       <c r="C109" t="s">
-        <v>780</v>
+        <v>713</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -54379,7 +54364,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C110" t="s">
-        <v>781</v>
+        <v>714</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -54388,7 +54373,7 @@
         <v>#N/A</v>
       </c>
       <c r="C111" t="s">
-        <v>782</v>
+        <v>715</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -54397,7 +54382,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C112" t="s">
-        <v>783</v>
+        <v>716</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -54406,7 +54391,7 @@
         <v>#N/A</v>
       </c>
       <c r="C113" t="s">
-        <v>784</v>
+        <v>717</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -54415,7 +54400,7 @@
         <v/>
       </c>
       <c r="C114" t="s">
-        <v>785</v>
+        <v>718</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -54424,7 +54409,7 @@
         <v>-</v>
       </c>
       <c r="C115" t="s">
-        <v>893</v>
+        <v>826</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -54433,7 +54418,7 @@
         <v/>
       </c>
       <c r="C116" t="s">
-        <v>786</v>
+        <v>719</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -54442,7 +54427,7 @@
         <v>-</v>
       </c>
       <c r="C117" t="s">
-        <v>894</v>
+        <v>827</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -54451,7 +54436,7 @@
         <v/>
       </c>
       <c r="C118" t="s">
-        <v>787</v>
+        <v>720</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -54460,7 +54445,7 @@
         <v>-</v>
       </c>
       <c r="C119" t="s">
-        <v>895</v>
+        <v>828</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -54469,7 +54454,7 @@
         <v/>
       </c>
       <c r="C120" t="s">
-        <v>788</v>
+        <v>721</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -54478,7 +54463,7 @@
         <v>-</v>
       </c>
       <c r="C121" t="s">
-        <v>896</v>
+        <v>829</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -54487,7 +54472,7 @@
         <v/>
       </c>
       <c r="C122" t="s">
-        <v>789</v>
+        <v>722</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -54496,24 +54481,24 @@
         <v>-</v>
       </c>
       <c r="C123" t="s">
-        <v>897</v>
+        <v>830</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B124" s="60" t="s">
-        <v>870</v>
+        <v>803</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>778</v>
+        <v>711</v>
       </c>
       <c r="B125" s="58" t="e">
         <f>'Input figuren'!B485</f>
         <v>#N/A</v>
       </c>
       <c r="C125" t="s">
-        <v>790</v>
+        <v>723</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -54522,7 +54507,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C126" t="s">
-        <v>791</v>
+        <v>724</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -54531,7 +54516,7 @@
         <v>#N/A</v>
       </c>
       <c r="C127" t="s">
-        <v>792</v>
+        <v>725</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -54540,7 +54525,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C128" t="s">
-        <v>793</v>
+        <v>726</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -54549,7 +54534,7 @@
         <v>#N/A</v>
       </c>
       <c r="C129" t="s">
-        <v>794</v>
+        <v>727</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -54558,7 +54543,7 @@
         <v>#N/A</v>
       </c>
       <c r="C130" t="s">
-        <v>795</v>
+        <v>728</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -54567,7 +54552,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C131" t="s">
-        <v>796</v>
+        <v>729</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -54576,7 +54561,7 @@
         <v>#N/A</v>
       </c>
       <c r="C132" t="s">
-        <v>797</v>
+        <v>730</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -54585,7 +54570,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C133" t="s">
-        <v>798</v>
+        <v>731</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -54594,19 +54579,19 @@
         <v>#N/A</v>
       </c>
       <c r="C134" t="s">
-        <v>799</v>
+        <v>732</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="B135" s="58" t="e">
         <f>'Input figuren'!B507</f>
         <v>#N/A</v>
       </c>
       <c r="C135" t="s">
-        <v>802</v>
+        <v>735</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -54615,7 +54600,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C136" t="s">
-        <v>803</v>
+        <v>736</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -54624,7 +54609,7 @@
         <v>#N/A</v>
       </c>
       <c r="C137" t="s">
-        <v>804</v>
+        <v>737</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -54633,7 +54618,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C138" t="s">
-        <v>805</v>
+        <v>738</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -54642,12 +54627,12 @@
         <v>#N/A</v>
       </c>
       <c r="C139" t="s">
-        <v>806</v>
+        <v>739</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B140" s="64" t="s">
-        <v>872</v>
+        <v>805</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -54656,7 +54641,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C141" t="s">
-        <v>807</v>
+        <v>740</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -54665,7 +54650,7 @@
         <v>#N/A</v>
       </c>
       <c r="C142" t="s">
-        <v>808</v>
+        <v>741</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -54674,19 +54659,19 @@
         <v>#N/A</v>
       </c>
       <c r="C143" t="s">
-        <v>809</v>
+        <v>742</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>801</v>
+        <v>734</v>
       </c>
       <c r="B144" s="58" t="e">
         <f>'Input figuren'!B535</f>
         <v>#N/A</v>
       </c>
       <c r="C144" t="s">
-        <v>810</v>
+        <v>743</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -54695,7 +54680,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C145" t="s">
-        <v>811</v>
+        <v>744</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -54704,7 +54689,7 @@
         <v>#N/A</v>
       </c>
       <c r="C146" t="s">
-        <v>812</v>
+        <v>745</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -54713,7 +54698,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C147" t="s">
-        <v>813</v>
+        <v>746</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -54722,24 +54707,24 @@
         <v>#N/A</v>
       </c>
       <c r="C148" t="s">
-        <v>814</v>
+        <v>747</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B149" s="64" t="s">
-        <v>873</v>
+        <v>806</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="B150" s="58" t="e">
         <f>'Input figuren'!B543</f>
         <v>#N/A</v>
       </c>
       <c r="C150" t="s">
-        <v>816</v>
+        <v>749</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -54748,7 +54733,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C151" t="s">
-        <v>817</v>
+        <v>750</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -54757,7 +54742,7 @@
         <v>#N/A</v>
       </c>
       <c r="C152" t="s">
-        <v>818</v>
+        <v>751</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -54766,7 +54751,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C153" t="s">
-        <v>819</v>
+        <v>752</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -54775,12 +54760,12 @@
         <v>#N/A</v>
       </c>
       <c r="C154" t="s">
-        <v>820</v>
+        <v>753</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B155" s="64" t="s">
-        <v>874</v>
+        <v>807</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -54789,19 +54774,19 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C156" t="s">
-        <v>821</v>
+        <v>754</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>815</v>
+        <v>748</v>
       </c>
       <c r="B157" s="58" t="e">
         <f>'Input figuren'!B550</f>
         <v>#N/A</v>
       </c>
       <c r="C157" t="s">
-        <v>822</v>
+        <v>755</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -54810,7 +54795,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C158" t="s">
-        <v>823</v>
+        <v>756</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -54819,7 +54804,7 @@
         <v>#N/A</v>
       </c>
       <c r="C159" t="s">
-        <v>824</v>
+        <v>757</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -54828,7 +54813,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C160" t="s">
-        <v>825</v>
+        <v>758</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -54837,24 +54822,24 @@
         <v>#N/A</v>
       </c>
       <c r="C161" t="s">
-        <v>826</v>
+        <v>759</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B162" s="64" t="s">
-        <v>875</v>
+        <v>808</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B163" s="58" t="e">
         <f>'Input figuren'!B557</f>
         <v>#N/A</v>
       </c>
       <c r="C163" t="s">
-        <v>827</v>
+        <v>760</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -54863,7 +54848,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C164" t="s">
-        <v>828</v>
+        <v>761</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -54872,7 +54857,7 @@
         <v>#N/A</v>
       </c>
       <c r="C165" t="s">
-        <v>829</v>
+        <v>762</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -54881,7 +54866,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C166" t="s">
-        <v>830</v>
+        <v>763</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -54890,29 +54875,29 @@
         <v>#N/A</v>
       </c>
       <c r="C167" t="s">
-        <v>831</v>
+        <v>764</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="27" x14ac:dyDescent="0.3">
-      <c r="B168" s="58" t="s">
-        <v>876</v>
+      <c r="B168" s="64" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B169" s="58" t="s">
-        <v>877</v>
+      <c r="B169" s="64" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="B170" s="58" t="e">
         <f>'Input figuren'!B565</f>
         <v>#N/A</v>
       </c>
       <c r="C170" t="s">
-        <v>832</v>
+        <v>765</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -54921,7 +54906,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C171" t="s">
-        <v>833</v>
+        <v>766</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -54930,7 +54915,7 @@
         <v>#N/A</v>
       </c>
       <c r="C172" t="s">
-        <v>834</v>
+        <v>767</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -54939,7 +54924,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C173" t="s">
-        <v>835</v>
+        <v>768</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -54948,7 +54933,7 @@
         <v>#N/A</v>
       </c>
       <c r="C174" t="s">
-        <v>836</v>
+        <v>769</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -54957,19 +54942,19 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C175" t="s">
-        <v>837</v>
+        <v>770</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="B176" s="58" t="e">
         <f>'Input figuren'!B572</f>
         <v>#N/A</v>
       </c>
       <c r="C176" t="s">
-        <v>838</v>
+        <v>771</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -54978,7 +54963,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C177" t="s">
-        <v>839</v>
+        <v>772</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -54987,7 +54972,7 @@
         <v>#N/A</v>
       </c>
       <c r="C178" t="s">
-        <v>840</v>
+        <v>773</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -54996,7 +54981,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C179" t="s">
-        <v>841</v>
+        <v>774</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -55005,7 +54990,7 @@
         <v>#N/A</v>
       </c>
       <c r="C180" t="s">
-        <v>842</v>
+        <v>775</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -55014,24 +54999,24 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C181" t="s">
-        <v>837</v>
+        <v>770</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B182" s="62" t="s">
-        <v>878</v>
+        <v>811</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>843</v>
+        <v>776</v>
       </c>
       <c r="B183" s="59" t="e">
         <f>'Input figuren'!C602</f>
         <v>#N/A</v>
       </c>
       <c r="C183" t="s">
-        <v>845</v>
+        <v>778</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -55040,15 +55025,15 @@
         <v>#N/A</v>
       </c>
       <c r="C184" t="s">
-        <v>846</v>
+        <v>779</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="B185" s="64" t="s">
-        <v>879</v>
+        <v>812</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -55056,19 +55041,19 @@
         <v>4</v>
       </c>
       <c r="B186" s="64" t="s">
-        <v>880</v>
+        <v>813</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>844</v>
+        <v>777</v>
       </c>
       <c r="B187" s="58" t="e">
         <f>'Input figuren'!B592</f>
         <v>#N/A</v>
       </c>
       <c r="C187" t="s">
-        <v>847</v>
+        <v>780</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -55077,7 +55062,7 @@
         <v>#N/A</v>
       </c>
       <c r="C188" t="s">
-        <v>848</v>
+        <v>781</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -55086,220 +55071,220 @@
         <v>#N/A</v>
       </c>
       <c r="C189" t="s">
-        <v>849</v>
+        <v>782</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>778</v>
+        <v>711</v>
       </c>
       <c r="B190" s="62" t="s">
-        <v>871</v>
+        <v>804</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B191" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B192" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="57" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -55591,5 +55576,5 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC0BB756-B75A-4D34-B2AA-38774E22E7A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85B4B474-A958-436C-B182-ACD4408E959D}"/>
 </file>
--- a/Concept Rapportage VO.xlsx
+++ b/Concept Rapportage VO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ggdghornederland.sharepoint.com/sites/tss_Monitors/Gedeelde documenten/10 c. Gezondheidsmonitor V&amp;O 2022/Rapportage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85BEAC1D-A3ED-4442-BCC3-DA69E1C9A011}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{083701A9-B2F2-4498-BE7F-4661D89117A5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data R" sheetId="2" r:id="rId1"/>
@@ -502,15 +502,6 @@
     <t>AGGSA202_3</t>
   </si>
   <si>
-    <t>MMOWA202_3</t>
-  </si>
-  <si>
-    <t>MMOWA202_2</t>
-  </si>
-  <si>
-    <t>MMOWA202_1</t>
-  </si>
-  <si>
     <t>Heeft langdurige ziekte(n) of aandoening(en) (naar verwachting) 6 maanden of langer (korte vraag)</t>
   </si>
   <si>
@@ -2744,13 +2735,22 @@
   </si>
   <si>
     <t>LFRKA205_2022</t>
+  </si>
+  <si>
+    <t>Opleiding_samind_3cat_1</t>
+  </si>
+  <si>
+    <t>Opleiding_samind_3cat_2</t>
+  </si>
+  <si>
+    <t>Opleiding_samind_3cat_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2850,6 +2850,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2907,7 +2913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3086,11 +3092,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -32337,8 +32346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE693"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A574" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -32367,26 +32376,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>26</v>
@@ -32401,16 +32410,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -32422,16 +32431,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -32439,10 +32448,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -32472,10 +32481,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -32484,13 +32493,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E15" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -32499,40 +32508,40 @@
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D16" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E16" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D17" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="C19" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K19" s="11"/>
     </row>
@@ -32571,7 +32580,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>15</v>
@@ -32580,18 +32589,18 @@
         <v>19</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I23" s="31"/>
       <c r="J23" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K23" s="31"/>
       <c r="L23" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -32605,7 +32614,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E24" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A24 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A24 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -32649,13 +32658,13 @@
         <v>31</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C25" s="4">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E25" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A25 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A25 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -32699,13 +32708,13 @@
         <v>32</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C26" s="4">
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E26" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A26 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A26 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -32749,7 +32758,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C27" s="4">
         <v>4</v>
@@ -32799,7 +32808,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C28" s="4">
         <v>4</v>
@@ -32849,7 +32858,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C29" s="4">
         <v>4</v>
@@ -32899,7 +32908,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C30" s="4">
         <v>4</v>
@@ -32949,7 +32958,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C31" s="4">
         <v>4</v>
@@ -32999,7 +33008,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C32" s="4">
         <v>4</v>
@@ -33049,7 +33058,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C33" s="4">
         <v>4</v>
@@ -33099,7 +33108,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C34" s="4">
         <v>4</v>
@@ -33149,7 +33158,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C35" s="4">
         <v>4</v>
@@ -33199,7 +33208,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C36" s="4">
         <v>4</v>
@@ -33249,7 +33258,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C37" s="4">
         <v>4</v>
@@ -33299,7 +33308,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C38" s="32">
         <v>4</v>
@@ -33349,7 +33358,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C39" s="4">
         <v>4</v>
@@ -33399,7 +33408,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C40" s="4">
         <v>4</v>
@@ -33449,7 +33458,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C41" s="4">
         <v>4</v>
@@ -33499,7 +33508,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C42" s="4">
         <v>4</v>
@@ -33549,7 +33558,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C43" s="4">
         <v>4</v>
@@ -33599,7 +33608,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C44" s="4">
         <v>4</v>
@@ -33649,7 +33658,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C45" s="4">
         <v>4</v>
@@ -33699,7 +33708,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C46" s="4">
         <v>4</v>
@@ -33749,7 +33758,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C47" s="4">
         <v>4</v>
@@ -33799,7 +33808,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C48" s="4">
         <v>4</v>
@@ -33849,7 +33858,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C49" s="4">
         <v>4</v>
@@ -33899,7 +33908,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C50" s="4">
         <v>4</v>
@@ -33949,7 +33958,7 @@
         <v>57</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C51" s="4">
         <v>4</v>
@@ -33999,7 +34008,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C52" s="4">
         <v>4</v>
@@ -34049,7 +34058,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C53" s="4">
         <v>4</v>
@@ -34099,7 +34108,7 @@
         <v>60</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C54" s="4">
         <v>4</v>
@@ -34149,7 +34158,7 @@
         <v>61</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C55" s="4">
         <v>4</v>
@@ -34199,7 +34208,7 @@
         <v>62</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C56" s="4">
         <v>4</v>
@@ -34249,7 +34258,7 @@
         <v>63</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C57" s="4">
         <v>4</v>
@@ -34299,7 +34308,7 @@
         <v>64</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C58" s="4">
         <v>4</v>
@@ -34349,7 +34358,7 @@
         <v>65</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C59" s="4">
         <v>4</v>
@@ -34399,7 +34408,7 @@
         <v>66</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C60" s="4">
         <v>4</v>
@@ -34446,16 +34455,16 @@
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C61" s="4">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E61" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A61 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A61 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -34499,7 +34508,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C62" s="4">
         <v>5</v>
@@ -34549,7 +34558,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C63" s="4">
         <v>5</v>
@@ -34599,7 +34608,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C64" s="4">
         <v>5</v>
@@ -34649,7 +34658,7 @@
         <v>70</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C65" s="4">
         <v>5</v>
@@ -34699,7 +34708,7 @@
         <v>71</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C66" s="4">
         <v>5</v>
@@ -34749,7 +34758,7 @@
         <v>72</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C67" s="4">
         <v>5</v>
@@ -34799,7 +34808,7 @@
         <v>73</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C68" s="4">
         <v>5</v>
@@ -34849,7 +34858,7 @@
         <v>74</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C69" s="4">
         <v>5</v>
@@ -34899,7 +34908,7 @@
         <v>75</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C70" s="4">
         <v>5</v>
@@ -34949,7 +34958,7 @@
         <v>76</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C71" s="4">
         <v>5</v>
@@ -34999,7 +35008,7 @@
         <v>77</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C72" s="4">
         <v>5</v>
@@ -35049,7 +35058,7 @@
         <v>78</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C73" s="4">
         <v>5</v>
@@ -35099,7 +35108,7 @@
         <v>79</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C74" s="4">
         <v>5</v>
@@ -35149,7 +35158,7 @@
         <v>80</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C75" s="4">
         <v>5</v>
@@ -35199,7 +35208,7 @@
         <v>81</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C76" s="4">
         <v>5</v>
@@ -35249,7 +35258,7 @@
         <v>82</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C77" s="4">
         <v>5</v>
@@ -35299,7 +35308,7 @@
         <v>83</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C78" s="4">
         <v>5</v>
@@ -35349,7 +35358,7 @@
         <v>84</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C79" s="4">
         <v>5</v>
@@ -35399,7 +35408,7 @@
         <v>85</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C80" s="4">
         <v>5</v>
@@ -35449,7 +35458,7 @@
         <v>86</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C81" s="4">
         <v>5</v>
@@ -35499,7 +35508,7 @@
         <v>87</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C82" s="4">
         <v>5</v>
@@ -35549,7 +35558,7 @@
         <v>88</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C83" s="4">
         <v>5</v>
@@ -35599,7 +35608,7 @@
         <v>89</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C84" s="4">
         <v>5</v>
@@ -35649,7 +35658,7 @@
         <v>90</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C85" s="4">
         <v>5</v>
@@ -35699,7 +35708,7 @@
         <v>91</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C86" s="4">
         <v>5</v>
@@ -35749,7 +35758,7 @@
         <v>92</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C87" s="4">
         <v>5</v>
@@ -35799,7 +35808,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C88" s="4">
         <v>5</v>
@@ -35849,7 +35858,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C89" s="4">
         <v>5</v>
@@ -35899,7 +35908,7 @@
         <v>95</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C90" s="4">
         <v>5</v>
@@ -35949,7 +35958,7 @@
         <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C91" s="4">
         <v>5</v>
@@ -35999,7 +36008,7 @@
         <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C92" s="4">
         <v>5</v>
@@ -36049,7 +36058,7 @@
         <v>98</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C93" s="4">
         <v>5</v>
@@ -36099,7 +36108,7 @@
         <v>99</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C94" s="4">
         <v>5</v>
@@ -36149,7 +36158,7 @@
         <v>100</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C95" s="4">
         <v>5</v>
@@ -36199,7 +36208,7 @@
         <v>101</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C96" s="4">
         <v>5</v>
@@ -36249,7 +36258,7 @@
         <v>102</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C97" s="4">
         <v>5</v>
@@ -36299,7 +36308,7 @@
         <v>103</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C98" s="4">
         <v>5</v>
@@ -36349,7 +36358,7 @@
         <v>104</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C99" s="4">
         <v>5</v>
@@ -36399,7 +36408,7 @@
         <v>105</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C100" s="4">
         <v>5</v>
@@ -36449,7 +36458,7 @@
         <v>106</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C101" s="4">
         <v>5</v>
@@ -36499,7 +36508,7 @@
         <v>107</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -36605,7 +36614,7 @@
         <v>5</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E104" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A104 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A104 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -36655,7 +36664,7 @@
         <v>5</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E105" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A105 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A105 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -36699,13 +36708,13 @@
         <v>111</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C106" s="4">
         <v>6</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E106" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A106 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A106 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -36749,7 +36758,7 @@
         <v>112</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C107" s="4">
         <v>6</v>
@@ -36799,7 +36808,7 @@
         <v>113</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C108" s="4">
         <v>6</v>
@@ -36845,17 +36854,17 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="69" t="s">
-        <v>892</v>
+      <c r="A109" s="68" t="s">
+        <v>889</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C109" s="4">
         <v>6</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E109" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A109 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A109 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -36895,17 +36904,17 @@
       </c>
     </row>
     <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="69" t="s">
-        <v>891</v>
+      <c r="A110" s="68" t="s">
+        <v>888</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C110" s="4">
         <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E110" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A110 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A110 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -36949,7 +36958,7 @@
         <v>114</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C111" s="4">
         <v>7</v>
@@ -36999,7 +37008,7 @@
         <v>115</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C112" s="4">
         <v>7</v>
@@ -37049,7 +37058,7 @@
         <v>116</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C113" s="4">
         <v>7</v>
@@ -37149,13 +37158,13 @@
         <v>118</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C115" s="4">
         <v>7</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E115" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A115 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A115 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37199,13 +37208,13 @@
         <v>119</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C116" s="4">
         <v>8</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E116" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A116 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A116 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37255,7 +37264,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E117" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A117 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A117 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37305,7 +37314,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E118" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A118 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A118 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37349,13 +37358,13 @@
         <v>122</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C119" s="4">
         <v>10</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E119" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A119 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A119 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37399,13 +37408,13 @@
         <v>123</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C120" s="4">
         <v>10</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E120" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A120 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A120 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37449,13 +37458,13 @@
         <v>124</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C121" s="1">
         <v>10</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E121" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A121 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A121 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37499,13 +37508,13 @@
         <v>125</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C122" s="1">
         <v>10</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E122" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A122 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A122 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37549,13 +37558,13 @@
         <v>126</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C123" s="4">
         <v>10</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E123" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A123 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A123 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -37599,7 +37608,7 @@
         <v>127</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C124" s="4">
         <v>9</v>
@@ -37649,7 +37658,7 @@
         <v>128</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C125" s="4">
         <v>9</v>
@@ -37699,7 +37708,7 @@
         <v>129</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C126" s="4">
         <v>9</v>
@@ -37749,7 +37758,7 @@
         <v>130</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C127" s="4">
         <v>9</v>
@@ -37799,7 +37808,7 @@
         <v>131</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C128" s="4">
         <v>9</v>
@@ -37849,7 +37858,7 @@
         <v>132</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C129" s="4">
         <v>9</v>
@@ -37899,7 +37908,7 @@
         <v>133</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C130" s="4">
         <v>9</v>
@@ -37949,7 +37958,7 @@
         <v>134</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C131" s="4">
         <v>9</v>
@@ -37999,7 +38008,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C132" s="4">
         <v>9</v>
@@ -38046,10 +38055,10 @@
     </row>
     <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C133" s="4">
         <v>9</v>
@@ -38099,7 +38108,7 @@
         <v>136</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C134" s="4">
         <v>9</v>
@@ -38149,7 +38158,7 @@
         <v>137</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C135" s="4">
         <v>9</v>
@@ -38199,7 +38208,7 @@
         <v>138</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C136" s="4">
         <v>9</v>
@@ -38249,13 +38258,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C137" s="4">
         <v>9</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E137" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A137 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A137 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -38299,13 +38308,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C138" s="4">
         <v>9</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E138" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A138 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A138 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -38349,13 +38358,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C139" s="4">
         <v>11</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E139" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A139 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A139 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -38399,13 +38408,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C140" s="4">
         <v>11</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E140" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A140 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A140 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -38449,13 +38458,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C141" s="4">
         <v>11</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E141" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A141 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A141 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -38499,13 +38508,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C142" s="4">
         <v>12</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E142" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A142 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A142 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -38546,16 +38555,16 @@
     </row>
     <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C143" s="4">
         <v>12</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E143" s="4" t="str">
         <f>IFERROR(IF(ABS(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A143 &amp; $B$15,'Data R'!$1:$1,),FALSE) - VLOOKUP($B$2,'Data R'!$1:$9999,MATCH($A143 &amp; $B$16,'Data R'!$1:$1,),FALSE)) &gt; $B$20, "JA", ""), "Geen waarde bekend")</f>
@@ -38599,7 +38608,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C144" s="4">
         <v>13</v>
@@ -38618,7 +38627,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C145" s="4">
         <v>13</v>
@@ -38637,7 +38646,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C146" s="4">
         <v>13</v>
@@ -38656,7 +38665,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C147" s="4">
         <v>13</v>
@@ -38675,7 +38684,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C148" s="4">
         <v>13</v>
@@ -38694,7 +38703,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C149" s="4">
         <v>13</v>
@@ -38713,7 +38722,7 @@
         <v>151</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C150" s="4">
         <v>13</v>
@@ -38732,7 +38741,7 @@
         <v>152</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C151" s="4">
         <v>13</v>
@@ -38747,11 +38756,11 @@
       <c r="I151" s="22"/>
     </row>
     <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="20" t="s">
-        <v>153</v>
+      <c r="A152" s="70" t="s">
+        <v>900</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C152" s="4">
         <v>13</v>
@@ -38766,11 +38775,11 @@
       <c r="I152" s="22"/>
     </row>
     <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="20" t="s">
-        <v>154</v>
+      <c r="A153" s="70" t="s">
+        <v>899</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C153" s="4">
         <v>13</v>
@@ -38785,11 +38794,11 @@
       <c r="I153" s="22"/>
     </row>
     <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="20" t="s">
-        <v>155</v>
+      <c r="A154" s="70" t="s">
+        <v>898</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C154" s="4">
         <v>13</v>
@@ -38807,7 +38816,7 @@
     <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="157" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="41" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B157" s="42"/>
       <c r="C157" s="43"/>
@@ -38820,7 +38829,7 @@
     </row>
     <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B158" s="17"/>
       <c r="C158" s="18"/>
@@ -38838,67 +38847,67 @@
         <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C159" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D159" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E159" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F159" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G159" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H159" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I159" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J159" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K159" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="19"/>
       <c r="B160" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E160" s="63" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J160" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K160" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39005,7 +39014,7 @@
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B164" s="17"/>
       <c r="C164" s="18"/>
@@ -39021,37 +39030,37 @@
         <v>1</v>
       </c>
       <c r="B165" t="s">
+        <v>296</v>
+      </c>
+      <c r="C165" t="s">
+        <v>297</v>
+      </c>
+      <c r="D165" t="s">
+        <v>298</v>
+      </c>
+      <c r="E165" t="s">
         <v>299</v>
       </c>
-      <c r="C165" t="s">
+      <c r="F165" t="s">
         <v>300</v>
-      </c>
-      <c r="D165" t="s">
-        <v>301</v>
-      </c>
-      <c r="E165" t="s">
-        <v>302</v>
-      </c>
-      <c r="F165" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="19"/>
       <c r="B166" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E166" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="F166" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
@@ -39136,7 +39145,7 @@
     </row>
     <row r="170" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="45" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B170" s="42"/>
       <c r="C170" s="42"/>
@@ -39151,7 +39160,7 @@
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B171" s="17"/>
       <c r="C171" s="5"/>
@@ -39184,7 +39193,7 @@
     <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="19"/>
       <c r="B173" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -39268,7 +39277,7 @@
     </row>
     <row r="178" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B178" s="17"/>
       <c r="C178" s="5"/>
@@ -39301,7 +39310,7 @@
     <row r="180" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="19"/>
       <c r="B180" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -39385,7 +39394,7 @@
     </row>
     <row r="185" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="41" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B185" s="46"/>
       <c r="C185" s="47"/>
@@ -39398,7 +39407,7 @@
     </row>
     <row r="186" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B186" s="17"/>
       <c r="C186" s="18"/>
@@ -39414,49 +39423,49 @@
         <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C187" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D187" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E187" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F187" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G187" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H187" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="19"/>
       <c r="B188" s="63" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G188" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H188" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
@@ -39548,7 +39557,7 @@
     </row>
     <row r="192" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B192" s="17"/>
       <c r="C192" s="18"/>
@@ -39657,94 +39666,94 @@
     <row r="194" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="19"/>
       <c r="B194" s="53" t="s">
+        <v>590</v>
+      </c>
+      <c r="C194" s="53" t="s">
+        <v>591</v>
+      </c>
+      <c r="D194" s="53" t="s">
+        <v>592</v>
+      </c>
+      <c r="E194" s="53" t="s">
         <v>593</v>
       </c>
-      <c r="C194" s="53" t="s">
+      <c r="F194" s="53" t="s">
         <v>594</v>
       </c>
-      <c r="D194" s="53" t="s">
+      <c r="G194" s="53" t="s">
         <v>595</v>
       </c>
-      <c r="E194" s="53" t="s">
+      <c r="H194" s="53" t="s">
         <v>596</v>
       </c>
-      <c r="F194" s="53" t="s">
+      <c r="I194" s="53" t="s">
         <v>597</v>
       </c>
-      <c r="G194" s="53" t="s">
+      <c r="J194" s="53" t="s">
         <v>598</v>
       </c>
-      <c r="H194" s="53" t="s">
+      <c r="K194" s="53" t="s">
         <v>599</v>
       </c>
-      <c r="I194" s="53" t="s">
+      <c r="L194" s="53" t="s">
         <v>600</v>
       </c>
-      <c r="J194" s="53" t="s">
+      <c r="M194" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="K194" s="53" t="s">
+      <c r="N194" s="53" t="s">
         <v>602</v>
       </c>
-      <c r="L194" s="53" t="s">
+      <c r="O194" s="53" t="s">
         <v>603</v>
       </c>
-      <c r="M194" s="53" t="s">
+      <c r="P194" s="53" t="s">
         <v>604</v>
       </c>
-      <c r="N194" s="53" t="s">
+      <c r="Q194" s="53" t="s">
         <v>605</v>
       </c>
-      <c r="O194" s="53" t="s">
+      <c r="R194" s="53" t="s">
         <v>606</v>
       </c>
-      <c r="P194" s="53" t="s">
+      <c r="S194" s="53" t="s">
         <v>607</v>
       </c>
-      <c r="Q194" s="53" t="s">
+      <c r="T194" s="53" t="s">
         <v>608</v>
       </c>
-      <c r="R194" s="53" t="s">
+      <c r="U194" s="53" t="s">
         <v>609</v>
       </c>
-      <c r="S194" s="53" t="s">
+      <c r="V194" s="53" t="s">
         <v>610</v>
       </c>
-      <c r="T194" s="53" t="s">
+      <c r="W194" s="53" t="s">
         <v>611</v>
       </c>
-      <c r="U194" s="53" t="s">
+      <c r="X194" s="53" t="s">
         <v>612</v>
       </c>
-      <c r="V194" s="53" t="s">
+      <c r="Y194" s="53" t="s">
         <v>613</v>
       </c>
-      <c r="W194" s="53" t="s">
+      <c r="Z194" s="53" t="s">
         <v>614</v>
       </c>
-      <c r="X194" s="53" t="s">
+      <c r="AA194" s="53" t="s">
         <v>615</v>
       </c>
-      <c r="Y194" s="53" t="s">
+      <c r="AB194" s="53" t="s">
         <v>616</v>
       </c>
-      <c r="Z194" s="53" t="s">
+      <c r="AC194" s="53" t="s">
         <v>617</v>
       </c>
-      <c r="AA194" s="53" t="s">
+      <c r="AD194" s="53" t="s">
         <v>618</v>
       </c>
-      <c r="AB194" s="53" t="s">
+      <c r="AE194" s="53" t="s">
         <v>619</v>
-      </c>
-      <c r="AC194" s="53" t="s">
-        <v>620</v>
-      </c>
-      <c r="AD194" s="53" t="s">
-        <v>621</v>
-      </c>
-      <c r="AE194" s="53" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="195" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -40158,7 +40167,7 @@
     </row>
     <row r="199" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="45" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B199" s="47"/>
       <c r="C199" s="47"/>
@@ -40193,7 +40202,7 @@
     </row>
     <row r="200" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B200" s="17"/>
       <c r="C200" s="1"/>
@@ -40266,7 +40275,7 @@
     <row r="202" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="19"/>
       <c r="B202" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -40410,7 +40419,7 @@
     </row>
     <row r="207" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="16" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B207" s="17"/>
       <c r="C207" s="1"/>
@@ -40448,7 +40457,7 @@
         <v>1</v>
       </c>
       <c r="B208" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -40483,7 +40492,7 @@
     <row r="209" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="19"/>
       <c r="B209" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -40647,7 +40656,7 @@
     </row>
     <row r="214" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B214" s="17"/>
       <c r="C214" s="1"/>
@@ -40720,7 +40729,7 @@
     <row r="216" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="19"/>
       <c r="B216" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -40884,7 +40893,7 @@
     </row>
     <row r="221" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B221" s="17"/>
       <c r="C221" s="1"/>
@@ -40957,7 +40966,7 @@
     <row r="223" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="19"/>
       <c r="B223" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -41121,7 +41130,7 @@
     </row>
     <row r="228" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B228" s="17"/>
       <c r="C228" s="1"/>
@@ -41194,7 +41203,7 @@
     <row r="230" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="19"/>
       <c r="B230" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -41335,7 +41344,7 @@
     </row>
     <row r="235" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="41" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B235" s="46"/>
       <c r="C235" s="47"/>
@@ -41348,7 +41357,7 @@
     </row>
     <row r="236" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B236" s="17"/>
       <c r="C236" s="18"/>
@@ -41382,16 +41391,16 @@
     </row>
     <row r="238" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="D238" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="E238" s="13" t="s">
         <v>540</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="D238" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="E238" s="13" t="s">
-        <v>543</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="5"/>
@@ -41462,7 +41471,7 @@
     </row>
     <row r="242" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B242" s="17"/>
       <c r="C242" s="18"/>
@@ -41515,34 +41524,34 @@
     <row r="244" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="19"/>
       <c r="B244" s="54" t="s">
+        <v>620</v>
+      </c>
+      <c r="C244" s="54" t="s">
+        <v>622</v>
+      </c>
+      <c r="D244" s="54" t="s">
+        <v>621</v>
+      </c>
+      <c r="E244" s="54" t="s">
         <v>623</v>
       </c>
-      <c r="C244" s="54" t="s">
+      <c r="F244" s="54" t="s">
+        <v>624</v>
+      </c>
+      <c r="G244" s="54" t="s">
         <v>625</v>
       </c>
-      <c r="D244" s="54" t="s">
-        <v>624</v>
-      </c>
-      <c r="E244" s="54" t="s">
+      <c r="H244" s="54" t="s">
         <v>626</v>
       </c>
-      <c r="F244" s="54" t="s">
+      <c r="I244" s="54" t="s">
         <v>627</v>
       </c>
-      <c r="G244" s="54" t="s">
+      <c r="J244" s="53" t="s">
         <v>628</v>
       </c>
-      <c r="H244" s="54" t="s">
-        <v>629</v>
-      </c>
-      <c r="I244" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="J244" s="53" t="s">
-        <v>631</v>
-      </c>
       <c r="K244" s="53" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M244" s="13"/>
       <c r="N244" s="13"/>
@@ -41708,7 +41717,7 @@
     </row>
     <row r="249" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B249" s="17"/>
       <c r="C249" s="18"/>
@@ -41772,49 +41781,49 @@
     <row r="251" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="19"/>
       <c r="B251" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="C251" s="53" t="s">
+        <v>630</v>
+      </c>
+      <c r="D251" s="54" t="s">
+        <v>631</v>
+      </c>
+      <c r="E251" s="54" t="s">
         <v>632</v>
       </c>
-      <c r="C251" s="53" t="s">
+      <c r="F251" s="54" t="s">
         <v>633</v>
       </c>
-      <c r="D251" s="54" t="s">
+      <c r="G251" s="54" t="s">
         <v>634</v>
       </c>
-      <c r="E251" s="54" t="s">
+      <c r="H251" s="54" t="s">
         <v>635</v>
       </c>
-      <c r="F251" s="54" t="s">
+      <c r="I251" s="54" t="s">
         <v>636</v>
       </c>
-      <c r="G251" s="54" t="s">
+      <c r="J251" s="54" t="s">
         <v>637</v>
       </c>
-      <c r="H251" s="54" t="s">
+      <c r="K251" s="54" t="s">
         <v>638</v>
       </c>
-      <c r="I251" s="54" t="s">
+      <c r="L251" s="54" t="s">
         <v>639</v>
       </c>
-      <c r="J251" s="54" t="s">
+      <c r="M251" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="K251" s="54" t="s">
+      <c r="N251" s="54" t="s">
         <v>641</v>
       </c>
-      <c r="L251" s="54" t="s">
+      <c r="O251" s="54" t="s">
         <v>642</v>
       </c>
-      <c r="M251" s="54" t="s">
-        <v>643</v>
-      </c>
-      <c r="N251" s="54" t="s">
-        <v>644</v>
-      </c>
-      <c r="O251" s="54" t="s">
-        <v>645</v>
-      </c>
       <c r="P251" s="54" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="252" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -42033,7 +42042,7 @@
     </row>
     <row r="256" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B256" s="17"/>
       <c r="C256" s="18"/>
@@ -42070,22 +42079,22 @@
     <row r="258" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="19"/>
       <c r="B258" s="56" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C258" s="56" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D258" s="56" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E258" s="55" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F258" s="55" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="G258" s="55" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="H258" s="20"/>
       <c r="I258" s="20"/>
@@ -42232,7 +42241,7 @@
     </row>
     <row r="263" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="45" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B263" s="48"/>
       <c r="C263" s="47"/>
@@ -42252,7 +42261,7 @@
     </row>
     <row r="264" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B264" s="17"/>
       <c r="C264" s="1"/>
@@ -42325,7 +42334,7 @@
     <row r="266" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="19"/>
       <c r="B266" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -42474,7 +42483,7 @@
     </row>
     <row r="271" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B271" s="17"/>
       <c r="C271" s="1"/>
@@ -42547,7 +42556,7 @@
     <row r="273" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="19"/>
       <c r="B273" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -42696,7 +42705,7 @@
     </row>
     <row r="278" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B278" s="17"/>
       <c r="C278" s="1"/>
@@ -42769,7 +42778,7 @@
     <row r="280" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="19"/>
       <c r="B280" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -42933,7 +42942,7 @@
     </row>
     <row r="285" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B285" s="17"/>
       <c r="C285" s="1"/>
@@ -43006,7 +43015,7 @@
     <row r="287" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="19"/>
       <c r="B287" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -43175,7 +43184,7 @@
     </row>
     <row r="292" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B292" s="17"/>
       <c r="C292" s="1"/>
@@ -43248,7 +43257,7 @@
     <row r="294" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="19"/>
       <c r="B294" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -43397,7 +43406,7 @@
     </row>
     <row r="299" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B299" s="17"/>
       <c r="C299" s="1"/>
@@ -43470,7 +43479,7 @@
     <row r="301" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="19"/>
       <c r="B301" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -43707,7 +43716,7 @@
     <row r="308" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3"/>
       <c r="B308" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -43856,7 +43865,7 @@
     </row>
     <row r="313" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B313" s="21"/>
       <c r="C313" s="4"/>
@@ -43929,7 +43938,7 @@
     <row r="315" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3"/>
       <c r="B315" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
@@ -44078,7 +44087,7 @@
     </row>
     <row r="320" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B320" s="21"/>
       <c r="C320" s="4"/>
@@ -44151,7 +44160,7 @@
     <row r="322" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3"/>
       <c r="B322" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
@@ -44292,7 +44301,7 @@
     </row>
     <row r="327" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="41" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B327" s="46"/>
       <c r="C327" s="47"/>
@@ -44305,7 +44314,7 @@
     </row>
     <row r="328" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B328" s="21"/>
       <c r="C328" s="23"/>
@@ -44323,67 +44332,67 @@
         <v>1</v>
       </c>
       <c r="B329" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C329" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D329" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E329" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F329" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G329" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H329" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I329" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J329" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K329" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="330" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3"/>
       <c r="B330" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E330" s="63" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J330" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K330" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="331" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -44492,7 +44501,7 @@
     </row>
     <row r="334" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="45" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B334" s="46"/>
       <c r="C334" s="46"/>
@@ -44505,7 +44514,7 @@
     </row>
     <row r="335" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="16" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B335" s="21"/>
       <c r="C335" s="4"/>
@@ -44578,7 +44587,7 @@
     <row r="337" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3"/>
       <c r="B337" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
@@ -44720,7 +44729,7 @@
     </row>
     <row r="342" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B342" s="21"/>
       <c r="C342" s="4"/>
@@ -44793,7 +44802,7 @@
     <row r="344" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3"/>
       <c r="B344" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -44923,18 +44932,18 @@
       <c r="K347" s="5"/>
     </row>
     <row r="348" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B348" s="68"/>
-      <c r="C348" s="68"/>
+      <c r="B348" s="69"/>
+      <c r="C348" s="69"/>
       <c r="D348" s="3"/>
-      <c r="E348" s="68"/>
-      <c r="F348" s="68"/>
-      <c r="G348" s="68"/>
-      <c r="H348" s="68"/>
-      <c r="I348" s="68"/>
+      <c r="E348" s="69"/>
+      <c r="F348" s="69"/>
+      <c r="G348" s="69"/>
+      <c r="H348" s="69"/>
+      <c r="I348" s="69"/>
     </row>
     <row r="349" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B349" s="21"/>
       <c r="C349" s="4"/>
@@ -45007,7 +45016,7 @@
     <row r="351" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A351" s="3"/>
       <c r="B351" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -45149,7 +45158,7 @@
     </row>
     <row r="356" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B356" s="21"/>
       <c r="C356" s="4"/>
@@ -45187,7 +45196,7 @@
         <v>1</v>
       </c>
       <c r="B357" s="67" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -45222,7 +45231,7 @@
     <row r="358" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3"/>
       <c r="B358" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -45366,7 +45375,7 @@
     </row>
     <row r="363" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="16" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B363" s="21"/>
       <c r="C363" s="4"/>
@@ -45404,7 +45413,7 @@
         <v>1</v>
       </c>
       <c r="B364" s="67" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -45439,7 +45448,7 @@
     <row r="365" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3"/>
       <c r="B365" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
@@ -45581,7 +45590,7 @@
     </row>
     <row r="370" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="45" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G370" s="46"/>
       <c r="H370" s="46"/>
@@ -45589,7 +45598,7 @@
     </row>
     <row r="371" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B371" s="21"/>
       <c r="C371" s="23"/>
@@ -45607,67 +45616,67 @@
         <v>1</v>
       </c>
       <c r="B372" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C372" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D372" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E372" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F372" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G372" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H372" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I372" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J372" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K372" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="373" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3"/>
       <c r="B373" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D373" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E373" s="63" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I373" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J373" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K373" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="374" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -45770,7 +45779,7 @@
     </row>
     <row r="377" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B377" s="21"/>
       <c r="C377" s="23"/>
@@ -45788,67 +45797,67 @@
         <v>1</v>
       </c>
       <c r="B378" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C378" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D378" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E378" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F378" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G378" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H378" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I378" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J378" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K378" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="379" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3"/>
       <c r="B379" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E379" s="63" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J379" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K379" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="380" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -45956,7 +45965,7 @@
     </row>
     <row r="383" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="45" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B383" s="46"/>
       <c r="C383" s="46"/>
@@ -45969,7 +45978,7 @@
     </row>
     <row r="384" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B384" s="21"/>
       <c r="C384" s="4"/>
@@ -46042,7 +46051,7 @@
     <row r="386" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3"/>
       <c r="B386" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
@@ -46184,7 +46193,7 @@
     </row>
     <row r="391" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B391" s="21"/>
       <c r="C391" s="4"/>
@@ -46257,7 +46266,7 @@
     <row r="393" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3"/>
       <c r="B393" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
@@ -46387,18 +46396,18 @@
       <c r="K396" s="5"/>
     </row>
     <row r="397" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B397" s="68"/>
-      <c r="C397" s="68"/>
+      <c r="B397" s="69"/>
+      <c r="C397" s="69"/>
       <c r="D397" s="3"/>
-      <c r="E397" s="68"/>
-      <c r="F397" s="68"/>
-      <c r="G397" s="68"/>
-      <c r="H397" s="68"/>
-      <c r="I397" s="68"/>
+      <c r="E397" s="69"/>
+      <c r="F397" s="69"/>
+      <c r="G397" s="69"/>
+      <c r="H397" s="69"/>
+      <c r="I397" s="69"/>
     </row>
     <row r="398" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B398" s="21"/>
       <c r="C398" s="4"/>
@@ -46471,7 +46480,7 @@
     <row r="400" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A400" s="3"/>
       <c r="B400" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
@@ -46613,7 +46622,7 @@
     </row>
     <row r="405" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B405" s="21"/>
       <c r="C405" s="4"/>
@@ -46686,7 +46695,7 @@
     <row r="407" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3"/>
       <c r="B407" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
@@ -46849,7 +46858,7 @@
     </row>
     <row r="412" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="45" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B412" s="46"/>
       <c r="C412" s="46"/>
@@ -46900,19 +46909,19 @@
         <v>1</v>
       </c>
       <c r="B414" t="s">
+        <v>359</v>
+      </c>
+      <c r="C414" t="s">
+        <v>360</v>
+      </c>
+      <c r="D414" t="s">
+        <v>361</v>
+      </c>
+      <c r="E414" t="s">
         <v>362</v>
       </c>
-      <c r="C414" t="s">
+      <c r="F414" t="s">
         <v>363</v>
-      </c>
-      <c r="D414" t="s">
-        <v>364</v>
-      </c>
-      <c r="E414" t="s">
-        <v>365</v>
-      </c>
-      <c r="F414" t="s">
-        <v>366</v>
       </c>
       <c r="G414" s="22"/>
       <c r="H414" s="22"/>
@@ -46921,19 +46930,19 @@
     <row r="415" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3"/>
       <c r="B415" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D415" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E415" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C415" s="4" t="s">
+      <c r="F415" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="D415" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E415" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F415" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
@@ -47016,7 +47025,7 @@
     </row>
     <row r="419" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B419" s="21"/>
       <c r="C419" s="23"/>
@@ -47054,19 +47063,19 @@
         <v>1</v>
       </c>
       <c r="B420" t="s">
+        <v>365</v>
+      </c>
+      <c r="C420" t="s">
+        <v>366</v>
+      </c>
+      <c r="D420" t="s">
+        <v>367</v>
+      </c>
+      <c r="E420" t="s">
         <v>368</v>
       </c>
-      <c r="C420" t="s">
+      <c r="F420" t="s">
         <v>369</v>
-      </c>
-      <c r="D420" t="s">
-        <v>370</v>
-      </c>
-      <c r="E420" t="s">
-        <v>371</v>
-      </c>
-      <c r="F420" t="s">
-        <v>372</v>
       </c>
       <c r="G420" s="22"/>
       <c r="H420" s="22"/>
@@ -47075,19 +47084,19 @@
     <row r="421" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3"/>
       <c r="B421" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C421" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D421" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E421" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C421" s="4" t="s">
+      <c r="F421" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="D421" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E421" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F421" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
@@ -47167,7 +47176,7 @@
     </row>
     <row r="425" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="45" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B425" s="47"/>
       <c r="C425" s="47"/>
@@ -47250,7 +47259,7 @@
     <row r="428" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A428" s="3"/>
       <c r="B428" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
@@ -47380,18 +47389,18 @@
       <c r="K431" s="5"/>
     </row>
     <row r="432" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B432" s="68"/>
-      <c r="C432" s="68"/>
+      <c r="B432" s="69"/>
+      <c r="C432" s="69"/>
       <c r="D432" s="3"/>
-      <c r="E432" s="68"/>
-      <c r="F432" s="68"/>
-      <c r="G432" s="68"/>
-      <c r="H432" s="68"/>
-      <c r="I432" s="68"/>
+      <c r="E432" s="69"/>
+      <c r="F432" s="69"/>
+      <c r="G432" s="69"/>
+      <c r="H432" s="69"/>
+      <c r="I432" s="69"/>
     </row>
     <row r="433" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B433" s="21"/>
       <c r="C433" s="4"/>
@@ -47464,7 +47473,7 @@
     <row r="435" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A435" s="3"/>
       <c r="B435" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
@@ -47606,7 +47615,7 @@
     </row>
     <row r="440" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B440" s="21"/>
       <c r="C440" s="4"/>
@@ -47679,7 +47688,7 @@
     <row r="442" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3"/>
       <c r="B442" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -47822,7 +47831,7 @@
     </row>
     <row r="447" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="41" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B447" s="45"/>
       <c r="C447" s="46"/>
@@ -47836,7 +47845,7 @@
     </row>
     <row r="448" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B448" s="21"/>
       <c r="C448" s="23"/>
@@ -47873,7 +47882,7 @@
         <v>135</v>
       </c>
       <c r="I449" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J449" t="s">
         <v>136</v>
@@ -47888,37 +47897,37 @@
     <row r="450" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="3"/>
       <c r="B450" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="C450" s="53" t="s">
+        <v>698</v>
+      </c>
+      <c r="D450" s="53" t="s">
+        <v>699</v>
+      </c>
+      <c r="E450" s="53" t="s">
         <v>700</v>
       </c>
-      <c r="C450" s="53" t="s">
+      <c r="F450" s="53" t="s">
         <v>701</v>
       </c>
-      <c r="D450" s="53" t="s">
+      <c r="G450" s="53" t="s">
         <v>702</v>
       </c>
-      <c r="E450" s="53" t="s">
+      <c r="H450" s="53" t="s">
         <v>703</v>
       </c>
-      <c r="F450" s="53" t="s">
+      <c r="I450" s="53" t="s">
         <v>704</v>
       </c>
-      <c r="G450" s="53" t="s">
+      <c r="J450" s="53" t="s">
         <v>705</v>
       </c>
-      <c r="H450" s="53" t="s">
+      <c r="K450" s="53" t="s">
         <v>706</v>
       </c>
-      <c r="I450" s="53" t="s">
+      <c r="L450" s="53" t="s">
         <v>707</v>
-      </c>
-      <c r="J450" s="53" t="s">
-        <v>708</v>
-      </c>
-      <c r="K450" s="53" t="s">
-        <v>709</v>
-      </c>
-      <c r="L450" s="53" t="s">
-        <v>710</v>
       </c>
       <c r="N450" s="20"/>
       <c r="O450" s="20"/>
@@ -48135,19 +48144,19 @@
         <v>1</v>
       </c>
       <c r="B456" t="s">
+        <v>373</v>
+      </c>
+      <c r="C456" t="s">
+        <v>374</v>
+      </c>
+      <c r="D456" t="s">
+        <v>375</v>
+      </c>
+      <c r="E456" t="s">
         <v>376</v>
       </c>
-      <c r="C456" t="s">
+      <c r="F456" t="s">
         <v>377</v>
-      </c>
-      <c r="D456" t="s">
-        <v>378</v>
-      </c>
-      <c r="E456" t="s">
-        <v>379</v>
-      </c>
-      <c r="F456" t="s">
-        <v>380</v>
       </c>
       <c r="G456" s="22"/>
       <c r="H456" s="22"/>
@@ -48156,19 +48165,19 @@
     <row r="457" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="3"/>
       <c r="B457" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C457" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D457" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E457" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C457" s="4" t="s">
+      <c r="F457" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="D457" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E457" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F457" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="G457" s="2"/>
       <c r="H457" s="2"/>
@@ -48251,7 +48260,7 @@
     </row>
     <row r="461" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B461" s="21"/>
       <c r="C461" s="23"/>
@@ -48289,19 +48298,19 @@
         <v>1</v>
       </c>
       <c r="B462" t="s">
+        <v>379</v>
+      </c>
+      <c r="C462" t="s">
+        <v>380</v>
+      </c>
+      <c r="D462" t="s">
+        <v>381</v>
+      </c>
+      <c r="E462" t="s">
         <v>382</v>
       </c>
-      <c r="C462" t="s">
+      <c r="F462" t="s">
         <v>383</v>
-      </c>
-      <c r="D462" t="s">
-        <v>384</v>
-      </c>
-      <c r="E462" t="s">
-        <v>385</v>
-      </c>
-      <c r="F462" t="s">
-        <v>386</v>
       </c>
       <c r="G462" s="22"/>
       <c r="H462" s="22"/>
@@ -48310,19 +48319,19 @@
     <row r="463" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="3"/>
       <c r="B463" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C463" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D463" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E463" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C463" s="4" t="s">
+      <c r="F463" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="D463" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E463" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F463" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="G463" s="2"/>
       <c r="H463" s="2"/>
@@ -48398,7 +48407,7 @@
     </row>
     <row r="467" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="45" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B467" s="47"/>
       <c r="C467" s="47"/>
@@ -48408,7 +48417,7 @@
     </row>
     <row r="468" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="16" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B468" s="21"/>
       <c r="C468" s="4"/>
@@ -48481,7 +48490,7 @@
     <row r="470" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A470" s="3"/>
       <c r="B470" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
@@ -48611,18 +48620,18 @@
       <c r="K473" s="5"/>
     </row>
     <row r="474" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B474" s="68"/>
-      <c r="C474" s="68"/>
+      <c r="B474" s="69"/>
+      <c r="C474" s="69"/>
       <c r="D474" s="3"/>
-      <c r="E474" s="68"/>
-      <c r="F474" s="68"/>
-      <c r="G474" s="68"/>
-      <c r="H474" s="68"/>
-      <c r="I474" s="68"/>
+      <c r="E474" s="69"/>
+      <c r="F474" s="69"/>
+      <c r="G474" s="69"/>
+      <c r="H474" s="69"/>
+      <c r="I474" s="69"/>
     </row>
     <row r="475" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="16" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B475" s="21"/>
       <c r="C475" s="4"/>
@@ -48695,7 +48704,7 @@
     <row r="477" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A477" s="3"/>
       <c r="B477" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
@@ -48837,7 +48846,7 @@
     </row>
     <row r="482" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="16" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B482" s="21"/>
       <c r="C482" s="4"/>
@@ -48910,7 +48919,7 @@
     <row r="484" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="3"/>
       <c r="B484" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
@@ -49044,7 +49053,7 @@
     </row>
     <row r="489" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B489" s="21"/>
       <c r="C489" s="4"/>
@@ -49117,7 +49126,7 @@
     <row r="491" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="3"/>
       <c r="B491" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
@@ -49255,14 +49264,14 @@
     </row>
     <row r="496" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="41" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B496" s="45"/>
       <c r="E496" s="47"/>
     </row>
     <row r="497" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B497" s="21"/>
       <c r="C497" s="23"/>
@@ -49300,19 +49309,19 @@
         <v>1</v>
       </c>
       <c r="B498" t="s">
+        <v>424</v>
+      </c>
+      <c r="C498" t="s">
+        <v>425</v>
+      </c>
+      <c r="D498" t="s">
+        <v>426</v>
+      </c>
+      <c r="E498" t="s">
         <v>427</v>
       </c>
-      <c r="C498" t="s">
+      <c r="F498" t="s">
         <v>428</v>
-      </c>
-      <c r="D498" t="s">
-        <v>429</v>
-      </c>
-      <c r="E498" t="s">
-        <v>430</v>
-      </c>
-      <c r="F498" t="s">
-        <v>431</v>
       </c>
       <c r="G498" s="22"/>
       <c r="H498" s="22"/>
@@ -49321,19 +49330,19 @@
     <row r="499" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="3"/>
       <c r="B499" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D499" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E499" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C499" s="4" t="s">
+      <c r="F499" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="D499" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E499" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F499" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="G499" s="2"/>
       <c r="H499" s="2"/>
@@ -49406,14 +49415,14 @@
     </row>
     <row r="503" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="41" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B503" s="45"/>
       <c r="E503" s="47"/>
     </row>
     <row r="504" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="16" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B504" s="21"/>
       <c r="C504" s="23"/>
@@ -49451,19 +49460,19 @@
         <v>1</v>
       </c>
       <c r="B505" t="s">
+        <v>430</v>
+      </c>
+      <c r="C505" t="s">
+        <v>431</v>
+      </c>
+      <c r="D505" t="s">
+        <v>432</v>
+      </c>
+      <c r="E505" t="s">
         <v>433</v>
       </c>
-      <c r="C505" t="s">
+      <c r="F505" t="s">
         <v>434</v>
-      </c>
-      <c r="D505" t="s">
-        <v>435</v>
-      </c>
-      <c r="E505" t="s">
-        <v>436</v>
-      </c>
-      <c r="F505" t="s">
-        <v>437</v>
       </c>
       <c r="G505" s="22"/>
       <c r="H505" s="22"/>
@@ -49472,19 +49481,19 @@
     <row r="506" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="3"/>
       <c r="B506" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C506" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D506" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E506" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C506" s="4" t="s">
+      <c r="F506" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="D506" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E506" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F506" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="G506" s="2"/>
       <c r="H506" s="2"/>
@@ -49588,7 +49597,7 @@
     </row>
     <row r="511" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="16" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B511" s="21"/>
       <c r="C511" s="4"/>
@@ -49661,7 +49670,7 @@
     <row r="513" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="3"/>
       <c r="B513" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
@@ -49796,7 +49805,7 @@
     </row>
     <row r="518" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B518" s="21"/>
       <c r="C518" s="23"/>
@@ -49834,19 +49843,19 @@
         <v>1</v>
       </c>
       <c r="B519" t="s">
+        <v>437</v>
+      </c>
+      <c r="C519" t="s">
+        <v>438</v>
+      </c>
+      <c r="D519" t="s">
+        <v>439</v>
+      </c>
+      <c r="E519" t="s">
         <v>440</v>
       </c>
-      <c r="C519" t="s">
+      <c r="F519" t="s">
         <v>441</v>
-      </c>
-      <c r="D519" t="s">
-        <v>442</v>
-      </c>
-      <c r="E519" t="s">
-        <v>443</v>
-      </c>
-      <c r="F519" t="s">
-        <v>444</v>
       </c>
       <c r="G519" s="22"/>
       <c r="H519" s="22"/>
@@ -49855,19 +49864,19 @@
     <row r="520" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="3"/>
       <c r="B520" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C520" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D520" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E520" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C520" s="4" t="s">
+      <c r="F520" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="D520" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E520" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F520" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="G520" s="2"/>
       <c r="H520" s="2"/>
@@ -49971,7 +49980,7 @@
     </row>
     <row r="525" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="16" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B525" s="21"/>
       <c r="C525" s="23"/>
@@ -50009,19 +50018,19 @@
         <v>1</v>
       </c>
       <c r="B526" t="s">
+        <v>443</v>
+      </c>
+      <c r="C526" t="s">
+        <v>444</v>
+      </c>
+      <c r="D526" t="s">
+        <v>445</v>
+      </c>
+      <c r="E526" t="s">
         <v>446</v>
       </c>
-      <c r="C526" t="s">
+      <c r="F526" t="s">
         <v>447</v>
-      </c>
-      <c r="D526" t="s">
-        <v>448</v>
-      </c>
-      <c r="E526" t="s">
-        <v>449</v>
-      </c>
-      <c r="F526" t="s">
-        <v>450</v>
       </c>
       <c r="G526" s="22"/>
       <c r="H526" s="22"/>
@@ -50030,19 +50039,19 @@
     <row r="527" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="3"/>
       <c r="B527" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C527" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D527" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E527" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C527" s="4" t="s">
+      <c r="F527" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="D527" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E527" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F527" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="G527" s="2"/>
       <c r="H527" s="2"/>
@@ -50146,7 +50155,7 @@
     </row>
     <row r="532" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="16" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B532" s="21"/>
       <c r="C532" s="4"/>
@@ -50219,7 +50228,7 @@
     <row r="534" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="3"/>
       <c r="B534" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
@@ -50354,14 +50363,14 @@
     </row>
     <row r="539" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A539" s="41" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B539" s="45"/>
       <c r="E539" s="47"/>
     </row>
     <row r="540" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="16" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B540" s="21"/>
       <c r="C540" s="23"/>
@@ -50380,52 +50389,52 @@
         <v>141</v>
       </c>
       <c r="C541" t="s">
+        <v>450</v>
+      </c>
+      <c r="D541" t="s">
+        <v>451</v>
+      </c>
+      <c r="E541" t="s">
+        <v>452</v>
+      </c>
+      <c r="F541" t="s">
         <v>453</v>
       </c>
-      <c r="D541" t="s">
+      <c r="G541" t="s">
         <v>454</v>
       </c>
-      <c r="E541" t="s">
+      <c r="H541" t="s">
         <v>455</v>
       </c>
-      <c r="F541" t="s">
+      <c r="I541" t="s">
         <v>456</v>
-      </c>
-      <c r="G541" t="s">
-        <v>457</v>
-      </c>
-      <c r="H541" t="s">
-        <v>458</v>
-      </c>
-      <c r="I541" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="542" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="3"/>
       <c r="B542" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C542" t="s">
+        <v>285</v>
+      </c>
+      <c r="D542" t="s">
+        <v>286</v>
+      </c>
+      <c r="E542" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F542" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D542" t="s">
+      <c r="G542" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E542" s="4" t="s">
+      <c r="H542" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="F542" s="4" t="s">
+      <c r="I542" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="G542" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="H542" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="I542" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="J542" s="22"/>
       <c r="K542" s="22"/>
@@ -50556,7 +50565,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="16" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B547" s="21"/>
       <c r="C547" s="23"/>
@@ -50571,23 +50580,23 @@
         <v>142</v>
       </c>
       <c r="C548" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D548" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E548" s="4"/>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="3"/>
       <c r="B549" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C549" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D549" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E549" s="4"/>
     </row>
@@ -50660,7 +50669,7 @@
     </row>
     <row r="554" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="16" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B554" s="21"/>
       <c r="C554" s="23"/>
@@ -50679,52 +50688,52 @@
         <v>143</v>
       </c>
       <c r="C555" t="s">
+        <v>461</v>
+      </c>
+      <c r="D555" t="s">
+        <v>462</v>
+      </c>
+      <c r="E555" t="s">
+        <v>463</v>
+      </c>
+      <c r="F555" t="s">
         <v>464</v>
       </c>
-      <c r="D555" t="s">
+      <c r="G555" t="s">
         <v>465</v>
       </c>
-      <c r="E555" t="s">
+      <c r="H555" t="s">
         <v>466</v>
       </c>
-      <c r="F555" t="s">
+      <c r="I555" t="s">
         <v>467</v>
-      </c>
-      <c r="G555" t="s">
-        <v>468</v>
-      </c>
-      <c r="H555" t="s">
-        <v>469</v>
-      </c>
-      <c r="I555" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="556" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="3"/>
       <c r="B556" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C556" t="s">
+        <v>285</v>
+      </c>
+      <c r="D556" t="s">
+        <v>286</v>
+      </c>
+      <c r="E556" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F556" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D556" t="s">
+      <c r="G556" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E556" s="4" t="s">
+      <c r="H556" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="F556" s="4" t="s">
+      <c r="I556" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="G556" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="H556" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="I556" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="J556" s="22"/>
       <c r="K556" s="22"/>
@@ -50855,14 +50864,14 @@
     </row>
     <row r="561" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A561" s="41" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B561" s="45"/>
       <c r="E561" s="47"/>
     </row>
     <row r="562" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="16" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B562" s="21"/>
       <c r="C562" s="4"/>
@@ -50900,7 +50909,7 @@
         <v>1</v>
       </c>
       <c r="B563" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
@@ -50935,7 +50944,7 @@
     <row r="564" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="3"/>
       <c r="B564" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
@@ -51070,7 +51079,7 @@
     </row>
     <row r="569" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="16" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B569" s="21"/>
       <c r="C569" s="23"/>
@@ -51108,19 +51117,19 @@
         <v>1</v>
       </c>
       <c r="B570" t="s">
+        <v>470</v>
+      </c>
+      <c r="C570" t="s">
+        <v>471</v>
+      </c>
+      <c r="D570" t="s">
+        <v>472</v>
+      </c>
+      <c r="E570" t="s">
         <v>473</v>
       </c>
-      <c r="C570" t="s">
+      <c r="F570" t="s">
         <v>474</v>
-      </c>
-      <c r="D570" t="s">
-        <v>475</v>
-      </c>
-      <c r="E570" t="s">
-        <v>476</v>
-      </c>
-      <c r="F570" t="s">
-        <v>477</v>
       </c>
       <c r="G570" s="22"/>
       <c r="H570" s="22"/>
@@ -51129,19 +51138,19 @@
     <row r="571" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="3"/>
       <c r="B571" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C571" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D571" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E571" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C571" s="4" t="s">
+      <c r="F571" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="D571" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E571" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F571" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="G571" s="2"/>
       <c r="H571" s="2"/>
@@ -51253,7 +51262,7 @@
     </row>
     <row r="576" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="45" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B576" s="46"/>
       <c r="C576" s="46"/>
@@ -51267,7 +51276,7 @@
     </row>
     <row r="577" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B577" s="21"/>
       <c r="C577" s="23"/>
@@ -51284,13 +51293,13 @@
         <v>1</v>
       </c>
       <c r="B578" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C578" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D578" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E578" s="22"/>
       <c r="F578" s="22"/>
@@ -51302,13 +51311,13 @@
     <row r="579" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="3"/>
       <c r="B579" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D579" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E579" s="22"/>
       <c r="F579" s="22"/>
@@ -51438,19 +51447,19 @@
     <row r="585" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="3"/>
       <c r="B585" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C585" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D585" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E585" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C585" s="4" t="s">
+      <c r="F585" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="D585" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E585" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F585" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="G585" s="2"/>
       <c r="H585" s="2"/>
@@ -51531,7 +51540,7 @@
     </row>
     <row r="589" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="16" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B589" s="21"/>
       <c r="C589" s="23"/>
@@ -51543,18 +51552,18 @@
       <c r="I589" s="22"/>
       <c r="J589" s="22"/>
     </row>
-    <row r="590" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B590" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C590" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D590" t="s">
-        <v>153</v>
+      <c r="B590" s="70" t="s">
+        <v>898</v>
+      </c>
+      <c r="C590" s="70" t="s">
+        <v>899</v>
+      </c>
+      <c r="D590" s="70" t="s">
+        <v>900</v>
       </c>
       <c r="E590" s="22"/>
       <c r="F590" s="22"/>
@@ -51566,13 +51575,13 @@
     <row r="591" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="3"/>
       <c r="B591" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E591" s="22"/>
       <c r="F591" s="22"/>
@@ -51662,12 +51671,12 @@
     </row>
     <row r="598" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A598" s="41" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="599" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="16" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B599" s="21"/>
       <c r="C599" s="23"/>
@@ -51705,19 +51714,19 @@
         <v>1</v>
       </c>
       <c r="B600" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C600" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="601" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A601" s="3"/>
       <c r="B601" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E601" s="4"/>
     </row>
@@ -51764,17 +51773,17 @@
     </row>
     <row r="609" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A609" s="49" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="610" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A610" s="41" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="611" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B611" s="17"/>
       <c r="C611" s="18"/>
@@ -51790,16 +51799,16 @@
         <v>1</v>
       </c>
       <c r="B612" t="s">
+        <v>843</v>
+      </c>
+      <c r="C612" t="s">
+        <v>844</v>
+      </c>
+      <c r="D612" t="s">
+        <v>845</v>
+      </c>
+      <c r="E612" t="s">
         <v>846</v>
-      </c>
-      <c r="C612" t="s">
-        <v>847</v>
-      </c>
-      <c r="D612" t="s">
-        <v>848</v>
-      </c>
-      <c r="E612" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="613" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -51881,7 +51890,7 @@
     </row>
     <row r="617" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="16" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B617" s="17"/>
       <c r="C617" s="18"/>
@@ -51897,16 +51906,16 @@
         <v>1</v>
       </c>
       <c r="B618" t="s">
+        <v>847</v>
+      </c>
+      <c r="C618" t="s">
+        <v>848</v>
+      </c>
+      <c r="D618" t="s">
+        <v>849</v>
+      </c>
+      <c r="E618" t="s">
         <v>850</v>
-      </c>
-      <c r="C618" t="s">
-        <v>851</v>
-      </c>
-      <c r="D618" t="s">
-        <v>852</v>
-      </c>
-      <c r="E618" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="619" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -51988,12 +51997,12 @@
     </row>
     <row r="623" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A623" s="41" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="624" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="16" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B624" s="17"/>
       <c r="C624" s="18"/>
@@ -52009,16 +52018,16 @@
         <v>1</v>
       </c>
       <c r="B625" t="s">
+        <v>851</v>
+      </c>
+      <c r="C625" t="s">
+        <v>852</v>
+      </c>
+      <c r="D625" t="s">
+        <v>853</v>
+      </c>
+      <c r="E625" t="s">
         <v>854</v>
-      </c>
-      <c r="C625" t="s">
-        <v>855</v>
-      </c>
-      <c r="D625" t="s">
-        <v>856</v>
-      </c>
-      <c r="E625" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="626" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52100,7 +52109,7 @@
     </row>
     <row r="630" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B630" s="17"/>
       <c r="C630" s="18"/>
@@ -52116,16 +52125,16 @@
         <v>1</v>
       </c>
       <c r="B631" t="s">
+        <v>890</v>
+      </c>
+      <c r="C631" t="s">
+        <v>891</v>
+      </c>
+      <c r="D631" t="s">
+        <v>892</v>
+      </c>
+      <c r="E631" t="s">
         <v>893</v>
-      </c>
-      <c r="C631" t="s">
-        <v>894</v>
-      </c>
-      <c r="D631" t="s">
-        <v>895</v>
-      </c>
-      <c r="E631" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="632" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52207,12 +52216,12 @@
     </row>
     <row r="636" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A636" s="41" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="637" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="16" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B637" s="17"/>
       <c r="C637" s="18"/>
@@ -52228,16 +52237,16 @@
         <v>1</v>
       </c>
       <c r="B638" t="s">
+        <v>855</v>
+      </c>
+      <c r="C638" t="s">
+        <v>856</v>
+      </c>
+      <c r="D638" t="s">
+        <v>857</v>
+      </c>
+      <c r="E638" t="s">
         <v>858</v>
-      </c>
-      <c r="C638" t="s">
-        <v>859</v>
-      </c>
-      <c r="D638" t="s">
-        <v>860</v>
-      </c>
-      <c r="E638" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="639" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52319,7 +52328,7 @@
     </row>
     <row r="643" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B643" s="17"/>
       <c r="C643" s="18"/>
@@ -52335,16 +52344,16 @@
         <v>1</v>
       </c>
       <c r="B644" t="s">
+        <v>894</v>
+      </c>
+      <c r="C644" t="s">
+        <v>895</v>
+      </c>
+      <c r="D644" t="s">
+        <v>896</v>
+      </c>
+      <c r="E644" t="s">
         <v>897</v>
-      </c>
-      <c r="C644" t="s">
-        <v>898</v>
-      </c>
-      <c r="D644" t="s">
-        <v>899</v>
-      </c>
-      <c r="E644" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="645" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52426,12 +52435,12 @@
     </row>
     <row r="649" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A649" s="41" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="650" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="16" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B650" s="17"/>
       <c r="C650" s="18"/>
@@ -52447,16 +52456,16 @@
         <v>1</v>
       </c>
       <c r="B651" t="s">
+        <v>859</v>
+      </c>
+      <c r="C651" t="s">
+        <v>860</v>
+      </c>
+      <c r="D651" t="s">
+        <v>861</v>
+      </c>
+      <c r="E651" t="s">
         <v>862</v>
-      </c>
-      <c r="C651" t="s">
-        <v>863</v>
-      </c>
-      <c r="D651" t="s">
-        <v>864</v>
-      </c>
-      <c r="E651" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="652" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52538,12 +52547,12 @@
     </row>
     <row r="656" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A656" s="41" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="657" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="16" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B657" s="17"/>
       <c r="C657" s="18"/>
@@ -52559,16 +52568,16 @@
         <v>1</v>
       </c>
       <c r="B658" t="s">
+        <v>863</v>
+      </c>
+      <c r="C658" t="s">
+        <v>864</v>
+      </c>
+      <c r="D658" t="s">
+        <v>865</v>
+      </c>
+      <c r="E658" t="s">
         <v>866</v>
-      </c>
-      <c r="C658" t="s">
-        <v>867</v>
-      </c>
-      <c r="D658" t="s">
-        <v>868</v>
-      </c>
-      <c r="E658" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="659" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52650,7 +52659,7 @@
     </row>
     <row r="663" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B663" s="17"/>
       <c r="C663" s="18"/>
@@ -52666,16 +52675,16 @@
         <v>1</v>
       </c>
       <c r="B664" t="s">
+        <v>867</v>
+      </c>
+      <c r="C664" t="s">
+        <v>868</v>
+      </c>
+      <c r="D664" t="s">
+        <v>869</v>
+      </c>
+      <c r="E664" t="s">
         <v>870</v>
-      </c>
-      <c r="C664" t="s">
-        <v>871</v>
-      </c>
-      <c r="D664" t="s">
-        <v>872</v>
-      </c>
-      <c r="E664" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="665" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52757,12 +52766,12 @@
     </row>
     <row r="669" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A669" s="41" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="670" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="16" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B670" s="17"/>
       <c r="C670" s="18"/>
@@ -52778,16 +52787,16 @@
         <v>1</v>
       </c>
       <c r="B671" t="s">
+        <v>871</v>
+      </c>
+      <c r="C671" t="s">
+        <v>872</v>
+      </c>
+      <c r="D671" t="s">
+        <v>873</v>
+      </c>
+      <c r="E671" t="s">
         <v>874</v>
-      </c>
-      <c r="C671" t="s">
-        <v>875</v>
-      </c>
-      <c r="D671" t="s">
-        <v>876</v>
-      </c>
-      <c r="E671" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="672" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52869,7 +52878,7 @@
     </row>
     <row r="676" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B676" s="17"/>
       <c r="C676" s="18"/>
@@ -52885,16 +52894,16 @@
         <v>1</v>
       </c>
       <c r="B677" t="s">
+        <v>875</v>
+      </c>
+      <c r="C677" t="s">
+        <v>876</v>
+      </c>
+      <c r="D677" t="s">
+        <v>877</v>
+      </c>
+      <c r="E677" t="s">
         <v>878</v>
-      </c>
-      <c r="C677" t="s">
-        <v>879</v>
-      </c>
-      <c r="D677" t="s">
-        <v>880</v>
-      </c>
-      <c r="E677" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="678" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52976,7 +52985,7 @@
     </row>
     <row r="682" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="16" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B682" s="17"/>
       <c r="C682" s="18"/>
@@ -52992,13 +53001,13 @@
         <v>1</v>
       </c>
       <c r="B683" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C683" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D683" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="684" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -53069,12 +53078,12 @@
     </row>
     <row r="688" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A688" s="41" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="689" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="16" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B689" s="17"/>
       <c r="C689" s="18"/>
@@ -53090,16 +53099,16 @@
         <v>1</v>
       </c>
       <c r="B690" t="s">
+        <v>882</v>
+      </c>
+      <c r="C690" t="s">
+        <v>883</v>
+      </c>
+      <c r="D690" t="s">
+        <v>884</v>
+      </c>
+      <c r="E690" t="s">
         <v>885</v>
-      </c>
-      <c r="C690" t="s">
-        <v>886</v>
-      </c>
-      <c r="D690" t="s">
-        <v>887</v>
-      </c>
-      <c r="E690" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="691" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -53242,98 +53251,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K184" sqref="K184"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="L219" sqref="L219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B23" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B43" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B62" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B82" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B102" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B122" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B140" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B159" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B178" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B197" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -53347,7 +53356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DA447F-6B7F-45F8-94A4-FAECCB6EDF2E}">
   <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
+    <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
@@ -53360,25 +53369,25 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'Input figuren'!$B$2</f>
         <v>'s-Gravenhage</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -53387,7 +53396,7 @@
         <v>GGD Limburg-Noord</v>
       </c>
       <c r="C3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -53397,7 +53406,7 @@
     </row>
     <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B5" s="62" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -53405,19 +53414,19 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B7" s="58" t="e">
         <f>'Input figuren'!B174</f>
         <v>#N/A</v>
       </c>
       <c r="C7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -53426,7 +53435,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C8" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -53435,7 +53444,7 @@
         <v>#N/A</v>
       </c>
       <c r="C9" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -53444,7 +53453,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -53453,7 +53462,7 @@
         <v>#N/A</v>
       </c>
       <c r="C11" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -53462,25 +53471,25 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B13" s="62" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C13" s="52"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B14" s="57" t="str">
         <f>'Input figuren'!$M$25</f>
         <v>Geen waarde bekend</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -53489,7 +53498,7 @@
         <v>#N/A</v>
       </c>
       <c r="C15" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -53498,7 +53507,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C16" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -53507,7 +53516,7 @@
         <v>#N/A</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -53516,7 +53525,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C18" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -53525,19 +53534,19 @@
         <v>#N/A</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B20" s="58" t="e">
         <f>'Input figuren'!B217</f>
         <v>#N/A</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -53546,7 +53555,7 @@
         <v>#N/A</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -53555,7 +53564,7 @@
         <v>#N/A</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -53564,7 +53573,7 @@
         <v/>
       </c>
       <c r="C23" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -53573,7 +53582,7 @@
         <v>-</v>
       </c>
       <c r="C24" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -53582,7 +53591,7 @@
         <v/>
       </c>
       <c r="C25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -53591,7 +53600,7 @@
         <v>-</v>
       </c>
       <c r="C26" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -53600,7 +53609,7 @@
         <v/>
       </c>
       <c r="C27" s="52" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -53609,19 +53618,19 @@
         <v>-</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B29" s="58" t="e">
         <f>'Input figuren'!B203</f>
         <v>#N/A</v>
       </c>
       <c r="C29" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -53630,25 +53639,25 @@
         <v>#N/A</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B31" s="64" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C31" s="52"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B32" s="57" t="str">
         <f>'Input figuren'!B247</f>
         <v/>
       </c>
       <c r="C32" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -53657,7 +53666,7 @@
         <v>-</v>
       </c>
       <c r="C33" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -53666,7 +53675,7 @@
         <v/>
       </c>
       <c r="C34" s="52" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -53675,7 +53684,7 @@
         <v>-</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -53684,7 +53693,7 @@
         <v/>
       </c>
       <c r="C36" s="52" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -53693,7 +53702,7 @@
         <v>-</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -53702,7 +53711,7 @@
         <v/>
       </c>
       <c r="C38" s="52" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -53711,7 +53720,7 @@
         <v>-</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -53720,7 +53729,7 @@
         <v/>
       </c>
       <c r="C40" s="52" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -53729,7 +53738,7 @@
         <v>-</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -53738,7 +53747,7 @@
         <v/>
       </c>
       <c r="C42" s="52" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -53747,19 +53756,19 @@
         <v>-</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B44" s="58" t="e">
         <f>'Input figuren'!B267</f>
         <v>#N/A</v>
       </c>
       <c r="C44" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -53768,7 +53777,7 @@
         <v>#N/A</v>
       </c>
       <c r="C45" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -53777,7 +53786,7 @@
         <v>#N/A</v>
       </c>
       <c r="C46" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -53786,7 +53795,7 @@
         <v>#N/A</v>
       </c>
       <c r="C47" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -53795,7 +53804,7 @@
         <v>#N/A</v>
       </c>
       <c r="C48" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -53804,7 +53813,7 @@
         <v/>
       </c>
       <c r="C49" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -53813,7 +53822,7 @@
         <v>-</v>
       </c>
       <c r="C50" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -53822,7 +53831,7 @@
         <v/>
       </c>
       <c r="C51" s="52" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -53831,7 +53840,7 @@
         <v>-</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -53840,7 +53849,7 @@
         <v/>
       </c>
       <c r="C53" s="52" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -53849,7 +53858,7 @@
         <v>-</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -53858,19 +53867,19 @@
         <v>#N/A</v>
       </c>
       <c r="C55" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B56" s="58" t="e">
         <f>'Input figuren'!B309</f>
         <v>#N/A</v>
       </c>
       <c r="C56" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -53879,7 +53888,7 @@
         <v>#N/A</v>
       </c>
       <c r="C57" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -53888,7 +53897,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C58" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -53897,7 +53906,7 @@
         <v>#N/A</v>
       </c>
       <c r="C59" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -53906,7 +53915,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C60" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -53915,7 +53924,7 @@
         <v>#N/A</v>
       </c>
       <c r="C61" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -53924,7 +53933,7 @@
         <v>#N/A</v>
       </c>
       <c r="C62" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -53933,7 +53942,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C63" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -53942,7 +53951,7 @@
         <v>#N/A</v>
       </c>
       <c r="C64" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -53951,7 +53960,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C65" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -53960,19 +53969,19 @@
         <v>#N/A</v>
       </c>
       <c r="C66" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B67" s="58" t="e">
         <f>'Input figuren'!B338</f>
         <v>#N/A</v>
       </c>
       <c r="C67" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -53981,7 +53990,7 @@
         <v>#N/A</v>
       </c>
       <c r="C68" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -53990,7 +53999,7 @@
         <v>#N/A</v>
       </c>
       <c r="C69" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -53999,7 +54008,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C70" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -54008,7 +54017,7 @@
         <v>#N/A</v>
       </c>
       <c r="C71" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -54017,7 +54026,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C72" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -54026,12 +54035,12 @@
         <v>#N/A</v>
       </c>
       <c r="C73" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B74" s="62" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -54040,19 +54049,19 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B76" s="58" t="e">
         <f>'Input figuren'!B359</f>
         <v>#N/A</v>
       </c>
       <c r="C76" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -54061,7 +54070,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C77" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -54070,7 +54079,7 @@
         <v>#N/A</v>
       </c>
       <c r="C78" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -54079,7 +54088,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C79" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -54088,12 +54097,12 @@
         <v>#N/A</v>
       </c>
       <c r="C80" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B81" s="64" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -54102,19 +54111,19 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C82" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B83" s="58" t="e">
         <f>'Input figuren'!B366</f>
         <v>#N/A</v>
       </c>
       <c r="C83" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -54123,7 +54132,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -54132,7 +54141,7 @@
         <v>#N/A</v>
       </c>
       <c r="C85" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -54141,7 +54150,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C86" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -54150,19 +54159,19 @@
         <v>#N/A</v>
       </c>
       <c r="C87" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B88" s="58" t="e">
         <f>'Input figuren'!B387</f>
         <v>#N/A</v>
       </c>
       <c r="C88" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -54171,7 +54180,7 @@
         <v>#N/A</v>
       </c>
       <c r="C89" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -54180,19 +54189,19 @@
         <v>#N/A</v>
       </c>
       <c r="C90" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B91" s="58" t="e">
         <f>'Input figuren'!B408</f>
         <v>#N/A</v>
       </c>
       <c r="C91" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -54201,24 +54210,24 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C92" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B93" s="57" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B94" s="58" t="e">
         <f>'Input figuren'!B429</f>
         <v>#N/A</v>
       </c>
       <c r="C94" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -54227,7 +54236,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C95" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -54236,7 +54245,7 @@
         <v>#N/A</v>
       </c>
       <c r="C96" s="51" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -54245,7 +54254,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C97" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -54254,24 +54263,24 @@
         <v>#N/A</v>
       </c>
       <c r="C98" s="51" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B99" s="62" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B100" s="58" t="e">
         <f>'Input figuren'!B436</f>
         <v>#N/A</v>
       </c>
       <c r="C100" s="51" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -54280,7 +54289,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C101" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -54289,7 +54298,7 @@
         <v>#N/A</v>
       </c>
       <c r="C102" s="51" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -54298,7 +54307,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C103" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -54307,7 +54316,7 @@
         <v>#N/A</v>
       </c>
       <c r="C104" s="51" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -54316,24 +54325,24 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C105" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B106" s="58" t="e">
         <f>'Input figuren'!B443</f>
         <v>#N/A</v>
       </c>
       <c r="C106" s="51" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B107" s="64" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C107" s="51"/>
     </row>
@@ -54346,7 +54355,7 @@
         <v>#N/A</v>
       </c>
       <c r="C108" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -54355,7 +54364,7 @@
         <v>#N/A</v>
       </c>
       <c r="C109" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -54364,7 +54373,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C110" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -54373,7 +54382,7 @@
         <v>#N/A</v>
       </c>
       <c r="C111" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -54382,7 +54391,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C112" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -54391,7 +54400,7 @@
         <v>#N/A</v>
       </c>
       <c r="C113" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -54400,7 +54409,7 @@
         <v/>
       </c>
       <c r="C114" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -54409,7 +54418,7 @@
         <v>-</v>
       </c>
       <c r="C115" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -54418,7 +54427,7 @@
         <v/>
       </c>
       <c r="C116" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -54427,7 +54436,7 @@
         <v>-</v>
       </c>
       <c r="C117" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -54436,7 +54445,7 @@
         <v/>
       </c>
       <c r="C118" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -54445,7 +54454,7 @@
         <v>-</v>
       </c>
       <c r="C119" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -54454,7 +54463,7 @@
         <v/>
       </c>
       <c r="C120" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -54463,7 +54472,7 @@
         <v>-</v>
       </c>
       <c r="C121" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -54472,7 +54481,7 @@
         <v/>
       </c>
       <c r="C122" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -54481,24 +54490,24 @@
         <v>-</v>
       </c>
       <c r="C123" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B124" s="60" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B125" s="58" t="e">
         <f>'Input figuren'!B485</f>
         <v>#N/A</v>
       </c>
       <c r="C125" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -54507,7 +54516,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C126" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -54516,7 +54525,7 @@
         <v>#N/A</v>
       </c>
       <c r="C127" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -54525,7 +54534,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C128" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -54534,7 +54543,7 @@
         <v>#N/A</v>
       </c>
       <c r="C129" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -54543,7 +54552,7 @@
         <v>#N/A</v>
       </c>
       <c r="C130" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -54552,7 +54561,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C131" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -54561,7 +54570,7 @@
         <v>#N/A</v>
       </c>
       <c r="C132" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -54570,7 +54579,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C133" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -54579,19 +54588,19 @@
         <v>#N/A</v>
       </c>
       <c r="C134" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B135" s="58" t="e">
         <f>'Input figuren'!B507</f>
         <v>#N/A</v>
       </c>
       <c r="C135" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -54600,7 +54609,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C136" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -54609,7 +54618,7 @@
         <v>#N/A</v>
       </c>
       <c r="C137" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -54618,7 +54627,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C138" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -54627,12 +54636,12 @@
         <v>#N/A</v>
       </c>
       <c r="C139" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B140" s="64" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -54641,7 +54650,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C141" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -54650,7 +54659,7 @@
         <v>#N/A</v>
       </c>
       <c r="C142" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -54659,19 +54668,19 @@
         <v>#N/A</v>
       </c>
       <c r="C143" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B144" s="58" t="e">
         <f>'Input figuren'!B535</f>
         <v>#N/A</v>
       </c>
       <c r="C144" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -54680,7 +54689,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C145" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -54689,7 +54698,7 @@
         <v>#N/A</v>
       </c>
       <c r="C146" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -54698,7 +54707,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C147" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -54707,24 +54716,24 @@
         <v>#N/A</v>
       </c>
       <c r="C148" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B149" s="64" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B150" s="58" t="e">
         <f>'Input figuren'!B543</f>
         <v>#N/A</v>
       </c>
       <c r="C150" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -54733,7 +54742,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C151" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -54742,7 +54751,7 @@
         <v>#N/A</v>
       </c>
       <c r="C152" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -54751,7 +54760,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C153" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -54760,12 +54769,12 @@
         <v>#N/A</v>
       </c>
       <c r="C154" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B155" s="64" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -54774,19 +54783,19 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C156" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B157" s="58" t="e">
         <f>'Input figuren'!B550</f>
         <v>#N/A</v>
       </c>
       <c r="C157" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -54795,7 +54804,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C158" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -54804,7 +54813,7 @@
         <v>#N/A</v>
       </c>
       <c r="C159" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -54813,7 +54822,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C160" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -54822,24 +54831,24 @@
         <v>#N/A</v>
       </c>
       <c r="C161" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B162" s="64" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B163" s="58" t="e">
         <f>'Input figuren'!B557</f>
         <v>#N/A</v>
       </c>
       <c r="C163" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -54848,7 +54857,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C164" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -54857,7 +54866,7 @@
         <v>#N/A</v>
       </c>
       <c r="C165" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -54866,7 +54875,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C166" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -54875,29 +54884,29 @@
         <v>#N/A</v>
       </c>
       <c r="C167" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B168" s="64" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B169" s="64" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B170" s="58" t="e">
         <f>'Input figuren'!B565</f>
         <v>#N/A</v>
       </c>
       <c r="C170" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -54906,7 +54915,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C171" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -54915,7 +54924,7 @@
         <v>#N/A</v>
       </c>
       <c r="C172" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -54924,7 +54933,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C173" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -54933,7 +54942,7 @@
         <v>#N/A</v>
       </c>
       <c r="C174" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -54942,19 +54951,19 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C175" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B176" s="58" t="e">
         <f>'Input figuren'!B572</f>
         <v>#N/A</v>
       </c>
       <c r="C176" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -54963,7 +54972,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C177" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -54972,7 +54981,7 @@
         <v>#N/A</v>
       </c>
       <c r="C178" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -54981,7 +54990,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C179" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -54990,7 +54999,7 @@
         <v>#N/A</v>
       </c>
       <c r="C180" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -54999,24 +55008,24 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C181" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B182" s="62" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B183" s="59" t="e">
         <f>'Input figuren'!C602</f>
         <v>#N/A</v>
       </c>
       <c r="C183" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -55025,15 +55034,15 @@
         <v>#N/A</v>
       </c>
       <c r="C184" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B185" s="64" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -55041,19 +55050,19 @@
         <v>4</v>
       </c>
       <c r="B186" s="64" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B187" s="58" t="e">
         <f>'Input figuren'!B592</f>
         <v>#N/A</v>
       </c>
       <c r="C187" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -55062,7 +55071,7 @@
         <v>#N/A</v>
       </c>
       <c r="C188" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -55071,220 +55080,220 @@
         <v>#N/A</v>
       </c>
       <c r="C189" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B190" s="62" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B191" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B192" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="57" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -55294,21 +55303,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4EA295FB1FB9547A73C9F5819D6E613" ma:contentTypeVersion="18" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="28eb2357e4224e96db2ca2d9fdff096e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4e95bed8-6d15-4403-ad70-a53422338dca" xmlns:ns3="10d3344f-2d16-43d9-a145-97142f5cb288" xmlns:ns4="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22228b78e9367ad139f599631bc89b0b" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <xsd:import namespace="10d3344f-2d16-43d9-a145-97142f5cb288"/>
-    <xsd:import namespace="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051EADF00008FE940B6D6113F52FEFE07" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="de54f9bfbc872adfb1e45e58ab594378">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aff6d44e-ba2a-4228-961e-5f8ded2976ff" xmlns:ns3="9c2910e3-625d-4012-8056-81ea95a8d605" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b24c634e1a4a376b30a44f03332f2b69" ns2:_="" ns3:_="">
+    <xsd:import namespace="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
+    <xsd:import namespace="9c2910e3-625d-4012-8056-81ea95a8d605"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -55317,21 +55315,18 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -55339,21 +55334,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="24" nillable="true" ma:displayName="Eigenschappen van het geïntegreerd beleid voor naleving" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="25" nillable="true" ma:displayName="Actie van de gebruikersinterface van het geïntegreerd beleid voor naleving" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4e95bed8-6d15-4403-ad70-a53422338dca" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aff6d44e-ba2a-4228-961e-5f8ded2976ff" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -55366,67 +55347,62 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6a01bbcf-c6fe-4904-b3d7-d8e248b039cf" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01f4d491-042e-4ee2-b918-9d210a552170" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="23" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="10d3344f-2d16-43d9-a145-97142f5cb288" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c2910e3-625d-4012-8056-81ea95a8d605" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Gedeeld met" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Gedeeld met" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -55445,18 +55421,14 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{fa7ae801-cb9e-41d3-a15b-605146dc1d91}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="10d3344f-2d16-43d9-a145-97142f5cb288">
+    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d97a7472-5ada-4db9-9801-9cc81175ad27}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9c2910e3-625d-4012-8056-81ea95a8d605">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -55567,14 +55539,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2379937A-B304-4F82-A933-E639453C0BA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
+    <ds:schemaRef ds:uri="9c2910e3-625d-4012-8056-81ea95a8d605"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D77EF3D-97BD-4AE7-AC41-2144F42901DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85B4B474-A958-436C-B182-ACD4408E959D}"/>
 </file>
--- a/Concept Rapportage VO.xlsx
+++ b/Concept Rapportage VO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ggdghornederland.sharepoint.com/sites/tss_Monitors/Gedeelde documenten/10 c. Gezondheidsmonitor V&amp;O 2022/Rapportage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{083701A9-B2F2-4498-BE7F-4661D89117A5}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09501088-8C79-41D2-9F78-E753AE738838}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1504,9 +1504,6 @@
     <t>Respons_perc</t>
   </si>
   <si>
-    <t>respons_nr</t>
-  </si>
-  <si>
     <t>Percentage</t>
   </si>
   <si>
@@ -2744,6 +2741,9 @@
   </si>
   <si>
     <t>Opleiding_samind_3cat_3</t>
+  </si>
+  <si>
+    <t>respons_aantal</t>
   </si>
 </sst>
 </file>
@@ -3095,10 +3095,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -32346,8 +32346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE693"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" topLeftCell="A575" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C600" sqref="C600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -32379,7 +32379,7 @@
         <v>394</v>
       </c>
       <c r="C2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -32387,10 +32387,10 @@
         <v>396</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -32410,7 +32410,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B6" s="3"/>
     </row>
@@ -32431,13 +32431,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>394</v>
@@ -32448,10 +32448,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -32496,10 +32496,10 @@
         <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E15" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -32511,10 +32511,10 @@
         <v>400</v>
       </c>
       <c r="D16" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E16" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -32524,7 +32524,7 @@
         <v>401</v>
       </c>
       <c r="D17" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -32596,7 +32596,7 @@
       </c>
       <c r="I23" s="31"/>
       <c r="J23" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K23" s="31"/>
       <c r="L23" s="11" t="s">
@@ -36855,7 +36855,7 @@
     </row>
     <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="68" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>233</v>
@@ -36905,7 +36905,7 @@
     </row>
     <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="68" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B110" s="20" t="s">
         <v>234</v>
@@ -38555,7 +38555,7 @@
     </row>
     <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B143" s="20" t="s">
         <v>264</v>
@@ -38756,8 +38756,8 @@
       <c r="I151" s="22"/>
     </row>
     <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="70" t="s">
-        <v>900</v>
+      <c r="A152" s="69" t="s">
+        <v>899</v>
       </c>
       <c r="B152" s="20" t="s">
         <v>273</v>
@@ -38775,8 +38775,8 @@
       <c r="I152" s="22"/>
     </row>
     <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="70" t="s">
-        <v>899</v>
+      <c r="A153" s="69" t="s">
+        <v>898</v>
       </c>
       <c r="B153" s="20" t="s">
         <v>274</v>
@@ -38794,8 +38794,8 @@
       <c r="I153" s="22"/>
     </row>
     <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="70" t="s">
-        <v>898</v>
+      <c r="A154" s="69" t="s">
+        <v>897</v>
       </c>
       <c r="B154" s="20" t="s">
         <v>275</v>
@@ -38816,7 +38816,7 @@
     <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="157" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="41" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B157" s="42"/>
       <c r="C157" s="43"/>
@@ -38847,13 +38847,13 @@
         <v>1</v>
       </c>
       <c r="B159" t="s">
+        <v>830</v>
+      </c>
+      <c r="C159" t="s">
         <v>831</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>832</v>
-      </c>
-      <c r="D159" t="s">
-        <v>833</v>
       </c>
       <c r="E159" t="s">
         <v>284</v>
@@ -38889,7 +38889,7 @@
         <v>292</v>
       </c>
       <c r="E160" s="63" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>290</v>
@@ -39145,7 +39145,7 @@
     </row>
     <row r="170" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B170" s="42"/>
       <c r="C170" s="42"/>
@@ -39394,7 +39394,7 @@
     </row>
     <row r="185" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="41" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B185" s="46"/>
       <c r="C185" s="47"/>
@@ -39447,7 +39447,7 @@
     <row r="188" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="19"/>
       <c r="B188" s="63" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>290</v>
@@ -39666,94 +39666,94 @@
     <row r="194" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="19"/>
       <c r="B194" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="C194" s="53" t="s">
         <v>590</v>
       </c>
-      <c r="C194" s="53" t="s">
+      <c r="D194" s="53" t="s">
         <v>591</v>
       </c>
-      <c r="D194" s="53" t="s">
+      <c r="E194" s="53" t="s">
         <v>592</v>
       </c>
-      <c r="E194" s="53" t="s">
+      <c r="F194" s="53" t="s">
         <v>593</v>
       </c>
-      <c r="F194" s="53" t="s">
+      <c r="G194" s="53" t="s">
         <v>594</v>
       </c>
-      <c r="G194" s="53" t="s">
+      <c r="H194" s="53" t="s">
         <v>595</v>
       </c>
-      <c r="H194" s="53" t="s">
+      <c r="I194" s="53" t="s">
         <v>596</v>
       </c>
-      <c r="I194" s="53" t="s">
+      <c r="J194" s="53" t="s">
         <v>597</v>
       </c>
-      <c r="J194" s="53" t="s">
+      <c r="K194" s="53" t="s">
         <v>598</v>
       </c>
-      <c r="K194" s="53" t="s">
+      <c r="L194" s="53" t="s">
         <v>599</v>
       </c>
-      <c r="L194" s="53" t="s">
+      <c r="M194" s="53" t="s">
         <v>600</v>
       </c>
-      <c r="M194" s="53" t="s">
+      <c r="N194" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="N194" s="53" t="s">
+      <c r="O194" s="53" t="s">
         <v>602</v>
       </c>
-      <c r="O194" s="53" t="s">
+      <c r="P194" s="53" t="s">
         <v>603</v>
       </c>
-      <c r="P194" s="53" t="s">
+      <c r="Q194" s="53" t="s">
         <v>604</v>
       </c>
-      <c r="Q194" s="53" t="s">
+      <c r="R194" s="53" t="s">
         <v>605</v>
       </c>
-      <c r="R194" s="53" t="s">
+      <c r="S194" s="53" t="s">
         <v>606</v>
       </c>
-      <c r="S194" s="53" t="s">
+      <c r="T194" s="53" t="s">
         <v>607</v>
       </c>
-      <c r="T194" s="53" t="s">
+      <c r="U194" s="53" t="s">
         <v>608</v>
       </c>
-      <c r="U194" s="53" t="s">
+      <c r="V194" s="53" t="s">
         <v>609</v>
       </c>
-      <c r="V194" s="53" t="s">
+      <c r="W194" s="53" t="s">
         <v>610</v>
       </c>
-      <c r="W194" s="53" t="s">
+      <c r="X194" s="53" t="s">
         <v>611</v>
       </c>
-      <c r="X194" s="53" t="s">
+      <c r="Y194" s="53" t="s">
         <v>612</v>
       </c>
-      <c r="Y194" s="53" t="s">
+      <c r="Z194" s="53" t="s">
         <v>613</v>
       </c>
-      <c r="Z194" s="53" t="s">
+      <c r="AA194" s="53" t="s">
         <v>614</v>
       </c>
-      <c r="AA194" s="53" t="s">
+      <c r="AB194" s="53" t="s">
         <v>615</v>
       </c>
-      <c r="AB194" s="53" t="s">
+      <c r="AC194" s="53" t="s">
         <v>616</v>
       </c>
-      <c r="AC194" s="53" t="s">
+      <c r="AD194" s="53" t="s">
         <v>617</v>
       </c>
-      <c r="AD194" s="53" t="s">
+      <c r="AE194" s="53" t="s">
         <v>618</v>
-      </c>
-      <c r="AE194" s="53" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="195" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -40167,7 +40167,7 @@
     </row>
     <row r="199" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="45" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B199" s="47"/>
       <c r="C199" s="47"/>
@@ -40419,7 +40419,7 @@
     </row>
     <row r="207" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B207" s="17"/>
       <c r="C207" s="1"/>
@@ -41344,7 +41344,7 @@
     </row>
     <row r="235" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B235" s="46"/>
       <c r="C235" s="47"/>
@@ -41391,16 +41391,16 @@
     </row>
     <row r="238" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="C238" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="C238" s="13" t="s">
+      <c r="D238" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="D238" s="13" t="s">
+      <c r="E238" s="13" t="s">
         <v>539</v>
-      </c>
-      <c r="E238" s="13" t="s">
-        <v>540</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="5"/>
@@ -41524,31 +41524,31 @@
     <row r="244" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="19"/>
       <c r="B244" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="C244" s="54" t="s">
+        <v>621</v>
+      </c>
+      <c r="D244" s="54" t="s">
         <v>620</v>
       </c>
-      <c r="C244" s="54" t="s">
+      <c r="E244" s="54" t="s">
         <v>622</v>
       </c>
-      <c r="D244" s="54" t="s">
-        <v>621</v>
-      </c>
-      <c r="E244" s="54" t="s">
+      <c r="F244" s="54" t="s">
         <v>623</v>
       </c>
-      <c r="F244" s="54" t="s">
+      <c r="G244" s="54" t="s">
         <v>624</v>
       </c>
-      <c r="G244" s="54" t="s">
+      <c r="H244" s="54" t="s">
         <v>625</v>
       </c>
-      <c r="H244" s="54" t="s">
+      <c r="I244" s="54" t="s">
         <v>626</v>
       </c>
-      <c r="I244" s="54" t="s">
+      <c r="J244" s="53" t="s">
         <v>627</v>
-      </c>
-      <c r="J244" s="53" t="s">
-        <v>628</v>
       </c>
       <c r="K244" s="53" t="s">
         <v>480</v>
@@ -41781,46 +41781,46 @@
     <row r="251" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="19"/>
       <c r="B251" s="53" t="s">
+        <v>628</v>
+      </c>
+      <c r="C251" s="53" t="s">
         <v>629</v>
       </c>
-      <c r="C251" s="53" t="s">
+      <c r="D251" s="54" t="s">
         <v>630</v>
       </c>
-      <c r="D251" s="54" t="s">
+      <c r="E251" s="54" t="s">
         <v>631</v>
       </c>
-      <c r="E251" s="54" t="s">
+      <c r="F251" s="54" t="s">
         <v>632</v>
       </c>
-      <c r="F251" s="54" t="s">
+      <c r="G251" s="54" t="s">
         <v>633</v>
       </c>
-      <c r="G251" s="54" t="s">
+      <c r="H251" s="54" t="s">
         <v>634</v>
       </c>
-      <c r="H251" s="54" t="s">
+      <c r="I251" s="54" t="s">
         <v>635</v>
       </c>
-      <c r="I251" s="54" t="s">
+      <c r="J251" s="54" t="s">
         <v>636</v>
       </c>
-      <c r="J251" s="54" t="s">
+      <c r="K251" s="54" t="s">
         <v>637</v>
       </c>
-      <c r="K251" s="54" t="s">
+      <c r="L251" s="54" t="s">
         <v>638</v>
       </c>
-      <c r="L251" s="54" t="s">
+      <c r="M251" s="54" t="s">
         <v>639</v>
       </c>
-      <c r="M251" s="54" t="s">
+      <c r="N251" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="N251" s="54" t="s">
+      <c r="O251" s="54" t="s">
         <v>641</v>
-      </c>
-      <c r="O251" s="54" t="s">
-        <v>642</v>
       </c>
       <c r="P251" s="54" t="s">
         <v>480</v>
@@ -42079,22 +42079,22 @@
     <row r="258" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="19"/>
       <c r="B258" s="56" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C258" s="56" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D258" s="56" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E258" s="55" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F258" s="55" t="s">
+        <v>779</v>
+      </c>
+      <c r="G258" s="55" t="s">
         <v>780</v>
-      </c>
-      <c r="G258" s="55" t="s">
-        <v>781</v>
       </c>
       <c r="H258" s="20"/>
       <c r="I258" s="20"/>
@@ -42241,7 +42241,7 @@
     </row>
     <row r="263" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="45" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B263" s="48"/>
       <c r="C263" s="47"/>
@@ -44301,7 +44301,7 @@
     </row>
     <row r="327" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B327" s="46"/>
       <c r="C327" s="47"/>
@@ -44332,13 +44332,13 @@
         <v>1</v>
       </c>
       <c r="B329" t="s">
+        <v>833</v>
+      </c>
+      <c r="C329" t="s">
         <v>834</v>
       </c>
-      <c r="C329" t="s">
+      <c r="D329" t="s">
         <v>835</v>
-      </c>
-      <c r="D329" t="s">
-        <v>836</v>
       </c>
       <c r="E329" t="s">
         <v>335</v>
@@ -44374,7 +44374,7 @@
         <v>292</v>
       </c>
       <c r="E330" s="63" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F330" s="5" t="s">
         <v>290</v>
@@ -44501,7 +44501,7 @@
     </row>
     <row r="334" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B334" s="46"/>
       <c r="C334" s="46"/>
@@ -44932,14 +44932,14 @@
       <c r="K347" s="5"/>
     </row>
     <row r="348" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B348" s="69"/>
-      <c r="C348" s="69"/>
+      <c r="B348" s="70"/>
+      <c r="C348" s="70"/>
       <c r="D348" s="3"/>
-      <c r="E348" s="69"/>
-      <c r="F348" s="69"/>
-      <c r="G348" s="69"/>
-      <c r="H348" s="69"/>
-      <c r="I348" s="69"/>
+      <c r="E348" s="70"/>
+      <c r="F348" s="70"/>
+      <c r="G348" s="70"/>
+      <c r="H348" s="70"/>
+      <c r="I348" s="70"/>
     </row>
     <row r="349" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="16" t="s">
@@ -45196,7 +45196,7 @@
         <v>1</v>
       </c>
       <c r="B357" s="67" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -45375,7 +45375,7 @@
     </row>
     <row r="363" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="16" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B363" s="21"/>
       <c r="C363" s="4"/>
@@ -45413,7 +45413,7 @@
         <v>1</v>
       </c>
       <c r="B364" s="67" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -45590,7 +45590,7 @@
     </row>
     <row r="370" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="45" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G370" s="46"/>
       <c r="H370" s="46"/>
@@ -45616,13 +45616,13 @@
         <v>1</v>
       </c>
       <c r="B372" t="s">
+        <v>836</v>
+      </c>
+      <c r="C372" t="s">
         <v>837</v>
       </c>
-      <c r="C372" t="s">
+      <c r="D372" t="s">
         <v>838</v>
-      </c>
-      <c r="D372" t="s">
-        <v>839</v>
       </c>
       <c r="E372" t="s">
         <v>347</v>
@@ -45658,7 +45658,7 @@
         <v>292</v>
       </c>
       <c r="E373" s="63" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F373" s="5" t="s">
         <v>290</v>
@@ -45797,13 +45797,13 @@
         <v>1</v>
       </c>
       <c r="B378" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C378" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D378" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E378" t="s">
         <v>355</v>
@@ -45839,7 +45839,7 @@
         <v>292</v>
       </c>
       <c r="E379" s="63" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F379" s="5" t="s">
         <v>290</v>
@@ -45965,7 +45965,7 @@
     </row>
     <row r="383" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B383" s="46"/>
       <c r="C383" s="46"/>
@@ -46396,14 +46396,14 @@
       <c r="K396" s="5"/>
     </row>
     <row r="397" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B397" s="69"/>
-      <c r="C397" s="69"/>
+      <c r="B397" s="70"/>
+      <c r="C397" s="70"/>
       <c r="D397" s="3"/>
-      <c r="E397" s="69"/>
-      <c r="F397" s="69"/>
-      <c r="G397" s="69"/>
-      <c r="H397" s="69"/>
-      <c r="I397" s="69"/>
+      <c r="E397" s="70"/>
+      <c r="F397" s="70"/>
+      <c r="G397" s="70"/>
+      <c r="H397" s="70"/>
+      <c r="I397" s="70"/>
     </row>
     <row r="398" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="16" t="s">
@@ -46858,7 +46858,7 @@
     </row>
     <row r="412" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B412" s="46"/>
       <c r="C412" s="46"/>
@@ -47176,7 +47176,7 @@
     </row>
     <row r="425" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B425" s="47"/>
       <c r="C425" s="47"/>
@@ -47389,14 +47389,14 @@
       <c r="K431" s="5"/>
     </row>
     <row r="432" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B432" s="69"/>
-      <c r="C432" s="69"/>
+      <c r="B432" s="70"/>
+      <c r="C432" s="70"/>
       <c r="D432" s="3"/>
-      <c r="E432" s="69"/>
-      <c r="F432" s="69"/>
-      <c r="G432" s="69"/>
-      <c r="H432" s="69"/>
-      <c r="I432" s="69"/>
+      <c r="E432" s="70"/>
+      <c r="F432" s="70"/>
+      <c r="G432" s="70"/>
+      <c r="H432" s="70"/>
+      <c r="I432" s="70"/>
     </row>
     <row r="433" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="16" t="s">
@@ -47831,7 +47831,7 @@
     </row>
     <row r="447" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="41" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B447" s="45"/>
       <c r="C447" s="46"/>
@@ -47897,37 +47897,37 @@
     <row r="450" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="3"/>
       <c r="B450" s="53" t="s">
+        <v>696</v>
+      </c>
+      <c r="C450" s="53" t="s">
         <v>697</v>
       </c>
-      <c r="C450" s="53" t="s">
+      <c r="D450" s="53" t="s">
         <v>698</v>
       </c>
-      <c r="D450" s="53" t="s">
+      <c r="E450" s="53" t="s">
         <v>699</v>
       </c>
-      <c r="E450" s="53" t="s">
+      <c r="F450" s="53" t="s">
         <v>700</v>
       </c>
-      <c r="F450" s="53" t="s">
+      <c r="G450" s="53" t="s">
         <v>701</v>
       </c>
-      <c r="G450" s="53" t="s">
+      <c r="H450" s="53" t="s">
         <v>702</v>
       </c>
-      <c r="H450" s="53" t="s">
+      <c r="I450" s="53" t="s">
         <v>703</v>
       </c>
-      <c r="I450" s="53" t="s">
+      <c r="J450" s="53" t="s">
         <v>704</v>
       </c>
-      <c r="J450" s="53" t="s">
+      <c r="K450" s="53" t="s">
         <v>705</v>
       </c>
-      <c r="K450" s="53" t="s">
+      <c r="L450" s="53" t="s">
         <v>706</v>
-      </c>
-      <c r="L450" s="53" t="s">
-        <v>707</v>
       </c>
       <c r="N450" s="20"/>
       <c r="O450" s="20"/>
@@ -48407,7 +48407,7 @@
     </row>
     <row r="467" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="45" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B467" s="47"/>
       <c r="C467" s="47"/>
@@ -48620,14 +48620,14 @@
       <c r="K473" s="5"/>
     </row>
     <row r="474" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B474" s="69"/>
-      <c r="C474" s="69"/>
+      <c r="B474" s="70"/>
+      <c r="C474" s="70"/>
       <c r="D474" s="3"/>
-      <c r="E474" s="69"/>
-      <c r="F474" s="69"/>
-      <c r="G474" s="69"/>
-      <c r="H474" s="69"/>
-      <c r="I474" s="69"/>
+      <c r="E474" s="70"/>
+      <c r="F474" s="70"/>
+      <c r="G474" s="70"/>
+      <c r="H474" s="70"/>
+      <c r="I474" s="70"/>
     </row>
     <row r="475" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="16" t="s">
@@ -49264,7 +49264,7 @@
     </row>
     <row r="496" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="41" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B496" s="45"/>
       <c r="E496" s="47"/>
@@ -49415,7 +49415,7 @@
     </row>
     <row r="503" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="41" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B503" s="45"/>
       <c r="E503" s="47"/>
@@ -50363,7 +50363,7 @@
     </row>
     <row r="539" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A539" s="41" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B539" s="45"/>
       <c r="E539" s="47"/>
@@ -50864,7 +50864,7 @@
     </row>
     <row r="561" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A561" s="41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B561" s="45"/>
       <c r="E561" s="47"/>
@@ -50909,7 +50909,7 @@
         <v>1</v>
       </c>
       <c r="B563" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
@@ -51262,7 +51262,7 @@
     </row>
     <row r="576" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B576" s="46"/>
       <c r="C576" s="46"/>
@@ -51556,14 +51556,14 @@
       <c r="A590" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B590" s="70" t="s">
+      <c r="B590" s="69" t="s">
+        <v>897</v>
+      </c>
+      <c r="C590" s="69" t="s">
         <v>898</v>
       </c>
-      <c r="C590" s="70" t="s">
+      <c r="D590" s="69" t="s">
         <v>899</v>
-      </c>
-      <c r="D590" s="70" t="s">
-        <v>900</v>
       </c>
       <c r="E590" s="22"/>
       <c r="F590" s="22"/>
@@ -51671,7 +51671,7 @@
     </row>
     <row r="598" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A598" s="41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="599" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -51717,16 +51717,16 @@
         <v>486</v>
       </c>
       <c r="C600" t="s">
-        <v>487</v>
+        <v>900</v>
       </c>
     </row>
     <row r="601" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A601" s="3"/>
       <c r="B601" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C601" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="C601" s="4" t="s">
-        <v>489</v>
       </c>
       <c r="E601" s="4"/>
     </row>
@@ -51773,12 +51773,12 @@
     </row>
     <row r="609" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A609" s="49" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="610" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A610" s="41" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="611" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -51799,16 +51799,16 @@
         <v>1</v>
       </c>
       <c r="B612" t="s">
+        <v>842</v>
+      </c>
+      <c r="C612" t="s">
         <v>843</v>
       </c>
-      <c r="C612" t="s">
+      <c r="D612" t="s">
         <v>844</v>
       </c>
-      <c r="D612" t="s">
+      <c r="E612" t="s">
         <v>845</v>
-      </c>
-      <c r="E612" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="613" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -51890,7 +51890,7 @@
     </row>
     <row r="617" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B617" s="17"/>
       <c r="C617" s="18"/>
@@ -51906,16 +51906,16 @@
         <v>1</v>
       </c>
       <c r="B618" t="s">
+        <v>846</v>
+      </c>
+      <c r="C618" t="s">
         <v>847</v>
       </c>
-      <c r="C618" t="s">
+      <c r="D618" t="s">
         <v>848</v>
       </c>
-      <c r="D618" t="s">
+      <c r="E618" t="s">
         <v>849</v>
-      </c>
-      <c r="E618" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="619" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -51997,7 +51997,7 @@
     </row>
     <row r="623" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A623" s="41" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="624" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52018,16 +52018,16 @@
         <v>1</v>
       </c>
       <c r="B625" t="s">
+        <v>850</v>
+      </c>
+      <c r="C625" t="s">
         <v>851</v>
       </c>
-      <c r="C625" t="s">
+      <c r="D625" t="s">
         <v>852</v>
       </c>
-      <c r="D625" t="s">
+      <c r="E625" t="s">
         <v>853</v>
-      </c>
-      <c r="E625" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="626" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52125,16 +52125,16 @@
         <v>1</v>
       </c>
       <c r="B631" t="s">
+        <v>889</v>
+      </c>
+      <c r="C631" t="s">
         <v>890</v>
       </c>
-      <c r="C631" t="s">
+      <c r="D631" t="s">
         <v>891</v>
       </c>
-      <c r="D631" t="s">
+      <c r="E631" t="s">
         <v>892</v>
-      </c>
-      <c r="E631" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="632" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52216,12 +52216,12 @@
     </row>
     <row r="636" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A636" s="41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="637" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B637" s="17"/>
       <c r="C637" s="18"/>
@@ -52237,16 +52237,16 @@
         <v>1</v>
       </c>
       <c r="B638" t="s">
+        <v>854</v>
+      </c>
+      <c r="C638" t="s">
         <v>855</v>
       </c>
-      <c r="C638" t="s">
+      <c r="D638" t="s">
         <v>856</v>
       </c>
-      <c r="D638" t="s">
+      <c r="E638" t="s">
         <v>857</v>
-      </c>
-      <c r="E638" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="639" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52344,16 +52344,16 @@
         <v>1</v>
       </c>
       <c r="B644" t="s">
+        <v>893</v>
+      </c>
+      <c r="C644" t="s">
         <v>894</v>
       </c>
-      <c r="C644" t="s">
+      <c r="D644" t="s">
         <v>895</v>
       </c>
-      <c r="D644" t="s">
+      <c r="E644" t="s">
         <v>896</v>
-      </c>
-      <c r="E644" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="645" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52435,12 +52435,12 @@
     </row>
     <row r="649" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A649" s="41" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="650" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B650" s="17"/>
       <c r="C650" s="18"/>
@@ -52456,16 +52456,16 @@
         <v>1</v>
       </c>
       <c r="B651" t="s">
+        <v>858</v>
+      </c>
+      <c r="C651" t="s">
         <v>859</v>
       </c>
-      <c r="C651" t="s">
+      <c r="D651" t="s">
         <v>860</v>
       </c>
-      <c r="D651" t="s">
+      <c r="E651" t="s">
         <v>861</v>
-      </c>
-      <c r="E651" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="652" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52547,7 +52547,7 @@
     </row>
     <row r="656" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A656" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="657" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52568,16 +52568,16 @@
         <v>1</v>
       </c>
       <c r="B658" t="s">
+        <v>862</v>
+      </c>
+      <c r="C658" t="s">
         <v>863</v>
       </c>
-      <c r="C658" t="s">
+      <c r="D658" t="s">
         <v>864</v>
       </c>
-      <c r="D658" t="s">
+      <c r="E658" t="s">
         <v>865</v>
-      </c>
-      <c r="E658" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="659" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52675,16 +52675,16 @@
         <v>1</v>
       </c>
       <c r="B664" t="s">
+        <v>866</v>
+      </c>
+      <c r="C664" t="s">
         <v>867</v>
       </c>
-      <c r="C664" t="s">
+      <c r="D664" t="s">
         <v>868</v>
       </c>
-      <c r="D664" t="s">
+      <c r="E664" t="s">
         <v>869</v>
-      </c>
-      <c r="E664" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="665" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52766,12 +52766,12 @@
     </row>
     <row r="669" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A669" s="41" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="670" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B670" s="17"/>
       <c r="C670" s="18"/>
@@ -52787,16 +52787,16 @@
         <v>1</v>
       </c>
       <c r="B671" t="s">
+        <v>870</v>
+      </c>
+      <c r="C671" t="s">
         <v>871</v>
       </c>
-      <c r="C671" t="s">
+      <c r="D671" t="s">
         <v>872</v>
       </c>
-      <c r="D671" t="s">
+      <c r="E671" t="s">
         <v>873</v>
-      </c>
-      <c r="E671" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="672" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -52878,7 +52878,7 @@
     </row>
     <row r="676" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B676" s="17"/>
       <c r="C676" s="18"/>
@@ -52894,16 +52894,16 @@
         <v>1</v>
       </c>
       <c r="B677" t="s">
+        <v>874</v>
+      </c>
+      <c r="C677" t="s">
         <v>875</v>
       </c>
-      <c r="C677" t="s">
+      <c r="D677" t="s">
         <v>876</v>
       </c>
-      <c r="D677" t="s">
+      <c r="E677" t="s">
         <v>877</v>
-      </c>
-      <c r="E677" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="678" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -53001,13 +53001,13 @@
         <v>1</v>
       </c>
       <c r="B683" t="s">
+        <v>878</v>
+      </c>
+      <c r="C683" t="s">
         <v>879</v>
       </c>
-      <c r="C683" t="s">
+      <c r="D683" t="s">
         <v>880</v>
-      </c>
-      <c r="D683" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="684" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -53078,7 +53078,7 @@
     </row>
     <row r="688" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A688" s="41" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="689" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -53099,16 +53099,16 @@
         <v>1</v>
       </c>
       <c r="B690" t="s">
+        <v>881</v>
+      </c>
+      <c r="C690" t="s">
         <v>882</v>
       </c>
-      <c r="C690" t="s">
+      <c r="D690" t="s">
         <v>883</v>
       </c>
-      <c r="D690" t="s">
+      <c r="E690" t="s">
         <v>884</v>
-      </c>
-      <c r="E690" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="691" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -53259,7 +53259,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B1" t="s">
         <v>387</v>
@@ -53267,7 +53267,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B23" t="s">
         <v>388</v>
@@ -53275,7 +53275,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B43" t="s">
         <v>389</v>
@@ -53283,7 +53283,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B62" t="s">
         <v>390</v>
@@ -53291,7 +53291,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B82" t="s">
         <v>391</v>
@@ -53299,7 +53299,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B102" t="s">
         <v>392</v>
@@ -53307,42 +53307,42 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B122" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B140" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B159" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B178" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B197" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -53369,25 +53369,25 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'Input figuren'!$B$2</f>
         <v>'s-Gravenhage</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -53396,7 +53396,7 @@
         <v>GGD Limburg-Noord</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -53406,7 +53406,7 @@
     </row>
     <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B5" s="62" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -53414,19 +53414,19 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B7" s="58" t="e">
         <f>'Input figuren'!B174</f>
         <v>#N/A</v>
       </c>
       <c r="C7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -53435,7 +53435,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -53444,7 +53444,7 @@
         <v>#N/A</v>
       </c>
       <c r="C9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -53453,7 +53453,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -53462,7 +53462,7 @@
         <v>#N/A</v>
       </c>
       <c r="C11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -53471,25 +53471,25 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B13" s="62" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C13" s="52"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B14" s="57" t="str">
         <f>'Input figuren'!$M$25</f>
         <v>Geen waarde bekend</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -53498,7 +53498,7 @@
         <v>#N/A</v>
       </c>
       <c r="C15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -53507,7 +53507,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -53516,7 +53516,7 @@
         <v>#N/A</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -53525,7 +53525,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -53534,19 +53534,19 @@
         <v>#N/A</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B20" s="58" t="e">
         <f>'Input figuren'!B217</f>
         <v>#N/A</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -53555,7 +53555,7 @@
         <v>#N/A</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -53564,7 +53564,7 @@
         <v>#N/A</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -53573,7 +53573,7 @@
         <v/>
       </c>
       <c r="C23" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -53582,7 +53582,7 @@
         <v>-</v>
       </c>
       <c r="C24" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -53591,7 +53591,7 @@
         <v/>
       </c>
       <c r="C25" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -53600,7 +53600,7 @@
         <v>-</v>
       </c>
       <c r="C26" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -53609,7 +53609,7 @@
         <v/>
       </c>
       <c r="C27" s="52" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -53618,19 +53618,19 @@
         <v>-</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B29" s="58" t="e">
         <f>'Input figuren'!B203</f>
         <v>#N/A</v>
       </c>
       <c r="C29" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -53639,25 +53639,25 @@
         <v>#N/A</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B31" s="64" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C31" s="52"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B32" s="57" t="str">
         <f>'Input figuren'!B247</f>
         <v/>
       </c>
       <c r="C32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -53666,7 +53666,7 @@
         <v>-</v>
       </c>
       <c r="C33" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -53675,7 +53675,7 @@
         <v/>
       </c>
       <c r="C34" s="52" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -53684,7 +53684,7 @@
         <v>-</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -53693,7 +53693,7 @@
         <v/>
       </c>
       <c r="C36" s="52" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -53702,7 +53702,7 @@
         <v>-</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -53711,7 +53711,7 @@
         <v/>
       </c>
       <c r="C38" s="52" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -53720,7 +53720,7 @@
         <v>-</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -53729,7 +53729,7 @@
         <v/>
       </c>
       <c r="C40" s="52" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -53738,7 +53738,7 @@
         <v>-</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -53747,7 +53747,7 @@
         <v/>
       </c>
       <c r="C42" s="52" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -53756,19 +53756,19 @@
         <v>-</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B44" s="58" t="e">
         <f>'Input figuren'!B267</f>
         <v>#N/A</v>
       </c>
       <c r="C44" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -53777,7 +53777,7 @@
         <v>#N/A</v>
       </c>
       <c r="C45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -53786,7 +53786,7 @@
         <v>#N/A</v>
       </c>
       <c r="C46" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -53795,7 +53795,7 @@
         <v>#N/A</v>
       </c>
       <c r="C47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -53804,7 +53804,7 @@
         <v>#N/A</v>
       </c>
       <c r="C48" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -53813,7 +53813,7 @@
         <v/>
       </c>
       <c r="C49" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -53822,7 +53822,7 @@
         <v>-</v>
       </c>
       <c r="C50" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -53831,7 +53831,7 @@
         <v/>
       </c>
       <c r="C51" s="52" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -53840,7 +53840,7 @@
         <v>-</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -53849,7 +53849,7 @@
         <v/>
       </c>
       <c r="C53" s="52" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -53858,7 +53858,7 @@
         <v>-</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -53867,19 +53867,19 @@
         <v>#N/A</v>
       </c>
       <c r="C55" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B56" s="58" t="e">
         <f>'Input figuren'!B309</f>
         <v>#N/A</v>
       </c>
       <c r="C56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -53888,7 +53888,7 @@
         <v>#N/A</v>
       </c>
       <c r="C57" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -53897,7 +53897,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C58" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -53906,7 +53906,7 @@
         <v>#N/A</v>
       </c>
       <c r="C59" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -53915,7 +53915,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C60" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -53924,7 +53924,7 @@
         <v>#N/A</v>
       </c>
       <c r="C61" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -53933,7 +53933,7 @@
         <v>#N/A</v>
       </c>
       <c r="C62" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -53942,7 +53942,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C63" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -53951,7 +53951,7 @@
         <v>#N/A</v>
       </c>
       <c r="C64" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -53960,7 +53960,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C65" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -53969,7 +53969,7 @@
         <v>#N/A</v>
       </c>
       <c r="C66" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -53981,7 +53981,7 @@
         <v>#N/A</v>
       </c>
       <c r="C67" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -53990,7 +53990,7 @@
         <v>#N/A</v>
       </c>
       <c r="C68" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -53999,7 +53999,7 @@
         <v>#N/A</v>
       </c>
       <c r="C69" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -54008,7 +54008,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C70" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -54017,7 +54017,7 @@
         <v>#N/A</v>
       </c>
       <c r="C71" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -54026,7 +54026,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C72" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -54035,12 +54035,12 @@
         <v>#N/A</v>
       </c>
       <c r="C73" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B74" s="62" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -54049,19 +54049,19 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B76" s="58" t="e">
         <f>'Input figuren'!B359</f>
         <v>#N/A</v>
       </c>
       <c r="C76" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -54070,7 +54070,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C77" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -54079,7 +54079,7 @@
         <v>#N/A</v>
       </c>
       <c r="C78" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -54088,7 +54088,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C79" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -54097,12 +54097,12 @@
         <v>#N/A</v>
       </c>
       <c r="C80" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B81" s="64" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -54111,19 +54111,19 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C82" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B83" s="58" t="e">
         <f>'Input figuren'!B366</f>
         <v>#N/A</v>
       </c>
       <c r="C83" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -54132,7 +54132,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -54141,7 +54141,7 @@
         <v>#N/A</v>
       </c>
       <c r="C85" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -54150,7 +54150,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C86" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -54159,19 +54159,19 @@
         <v>#N/A</v>
       </c>
       <c r="C87" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B88" s="58" t="e">
         <f>'Input figuren'!B387</f>
         <v>#N/A</v>
       </c>
       <c r="C88" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -54180,7 +54180,7 @@
         <v>#N/A</v>
       </c>
       <c r="C89" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -54189,19 +54189,19 @@
         <v>#N/A</v>
       </c>
       <c r="C90" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B91" s="58" t="e">
         <f>'Input figuren'!B408</f>
         <v>#N/A</v>
       </c>
       <c r="C91" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -54210,24 +54210,24 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C92" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B93" s="57" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B94" s="58" t="e">
         <f>'Input figuren'!B429</f>
         <v>#N/A</v>
       </c>
       <c r="C94" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -54236,7 +54236,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C95" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -54245,7 +54245,7 @@
         <v>#N/A</v>
       </c>
       <c r="C96" s="51" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -54254,7 +54254,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C97" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -54263,24 +54263,24 @@
         <v>#N/A</v>
       </c>
       <c r="C98" s="51" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B99" s="62" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B100" s="58" t="e">
         <f>'Input figuren'!B436</f>
         <v>#N/A</v>
       </c>
       <c r="C100" s="51" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -54289,7 +54289,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C101" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -54298,7 +54298,7 @@
         <v>#N/A</v>
       </c>
       <c r="C102" s="51" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -54307,7 +54307,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C103" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -54316,7 +54316,7 @@
         <v>#N/A</v>
       </c>
       <c r="C104" s="51" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -54325,24 +54325,24 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C105" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B106" s="58" t="e">
         <f>'Input figuren'!B443</f>
         <v>#N/A</v>
       </c>
       <c r="C106" s="51" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B107" s="64" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C107" s="51"/>
     </row>
@@ -54355,7 +54355,7 @@
         <v>#N/A</v>
       </c>
       <c r="C108" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -54364,7 +54364,7 @@
         <v>#N/A</v>
       </c>
       <c r="C109" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -54373,7 +54373,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C110" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -54382,7 +54382,7 @@
         <v>#N/A</v>
       </c>
       <c r="C111" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -54391,7 +54391,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C112" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -54400,7 +54400,7 @@
         <v>#N/A</v>
       </c>
       <c r="C113" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -54409,7 +54409,7 @@
         <v/>
       </c>
       <c r="C114" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -54418,7 +54418,7 @@
         <v>-</v>
       </c>
       <c r="C115" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -54427,7 +54427,7 @@
         <v/>
       </c>
       <c r="C116" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -54436,7 +54436,7 @@
         <v>-</v>
       </c>
       <c r="C117" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -54445,7 +54445,7 @@
         <v/>
       </c>
       <c r="C118" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -54454,7 +54454,7 @@
         <v>-</v>
       </c>
       <c r="C119" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -54463,7 +54463,7 @@
         <v/>
       </c>
       <c r="C120" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -54472,7 +54472,7 @@
         <v>-</v>
       </c>
       <c r="C121" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -54481,7 +54481,7 @@
         <v/>
       </c>
       <c r="C122" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -54490,24 +54490,24 @@
         <v>-</v>
       </c>
       <c r="C123" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B124" s="60" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B125" s="58" t="e">
         <f>'Input figuren'!B485</f>
         <v>#N/A</v>
       </c>
       <c r="C125" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -54516,7 +54516,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C126" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -54525,7 +54525,7 @@
         <v>#N/A</v>
       </c>
       <c r="C127" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -54534,7 +54534,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C128" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -54543,7 +54543,7 @@
         <v>#N/A</v>
       </c>
       <c r="C129" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -54552,7 +54552,7 @@
         <v>#N/A</v>
       </c>
       <c r="C130" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -54561,7 +54561,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C131" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -54570,7 +54570,7 @@
         <v>#N/A</v>
       </c>
       <c r="C132" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -54579,7 +54579,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C133" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -54588,19 +54588,19 @@
         <v>#N/A</v>
       </c>
       <c r="C134" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B135" s="58" t="e">
         <f>'Input figuren'!B507</f>
         <v>#N/A</v>
       </c>
       <c r="C135" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -54609,7 +54609,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C136" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -54618,7 +54618,7 @@
         <v>#N/A</v>
       </c>
       <c r="C137" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -54627,7 +54627,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C138" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -54636,12 +54636,12 @@
         <v>#N/A</v>
       </c>
       <c r="C139" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B140" s="64" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -54650,7 +54650,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C141" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -54659,7 +54659,7 @@
         <v>#N/A</v>
       </c>
       <c r="C142" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -54668,19 +54668,19 @@
         <v>#N/A</v>
       </c>
       <c r="C143" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B144" s="58" t="e">
         <f>'Input figuren'!B535</f>
         <v>#N/A</v>
       </c>
       <c r="C144" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -54689,7 +54689,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C145" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -54698,7 +54698,7 @@
         <v>#N/A</v>
       </c>
       <c r="C146" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -54707,7 +54707,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C147" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -54716,12 +54716,12 @@
         <v>#N/A</v>
       </c>
       <c r="C148" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B149" s="64" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -54733,7 +54733,7 @@
         <v>#N/A</v>
       </c>
       <c r="C150" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -54742,7 +54742,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C151" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -54751,7 +54751,7 @@
         <v>#N/A</v>
       </c>
       <c r="C152" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -54760,7 +54760,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C153" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -54769,12 +54769,12 @@
         <v>#N/A</v>
       </c>
       <c r="C154" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B155" s="64" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -54783,19 +54783,19 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C156" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B157" s="58" t="e">
         <f>'Input figuren'!B550</f>
         <v>#N/A</v>
       </c>
       <c r="C157" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -54804,7 +54804,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C158" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -54813,7 +54813,7 @@
         <v>#N/A</v>
       </c>
       <c r="C159" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -54822,7 +54822,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C160" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -54831,12 +54831,12 @@
         <v>#N/A</v>
       </c>
       <c r="C161" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B162" s="64" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -54848,7 +54848,7 @@
         <v>#N/A</v>
       </c>
       <c r="C163" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -54857,7 +54857,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C164" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -54866,7 +54866,7 @@
         <v>#N/A</v>
       </c>
       <c r="C165" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -54875,7 +54875,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C166" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -54884,17 +54884,17 @@
         <v>#N/A</v>
       </c>
       <c r="C167" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B168" s="64" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B169" s="64" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -54906,7 +54906,7 @@
         <v>#N/A</v>
       </c>
       <c r="C170" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -54915,7 +54915,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C171" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -54924,7 +54924,7 @@
         <v>#N/A</v>
       </c>
       <c r="C172" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -54933,7 +54933,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C173" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -54942,7 +54942,7 @@
         <v>#N/A</v>
       </c>
       <c r="C174" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -54951,7 +54951,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C175" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -54963,7 +54963,7 @@
         <v>#N/A</v>
       </c>
       <c r="C176" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -54972,7 +54972,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C177" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -54981,7 +54981,7 @@
         <v>#N/A</v>
       </c>
       <c r="C178" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -54990,7 +54990,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C179" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -54999,7 +54999,7 @@
         <v>#N/A</v>
       </c>
       <c r="C180" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -55008,24 +55008,24 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C181" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B182" s="62" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B183" s="59" t="e">
         <f>'Input figuren'!C602</f>
         <v>#N/A</v>
       </c>
       <c r="C183" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -55034,7 +55034,7 @@
         <v>#N/A</v>
       </c>
       <c r="C184" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="27" x14ac:dyDescent="0.3">
@@ -55042,7 +55042,7 @@
         <v>475</v>
       </c>
       <c r="B185" s="64" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -55050,19 +55050,19 @@
         <v>4</v>
       </c>
       <c r="B186" s="64" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B187" s="58" t="e">
         <f>'Input figuren'!B592</f>
         <v>#N/A</v>
       </c>
       <c r="C187" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -55071,7 +55071,7 @@
         <v>#N/A</v>
       </c>
       <c r="C188" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -55080,220 +55080,220 @@
         <v>#N/A</v>
       </c>
       <c r="C189" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B190" s="62" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B191" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B192" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="57" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -55303,6 +55303,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051EADF00008FE940B6D6113F52FEFE07" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="de54f9bfbc872adfb1e45e58ab594378">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aff6d44e-ba2a-4228-961e-5f8ded2976ff" xmlns:ns3="9c2910e3-625d-4012-8056-81ea95a8d605" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b24c634e1a4a376b30a44f03332f2b69" ns2:_="" ns3:_="">
     <xsd:import namespace="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
@@ -55539,16 +55548,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D77EF3D-97BD-4AE7-AC41-2144F42901DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2379937A-B304-4F82-A933-E639453C0BA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55565,12 +55573,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D77EF3D-97BD-4AE7-AC41-2144F42901DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Concept Rapportage VO.xlsx
+++ b/Concept Rapportage VO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ggdghornederland.sharepoint.com/sites/tss_Monitors/Gedeelde documenten/10 c. Gezondheidsmonitor V&amp;O 2022/Rapportage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09501088-8C79-41D2-9F78-E753AE738838}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69AF0076-C490-4AFC-897D-297728CE94D4}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="902">
   <si>
     <t>Regiofilter:</t>
   </si>
@@ -2744,6 +2744,9 @@
   </si>
   <si>
     <t>respons_aantal</t>
+  </si>
+  <si>
+    <t>Input figuren'!M142</t>
   </si>
 </sst>
 </file>
@@ -32346,8 +32349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE693"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A575" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C600" sqref="C600"/>
+    <sheetView tabSelected="1" topLeftCell="C120" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M143" sqref="M143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -53356,8 +53359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DA447F-6B7F-45F8-94A4-FAECCB6EDF2E}">
   <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -55004,11 +55007,11 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B181" s="57" t="str">
-        <f>'Input figuren'!M143</f>
-        <v>Geen waarde bekend</v>
-      </c>
-      <c r="C181" t="s">
-        <v>766</v>
+        <f>'Input figuren'!M142</f>
+        <v>Geen waarde bekend</v>
+      </c>
+      <c r="C181" s="52" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="27" x14ac:dyDescent="0.3">
@@ -55303,15 +55306,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051EADF00008FE940B6D6113F52FEFE07" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="de54f9bfbc872adfb1e45e58ab594378">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aff6d44e-ba2a-4228-961e-5f8ded2976ff" xmlns:ns3="9c2910e3-625d-4012-8056-81ea95a8d605" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b24c634e1a4a376b30a44f03332f2b69" ns2:_="" ns3:_="">
     <xsd:import namespace="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
@@ -55548,15 +55542,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D77EF3D-97BD-4AE7-AC41-2144F42901DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2379937A-B304-4F82-A933-E639453C0BA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55573,4 +55568,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D77EF3D-97BD-4AE7-AC41-2144F42901DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Concept Rapportage VO.xlsx
+++ b/Concept Rapportage VO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ggdghornederland.sharepoint.com/sites/tss_Monitors/Gedeelde documenten/10 c. Gezondheidsmonitor V&amp;O 2022/Rapportage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69AF0076-C490-4AFC-897D-297728CE94D4}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01A94282-9E42-4E5F-81C9-CBFF73EBF051}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32349,8 +32349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE693"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C120" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M143" sqref="M143"/>
+    <sheetView tabSelected="1" topLeftCell="A566" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D601" sqref="D601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -55306,6 +55306,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051EADF00008FE940B6D6113F52FEFE07" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="de54f9bfbc872adfb1e45e58ab594378">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aff6d44e-ba2a-4228-961e-5f8ded2976ff" xmlns:ns3="9c2910e3-625d-4012-8056-81ea95a8d605" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b24c634e1a4a376b30a44f03332f2b69" ns2:_="" ns3:_="">
     <xsd:import namespace="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
@@ -55542,16 +55551,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D77EF3D-97BD-4AE7-AC41-2144F42901DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2379937A-B304-4F82-A933-E639453C0BA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55568,12 +55576,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D77EF3D-97BD-4AE7-AC41-2144F42901DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Concept Rapportage VO.xlsx
+++ b/Concept Rapportage VO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ggdghornederland.sharepoint.com/sites/tss_Monitors/Gedeelde documenten/10 c. Gezondheidsmonitor V&amp;O 2022/Rapportage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01A94282-9E42-4E5F-81C9-CBFF73EBF051}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73555D18-37D7-4C6E-BFC0-4CCEA44FC970}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32349,7 +32349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE693"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A566" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A563" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D601" sqref="D601"/>
     </sheetView>
   </sheetViews>
@@ -55306,15 +55306,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051EADF00008FE940B6D6113F52FEFE07" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="de54f9bfbc872adfb1e45e58ab594378">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aff6d44e-ba2a-4228-961e-5f8ded2976ff" xmlns:ns3="9c2910e3-625d-4012-8056-81ea95a8d605" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b24c634e1a4a376b30a44f03332f2b69" ns2:_="" ns3:_="">
     <xsd:import namespace="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
@@ -55551,15 +55542,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D77EF3D-97BD-4AE7-AC41-2144F42901DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2379937A-B304-4F82-A933-E639453C0BA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55576,4 +55568,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D77EF3D-97BD-4AE7-AC41-2144F42901DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Concept Rapportage VO.xlsx
+++ b/Concept Rapportage VO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ggdghornederland.sharepoint.com/sites/tss_Monitors/Gedeelde documenten/10 c. Gezondheidsmonitor V&amp;O 2022/Rapportage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73555D18-37D7-4C6E-BFC0-4CCEA44FC970}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C16FAF5E-A9BE-4166-9463-F1635006AF8E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32350,7 +32350,7 @@
   <dimension ref="A1:AE693"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A563" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D601" sqref="D601"/>
+      <selection activeCell="C564" sqref="C564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -55306,6 +55306,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051EADF00008FE940B6D6113F52FEFE07" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="de54f9bfbc872adfb1e45e58ab594378">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aff6d44e-ba2a-4228-961e-5f8ded2976ff" xmlns:ns3="9c2910e3-625d-4012-8056-81ea95a8d605" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b24c634e1a4a376b30a44f03332f2b69" ns2:_="" ns3:_="">
     <xsd:import namespace="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
@@ -55542,16 +55551,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D77EF3D-97BD-4AE7-AC41-2144F42901DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2379937A-B304-4F82-A933-E639453C0BA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55568,12 +55576,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D77EF3D-97BD-4AE7-AC41-2144F42901DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Concept Rapportage VO.xlsx
+++ b/Concept Rapportage VO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ggdghornederland.sharepoint.com/sites/tss_Monitors/Gedeelde documenten/10 c. Gezondheidsmonitor V&amp;O 2022/Rapportage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C16FAF5E-A9BE-4166-9463-F1635006AF8E}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11400206-0EAA-4133-A666-738A842A9DC6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data R" sheetId="2" r:id="rId1"/>
@@ -10590,7 +10590,7 @@
         <c:axId val="1979323744"/>
         <c:axId val="1979324704"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="1979323744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -10636,11 +10636,12 @@
         </c:txPr>
         <c:crossAx val="1979324704"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="2"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="1979324704"/>
         <c:scaling>
@@ -31837,427 +31838,427 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.84375" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="3" width="17.3828125" customWidth="1"/>
-    <col min="4" max="4" width="19.84375" customWidth="1"/>
-    <col min="5" max="5" width="17.23046875" customWidth="1"/>
-    <col min="6" max="6" width="26.61328125" customWidth="1"/>
-    <col min="7" max="7" width="18.3828125" customWidth="1"/>
-    <col min="8" max="8" width="18.15234375" customWidth="1"/>
-    <col min="9" max="9" width="16.4609375" customWidth="1"/>
-    <col min="10" max="10" width="17.3828125" customWidth="1"/>
-    <col min="11" max="11" width="19.84375" customWidth="1"/>
-    <col min="12" max="13" width="17.23046875" customWidth="1"/>
-    <col min="14" max="14" width="18.3828125" customWidth="1"/>
-    <col min="15" max="15" width="18.15234375" customWidth="1"/>
-    <col min="16" max="16" width="11.84375" customWidth="1"/>
-    <col min="17" max="17" width="17.3828125" customWidth="1"/>
-    <col min="18" max="18" width="19.84375" customWidth="1"/>
-    <col min="19" max="20" width="17.23046875" customWidth="1"/>
-    <col min="21" max="21" width="18.3828125" customWidth="1"/>
-    <col min="22" max="22" width="18.15234375" customWidth="1"/>
-    <col min="23" max="23" width="11.84375" customWidth="1"/>
-    <col min="24" max="24" width="17.3828125" customWidth="1"/>
-    <col min="25" max="25" width="19.84375" customWidth="1"/>
-    <col min="26" max="27" width="17.23046875" customWidth="1"/>
-    <col min="28" max="28" width="18.3828125" customWidth="1"/>
-    <col min="29" max="29" width="18.15234375" customWidth="1"/>
-    <col min="30" max="30" width="11.84375" customWidth="1"/>
-    <col min="31" max="31" width="17.3828125" customWidth="1"/>
-    <col min="32" max="32" width="19.84375" customWidth="1"/>
-    <col min="33" max="34" width="17.23046875" customWidth="1"/>
-    <col min="35" max="35" width="18.3828125" customWidth="1"/>
-    <col min="36" max="36" width="18.15234375" customWidth="1"/>
-    <col min="37" max="37" width="11.84375" customWidth="1"/>
-    <col min="38" max="38" width="17.4609375" customWidth="1"/>
-    <col min="39" max="39" width="19.84375" customWidth="1"/>
-    <col min="40" max="41" width="17.3828125" customWidth="1"/>
-    <col min="42" max="42" width="18.4609375" customWidth="1"/>
-    <col min="43" max="43" width="18.23046875" customWidth="1"/>
-    <col min="44" max="44" width="11.84375" customWidth="1"/>
-    <col min="45" max="45" width="17.4609375" customWidth="1"/>
-    <col min="46" max="46" width="19.84375" customWidth="1"/>
-    <col min="47" max="48" width="17.3828125" customWidth="1"/>
-    <col min="49" max="49" width="18.4609375" customWidth="1"/>
-    <col min="50" max="50" width="18.23046875" customWidth="1"/>
-    <col min="51" max="51" width="12.765625" customWidth="1"/>
-    <col min="52" max="52" width="14.765625" customWidth="1"/>
-    <col min="53" max="53" width="17.23046875" customWidth="1"/>
-    <col min="54" max="55" width="14.61328125" customWidth="1"/>
-    <col min="56" max="56" width="15.765625" customWidth="1"/>
-    <col min="57" max="57" width="15.4609375" customWidth="1"/>
-    <col min="58" max="58" width="9.23046875" customWidth="1"/>
-    <col min="59" max="59" width="14.765625" customWidth="1"/>
-    <col min="60" max="60" width="17.23046875" customWidth="1"/>
-    <col min="61" max="62" width="14.61328125" customWidth="1"/>
-    <col min="63" max="63" width="15.765625" customWidth="1"/>
-    <col min="64" max="64" width="15.4609375" customWidth="1"/>
-    <col min="65" max="65" width="13.84375" customWidth="1"/>
-    <col min="66" max="66" width="14.765625" customWidth="1"/>
-    <col min="67" max="67" width="17.23046875" customWidth="1"/>
-    <col min="68" max="69" width="14.61328125" customWidth="1"/>
-    <col min="70" max="70" width="15.765625" customWidth="1"/>
-    <col min="71" max="71" width="15.4609375" customWidth="1"/>
-    <col min="72" max="72" width="9.23046875" customWidth="1"/>
-    <col min="73" max="73" width="14.765625" customWidth="1"/>
-    <col min="74" max="74" width="17.23046875" customWidth="1"/>
-    <col min="75" max="76" width="14.61328125" customWidth="1"/>
-    <col min="77" max="77" width="15.765625" customWidth="1"/>
-    <col min="78" max="78" width="15.4609375" customWidth="1"/>
-    <col min="79" max="79" width="9.23046875" customWidth="1"/>
-    <col min="80" max="80" width="14.765625" customWidth="1"/>
-    <col min="81" max="81" width="17.23046875" customWidth="1"/>
-    <col min="82" max="83" width="14.61328125" customWidth="1"/>
-    <col min="84" max="84" width="15.765625" customWidth="1"/>
-    <col min="85" max="85" width="15.4609375" customWidth="1"/>
-    <col min="87" max="87" width="14.84375" customWidth="1"/>
-    <col min="88" max="88" width="17.4609375" customWidth="1"/>
-    <col min="89" max="90" width="14.84375" customWidth="1"/>
-    <col min="91" max="91" width="15.84375" customWidth="1"/>
-    <col min="92" max="92" width="15.765625" customWidth="1"/>
-    <col min="93" max="93" width="12.3828125" customWidth="1"/>
-    <col min="94" max="94" width="17.84375" customWidth="1"/>
-    <col min="95" max="95" width="20.3828125" customWidth="1"/>
-    <col min="96" max="97" width="17.84375" customWidth="1"/>
-    <col min="98" max="98" width="18.84375" customWidth="1"/>
-    <col min="99" max="99" width="18.765625" customWidth="1"/>
-    <col min="100" max="100" width="8.84375" customWidth="1"/>
-    <col min="101" max="101" width="14.3828125" customWidth="1"/>
-    <col min="102" max="102" width="16.84375" customWidth="1"/>
-    <col min="103" max="104" width="14.23046875" customWidth="1"/>
-    <col min="105" max="105" width="15.3828125" customWidth="1"/>
-    <col min="106" max="106" width="15.15234375" customWidth="1"/>
-    <col min="107" max="107" width="8.84375" customWidth="1"/>
-    <col min="108" max="108" width="14.3828125" customWidth="1"/>
-    <col min="109" max="109" width="16.84375" customWidth="1"/>
-    <col min="110" max="111" width="14.23046875" customWidth="1"/>
-    <col min="112" max="112" width="15.3828125" customWidth="1"/>
-    <col min="113" max="113" width="15.15234375" customWidth="1"/>
-    <col min="114" max="114" width="8.84375" customWidth="1"/>
-    <col min="115" max="115" width="14.3828125" customWidth="1"/>
-    <col min="116" max="116" width="16.84375" customWidth="1"/>
-    <col min="117" max="118" width="14.23046875" customWidth="1"/>
-    <col min="119" max="119" width="15.3828125" customWidth="1"/>
-    <col min="120" max="120" width="15.15234375" customWidth="1"/>
-    <col min="121" max="121" width="8.84375" customWidth="1"/>
-    <col min="122" max="122" width="14.3828125" customWidth="1"/>
-    <col min="123" max="123" width="16.84375" customWidth="1"/>
-    <col min="124" max="125" width="14.23046875" customWidth="1"/>
-    <col min="126" max="126" width="15.3828125" customWidth="1"/>
-    <col min="127" max="127" width="15.15234375" customWidth="1"/>
-    <col min="128" max="128" width="8.84375" customWidth="1"/>
-    <col min="129" max="129" width="14.3828125" customWidth="1"/>
-    <col min="130" max="130" width="16.84375" customWidth="1"/>
-    <col min="131" max="132" width="14.23046875" customWidth="1"/>
-    <col min="133" max="133" width="15.3828125" customWidth="1"/>
-    <col min="134" max="134" width="15.15234375" customWidth="1"/>
-    <col min="135" max="135" width="8.84375" customWidth="1"/>
-    <col min="136" max="136" width="14.3828125" customWidth="1"/>
-    <col min="137" max="137" width="16.84375" customWidth="1"/>
-    <col min="138" max="139" width="14.23046875" customWidth="1"/>
-    <col min="140" max="140" width="15.3828125" customWidth="1"/>
-    <col min="141" max="141" width="15.15234375" customWidth="1"/>
-    <col min="142" max="142" width="11.23046875" customWidth="1"/>
-    <col min="143" max="143" width="16.765625" customWidth="1"/>
-    <col min="144" max="144" width="19.23046875" customWidth="1"/>
-    <col min="145" max="146" width="16.61328125" customWidth="1"/>
-    <col min="147" max="147" width="17.84375" customWidth="1"/>
-    <col min="148" max="148" width="17.61328125" customWidth="1"/>
-    <col min="149" max="149" width="11.23046875" customWidth="1"/>
-    <col min="150" max="150" width="16.765625" customWidth="1"/>
-    <col min="151" max="151" width="19.23046875" customWidth="1"/>
-    <col min="152" max="153" width="16.61328125" customWidth="1"/>
-    <col min="154" max="154" width="17.84375" customWidth="1"/>
-    <col min="155" max="155" width="17.61328125" customWidth="1"/>
-    <col min="156" max="156" width="11.23046875" customWidth="1"/>
-    <col min="157" max="157" width="16.765625" customWidth="1"/>
-    <col min="158" max="158" width="19.23046875" customWidth="1"/>
-    <col min="159" max="160" width="16.61328125" customWidth="1"/>
-    <col min="161" max="161" width="17.84375" customWidth="1"/>
-    <col min="162" max="162" width="17.61328125" customWidth="1"/>
-    <col min="163" max="163" width="12.23046875" customWidth="1"/>
-    <col min="164" max="164" width="17.84375" customWidth="1"/>
-    <col min="165" max="165" width="20.23046875" customWidth="1"/>
-    <col min="166" max="167" width="17.765625" customWidth="1"/>
-    <col min="168" max="168" width="18.84375" customWidth="1"/>
-    <col min="169" max="169" width="18.61328125" customWidth="1"/>
-    <col min="170" max="170" width="12.23046875" customWidth="1"/>
-    <col min="171" max="171" width="17.84375" customWidth="1"/>
-    <col min="172" max="172" width="20.23046875" customWidth="1"/>
-    <col min="173" max="174" width="17.765625" customWidth="1"/>
-    <col min="175" max="175" width="18.84375" customWidth="1"/>
-    <col min="176" max="176" width="18.61328125" customWidth="1"/>
-    <col min="177" max="177" width="12.23046875" customWidth="1"/>
-    <col min="178" max="178" width="17.84375" customWidth="1"/>
-    <col min="179" max="179" width="20.23046875" customWidth="1"/>
-    <col min="180" max="181" width="17.765625" customWidth="1"/>
-    <col min="182" max="182" width="18.84375" customWidth="1"/>
-    <col min="183" max="183" width="18.61328125" customWidth="1"/>
-    <col min="184" max="184" width="11.23046875" customWidth="1"/>
-    <col min="185" max="185" width="16.765625" customWidth="1"/>
-    <col min="186" max="186" width="19.23046875" customWidth="1"/>
-    <col min="187" max="188" width="16.61328125" customWidth="1"/>
-    <col min="189" max="189" width="17.84375" customWidth="1"/>
-    <col min="190" max="190" width="17.61328125" customWidth="1"/>
-    <col min="191" max="191" width="11.23046875" customWidth="1"/>
-    <col min="192" max="192" width="16.765625" customWidth="1"/>
-    <col min="193" max="193" width="19.23046875" customWidth="1"/>
-    <col min="194" max="195" width="16.61328125" customWidth="1"/>
-    <col min="196" max="196" width="17.84375" customWidth="1"/>
-    <col min="197" max="197" width="17.61328125" customWidth="1"/>
-    <col min="198" max="198" width="11.23046875" customWidth="1"/>
-    <col min="199" max="199" width="16.765625" customWidth="1"/>
-    <col min="200" max="200" width="19.23046875" customWidth="1"/>
-    <col min="201" max="202" width="16.61328125" customWidth="1"/>
-    <col min="203" max="203" width="17.84375" customWidth="1"/>
-    <col min="204" max="204" width="17.61328125" customWidth="1"/>
-    <col min="205" max="205" width="11.23046875" customWidth="1"/>
-    <col min="206" max="206" width="16.765625" customWidth="1"/>
-    <col min="207" max="207" width="19.23046875" customWidth="1"/>
-    <col min="208" max="209" width="16.61328125" customWidth="1"/>
-    <col min="210" max="210" width="17.84375" customWidth="1"/>
-    <col min="211" max="211" width="17.61328125" customWidth="1"/>
-    <col min="212" max="212" width="11.23046875" customWidth="1"/>
-    <col min="213" max="213" width="16.765625" customWidth="1"/>
-    <col min="214" max="214" width="19.23046875" customWidth="1"/>
-    <col min="215" max="216" width="16.61328125" customWidth="1"/>
-    <col min="217" max="217" width="17.84375" customWidth="1"/>
-    <col min="218" max="218" width="17.61328125" customWidth="1"/>
-    <col min="219" max="219" width="11.23046875" customWidth="1"/>
-    <col min="220" max="220" width="16.765625" customWidth="1"/>
-    <col min="221" max="221" width="19.23046875" customWidth="1"/>
-    <col min="222" max="223" width="16.61328125" customWidth="1"/>
-    <col min="224" max="224" width="17.84375" customWidth="1"/>
-    <col min="225" max="225" width="17.61328125" customWidth="1"/>
-    <col min="226" max="226" width="9.3828125" customWidth="1"/>
-    <col min="227" max="227" width="14.84375" customWidth="1"/>
-    <col min="228" max="228" width="17.3828125" customWidth="1"/>
-    <col min="229" max="230" width="14.765625" customWidth="1"/>
-    <col min="231" max="231" width="15.84375" customWidth="1"/>
-    <col min="232" max="232" width="15.61328125" customWidth="1"/>
-    <col min="233" max="233" width="9.3828125" customWidth="1"/>
-    <col min="234" max="234" width="14.84375" customWidth="1"/>
-    <col min="235" max="235" width="17.3828125" customWidth="1"/>
-    <col min="236" max="237" width="14.765625" customWidth="1"/>
-    <col min="238" max="238" width="15.84375" customWidth="1"/>
-    <col min="239" max="239" width="15.61328125" customWidth="1"/>
-    <col min="240" max="240" width="9.4609375" customWidth="1"/>
+    <col min="1" max="1" width="37.875" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="19.875" customWidth="1"/>
+    <col min="12" max="13" width="17.25" customWidth="1"/>
+    <col min="14" max="14" width="18.375" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="19.875" customWidth="1"/>
+    <col min="19" max="20" width="17.25" customWidth="1"/>
+    <col min="21" max="21" width="18.375" customWidth="1"/>
+    <col min="22" max="22" width="18.125" customWidth="1"/>
+    <col min="23" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="17.375" customWidth="1"/>
+    <col min="25" max="25" width="19.875" customWidth="1"/>
+    <col min="26" max="27" width="17.25" customWidth="1"/>
+    <col min="28" max="28" width="18.375" customWidth="1"/>
+    <col min="29" max="29" width="18.125" customWidth="1"/>
+    <col min="30" max="30" width="11.875" customWidth="1"/>
+    <col min="31" max="31" width="17.375" customWidth="1"/>
+    <col min="32" max="32" width="19.875" customWidth="1"/>
+    <col min="33" max="34" width="17.25" customWidth="1"/>
+    <col min="35" max="35" width="18.375" customWidth="1"/>
+    <col min="36" max="36" width="18.125" customWidth="1"/>
+    <col min="37" max="37" width="11.875" customWidth="1"/>
+    <col min="38" max="38" width="17.5" customWidth="1"/>
+    <col min="39" max="39" width="19.875" customWidth="1"/>
+    <col min="40" max="41" width="17.375" customWidth="1"/>
+    <col min="42" max="42" width="18.5" customWidth="1"/>
+    <col min="43" max="43" width="18.25" customWidth="1"/>
+    <col min="44" max="44" width="11.875" customWidth="1"/>
+    <col min="45" max="45" width="17.5" customWidth="1"/>
+    <col min="46" max="46" width="19.875" customWidth="1"/>
+    <col min="47" max="48" width="17.375" customWidth="1"/>
+    <col min="49" max="49" width="18.5" customWidth="1"/>
+    <col min="50" max="50" width="18.25" customWidth="1"/>
+    <col min="51" max="51" width="12.75" customWidth="1"/>
+    <col min="52" max="52" width="14.75" customWidth="1"/>
+    <col min="53" max="53" width="17.25" customWidth="1"/>
+    <col min="54" max="55" width="14.625" customWidth="1"/>
+    <col min="56" max="56" width="15.75" customWidth="1"/>
+    <col min="57" max="57" width="15.5" customWidth="1"/>
+    <col min="58" max="58" width="9.25" customWidth="1"/>
+    <col min="59" max="59" width="14.75" customWidth="1"/>
+    <col min="60" max="60" width="17.25" customWidth="1"/>
+    <col min="61" max="62" width="14.625" customWidth="1"/>
+    <col min="63" max="63" width="15.75" customWidth="1"/>
+    <col min="64" max="64" width="15.5" customWidth="1"/>
+    <col min="65" max="65" width="13.875" customWidth="1"/>
+    <col min="66" max="66" width="14.75" customWidth="1"/>
+    <col min="67" max="67" width="17.25" customWidth="1"/>
+    <col min="68" max="69" width="14.625" customWidth="1"/>
+    <col min="70" max="70" width="15.75" customWidth="1"/>
+    <col min="71" max="71" width="15.5" customWidth="1"/>
+    <col min="72" max="72" width="9.25" customWidth="1"/>
+    <col min="73" max="73" width="14.75" customWidth="1"/>
+    <col min="74" max="74" width="17.25" customWidth="1"/>
+    <col min="75" max="76" width="14.625" customWidth="1"/>
+    <col min="77" max="77" width="15.75" customWidth="1"/>
+    <col min="78" max="78" width="15.5" customWidth="1"/>
+    <col min="79" max="79" width="9.25" customWidth="1"/>
+    <col min="80" max="80" width="14.75" customWidth="1"/>
+    <col min="81" max="81" width="17.25" customWidth="1"/>
+    <col min="82" max="83" width="14.625" customWidth="1"/>
+    <col min="84" max="84" width="15.75" customWidth="1"/>
+    <col min="85" max="85" width="15.5" customWidth="1"/>
+    <col min="87" max="87" width="14.875" customWidth="1"/>
+    <col min="88" max="88" width="17.5" customWidth="1"/>
+    <col min="89" max="90" width="14.875" customWidth="1"/>
+    <col min="91" max="91" width="15.875" customWidth="1"/>
+    <col min="92" max="92" width="15.75" customWidth="1"/>
+    <col min="93" max="93" width="12.375" customWidth="1"/>
+    <col min="94" max="94" width="17.875" customWidth="1"/>
+    <col min="95" max="95" width="20.375" customWidth="1"/>
+    <col min="96" max="97" width="17.875" customWidth="1"/>
+    <col min="98" max="98" width="18.875" customWidth="1"/>
+    <col min="99" max="99" width="18.75" customWidth="1"/>
+    <col min="100" max="100" width="8.875" customWidth="1"/>
+    <col min="101" max="101" width="14.375" customWidth="1"/>
+    <col min="102" max="102" width="16.875" customWidth="1"/>
+    <col min="103" max="104" width="14.25" customWidth="1"/>
+    <col min="105" max="105" width="15.375" customWidth="1"/>
+    <col min="106" max="106" width="15.125" customWidth="1"/>
+    <col min="107" max="107" width="8.875" customWidth="1"/>
+    <col min="108" max="108" width="14.375" customWidth="1"/>
+    <col min="109" max="109" width="16.875" customWidth="1"/>
+    <col min="110" max="111" width="14.25" customWidth="1"/>
+    <col min="112" max="112" width="15.375" customWidth="1"/>
+    <col min="113" max="113" width="15.125" customWidth="1"/>
+    <col min="114" max="114" width="8.875" customWidth="1"/>
+    <col min="115" max="115" width="14.375" customWidth="1"/>
+    <col min="116" max="116" width="16.875" customWidth="1"/>
+    <col min="117" max="118" width="14.25" customWidth="1"/>
+    <col min="119" max="119" width="15.375" customWidth="1"/>
+    <col min="120" max="120" width="15.125" customWidth="1"/>
+    <col min="121" max="121" width="8.875" customWidth="1"/>
+    <col min="122" max="122" width="14.375" customWidth="1"/>
+    <col min="123" max="123" width="16.875" customWidth="1"/>
+    <col min="124" max="125" width="14.25" customWidth="1"/>
+    <col min="126" max="126" width="15.375" customWidth="1"/>
+    <col min="127" max="127" width="15.125" customWidth="1"/>
+    <col min="128" max="128" width="8.875" customWidth="1"/>
+    <col min="129" max="129" width="14.375" customWidth="1"/>
+    <col min="130" max="130" width="16.875" customWidth="1"/>
+    <col min="131" max="132" width="14.25" customWidth="1"/>
+    <col min="133" max="133" width="15.375" customWidth="1"/>
+    <col min="134" max="134" width="15.125" customWidth="1"/>
+    <col min="135" max="135" width="8.875" customWidth="1"/>
+    <col min="136" max="136" width="14.375" customWidth="1"/>
+    <col min="137" max="137" width="16.875" customWidth="1"/>
+    <col min="138" max="139" width="14.25" customWidth="1"/>
+    <col min="140" max="140" width="15.375" customWidth="1"/>
+    <col min="141" max="141" width="15.125" customWidth="1"/>
+    <col min="142" max="142" width="11.25" customWidth="1"/>
+    <col min="143" max="143" width="16.75" customWidth="1"/>
+    <col min="144" max="144" width="19.25" customWidth="1"/>
+    <col min="145" max="146" width="16.625" customWidth="1"/>
+    <col min="147" max="147" width="17.875" customWidth="1"/>
+    <col min="148" max="148" width="17.625" customWidth="1"/>
+    <col min="149" max="149" width="11.25" customWidth="1"/>
+    <col min="150" max="150" width="16.75" customWidth="1"/>
+    <col min="151" max="151" width="19.25" customWidth="1"/>
+    <col min="152" max="153" width="16.625" customWidth="1"/>
+    <col min="154" max="154" width="17.875" customWidth="1"/>
+    <col min="155" max="155" width="17.625" customWidth="1"/>
+    <col min="156" max="156" width="11.25" customWidth="1"/>
+    <col min="157" max="157" width="16.75" customWidth="1"/>
+    <col min="158" max="158" width="19.25" customWidth="1"/>
+    <col min="159" max="160" width="16.625" customWidth="1"/>
+    <col min="161" max="161" width="17.875" customWidth="1"/>
+    <col min="162" max="162" width="17.625" customWidth="1"/>
+    <col min="163" max="163" width="12.25" customWidth="1"/>
+    <col min="164" max="164" width="17.875" customWidth="1"/>
+    <col min="165" max="165" width="20.25" customWidth="1"/>
+    <col min="166" max="167" width="17.75" customWidth="1"/>
+    <col min="168" max="168" width="18.875" customWidth="1"/>
+    <col min="169" max="169" width="18.625" customWidth="1"/>
+    <col min="170" max="170" width="12.25" customWidth="1"/>
+    <col min="171" max="171" width="17.875" customWidth="1"/>
+    <col min="172" max="172" width="20.25" customWidth="1"/>
+    <col min="173" max="174" width="17.75" customWidth="1"/>
+    <col min="175" max="175" width="18.875" customWidth="1"/>
+    <col min="176" max="176" width="18.625" customWidth="1"/>
+    <col min="177" max="177" width="12.25" customWidth="1"/>
+    <col min="178" max="178" width="17.875" customWidth="1"/>
+    <col min="179" max="179" width="20.25" customWidth="1"/>
+    <col min="180" max="181" width="17.75" customWidth="1"/>
+    <col min="182" max="182" width="18.875" customWidth="1"/>
+    <col min="183" max="183" width="18.625" customWidth="1"/>
+    <col min="184" max="184" width="11.25" customWidth="1"/>
+    <col min="185" max="185" width="16.75" customWidth="1"/>
+    <col min="186" max="186" width="19.25" customWidth="1"/>
+    <col min="187" max="188" width="16.625" customWidth="1"/>
+    <col min="189" max="189" width="17.875" customWidth="1"/>
+    <col min="190" max="190" width="17.625" customWidth="1"/>
+    <col min="191" max="191" width="11.25" customWidth="1"/>
+    <col min="192" max="192" width="16.75" customWidth="1"/>
+    <col min="193" max="193" width="19.25" customWidth="1"/>
+    <col min="194" max="195" width="16.625" customWidth="1"/>
+    <col min="196" max="196" width="17.875" customWidth="1"/>
+    <col min="197" max="197" width="17.625" customWidth="1"/>
+    <col min="198" max="198" width="11.25" customWidth="1"/>
+    <col min="199" max="199" width="16.75" customWidth="1"/>
+    <col min="200" max="200" width="19.25" customWidth="1"/>
+    <col min="201" max="202" width="16.625" customWidth="1"/>
+    <col min="203" max="203" width="17.875" customWidth="1"/>
+    <col min="204" max="204" width="17.625" customWidth="1"/>
+    <col min="205" max="205" width="11.25" customWidth="1"/>
+    <col min="206" max="206" width="16.75" customWidth="1"/>
+    <col min="207" max="207" width="19.25" customWidth="1"/>
+    <col min="208" max="209" width="16.625" customWidth="1"/>
+    <col min="210" max="210" width="17.875" customWidth="1"/>
+    <col min="211" max="211" width="17.625" customWidth="1"/>
+    <col min="212" max="212" width="11.25" customWidth="1"/>
+    <col min="213" max="213" width="16.75" customWidth="1"/>
+    <col min="214" max="214" width="19.25" customWidth="1"/>
+    <col min="215" max="216" width="16.625" customWidth="1"/>
+    <col min="217" max="217" width="17.875" customWidth="1"/>
+    <col min="218" max="218" width="17.625" customWidth="1"/>
+    <col min="219" max="219" width="11.25" customWidth="1"/>
+    <col min="220" max="220" width="16.75" customWidth="1"/>
+    <col min="221" max="221" width="19.25" customWidth="1"/>
+    <col min="222" max="223" width="16.625" customWidth="1"/>
+    <col min="224" max="224" width="17.875" customWidth="1"/>
+    <col min="225" max="225" width="17.625" customWidth="1"/>
+    <col min="226" max="226" width="9.375" customWidth="1"/>
+    <col min="227" max="227" width="14.875" customWidth="1"/>
+    <col min="228" max="228" width="17.375" customWidth="1"/>
+    <col min="229" max="230" width="14.75" customWidth="1"/>
+    <col min="231" max="231" width="15.875" customWidth="1"/>
+    <col min="232" max="232" width="15.625" customWidth="1"/>
+    <col min="233" max="233" width="9.375" customWidth="1"/>
+    <col min="234" max="234" width="14.875" customWidth="1"/>
+    <col min="235" max="235" width="17.375" customWidth="1"/>
+    <col min="236" max="237" width="14.75" customWidth="1"/>
+    <col min="238" max="238" width="15.875" customWidth="1"/>
+    <col min="239" max="239" width="15.625" customWidth="1"/>
+    <col min="240" max="240" width="9.5" customWidth="1"/>
     <col min="241" max="241" width="15" customWidth="1"/>
-    <col min="242" max="242" width="17.4609375" customWidth="1"/>
-    <col min="243" max="244" width="14.84375" customWidth="1"/>
+    <col min="242" max="242" width="17.5" customWidth="1"/>
+    <col min="243" max="244" width="14.875" customWidth="1"/>
     <col min="245" max="245" width="16" customWidth="1"/>
-    <col min="246" max="246" width="15.84375" customWidth="1"/>
-    <col min="247" max="247" width="9.4609375" customWidth="1"/>
+    <col min="246" max="246" width="15.875" customWidth="1"/>
+    <col min="247" max="247" width="9.5" customWidth="1"/>
     <col min="248" max="248" width="15" customWidth="1"/>
-    <col min="249" max="249" width="17.4609375" customWidth="1"/>
-    <col min="250" max="251" width="14.84375" customWidth="1"/>
+    <col min="249" max="249" width="17.5" customWidth="1"/>
+    <col min="250" max="251" width="14.875" customWidth="1"/>
     <col min="252" max="252" width="16" customWidth="1"/>
-    <col min="253" max="253" width="15.84375" customWidth="1"/>
-    <col min="254" max="254" width="9.4609375" customWidth="1"/>
+    <col min="253" max="253" width="15.875" customWidth="1"/>
+    <col min="254" max="254" width="9.5" customWidth="1"/>
     <col min="255" max="255" width="15" customWidth="1"/>
-    <col min="256" max="256" width="17.4609375" customWidth="1"/>
-    <col min="257" max="258" width="14.84375" customWidth="1"/>
+    <col min="256" max="256" width="17.5" customWidth="1"/>
+    <col min="257" max="258" width="14.875" customWidth="1"/>
     <col min="259" max="259" width="16" customWidth="1"/>
-    <col min="260" max="260" width="15.84375" customWidth="1"/>
-    <col min="261" max="261" width="9.4609375" customWidth="1"/>
+    <col min="260" max="260" width="15.875" customWidth="1"/>
+    <col min="261" max="261" width="9.5" customWidth="1"/>
     <col min="262" max="262" width="15" customWidth="1"/>
-    <col min="263" max="263" width="17.4609375" customWidth="1"/>
-    <col min="264" max="265" width="14.84375" customWidth="1"/>
+    <col min="263" max="263" width="17.5" customWidth="1"/>
+    <col min="264" max="265" width="14.875" customWidth="1"/>
     <col min="266" max="266" width="16" customWidth="1"/>
-    <col min="267" max="267" width="15.84375" customWidth="1"/>
-    <col min="268" max="268" width="9.4609375" customWidth="1"/>
+    <col min="267" max="267" width="15.875" customWidth="1"/>
+    <col min="268" max="268" width="9.5" customWidth="1"/>
     <col min="269" max="269" width="15" customWidth="1"/>
-    <col min="270" max="270" width="17.4609375" customWidth="1"/>
-    <col min="271" max="272" width="14.84375" customWidth="1"/>
+    <col min="270" max="270" width="17.5" customWidth="1"/>
+    <col min="271" max="272" width="14.875" customWidth="1"/>
     <col min="273" max="273" width="16" customWidth="1"/>
-    <col min="274" max="274" width="15.84375" customWidth="1"/>
-    <col min="275" max="275" width="9.3828125" customWidth="1"/>
-    <col min="276" max="276" width="14.84375" customWidth="1"/>
-    <col min="277" max="277" width="17.3828125" customWidth="1"/>
-    <col min="278" max="279" width="14.765625" customWidth="1"/>
-    <col min="280" max="280" width="15.84375" customWidth="1"/>
-    <col min="281" max="281" width="15.61328125" customWidth="1"/>
-    <col min="282" max="282" width="9.3828125" customWidth="1"/>
-    <col min="283" max="283" width="14.84375" customWidth="1"/>
-    <col min="284" max="284" width="17.3828125" customWidth="1"/>
-    <col min="285" max="286" width="14.765625" customWidth="1"/>
-    <col min="287" max="287" width="15.84375" customWidth="1"/>
-    <col min="288" max="288" width="15.61328125" customWidth="1"/>
-    <col min="289" max="289" width="9.3828125" customWidth="1"/>
-    <col min="290" max="290" width="14.84375" customWidth="1"/>
-    <col min="291" max="291" width="17.3828125" customWidth="1"/>
-    <col min="292" max="293" width="14.765625" customWidth="1"/>
-    <col min="294" max="294" width="15.84375" customWidth="1"/>
-    <col min="295" max="295" width="15.61328125" customWidth="1"/>
-    <col min="296" max="296" width="9.3828125" customWidth="1"/>
-    <col min="297" max="297" width="14.84375" customWidth="1"/>
-    <col min="298" max="298" width="17.3828125" customWidth="1"/>
-    <col min="299" max="300" width="14.765625" customWidth="1"/>
-    <col min="301" max="301" width="15.84375" customWidth="1"/>
-    <col min="302" max="302" width="15.61328125" customWidth="1"/>
-    <col min="303" max="303" width="9.3828125" customWidth="1"/>
-    <col min="304" max="304" width="14.84375" customWidth="1"/>
-    <col min="305" max="305" width="17.3828125" customWidth="1"/>
-    <col min="306" max="307" width="14.765625" customWidth="1"/>
-    <col min="308" max="308" width="15.84375" customWidth="1"/>
-    <col min="309" max="309" width="15.61328125" customWidth="1"/>
-    <col min="310" max="310" width="9.3828125" customWidth="1"/>
-    <col min="311" max="311" width="14.84375" customWidth="1"/>
-    <col min="312" max="312" width="17.3828125" customWidth="1"/>
-    <col min="313" max="314" width="14.765625" customWidth="1"/>
-    <col min="315" max="315" width="15.84375" customWidth="1"/>
-    <col min="316" max="316" width="15.61328125" customWidth="1"/>
-    <col min="317" max="317" width="10.15234375" customWidth="1"/>
-    <col min="318" max="318" width="15.4609375" customWidth="1"/>
-    <col min="319" max="319" width="18.15234375" customWidth="1"/>
-    <col min="320" max="321" width="15.4609375" customWidth="1"/>
-    <col min="322" max="322" width="16.4609375" customWidth="1"/>
-    <col min="323" max="323" width="16.3828125" customWidth="1"/>
-    <col min="324" max="324" width="10.15234375" customWidth="1"/>
-    <col min="325" max="325" width="15.4609375" customWidth="1"/>
-    <col min="326" max="326" width="18.15234375" customWidth="1"/>
-    <col min="327" max="328" width="15.4609375" customWidth="1"/>
-    <col min="329" max="329" width="16.4609375" customWidth="1"/>
-    <col min="330" max="330" width="16.3828125" customWidth="1"/>
-    <col min="331" max="331" width="10.15234375" customWidth="1"/>
-    <col min="332" max="332" width="15.4609375" customWidth="1"/>
-    <col min="333" max="333" width="18.15234375" customWidth="1"/>
-    <col min="334" max="335" width="15.4609375" customWidth="1"/>
-    <col min="336" max="336" width="16.4609375" customWidth="1"/>
-    <col min="337" max="337" width="16.3828125" customWidth="1"/>
-    <col min="338" max="338" width="10.15234375" customWidth="1"/>
-    <col min="339" max="339" width="15.4609375" customWidth="1"/>
-    <col min="340" max="340" width="18.15234375" customWidth="1"/>
-    <col min="341" max="342" width="15.4609375" customWidth="1"/>
-    <col min="343" max="343" width="16.4609375" customWidth="1"/>
-    <col min="344" max="344" width="16.3828125" customWidth="1"/>
-    <col min="345" max="345" width="11.3828125" customWidth="1"/>
-    <col min="346" max="346" width="16.84375" customWidth="1"/>
-    <col min="347" max="347" width="19.3828125" customWidth="1"/>
-    <col min="348" max="349" width="16.765625" customWidth="1"/>
-    <col min="350" max="350" width="17.84375" customWidth="1"/>
-    <col min="351" max="351" width="17.765625" customWidth="1"/>
-    <col min="352" max="352" width="9.23046875" customWidth="1"/>
-    <col min="353" max="353" width="14.765625" customWidth="1"/>
-    <col min="354" max="354" width="17.23046875" customWidth="1"/>
-    <col min="355" max="356" width="14.61328125" customWidth="1"/>
-    <col min="357" max="357" width="15.765625" customWidth="1"/>
-    <col min="358" max="358" width="15.4609375" customWidth="1"/>
-    <col min="359" max="359" width="11.3828125" customWidth="1"/>
-    <col min="360" max="360" width="16.84375" customWidth="1"/>
-    <col min="361" max="361" width="19.3828125" customWidth="1"/>
-    <col min="362" max="363" width="16.765625" customWidth="1"/>
-    <col min="364" max="364" width="17.84375" customWidth="1"/>
-    <col min="365" max="365" width="17.765625" customWidth="1"/>
-    <col min="366" max="366" width="9.23046875" customWidth="1"/>
-    <col min="367" max="367" width="14.765625" customWidth="1"/>
-    <col min="368" max="368" width="17.23046875" customWidth="1"/>
-    <col min="369" max="370" width="14.61328125" customWidth="1"/>
-    <col min="371" max="371" width="15.765625" customWidth="1"/>
-    <col min="372" max="372" width="15.4609375" customWidth="1"/>
-    <col min="373" max="373" width="9.23046875" customWidth="1"/>
-    <col min="374" max="374" width="14.765625" customWidth="1"/>
-    <col min="375" max="375" width="17.23046875" customWidth="1"/>
-    <col min="376" max="377" width="14.61328125" customWidth="1"/>
-    <col min="378" max="378" width="15.765625" customWidth="1"/>
-    <col min="379" max="379" width="15.4609375" customWidth="1"/>
-    <col min="380" max="380" width="11.765625" customWidth="1"/>
-    <col min="381" max="381" width="17.23046875" customWidth="1"/>
-    <col min="382" max="382" width="19.765625" customWidth="1"/>
-    <col min="383" max="384" width="17.15234375" customWidth="1"/>
-    <col min="385" max="385" width="18.23046875" customWidth="1"/>
-    <col min="386" max="386" width="18.15234375" customWidth="1"/>
-    <col min="387" max="387" width="9.3828125" customWidth="1"/>
-    <col min="388" max="388" width="14.84375" customWidth="1"/>
-    <col min="389" max="389" width="17.3828125" customWidth="1"/>
-    <col min="390" max="391" width="14.765625" customWidth="1"/>
-    <col min="392" max="392" width="15.84375" customWidth="1"/>
-    <col min="393" max="393" width="15.61328125" customWidth="1"/>
-    <col min="394" max="394" width="9.3828125" customWidth="1"/>
-    <col min="395" max="395" width="14.84375" customWidth="1"/>
-    <col min="396" max="396" width="17.3828125" customWidth="1"/>
-    <col min="397" max="398" width="14.765625" customWidth="1"/>
-    <col min="399" max="399" width="15.84375" customWidth="1"/>
-    <col min="400" max="400" width="15.61328125" customWidth="1"/>
-    <col min="401" max="401" width="9.84375" customWidth="1"/>
-    <col min="402" max="402" width="15.23046875" customWidth="1"/>
-    <col min="403" max="403" width="17.84375" customWidth="1"/>
-    <col min="404" max="405" width="15.15234375" customWidth="1"/>
-    <col min="406" max="406" width="16.23046875" customWidth="1"/>
-    <col min="407" max="407" width="16.15234375" customWidth="1"/>
-    <col min="408" max="408" width="9.84375" customWidth="1"/>
-    <col min="409" max="409" width="15.23046875" customWidth="1"/>
-    <col min="410" max="410" width="17.84375" customWidth="1"/>
-    <col min="411" max="412" width="15.15234375" customWidth="1"/>
-    <col min="413" max="413" width="16.23046875" customWidth="1"/>
-    <col min="414" max="414" width="16.15234375" customWidth="1"/>
-    <col min="415" max="415" width="9.84375" customWidth="1"/>
-    <col min="416" max="416" width="15.23046875" customWidth="1"/>
-    <col min="417" max="417" width="17.84375" customWidth="1"/>
-    <col min="418" max="419" width="15.15234375" customWidth="1"/>
-    <col min="420" max="420" width="16.23046875" customWidth="1"/>
-    <col min="421" max="421" width="16.15234375" customWidth="1"/>
-    <col min="422" max="422" width="10.15234375" customWidth="1"/>
-    <col min="423" max="423" width="15.61328125" customWidth="1"/>
-    <col min="424" max="424" width="18.15234375" customWidth="1"/>
-    <col min="425" max="426" width="15.4609375" customWidth="1"/>
-    <col min="427" max="427" width="16.61328125" customWidth="1"/>
-    <col min="428" max="428" width="16.4609375" customWidth="1"/>
-    <col min="429" max="429" width="10.15234375" customWidth="1"/>
-    <col min="430" max="430" width="15.61328125" customWidth="1"/>
-    <col min="431" max="431" width="18.15234375" customWidth="1"/>
-    <col min="432" max="433" width="15.4609375" customWidth="1"/>
-    <col min="434" max="434" width="16.61328125" customWidth="1"/>
-    <col min="435" max="435" width="16.4609375" customWidth="1"/>
-    <col min="436" max="436" width="9.15234375" customWidth="1"/>
-    <col min="437" max="437" width="14.61328125" customWidth="1"/>
-    <col min="438" max="438" width="17.15234375" customWidth="1"/>
-    <col min="439" max="440" width="14.4609375" customWidth="1"/>
-    <col min="441" max="441" width="15.61328125" customWidth="1"/>
-    <col min="442" max="442" width="15.4609375" customWidth="1"/>
-    <col min="443" max="443" width="9.61328125" customWidth="1"/>
-    <col min="444" max="444" width="15.15234375" customWidth="1"/>
-    <col min="445" max="445" width="17.61328125" customWidth="1"/>
+    <col min="274" max="274" width="15.875" customWidth="1"/>
+    <col min="275" max="275" width="9.375" customWidth="1"/>
+    <col min="276" max="276" width="14.875" customWidth="1"/>
+    <col min="277" max="277" width="17.375" customWidth="1"/>
+    <col min="278" max="279" width="14.75" customWidth="1"/>
+    <col min="280" max="280" width="15.875" customWidth="1"/>
+    <col min="281" max="281" width="15.625" customWidth="1"/>
+    <col min="282" max="282" width="9.375" customWidth="1"/>
+    <col min="283" max="283" width="14.875" customWidth="1"/>
+    <col min="284" max="284" width="17.375" customWidth="1"/>
+    <col min="285" max="286" width="14.75" customWidth="1"/>
+    <col min="287" max="287" width="15.875" customWidth="1"/>
+    <col min="288" max="288" width="15.625" customWidth="1"/>
+    <col min="289" max="289" width="9.375" customWidth="1"/>
+    <col min="290" max="290" width="14.875" customWidth="1"/>
+    <col min="291" max="291" width="17.375" customWidth="1"/>
+    <col min="292" max="293" width="14.75" customWidth="1"/>
+    <col min="294" max="294" width="15.875" customWidth="1"/>
+    <col min="295" max="295" width="15.625" customWidth="1"/>
+    <col min="296" max="296" width="9.375" customWidth="1"/>
+    <col min="297" max="297" width="14.875" customWidth="1"/>
+    <col min="298" max="298" width="17.375" customWidth="1"/>
+    <col min="299" max="300" width="14.75" customWidth="1"/>
+    <col min="301" max="301" width="15.875" customWidth="1"/>
+    <col min="302" max="302" width="15.625" customWidth="1"/>
+    <col min="303" max="303" width="9.375" customWidth="1"/>
+    <col min="304" max="304" width="14.875" customWidth="1"/>
+    <col min="305" max="305" width="17.375" customWidth="1"/>
+    <col min="306" max="307" width="14.75" customWidth="1"/>
+    <col min="308" max="308" width="15.875" customWidth="1"/>
+    <col min="309" max="309" width="15.625" customWidth="1"/>
+    <col min="310" max="310" width="9.375" customWidth="1"/>
+    <col min="311" max="311" width="14.875" customWidth="1"/>
+    <col min="312" max="312" width="17.375" customWidth="1"/>
+    <col min="313" max="314" width="14.75" customWidth="1"/>
+    <col min="315" max="315" width="15.875" customWidth="1"/>
+    <col min="316" max="316" width="15.625" customWidth="1"/>
+    <col min="317" max="317" width="10.125" customWidth="1"/>
+    <col min="318" max="318" width="15.5" customWidth="1"/>
+    <col min="319" max="319" width="18.125" customWidth="1"/>
+    <col min="320" max="321" width="15.5" customWidth="1"/>
+    <col min="322" max="322" width="16.5" customWidth="1"/>
+    <col min="323" max="323" width="16.375" customWidth="1"/>
+    <col min="324" max="324" width="10.125" customWidth="1"/>
+    <col min="325" max="325" width="15.5" customWidth="1"/>
+    <col min="326" max="326" width="18.125" customWidth="1"/>
+    <col min="327" max="328" width="15.5" customWidth="1"/>
+    <col min="329" max="329" width="16.5" customWidth="1"/>
+    <col min="330" max="330" width="16.375" customWidth="1"/>
+    <col min="331" max="331" width="10.125" customWidth="1"/>
+    <col min="332" max="332" width="15.5" customWidth="1"/>
+    <col min="333" max="333" width="18.125" customWidth="1"/>
+    <col min="334" max="335" width="15.5" customWidth="1"/>
+    <col min="336" max="336" width="16.5" customWidth="1"/>
+    <col min="337" max="337" width="16.375" customWidth="1"/>
+    <col min="338" max="338" width="10.125" customWidth="1"/>
+    <col min="339" max="339" width="15.5" customWidth="1"/>
+    <col min="340" max="340" width="18.125" customWidth="1"/>
+    <col min="341" max="342" width="15.5" customWidth="1"/>
+    <col min="343" max="343" width="16.5" customWidth="1"/>
+    <col min="344" max="344" width="16.375" customWidth="1"/>
+    <col min="345" max="345" width="11.375" customWidth="1"/>
+    <col min="346" max="346" width="16.875" customWidth="1"/>
+    <col min="347" max="347" width="19.375" customWidth="1"/>
+    <col min="348" max="349" width="16.75" customWidth="1"/>
+    <col min="350" max="350" width="17.875" customWidth="1"/>
+    <col min="351" max="351" width="17.75" customWidth="1"/>
+    <col min="352" max="352" width="9.25" customWidth="1"/>
+    <col min="353" max="353" width="14.75" customWidth="1"/>
+    <col min="354" max="354" width="17.25" customWidth="1"/>
+    <col min="355" max="356" width="14.625" customWidth="1"/>
+    <col min="357" max="357" width="15.75" customWidth="1"/>
+    <col min="358" max="358" width="15.5" customWidth="1"/>
+    <col min="359" max="359" width="11.375" customWidth="1"/>
+    <col min="360" max="360" width="16.875" customWidth="1"/>
+    <col min="361" max="361" width="19.375" customWidth="1"/>
+    <col min="362" max="363" width="16.75" customWidth="1"/>
+    <col min="364" max="364" width="17.875" customWidth="1"/>
+    <col min="365" max="365" width="17.75" customWidth="1"/>
+    <col min="366" max="366" width="9.25" customWidth="1"/>
+    <col min="367" max="367" width="14.75" customWidth="1"/>
+    <col min="368" max="368" width="17.25" customWidth="1"/>
+    <col min="369" max="370" width="14.625" customWidth="1"/>
+    <col min="371" max="371" width="15.75" customWidth="1"/>
+    <col min="372" max="372" width="15.5" customWidth="1"/>
+    <col min="373" max="373" width="9.25" customWidth="1"/>
+    <col min="374" max="374" width="14.75" customWidth="1"/>
+    <col min="375" max="375" width="17.25" customWidth="1"/>
+    <col min="376" max="377" width="14.625" customWidth="1"/>
+    <col min="378" max="378" width="15.75" customWidth="1"/>
+    <col min="379" max="379" width="15.5" customWidth="1"/>
+    <col min="380" max="380" width="11.75" customWidth="1"/>
+    <col min="381" max="381" width="17.25" customWidth="1"/>
+    <col min="382" max="382" width="19.75" customWidth="1"/>
+    <col min="383" max="384" width="17.125" customWidth="1"/>
+    <col min="385" max="385" width="18.25" customWidth="1"/>
+    <col min="386" max="386" width="18.125" customWidth="1"/>
+    <col min="387" max="387" width="9.375" customWidth="1"/>
+    <col min="388" max="388" width="14.875" customWidth="1"/>
+    <col min="389" max="389" width="17.375" customWidth="1"/>
+    <col min="390" max="391" width="14.75" customWidth="1"/>
+    <col min="392" max="392" width="15.875" customWidth="1"/>
+    <col min="393" max="393" width="15.625" customWidth="1"/>
+    <col min="394" max="394" width="9.375" customWidth="1"/>
+    <col min="395" max="395" width="14.875" customWidth="1"/>
+    <col min="396" max="396" width="17.375" customWidth="1"/>
+    <col min="397" max="398" width="14.75" customWidth="1"/>
+    <col min="399" max="399" width="15.875" customWidth="1"/>
+    <col min="400" max="400" width="15.625" customWidth="1"/>
+    <col min="401" max="401" width="9.875" customWidth="1"/>
+    <col min="402" max="402" width="15.25" customWidth="1"/>
+    <col min="403" max="403" width="17.875" customWidth="1"/>
+    <col min="404" max="405" width="15.125" customWidth="1"/>
+    <col min="406" max="406" width="16.25" customWidth="1"/>
+    <col min="407" max="407" width="16.125" customWidth="1"/>
+    <col min="408" max="408" width="9.875" customWidth="1"/>
+    <col min="409" max="409" width="15.25" customWidth="1"/>
+    <col min="410" max="410" width="17.875" customWidth="1"/>
+    <col min="411" max="412" width="15.125" customWidth="1"/>
+    <col min="413" max="413" width="16.25" customWidth="1"/>
+    <col min="414" max="414" width="16.125" customWidth="1"/>
+    <col min="415" max="415" width="9.875" customWidth="1"/>
+    <col min="416" max="416" width="15.25" customWidth="1"/>
+    <col min="417" max="417" width="17.875" customWidth="1"/>
+    <col min="418" max="419" width="15.125" customWidth="1"/>
+    <col min="420" max="420" width="16.25" customWidth="1"/>
+    <col min="421" max="421" width="16.125" customWidth="1"/>
+    <col min="422" max="422" width="10.125" customWidth="1"/>
+    <col min="423" max="423" width="15.625" customWidth="1"/>
+    <col min="424" max="424" width="18.125" customWidth="1"/>
+    <col min="425" max="426" width="15.5" customWidth="1"/>
+    <col min="427" max="427" width="16.625" customWidth="1"/>
+    <col min="428" max="428" width="16.5" customWidth="1"/>
+    <col min="429" max="429" width="10.125" customWidth="1"/>
+    <col min="430" max="430" width="15.625" customWidth="1"/>
+    <col min="431" max="431" width="18.125" customWidth="1"/>
+    <col min="432" max="433" width="15.5" customWidth="1"/>
+    <col min="434" max="434" width="16.625" customWidth="1"/>
+    <col min="435" max="435" width="16.5" customWidth="1"/>
+    <col min="436" max="436" width="9.125" customWidth="1"/>
+    <col min="437" max="437" width="14.625" customWidth="1"/>
+    <col min="438" max="438" width="17.125" customWidth="1"/>
+    <col min="439" max="440" width="14.5" customWidth="1"/>
+    <col min="441" max="441" width="15.625" customWidth="1"/>
+    <col min="442" max="442" width="15.5" customWidth="1"/>
+    <col min="443" max="443" width="9.625" customWidth="1"/>
+    <col min="444" max="444" width="15.125" customWidth="1"/>
+    <col min="445" max="445" width="17.625" customWidth="1"/>
     <col min="446" max="447" width="15" customWidth="1"/>
-    <col min="448" max="448" width="16.15234375" customWidth="1"/>
-    <col min="449" max="449" width="15.84375" customWidth="1"/>
-    <col min="450" max="450" width="9.15234375" customWidth="1"/>
-    <col min="451" max="451" width="14.61328125" customWidth="1"/>
-    <col min="452" max="452" width="17.15234375" customWidth="1"/>
-    <col min="453" max="454" width="14.4609375" customWidth="1"/>
-    <col min="455" max="455" width="15.61328125" customWidth="1"/>
-    <col min="456" max="456" width="15.4609375" customWidth="1"/>
-    <col min="457" max="457" width="9.15234375" customWidth="1"/>
-    <col min="458" max="458" width="14.61328125" customWidth="1"/>
-    <col min="459" max="459" width="17.15234375" customWidth="1"/>
-    <col min="460" max="461" width="14.4609375" customWidth="1"/>
-    <col min="462" max="462" width="15.61328125" customWidth="1"/>
-    <col min="463" max="463" width="15.4609375" customWidth="1"/>
-    <col min="464" max="464" width="11.15234375" customWidth="1"/>
-    <col min="465" max="465" width="16.61328125" customWidth="1"/>
-    <col min="466" max="466" width="19.15234375" customWidth="1"/>
-    <col min="467" max="468" width="16.4609375" customWidth="1"/>
-    <col min="469" max="469" width="17.765625" customWidth="1"/>
-    <col min="470" max="470" width="17.4609375" customWidth="1"/>
-    <col min="471" max="471" width="11.15234375" customWidth="1"/>
-    <col min="472" max="472" width="16.61328125" customWidth="1"/>
-    <col min="473" max="473" width="19.15234375" customWidth="1"/>
-    <col min="474" max="475" width="16.4609375" customWidth="1"/>
-    <col min="476" max="476" width="17.765625" customWidth="1"/>
-    <col min="477" max="477" width="17.4609375" customWidth="1"/>
-    <col min="478" max="478" width="11.15234375" customWidth="1"/>
-    <col min="479" max="479" width="16.61328125" customWidth="1"/>
-    <col min="480" max="480" width="19.15234375" customWidth="1"/>
-    <col min="481" max="482" width="16.4609375" customWidth="1"/>
-    <col min="483" max="483" width="17.765625" customWidth="1"/>
-    <col min="484" max="484" width="17.4609375" customWidth="1"/>
-    <col min="485" max="485" width="14.3828125" customWidth="1"/>
+    <col min="448" max="448" width="16.125" customWidth="1"/>
+    <col min="449" max="449" width="15.875" customWidth="1"/>
+    <col min="450" max="450" width="9.125" customWidth="1"/>
+    <col min="451" max="451" width="14.625" customWidth="1"/>
+    <col min="452" max="452" width="17.125" customWidth="1"/>
+    <col min="453" max="454" width="14.5" customWidth="1"/>
+    <col min="455" max="455" width="15.625" customWidth="1"/>
+    <col min="456" max="456" width="15.5" customWidth="1"/>
+    <col min="457" max="457" width="9.125" customWidth="1"/>
+    <col min="458" max="458" width="14.625" customWidth="1"/>
+    <col min="459" max="459" width="17.125" customWidth="1"/>
+    <col min="460" max="461" width="14.5" customWidth="1"/>
+    <col min="462" max="462" width="15.625" customWidth="1"/>
+    <col min="463" max="463" width="15.5" customWidth="1"/>
+    <col min="464" max="464" width="11.125" customWidth="1"/>
+    <col min="465" max="465" width="16.625" customWidth="1"/>
+    <col min="466" max="466" width="19.125" customWidth="1"/>
+    <col min="467" max="468" width="16.5" customWidth="1"/>
+    <col min="469" max="469" width="17.75" customWidth="1"/>
+    <col min="470" max="470" width="17.5" customWidth="1"/>
+    <col min="471" max="471" width="11.125" customWidth="1"/>
+    <col min="472" max="472" width="16.625" customWidth="1"/>
+    <col min="473" max="473" width="19.125" customWidth="1"/>
+    <col min="474" max="475" width="16.5" customWidth="1"/>
+    <col min="476" max="476" width="17.75" customWidth="1"/>
+    <col min="477" max="477" width="17.5" customWidth="1"/>
+    <col min="478" max="478" width="11.125" customWidth="1"/>
+    <col min="479" max="479" width="16.625" customWidth="1"/>
+    <col min="480" max="480" width="19.125" customWidth="1"/>
+    <col min="481" max="482" width="16.5" customWidth="1"/>
+    <col min="483" max="483" width="17.75" customWidth="1"/>
+    <col min="484" max="484" width="17.5" customWidth="1"/>
+    <col min="485" max="485" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:822" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:822" x14ac:dyDescent="0.2">
       <c r="ACV1" s="2"/>
       <c r="ACW1" s="2"/>
       <c r="ACX1" s="2"/>
@@ -32279,10 +32280,10 @@
       <c r="ADT1" s="3"/>
       <c r="AEP1" s="2"/>
     </row>
-    <row r="3" spans="1:822" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:822" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
     </row>
-    <row r="5" spans="1:822" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:822" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
     </row>
   </sheetData>
@@ -32302,12 +32303,12 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.23046875" customWidth="1"/>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:105" x14ac:dyDescent="0.2">
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
       <c r="BR1" s="2"/>
@@ -32315,13 +32316,13 @@
       <c r="CZ1" s="2"/>
       <c r="DA1" s="2"/>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
     </row>
   </sheetData>
@@ -32338,7 +32339,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -32349,32 +32350,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE693"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A563" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A563" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C564" sqref="C564"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.4609375" customWidth="1"/>
-    <col min="2" max="2" width="121.23046875" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="121.25" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="37.765625" customWidth="1"/>
-    <col min="5" max="5" width="18.3828125" customWidth="1"/>
-    <col min="6" max="6" width="25.61328125" customWidth="1"/>
-    <col min="7" max="7" width="17.23046875" customWidth="1"/>
-    <col min="8" max="8" width="12.61328125" customWidth="1"/>
-    <col min="9" max="9" width="20.15234375" customWidth="1"/>
-    <col min="11" max="11" width="23.84375" customWidth="1"/>
-    <col min="13" max="13" width="18.4609375" customWidth="1"/>
+    <col min="4" max="4" width="37.75" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="23.875" customWidth="1"/>
+    <col min="13" max="13" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="26"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -32385,7 +32386,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>396</v>
       </c>
@@ -32396,7 +32397,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>397</v>
       </c>
@@ -32407,17 +32408,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>540</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>393</v>
       </c>
@@ -32428,17 +32429,17 @@
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>541</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>492</v>
       </c>
@@ -32449,7 +32450,7 @@
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>493</v>
       </c>
@@ -32460,11 +32461,11 @@
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>12</v>
       </c>
@@ -32473,7 +32474,7 @@
       </c>
       <c r="D13" s="22"/>
     </row>
-    <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>7</v>
       </c>
@@ -32490,7 +32491,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="4" t="s">
         <v>8</v>
@@ -32505,7 +32506,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="4" t="s">
         <v>9</v>
@@ -32520,7 +32521,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -32530,7 +32531,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -32541,14 +32542,14 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="C19" s="4" t="s">
         <v>404</v>
       </c>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>10</v>
       </c>
@@ -32556,11 +32557,11 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="22"/>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>14</v>
       </c>
@@ -32575,7 +32576,7 @@
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>17</v>
       </c>
@@ -32606,7 +32607,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -32656,7 +32657,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -32706,7 +32707,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -32756,7 +32757,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -32806,7 +32807,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>34</v>
       </c>
@@ -32856,7 +32857,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
@@ -32906,7 +32907,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>36</v>
       </c>
@@ -32956,7 +32957,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>37</v>
       </c>
@@ -33006,7 +33007,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>38</v>
       </c>
@@ -33056,7 +33057,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>39</v>
       </c>
@@ -33106,7 +33107,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>40</v>
       </c>
@@ -33156,7 +33157,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
@@ -33206,7 +33207,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>42</v>
       </c>
@@ -33256,7 +33257,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>43</v>
       </c>
@@ -33306,7 +33307,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
@@ -33356,7 +33357,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>45</v>
       </c>
@@ -33406,7 +33407,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>46</v>
       </c>
@@ -33456,7 +33457,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>47</v>
       </c>
@@ -33506,7 +33507,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>48</v>
       </c>
@@ -33556,7 +33557,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>49</v>
       </c>
@@ -33606,7 +33607,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>50</v>
       </c>
@@ -33656,7 +33657,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>51</v>
       </c>
@@ -33706,7 +33707,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>52</v>
       </c>
@@ -33756,7 +33757,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>53</v>
       </c>
@@ -33806,7 +33807,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>54</v>
       </c>
@@ -33856,7 +33857,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>55</v>
       </c>
@@ -33906,7 +33907,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>56</v>
       </c>
@@ -33956,7 +33957,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>57</v>
       </c>
@@ -34006,7 +34007,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>58</v>
       </c>
@@ -34056,7 +34057,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>59</v>
       </c>
@@ -34106,7 +34107,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>60</v>
       </c>
@@ -34156,7 +34157,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>61</v>
       </c>
@@ -34206,7 +34207,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>62</v>
       </c>
@@ -34256,7 +34257,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>63</v>
       </c>
@@ -34306,7 +34307,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>64</v>
       </c>
@@ -34356,7 +34357,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -34406,7 +34407,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>66</v>
       </c>
@@ -34456,7 +34457,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>312</v>
       </c>
@@ -34506,7 +34507,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -34556,7 +34557,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -34606,7 +34607,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -34656,7 +34657,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -34706,7 +34707,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -34756,7 +34757,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -34806,7 +34807,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -34856,7 +34857,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -34906,7 +34907,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -34956,7 +34957,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -35006,7 +35007,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -35056,7 +35057,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -35106,7 +35107,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -35156,7 +35157,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -35206,7 +35207,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -35256,7 +35257,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -35306,7 +35307,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -35356,7 +35357,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -35406,7 +35407,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -35456,7 +35457,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -35506,7 +35507,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -35556,7 +35557,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -35606,7 +35607,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -35656,7 +35657,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -35706,7 +35707,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -35756,7 +35757,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -35806,7 +35807,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>93</v>
       </c>
@@ -35856,7 +35857,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>94</v>
       </c>
@@ -35906,7 +35907,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -35956,7 +35957,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
@@ -36006,7 +36007,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>97</v>
       </c>
@@ -36056,7 +36057,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -36106,7 +36107,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -36156,7 +36157,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -36206,7 +36207,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -36256,7 +36257,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -36306,7 +36307,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -36356,7 +36357,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -36406,7 +36407,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -36456,7 +36457,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -36506,7 +36507,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -36556,7 +36557,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>108</v>
       </c>
@@ -36606,7 +36607,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>109</v>
       </c>
@@ -36656,7 +36657,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>110</v>
       </c>
@@ -36706,7 +36707,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>111</v>
       </c>
@@ -36756,7 +36757,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>112</v>
       </c>
@@ -36806,7 +36807,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>113</v>
       </c>
@@ -36856,7 +36857,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="68" t="s">
         <v>888</v>
       </c>
@@ -36906,7 +36907,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="68" t="s">
         <v>887</v>
       </c>
@@ -36956,7 +36957,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>114</v>
       </c>
@@ -37006,7 +37007,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="35" t="s">
         <v>115</v>
       </c>
@@ -37056,7 +37057,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>116</v>
       </c>
@@ -37106,7 +37107,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>117</v>
       </c>
@@ -37156,7 +37157,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>118</v>
       </c>
@@ -37206,7 +37207,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="35" t="s">
         <v>119</v>
       </c>
@@ -37256,7 +37257,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>120</v>
       </c>
@@ -37306,7 +37307,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>121</v>
       </c>
@@ -37356,7 +37357,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>122</v>
       </c>
@@ -37406,7 +37407,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>123</v>
       </c>
@@ -37456,7 +37457,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="35" t="s">
         <v>124</v>
       </c>
@@ -37506,7 +37507,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="35" t="s">
         <v>125</v>
       </c>
@@ -37556,7 +37557,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>126</v>
       </c>
@@ -37606,7 +37607,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>127</v>
       </c>
@@ -37656,7 +37657,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -37706,7 +37707,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -37756,7 +37757,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -37806,7 +37807,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -37856,7 +37857,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -37906,7 +37907,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -37956,7 +37957,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -38006,7 +38007,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -38056,7 +38057,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>371</v>
       </c>
@@ -38106,7 +38107,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -38156,7 +38157,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -38206,7 +38207,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -38256,7 +38257,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -38306,7 +38307,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -38356,7 +38357,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>141</v>
       </c>
@@ -38406,7 +38407,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>142</v>
       </c>
@@ -38456,7 +38457,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>143</v>
       </c>
@@ -38506,7 +38507,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>144</v>
       </c>
@@ -38556,7 +38557,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>489</v>
       </c>
@@ -38606,7 +38607,7 @@
         <v>Geen waarde bekend</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="20" t="s">
         <v>145</v>
       </c>
@@ -38625,7 +38626,7 @@
       <c r="H144" s="22"/>
       <c r="I144" s="22"/>
     </row>
-    <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="20" t="s">
         <v>146</v>
       </c>
@@ -38644,7 +38645,7 @@
       <c r="H145" s="22"/>
       <c r="I145" s="22"/>
     </row>
-    <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="20" t="s">
         <v>147</v>
       </c>
@@ -38663,7 +38664,7 @@
       <c r="H146" s="22"/>
       <c r="I146" s="22"/>
     </row>
-    <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="20" t="s">
         <v>148</v>
       </c>
@@ -38682,7 +38683,7 @@
       <c r="H147" s="22"/>
       <c r="I147" s="22"/>
     </row>
-    <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="20" t="s">
         <v>149</v>
       </c>
@@ -38701,7 +38702,7 @@
       <c r="H148" s="22"/>
       <c r="I148" s="22"/>
     </row>
-    <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="20" t="s">
         <v>150</v>
       </c>
@@ -38720,7 +38721,7 @@
       <c r="H149" s="22"/>
       <c r="I149" s="22"/>
     </row>
-    <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="20" t="s">
         <v>151</v>
       </c>
@@ -38739,7 +38740,7 @@
       <c r="H150" s="22"/>
       <c r="I150" s="22"/>
     </row>
-    <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="20" t="s">
         <v>152</v>
       </c>
@@ -38758,7 +38759,7 @@
       <c r="H151" s="22"/>
       <c r="I151" s="22"/>
     </row>
-    <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="69" t="s">
         <v>899</v>
       </c>
@@ -38777,7 +38778,7 @@
       <c r="H152" s="22"/>
       <c r="I152" s="22"/>
     </row>
-    <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="69" t="s">
         <v>898</v>
       </c>
@@ -38796,7 +38797,7 @@
       <c r="H153" s="22"/>
       <c r="I153" s="22"/>
     </row>
-    <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="69" t="s">
         <v>897</v>
       </c>
@@ -38815,9 +38816,9 @@
       <c r="H154" s="22"/>
       <c r="I154" s="22"/>
     </row>
-    <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="41" t="s">
         <v>529</v>
       </c>
@@ -38830,7 +38831,7 @@
       <c r="H157" s="42"/>
       <c r="I157" s="42"/>
     </row>
-    <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="16" t="s">
         <v>277</v>
       </c>
@@ -38845,7 +38846,7 @@
       <c r="J158" s="34"/>
       <c r="K158" s="34"/>
     </row>
-    <row r="159" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>1</v>
       </c>
@@ -38880,7 +38881,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="19"/>
       <c r="B160" s="5" t="s">
         <v>294</v>
@@ -38913,7 +38914,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -38959,7 +38960,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -39005,7 +39006,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="5"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -39015,7 +39016,7 @@
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
     </row>
-    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="16" t="s">
         <v>295</v>
       </c>
@@ -39028,7 +39029,7 @@
       <c r="H164" s="17"/>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>1</v>
       </c>
@@ -39048,7 +39049,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="19"/>
       <c r="B166" s="1" t="s">
         <v>287</v>
@@ -39071,7 +39072,7 @@
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -39102,7 +39103,7 @@
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -39133,7 +39134,7 @@
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
     </row>
-    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="19"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -39146,7 +39147,7 @@
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="45" t="s">
         <v>530</v>
       </c>
@@ -39161,7 +39162,7 @@
       <c r="J170" s="42"/>
       <c r="K170" s="42"/>
     </row>
-    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="16" t="s">
         <v>277</v>
       </c>
@@ -39176,7 +39177,7 @@
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>1</v>
       </c>
@@ -39193,7 +39194,7 @@
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="19"/>
       <c r="B173" t="s">
         <v>301</v>
@@ -39208,7 +39209,7 @@
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
     </row>
-    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -39227,7 +39228,7 @@
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
     </row>
-    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -39246,7 +39247,7 @@
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
     </row>
-    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -39265,7 +39266,7 @@
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="19"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -39278,7 +39279,7 @@
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
     </row>
-    <row r="178" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="16" t="s">
         <v>295</v>
       </c>
@@ -39293,7 +39294,7 @@
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>1</v>
       </c>
@@ -39310,7 +39311,7 @@
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="19"/>
       <c r="B180" s="1" t="s">
         <v>302</v>
@@ -39325,7 +39326,7 @@
       <c r="J180" s="5"/>
       <c r="K180" s="5"/>
     </row>
-    <row r="181" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -39344,7 +39345,7 @@
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
     </row>
-    <row r="182" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -39363,7 +39364,7 @@
       <c r="J182" s="5"/>
       <c r="K182" s="5"/>
     </row>
-    <row r="183" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -39382,7 +39383,7 @@
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="19"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -39395,7 +39396,7 @@
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="41" t="s">
         <v>531</v>
       </c>
@@ -39408,7 +39409,7 @@
       <c r="H185" s="46"/>
       <c r="I185" s="46"/>
     </row>
-    <row r="186" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="16" t="s">
         <v>303</v>
       </c>
@@ -39421,7 +39422,7 @@
       <c r="H186" s="17"/>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>1</v>
       </c>
@@ -39447,7 +39448,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="19"/>
       <c r="B188" s="63" t="s">
         <v>791</v>
@@ -39474,7 +39475,7 @@
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
     </row>
-    <row r="189" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -39511,7 +39512,7 @@
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
     </row>
-    <row r="190" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -39548,7 +39549,7 @@
       <c r="J190" s="5"/>
       <c r="K190" s="5"/>
     </row>
-    <row r="191" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="5"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -39558,7 +39559,7 @@
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
     </row>
-    <row r="192" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="16" t="s">
         <v>311</v>
       </c>
@@ -39571,7 +39572,7 @@
       <c r="H192" s="17"/>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="19" t="s">
         <v>1</v>
       </c>
@@ -39666,7 +39667,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="194" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="19"/>
       <c r="B194" s="53" t="s">
         <v>589</v>
@@ -39759,7 +39760,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="195" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -39885,7 +39886,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="19" t="s">
         <v>2</v>
       </c>
@@ -40010,7 +40011,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="197" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>5</v>
       </c>
@@ -40135,7 +40136,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -40168,7 +40169,7 @@
       <c r="AD198" s="1"/>
       <c r="AE198" s="1"/>
     </row>
-    <row r="199" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="45" t="s">
         <v>532</v>
       </c>
@@ -40203,7 +40204,7 @@
       <c r="AD199" s="47"/>
       <c r="AE199" s="47"/>
     </row>
-    <row r="200" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="16" t="s">
         <v>303</v>
       </c>
@@ -40238,7 +40239,7 @@
       <c r="AD200" s="1"/>
       <c r="AE200" s="1"/>
     </row>
-    <row r="201" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>1</v>
       </c>
@@ -40275,7 +40276,7 @@
       <c r="AD201" s="1"/>
       <c r="AE201" s="1"/>
     </row>
-    <row r="202" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="19"/>
       <c r="B202" s="1" t="s">
         <v>302</v>
@@ -40310,7 +40311,7 @@
       <c r="AD202" s="1"/>
       <c r="AE202" s="1"/>
     </row>
-    <row r="203" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -40349,7 +40350,7 @@
       <c r="AD203" s="1"/>
       <c r="AE203" s="1"/>
     </row>
-    <row r="204" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -40388,7 +40389,7 @@
       <c r="AD204" s="1"/>
       <c r="AE204" s="1"/>
     </row>
-    <row r="205" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -40407,7 +40408,7 @@
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
     </row>
-    <row r="206" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="19"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -40420,7 +40421,7 @@
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
     </row>
-    <row r="207" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="16" t="s">
         <v>568</v>
       </c>
@@ -40455,7 +40456,7 @@
       <c r="AD207" s="1"/>
       <c r="AE207" s="1"/>
     </row>
-    <row r="208" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>1</v>
       </c>
@@ -40492,7 +40493,7 @@
       <c r="AD208" s="1"/>
       <c r="AE208" s="1"/>
     </row>
-    <row r="209" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="19"/>
       <c r="B209" s="1" t="s">
         <v>302</v>
@@ -40527,7 +40528,7 @@
       <c r="AD209" s="1"/>
       <c r="AE209" s="1"/>
     </row>
-    <row r="210" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -40566,7 +40567,7 @@
       <c r="AD210" s="1"/>
       <c r="AE210" s="1"/>
     </row>
-    <row r="211" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -40605,7 +40606,7 @@
       <c r="AD211" s="1"/>
       <c r="AE211" s="1"/>
     </row>
-    <row r="212" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -40624,7 +40625,7 @@
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
     </row>
-    <row r="213" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="19"/>
       <c r="B213" s="5"/>
       <c r="C213" s="1"/>
@@ -40657,7 +40658,7 @@
       <c r="AD213" s="1"/>
       <c r="AE213" s="1"/>
     </row>
-    <row r="214" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="16" t="s">
         <v>313</v>
       </c>
@@ -40692,7 +40693,7 @@
       <c r="AD214" s="1"/>
       <c r="AE214" s="1"/>
     </row>
-    <row r="215" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>1</v>
       </c>
@@ -40729,7 +40730,7 @@
       <c r="AD215" s="1"/>
       <c r="AE215" s="1"/>
     </row>
-    <row r="216" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="19"/>
       <c r="B216" s="1" t="s">
         <v>302</v>
@@ -40764,7 +40765,7 @@
       <c r="AD216" s="1"/>
       <c r="AE216" s="1"/>
     </row>
-    <row r="217" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -40803,7 +40804,7 @@
       <c r="AD217" s="1"/>
       <c r="AE217" s="1"/>
     </row>
-    <row r="218" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -40842,7 +40843,7 @@
       <c r="AD218" s="1"/>
       <c r="AE218" s="1"/>
     </row>
-    <row r="219" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -40861,7 +40862,7 @@
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
     </row>
-    <row r="220" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="19"/>
       <c r="B220" s="5"/>
       <c r="C220" s="1"/>
@@ -40894,7 +40895,7 @@
       <c r="AD220" s="1"/>
       <c r="AE220" s="1"/>
     </row>
-    <row r="221" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="16" t="s">
         <v>314</v>
       </c>
@@ -40929,7 +40930,7 @@
       <c r="AD221" s="1"/>
       <c r="AE221" s="1"/>
     </row>
-    <row r="222" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>1</v>
       </c>
@@ -40966,7 +40967,7 @@
       <c r="AD222" s="1"/>
       <c r="AE222" s="1"/>
     </row>
-    <row r="223" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="19"/>
       <c r="B223" s="1" t="s">
         <v>302</v>
@@ -41001,7 +41002,7 @@
       <c r="AD223" s="1"/>
       <c r="AE223" s="1"/>
     </row>
-    <row r="224" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -41040,7 +41041,7 @@
       <c r="AD224" s="1"/>
       <c r="AE224" s="1"/>
     </row>
-    <row r="225" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -41079,7 +41080,7 @@
       <c r="AD225" s="1"/>
       <c r="AE225" s="1"/>
     </row>
-    <row r="226" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -41098,7 +41099,7 @@
       <c r="J226" s="5"/>
       <c r="K226" s="5"/>
     </row>
-    <row r="227" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="19"/>
       <c r="B227" s="5"/>
       <c r="C227" s="1"/>
@@ -41131,7 +41132,7 @@
       <c r="AD227" s="1"/>
       <c r="AE227" s="1"/>
     </row>
-    <row r="228" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="16" t="s">
         <v>315</v>
       </c>
@@ -41166,7 +41167,7 @@
       <c r="AD228" s="1"/>
       <c r="AE228" s="1"/>
     </row>
-    <row r="229" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>1</v>
       </c>
@@ -41203,7 +41204,7 @@
       <c r="AD229" s="1"/>
       <c r="AE229" s="1"/>
     </row>
-    <row r="230" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="19"/>
       <c r="B230" s="1" t="s">
         <v>302</v>
@@ -41238,7 +41239,7 @@
       <c r="AD230" s="1"/>
       <c r="AE230" s="1"/>
     </row>
-    <row r="231" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -41277,7 +41278,7 @@
       <c r="AD231" s="1"/>
       <c r="AE231" s="1"/>
     </row>
-    <row r="232" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -41316,7 +41317,7 @@
       <c r="AD232" s="1"/>
       <c r="AE232" s="1"/>
     </row>
-    <row r="233" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -41335,7 +41336,7 @@
       <c r="J233" s="5"/>
       <c r="K233" s="5"/>
     </row>
-    <row r="234" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="5"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -41345,7 +41346,7 @@
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
     </row>
-    <row r="235" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="41" t="s">
         <v>533</v>
       </c>
@@ -41358,7 +41359,7 @@
       <c r="H235" s="46"/>
       <c r="I235" s="46"/>
     </row>
-    <row r="236" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="16" t="s">
         <v>316</v>
       </c>
@@ -41371,7 +41372,7 @@
       <c r="H236" s="17"/>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="19" t="s">
         <v>1</v>
       </c>
@@ -41392,7 +41393,7 @@
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
     </row>
-    <row r="238" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="13" t="s">
         <v>536</v>
       </c>
@@ -41410,7 +41411,7 @@
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
     </row>
-    <row r="239" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -41436,7 +41437,7 @@
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
     </row>
-    <row r="240" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -41462,7 +41463,7 @@
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
     </row>
-    <row r="241" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="5"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -41472,7 +41473,7 @@
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
     </row>
-    <row r="242" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="16" t="s">
         <v>317</v>
       </c>
@@ -41485,7 +41486,7 @@
       <c r="H242" s="17"/>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="19" t="s">
         <v>1</v>
       </c>
@@ -41524,7 +41525,7 @@
       <c r="N243" s="13"/>
       <c r="O243" s="13"/>
     </row>
-    <row r="244" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="19"/>
       <c r="B244" s="54" t="s">
         <v>619</v>
@@ -41560,7 +41561,7 @@
       <c r="N244" s="13"/>
       <c r="O244" s="13"/>
     </row>
-    <row r="245" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -41610,7 +41611,7 @@
       <c r="N245" s="5"/>
       <c r="O245" s="5"/>
     </row>
-    <row r="246" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="19" t="s">
         <v>2</v>
       </c>
@@ -41659,7 +41660,7 @@
       <c r="N246" s="5"/>
       <c r="O246" s="5"/>
     </row>
-    <row r="247" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>5</v>
       </c>
@@ -41708,7 +41709,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="5"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -41718,7 +41719,7 @@
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
     </row>
-    <row r="249" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="16" t="s">
         <v>318</v>
       </c>
@@ -41731,7 +41732,7 @@
       <c r="H249" s="17"/>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="19" t="s">
         <v>1</v>
       </c>
@@ -41781,7 +41782,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="19"/>
       <c r="B251" s="53" t="s">
         <v>628</v>
@@ -41829,7 +41830,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -41895,7 +41896,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="19" t="s">
         <v>2</v>
       </c>
@@ -41960,7 +41961,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>5</v>
       </c>
@@ -42025,7 +42026,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -42043,7 +42044,7 @@
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
     </row>
-    <row r="256" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="16" t="s">
         <v>319</v>
       </c>
@@ -42056,7 +42057,7 @@
       <c r="H256" s="17"/>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="19" t="s">
         <v>1</v>
       </c>
@@ -42079,7 +42080,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="258" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="19"/>
       <c r="B258" s="56" t="s">
         <v>784</v>
@@ -42109,7 +42110,7 @@
       <c r="O258" s="20"/>
       <c r="P258" s="20"/>
     </row>
-    <row r="259" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -42148,7 +42149,7 @@
       <c r="O259" s="5"/>
       <c r="P259" s="5"/>
     </row>
-    <row r="260" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="19" t="s">
         <v>2</v>
       </c>
@@ -42186,7 +42187,7 @@
       <c r="O260" s="5"/>
       <c r="P260" s="5"/>
     </row>
-    <row r="261" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>5</v>
       </c>
@@ -42224,7 +42225,7 @@
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
     </row>
-    <row r="262" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -42242,7 +42243,7 @@
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
     </row>
-    <row r="263" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="45" t="s">
         <v>534</v>
       </c>
@@ -42262,7 +42263,7 @@
       <c r="O263" s="47"/>
       <c r="P263" s="47"/>
     </row>
-    <row r="264" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="16" t="s">
         <v>320</v>
       </c>
@@ -42297,7 +42298,7 @@
       <c r="AD264" s="1"/>
       <c r="AE264" s="1"/>
     </row>
-    <row r="265" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>1</v>
       </c>
@@ -42334,7 +42335,7 @@
       <c r="AD265" s="1"/>
       <c r="AE265" s="1"/>
     </row>
-    <row r="266" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="19"/>
       <c r="B266" s="1" t="s">
         <v>302</v>
@@ -42369,7 +42370,7 @@
       <c r="AD266" s="1"/>
       <c r="AE266" s="1"/>
     </row>
-    <row r="267" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -42408,7 +42409,7 @@
       <c r="AD267" s="1"/>
       <c r="AE267" s="1"/>
     </row>
-    <row r="268" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -42447,7 +42448,7 @@
       <c r="AD268" s="1"/>
       <c r="AE268" s="1"/>
     </row>
-    <row r="269" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -42466,7 +42467,7 @@
       <c r="J269" s="5"/>
       <c r="K269" s="5"/>
     </row>
-    <row r="270" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -42484,7 +42485,7 @@
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
     </row>
-    <row r="271" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="16" t="s">
         <v>321</v>
       </c>
@@ -42519,7 +42520,7 @@
       <c r="AD271" s="1"/>
       <c r="AE271" s="1"/>
     </row>
-    <row r="272" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>1</v>
       </c>
@@ -42556,7 +42557,7 @@
       <c r="AD272" s="1"/>
       <c r="AE272" s="1"/>
     </row>
-    <row r="273" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="19"/>
       <c r="B273" s="1" t="s">
         <v>302</v>
@@ -42591,7 +42592,7 @@
       <c r="AD273" s="1"/>
       <c r="AE273" s="1"/>
     </row>
-    <row r="274" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -42630,7 +42631,7 @@
       <c r="AD274" s="1"/>
       <c r="AE274" s="1"/>
     </row>
-    <row r="275" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -42669,7 +42670,7 @@
       <c r="AD275" s="1"/>
       <c r="AE275" s="1"/>
     </row>
-    <row r="276" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -42688,7 +42689,7 @@
       <c r="J276" s="5"/>
       <c r="K276" s="5"/>
     </row>
-    <row r="277" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -42706,7 +42707,7 @@
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
     </row>
-    <row r="278" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="16" t="s">
         <v>322</v>
       </c>
@@ -42741,7 +42742,7 @@
       <c r="AD278" s="1"/>
       <c r="AE278" s="1"/>
     </row>
-    <row r="279" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>1</v>
       </c>
@@ -42778,7 +42779,7 @@
       <c r="AD279" s="1"/>
       <c r="AE279" s="1"/>
     </row>
-    <row r="280" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="19"/>
       <c r="B280" s="1" t="s">
         <v>302</v>
@@ -42813,7 +42814,7 @@
       <c r="AD280" s="1"/>
       <c r="AE280" s="1"/>
     </row>
-    <row r="281" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -42852,7 +42853,7 @@
       <c r="AD281" s="1"/>
       <c r="AE281" s="1"/>
     </row>
-    <row r="282" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -42891,7 +42892,7 @@
       <c r="AD282" s="1"/>
       <c r="AE282" s="1"/>
     </row>
-    <row r="283" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -42910,7 +42911,7 @@
       <c r="J283" s="5"/>
       <c r="K283" s="5"/>
     </row>
-    <row r="284" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="19"/>
       <c r="B284" s="5"/>
       <c r="C284" s="1"/>
@@ -42943,7 +42944,7 @@
       <c r="AD284" s="1"/>
       <c r="AE284" s="1"/>
     </row>
-    <row r="285" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="16" t="s">
         <v>323</v>
       </c>
@@ -42978,7 +42979,7 @@
       <c r="AD285" s="1"/>
       <c r="AE285" s="1"/>
     </row>
-    <row r="286" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
         <v>1</v>
       </c>
@@ -43015,7 +43016,7 @@
       <c r="AD286" s="1"/>
       <c r="AE286" s="1"/>
     </row>
-    <row r="287" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="19"/>
       <c r="B287" s="1" t="s">
         <v>302</v>
@@ -43050,7 +43051,7 @@
       <c r="AD287" s="1"/>
       <c r="AE287" s="1"/>
     </row>
-    <row r="288" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -43089,7 +43090,7 @@
       <c r="AD288" s="1"/>
       <c r="AE288" s="1"/>
     </row>
-    <row r="289" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -43128,7 +43129,7 @@
       <c r="AD289" s="1"/>
       <c r="AE289" s="1"/>
     </row>
-    <row r="290" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -43167,7 +43168,7 @@
       <c r="AD290" s="1"/>
       <c r="AE290" s="1"/>
     </row>
-    <row r="291" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -43185,7 +43186,7 @@
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
     </row>
-    <row r="292" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="16" t="s">
         <v>324</v>
       </c>
@@ -43220,7 +43221,7 @@
       <c r="AD292" s="1"/>
       <c r="AE292" s="1"/>
     </row>
-    <row r="293" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>1</v>
       </c>
@@ -43257,7 +43258,7 @@
       <c r="AD293" s="1"/>
       <c r="AE293" s="1"/>
     </row>
-    <row r="294" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="19"/>
       <c r="B294" s="1" t="s">
         <v>302</v>
@@ -43292,7 +43293,7 @@
       <c r="AD294" s="1"/>
       <c r="AE294" s="1"/>
     </row>
-    <row r="295" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -43331,7 +43332,7 @@
       <c r="AD295" s="1"/>
       <c r="AE295" s="1"/>
     </row>
-    <row r="296" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -43370,7 +43371,7 @@
       <c r="AD296" s="1"/>
       <c r="AE296" s="1"/>
     </row>
-    <row r="297" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -43389,7 +43390,7 @@
       <c r="J297" s="5"/>
       <c r="K297" s="5"/>
     </row>
-    <row r="298" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -43407,7 +43408,7 @@
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
     </row>
-    <row r="299" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="16" t="s">
         <v>325</v>
       </c>
@@ -43442,7 +43443,7 @@
       <c r="AD299" s="1"/>
       <c r="AE299" s="1"/>
     </row>
-    <row r="300" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
         <v>1</v>
       </c>
@@ -43479,7 +43480,7 @@
       <c r="AD300" s="1"/>
       <c r="AE300" s="1"/>
     </row>
-    <row r="301" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="19"/>
       <c r="B301" s="1" t="s">
         <v>302</v>
@@ -43514,7 +43515,7 @@
       <c r="AD301" s="1"/>
       <c r="AE301" s="1"/>
     </row>
-    <row r="302" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="19" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -43553,7 +43554,7 @@
       <c r="AD302" s="1"/>
       <c r="AE302" s="1"/>
     </row>
-    <row r="303" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="19" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -43592,7 +43593,7 @@
       <c r="AD303" s="1"/>
       <c r="AE303" s="1"/>
     </row>
-    <row r="304" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -43611,7 +43612,7 @@
       <c r="J304" s="5"/>
       <c r="K304" s="5"/>
     </row>
-    <row r="305" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="19"/>
       <c r="B305" s="5"/>
       <c r="C305" s="1"/>
@@ -43644,7 +43645,7 @@
       <c r="AD305" s="1"/>
       <c r="AE305" s="1"/>
     </row>
-    <row r="306" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="16" t="s">
         <v>27</v>
       </c>
@@ -43679,7 +43680,7 @@
       <c r="AD306" s="4"/>
       <c r="AE306" s="4"/>
     </row>
-    <row r="307" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
         <v>1</v>
       </c>
@@ -43716,7 +43717,7 @@
       <c r="AD307" s="4"/>
       <c r="AE307" s="4"/>
     </row>
-    <row r="308" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3"/>
       <c r="B308" s="4" t="s">
         <v>302</v>
@@ -43751,7 +43752,7 @@
       <c r="AD308" s="4"/>
       <c r="AE308" s="4"/>
     </row>
-    <row r="309" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -43790,7 +43791,7 @@
       <c r="AD309" s="4"/>
       <c r="AE309" s="4"/>
     </row>
-    <row r="310" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -43829,7 +43830,7 @@
       <c r="AD310" s="4"/>
       <c r="AE310" s="4"/>
     </row>
-    <row r="311" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -43848,7 +43849,7 @@
       <c r="J311" s="5"/>
       <c r="K311" s="5"/>
     </row>
-    <row r="312" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -43866,7 +43867,7 @@
       <c r="O312" s="4"/>
       <c r="P312" s="4"/>
     </row>
-    <row r="313" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="16" t="s">
         <v>326</v>
       </c>
@@ -43901,7 +43902,7 @@
       <c r="AD313" s="4"/>
       <c r="AE313" s="4"/>
     </row>
-    <row r="314" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
         <v>1</v>
       </c>
@@ -43938,7 +43939,7 @@
       <c r="AD314" s="4"/>
       <c r="AE314" s="4"/>
     </row>
-    <row r="315" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3"/>
       <c r="B315" s="4" t="s">
         <v>302</v>
@@ -43973,7 +43974,7 @@
       <c r="AD315" s="4"/>
       <c r="AE315" s="4"/>
     </row>
-    <row r="316" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -44012,7 +44013,7 @@
       <c r="AD316" s="4"/>
       <c r="AE316" s="4"/>
     </row>
-    <row r="317" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -44051,7 +44052,7 @@
       <c r="AD317" s="4"/>
       <c r="AE317" s="4"/>
     </row>
-    <row r="318" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -44070,7 +44071,7 @@
       <c r="J318" s="5"/>
       <c r="K318" s="5"/>
     </row>
-    <row r="319" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -44088,7 +44089,7 @@
       <c r="O319" s="4"/>
       <c r="P319" s="4"/>
     </row>
-    <row r="320" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="16" t="s">
         <v>327</v>
       </c>
@@ -44123,7 +44124,7 @@
       <c r="AD320" s="4"/>
       <c r="AE320" s="4"/>
     </row>
-    <row r="321" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
         <v>1</v>
       </c>
@@ -44160,7 +44161,7 @@
       <c r="AD321" s="4"/>
       <c r="AE321" s="4"/>
     </row>
-    <row r="322" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3"/>
       <c r="B322" s="4" t="s">
         <v>302</v>
@@ -44195,7 +44196,7 @@
       <c r="AD322" s="4"/>
       <c r="AE322" s="4"/>
     </row>
-    <row r="323" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -44234,7 +44235,7 @@
       <c r="AD323" s="4"/>
       <c r="AE323" s="4"/>
     </row>
-    <row r="324" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -44273,7 +44274,7 @@
       <c r="AD324" s="4"/>
       <c r="AE324" s="4"/>
     </row>
-    <row r="325" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -44292,7 +44293,7 @@
       <c r="J325" s="5"/>
       <c r="K325" s="5"/>
     </row>
-    <row r="326" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -44302,7 +44303,7 @@
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
     </row>
-    <row r="327" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="41" t="s">
         <v>524</v>
       </c>
@@ -44315,7 +44316,7 @@
       <c r="H327" s="46"/>
       <c r="I327" s="46"/>
     </row>
-    <row r="328" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="16" t="s">
         <v>328</v>
       </c>
@@ -44330,7 +44331,7 @@
       <c r="J328" s="34"/>
       <c r="K328" s="34"/>
     </row>
-    <row r="329" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
         <v>1</v>
       </c>
@@ -44365,7 +44366,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3"/>
       <c r="B330" s="5" t="s">
         <v>294</v>
@@ -44398,7 +44399,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="331" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -44444,7 +44445,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="332" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -44490,7 +44491,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="333" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="13"/>
       <c r="B333" s="24"/>
       <c r="C333" s="12"/>
@@ -44502,7 +44503,7 @@
       <c r="I333" s="22"/>
       <c r="K333" s="22"/>
     </row>
-    <row r="334" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="45" t="s">
         <v>523</v>
       </c>
@@ -44515,7 +44516,7 @@
       <c r="H334" s="46"/>
       <c r="I334" s="46"/>
     </row>
-    <row r="335" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="16" t="s">
         <v>336</v>
       </c>
@@ -44550,7 +44551,7 @@
       <c r="AD335" s="4"/>
       <c r="AE335" s="4"/>
     </row>
-    <row r="336" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
         <v>1</v>
       </c>
@@ -44587,7 +44588,7 @@
       <c r="AD336" s="4"/>
       <c r="AE336" s="4"/>
     </row>
-    <row r="337" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3"/>
       <c r="B337" s="4" t="s">
         <v>302</v>
@@ -44622,7 +44623,7 @@
       <c r="AD337" s="4"/>
       <c r="AE337" s="4"/>
     </row>
-    <row r="338" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -44661,7 +44662,7 @@
       <c r="AD338" s="4"/>
       <c r="AE338" s="4"/>
     </row>
-    <row r="339" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -44700,7 +44701,7 @@
       <c r="AD339" s="4"/>
       <c r="AE339" s="4"/>
     </row>
-    <row r="340" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -44719,7 +44720,7 @@
       <c r="J340" s="5"/>
       <c r="K340" s="5"/>
     </row>
-    <row r="341" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3"/>
       <c r="B341" s="22"/>
       <c r="C341" s="22"/>
@@ -44730,7 +44731,7 @@
       <c r="H341" s="22"/>
       <c r="I341" s="22"/>
     </row>
-    <row r="342" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="16" t="s">
         <v>337</v>
       </c>
@@ -44765,7 +44766,7 @@
       <c r="AD342" s="4"/>
       <c r="AE342" s="4"/>
     </row>
-    <row r="343" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
         <v>1</v>
       </c>
@@ -44802,7 +44803,7 @@
       <c r="AD343" s="4"/>
       <c r="AE343" s="4"/>
     </row>
-    <row r="344" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3"/>
       <c r="B344" s="4" t="s">
         <v>302</v>
@@ -44837,7 +44838,7 @@
       <c r="AD344" s="4"/>
       <c r="AE344" s="4"/>
     </row>
-    <row r="345" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -44876,7 +44877,7 @@
       <c r="AD345" s="4"/>
       <c r="AE345" s="4"/>
     </row>
-    <row r="346" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -44915,7 +44916,7 @@
       <c r="AD346" s="4"/>
       <c r="AE346" s="4"/>
     </row>
-    <row r="347" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -44934,7 +44935,7 @@
       <c r="J347" s="5"/>
       <c r="K347" s="5"/>
     </row>
-    <row r="348" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="70"/>
       <c r="C348" s="70"/>
       <c r="D348" s="3"/>
@@ -44944,7 +44945,7 @@
       <c r="H348" s="70"/>
       <c r="I348" s="70"/>
     </row>
-    <row r="349" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="16" t="s">
         <v>338</v>
       </c>
@@ -44979,7 +44980,7 @@
       <c r="AD349" s="4"/>
       <c r="AE349" s="4"/>
     </row>
-    <row r="350" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
         <v>1</v>
       </c>
@@ -45016,7 +45017,7 @@
       <c r="AD350" s="4"/>
       <c r="AE350" s="4"/>
     </row>
-    <row r="351" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A351" s="3"/>
       <c r="B351" s="4" t="s">
         <v>302</v>
@@ -45051,7 +45052,7 @@
       <c r="AD351" s="4"/>
       <c r="AE351" s="4"/>
     </row>
-    <row r="352" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -45090,7 +45091,7 @@
       <c r="AD352" s="4"/>
       <c r="AE352" s="4"/>
     </row>
-    <row r="353" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -45129,7 +45130,7 @@
       <c r="AD353" s="4"/>
       <c r="AE353" s="4"/>
     </row>
-    <row r="354" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -45148,7 +45149,7 @@
       <c r="J354" s="5"/>
       <c r="K354" s="5"/>
     </row>
-    <row r="355" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -45159,7 +45160,7 @@
       <c r="H355" s="2"/>
       <c r="I355" s="2"/>
     </row>
-    <row r="356" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="16" t="s">
         <v>339</v>
       </c>
@@ -45194,7 +45195,7 @@
       <c r="AD356" s="4"/>
       <c r="AE356" s="4"/>
     </row>
-    <row r="357" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
         <v>1</v>
       </c>
@@ -45231,7 +45232,7 @@
       <c r="AD357" s="4"/>
       <c r="AE357" s="4"/>
     </row>
-    <row r="358" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3"/>
       <c r="B358" s="4" t="s">
         <v>302</v>
@@ -45266,7 +45267,7 @@
       <c r="AD358" s="4"/>
       <c r="AE358" s="4"/>
     </row>
-    <row r="359" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -45305,7 +45306,7 @@
       <c r="AD359" s="4"/>
       <c r="AE359" s="4"/>
     </row>
-    <row r="360" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -45344,7 +45345,7 @@
       <c r="AD360" s="4"/>
       <c r="AE360" s="4"/>
     </row>
-    <row r="361" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -45363,7 +45364,7 @@
       <c r="J361" s="5"/>
       <c r="K361" s="5"/>
     </row>
-    <row r="362" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="19"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -45376,7 +45377,7 @@
       <c r="J362" s="5"/>
       <c r="K362" s="5"/>
     </row>
-    <row r="363" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="16" t="s">
         <v>658</v>
       </c>
@@ -45411,7 +45412,7 @@
       <c r="AD363" s="4"/>
       <c r="AE363" s="4"/>
     </row>
-    <row r="364" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
         <v>1</v>
       </c>
@@ -45448,7 +45449,7 @@
       <c r="AD364" s="4"/>
       <c r="AE364" s="4"/>
     </row>
-    <row r="365" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3"/>
       <c r="B365" s="4" t="s">
         <v>302</v>
@@ -45483,7 +45484,7 @@
       <c r="AD365" s="4"/>
       <c r="AE365" s="4"/>
     </row>
-    <row r="366" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -45522,7 +45523,7 @@
       <c r="AD366" s="4"/>
       <c r="AE366" s="4"/>
     </row>
-    <row r="367" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -45561,7 +45562,7 @@
       <c r="AD367" s="4"/>
       <c r="AE367" s="4"/>
     </row>
-    <row r="368" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -45580,7 +45581,7 @@
       <c r="J368" s="5"/>
       <c r="K368" s="5"/>
     </row>
-    <row r="369" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -45591,7 +45592,7 @@
       <c r="H369" s="22"/>
       <c r="I369" s="22"/>
     </row>
-    <row r="370" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="45" t="s">
         <v>525</v>
       </c>
@@ -45599,7 +45600,7 @@
       <c r="H370" s="46"/>
       <c r="I370" s="46"/>
     </row>
-    <row r="371" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="16" t="s">
         <v>340</v>
       </c>
@@ -45614,7 +45615,7 @@
       <c r="J371" s="34"/>
       <c r="K371" s="34"/>
     </row>
-    <row r="372" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
         <v>1</v>
       </c>
@@ -45649,7 +45650,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="373" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3"/>
       <c r="B373" s="5" t="s">
         <v>294</v>
@@ -45682,7 +45683,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="374" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -45728,7 +45729,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="375" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -45774,13 +45775,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="376" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3"/>
       <c r="G376" s="22"/>
       <c r="H376" s="22"/>
       <c r="I376" s="22"/>
     </row>
-    <row r="377" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="16" t="s">
         <v>348</v>
       </c>
@@ -45795,7 +45796,7 @@
       <c r="J377" s="34"/>
       <c r="K377" s="34"/>
     </row>
-    <row r="378" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4" t="s">
         <v>1</v>
       </c>
@@ -45830,7 +45831,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="379" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3"/>
       <c r="B379" s="5" t="s">
         <v>294</v>
@@ -45863,7 +45864,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="380" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -45909,7 +45910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="381" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -45955,7 +45956,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="382" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="3"/>
       <c r="B382" s="22"/>
       <c r="C382" s="22"/>
@@ -45966,7 +45967,7 @@
       <c r="H382" s="22"/>
       <c r="I382" s="22"/>
     </row>
-    <row r="383" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="45" t="s">
         <v>526</v>
       </c>
@@ -45979,7 +45980,7 @@
       <c r="H383" s="46"/>
       <c r="I383" s="46"/>
     </row>
-    <row r="384" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="16" t="s">
         <v>340</v>
       </c>
@@ -46014,7 +46015,7 @@
       <c r="AD384" s="4"/>
       <c r="AE384" s="4"/>
     </row>
-    <row r="385" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4" t="s">
         <v>1</v>
       </c>
@@ -46051,7 +46052,7 @@
       <c r="AD385" s="4"/>
       <c r="AE385" s="4"/>
     </row>
-    <row r="386" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3"/>
       <c r="B386" s="4" t="s">
         <v>302</v>
@@ -46086,7 +46087,7 @@
       <c r="AD386" s="4"/>
       <c r="AE386" s="4"/>
     </row>
-    <row r="387" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -46125,7 +46126,7 @@
       <c r="AD387" s="4"/>
       <c r="AE387" s="4"/>
     </row>
-    <row r="388" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -46164,7 +46165,7 @@
       <c r="AD388" s="4"/>
       <c r="AE388" s="4"/>
     </row>
-    <row r="389" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -46183,7 +46184,7 @@
       <c r="J389" s="5"/>
       <c r="K389" s="5"/>
     </row>
-    <row r="390" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3"/>
       <c r="B390" s="22"/>
       <c r="C390" s="22"/>
@@ -46194,7 +46195,7 @@
       <c r="H390" s="22"/>
       <c r="I390" s="22"/>
     </row>
-    <row r="391" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="16" t="s">
         <v>356</v>
       </c>
@@ -46229,7 +46230,7 @@
       <c r="AD391" s="4"/>
       <c r="AE391" s="4"/>
     </row>
-    <row r="392" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4" t="s">
         <v>1</v>
       </c>
@@ -46266,7 +46267,7 @@
       <c r="AD392" s="4"/>
       <c r="AE392" s="4"/>
     </row>
-    <row r="393" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3"/>
       <c r="B393" s="4" t="s">
         <v>302</v>
@@ -46301,7 +46302,7 @@
       <c r="AD393" s="4"/>
       <c r="AE393" s="4"/>
     </row>
-    <row r="394" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -46340,7 +46341,7 @@
       <c r="AD394" s="4"/>
       <c r="AE394" s="4"/>
     </row>
-    <row r="395" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -46379,7 +46380,7 @@
       <c r="AD395" s="4"/>
       <c r="AE395" s="4"/>
     </row>
-    <row r="396" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -46398,7 +46399,7 @@
       <c r="J396" s="5"/>
       <c r="K396" s="5"/>
     </row>
-    <row r="397" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="70"/>
       <c r="C397" s="70"/>
       <c r="D397" s="3"/>
@@ -46408,7 +46409,7 @@
       <c r="H397" s="70"/>
       <c r="I397" s="70"/>
     </row>
-    <row r="398" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="16" t="s">
         <v>357</v>
       </c>
@@ -46443,7 +46444,7 @@
       <c r="AD398" s="4"/>
       <c r="AE398" s="4"/>
     </row>
-    <row r="399" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4" t="s">
         <v>1</v>
       </c>
@@ -46480,7 +46481,7 @@
       <c r="AD399" s="4"/>
       <c r="AE399" s="4"/>
     </row>
-    <row r="400" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A400" s="3"/>
       <c r="B400" s="4" t="s">
         <v>302</v>
@@ -46515,7 +46516,7 @@
       <c r="AD400" s="4"/>
       <c r="AE400" s="4"/>
     </row>
-    <row r="401" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -46554,7 +46555,7 @@
       <c r="AD401" s="4"/>
       <c r="AE401" s="4"/>
     </row>
-    <row r="402" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -46593,7 +46594,7 @@
       <c r="AD402" s="4"/>
       <c r="AE402" s="4"/>
     </row>
-    <row r="403" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -46612,7 +46613,7 @@
       <c r="J403" s="5"/>
       <c r="K403" s="5"/>
     </row>
-    <row r="404" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="3"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -46623,7 +46624,7 @@
       <c r="H404" s="2"/>
       <c r="I404" s="2"/>
     </row>
-    <row r="405" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="16" t="s">
         <v>358</v>
       </c>
@@ -46658,7 +46659,7 @@
       <c r="AD405" s="4"/>
       <c r="AE405" s="4"/>
     </row>
-    <row r="406" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4" t="s">
         <v>1</v>
       </c>
@@ -46695,7 +46696,7 @@
       <c r="AD406" s="4"/>
       <c r="AE406" s="4"/>
     </row>
-    <row r="407" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3"/>
       <c r="B407" s="4" t="s">
         <v>302</v>
@@ -46730,7 +46731,7 @@
       <c r="AD407" s="4"/>
       <c r="AE407" s="4"/>
     </row>
-    <row r="408" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -46769,7 +46770,7 @@
       <c r="AD408" s="4"/>
       <c r="AE408" s="4"/>
     </row>
-    <row r="409" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -46808,7 +46809,7 @@
       <c r="AD409" s="4"/>
       <c r="AE409" s="4"/>
     </row>
-    <row r="410" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -46827,7 +46828,7 @@
       <c r="J410" s="5"/>
       <c r="K410" s="5"/>
     </row>
-    <row r="411" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3"/>
       <c r="B411" s="22"/>
       <c r="C411" s="22"/>
@@ -46859,7 +46860,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="412" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="45" t="s">
         <v>527</v>
       </c>
@@ -46872,7 +46873,7 @@
       <c r="H412" s="46"/>
       <c r="I412" s="46"/>
     </row>
-    <row r="413" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="16" t="s">
         <v>6</v>
       </c>
@@ -46907,7 +46908,7 @@
       <c r="AD413" s="23"/>
       <c r="AE413" s="23"/>
     </row>
-    <row r="414" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
         <v>1</v>
       </c>
@@ -46930,7 +46931,7 @@
       <c r="H414" s="22"/>
       <c r="I414" s="22"/>
     </row>
-    <row r="415" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3"/>
       <c r="B415" s="4" t="s">
         <v>287</v>
@@ -46954,7 +46955,7 @@
       <c r="K415" s="2"/>
       <c r="L415" s="2"/>
     </row>
-    <row r="416" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -46983,7 +46984,7 @@
       <c r="H416" s="22"/>
       <c r="I416" s="22"/>
     </row>
-    <row r="417" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -47015,7 +47016,7 @@
       <c r="K417" s="22"/>
       <c r="L417" s="22"/>
     </row>
-    <row r="418" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="3"/>
       <c r="B418" s="22"/>
       <c r="C418" s="22"/>
@@ -47026,7 +47027,7 @@
       <c r="H418" s="22"/>
       <c r="I418" s="22"/>
     </row>
-    <row r="419" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="16" t="s">
         <v>364</v>
       </c>
@@ -47061,7 +47062,7 @@
       <c r="AD419" s="23"/>
       <c r="AE419" s="23"/>
     </row>
-    <row r="420" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
         <v>1</v>
       </c>
@@ -47084,7 +47085,7 @@
       <c r="H420" s="22"/>
       <c r="I420" s="22"/>
     </row>
-    <row r="421" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="3"/>
       <c r="B421" s="4" t="s">
         <v>287</v>
@@ -47106,7 +47107,7 @@
       <c r="I421" s="2"/>
       <c r="J421" s="2"/>
     </row>
-    <row r="422" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -47136,7 +47137,7 @@
       <c r="I422" s="22"/>
       <c r="J422" s="4"/>
     </row>
-    <row r="423" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -47166,7 +47167,7 @@
       <c r="I423" s="22"/>
       <c r="J423" s="22"/>
     </row>
-    <row r="424" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="22"/>
       <c r="C424" s="22"/>
@@ -47177,7 +47178,7 @@
       <c r="H424" s="22"/>
       <c r="I424" s="22"/>
     </row>
-    <row r="425" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="45" t="s">
         <v>528</v>
       </c>
@@ -47187,7 +47188,7 @@
       <c r="E425" s="47"/>
       <c r="F425" s="47"/>
     </row>
-    <row r="426" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="16" t="s">
         <v>6</v>
       </c>
@@ -47222,7 +47223,7 @@
       <c r="AD426" s="4"/>
       <c r="AE426" s="4"/>
     </row>
-    <row r="427" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4" t="s">
         <v>1</v>
       </c>
@@ -47259,7 +47260,7 @@
       <c r="AD427" s="4"/>
       <c r="AE427" s="4"/>
     </row>
-    <row r="428" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A428" s="3"/>
       <c r="B428" s="4" t="s">
         <v>302</v>
@@ -47294,7 +47295,7 @@
       <c r="AD428" s="4"/>
       <c r="AE428" s="4"/>
     </row>
-    <row r="429" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -47333,7 +47334,7 @@
       <c r="AD429" s="4"/>
       <c r="AE429" s="4"/>
     </row>
-    <row r="430" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -47372,7 +47373,7 @@
       <c r="AD430" s="4"/>
       <c r="AE430" s="4"/>
     </row>
-    <row r="431" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -47391,7 +47392,7 @@
       <c r="J431" s="5"/>
       <c r="K431" s="5"/>
     </row>
-    <row r="432" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B432" s="70"/>
       <c r="C432" s="70"/>
       <c r="D432" s="3"/>
@@ -47401,7 +47402,7 @@
       <c r="H432" s="70"/>
       <c r="I432" s="70"/>
     </row>
-    <row r="433" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="16" t="s">
         <v>370</v>
       </c>
@@ -47436,7 +47437,7 @@
       <c r="AD433" s="4"/>
       <c r="AE433" s="4"/>
     </row>
-    <row r="434" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4" t="s">
         <v>1</v>
       </c>
@@ -47473,7 +47474,7 @@
       <c r="AD434" s="4"/>
       <c r="AE434" s="4"/>
     </row>
-    <row r="435" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A435" s="3"/>
       <c r="B435" s="4" t="s">
         <v>302</v>
@@ -47508,7 +47509,7 @@
       <c r="AD435" s="4"/>
       <c r="AE435" s="4"/>
     </row>
-    <row r="436" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -47547,7 +47548,7 @@
       <c r="AD436" s="4"/>
       <c r="AE436" s="4"/>
     </row>
-    <row r="437" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -47586,7 +47587,7 @@
       <c r="AD437" s="4"/>
       <c r="AE437" s="4"/>
     </row>
-    <row r="438" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -47605,7 +47606,7 @@
       <c r="J438" s="5"/>
       <c r="K438" s="5"/>
     </row>
-    <row r="439" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -47616,7 +47617,7 @@
       <c r="H439" s="2"/>
       <c r="I439" s="2"/>
     </row>
-    <row r="440" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="16" t="s">
         <v>364</v>
       </c>
@@ -47651,7 +47652,7 @@
       <c r="AD440" s="4"/>
       <c r="AE440" s="4"/>
     </row>
-    <row r="441" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
         <v>1</v>
       </c>
@@ -47688,7 +47689,7 @@
       <c r="AD441" s="4"/>
       <c r="AE441" s="4"/>
     </row>
-    <row r="442" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="3"/>
       <c r="B442" s="4" t="s">
         <v>302</v>
@@ -47723,7 +47724,7 @@
       <c r="AD442" s="4"/>
       <c r="AE442" s="4"/>
     </row>
-    <row r="443" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -47762,7 +47763,7 @@
       <c r="AD443" s="4"/>
       <c r="AE443" s="4"/>
     </row>
-    <row r="444" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -47801,7 +47802,7 @@
       <c r="AD444" s="4"/>
       <c r="AE444" s="4"/>
     </row>
-    <row r="445" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -47820,7 +47821,7 @@
       <c r="J445" s="5"/>
       <c r="K445" s="5"/>
     </row>
-    <row r="446" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="3"/>
       <c r="C446" s="22"/>
@@ -47832,7 +47833,7 @@
       <c r="I446" s="22"/>
       <c r="J446" s="22"/>
     </row>
-    <row r="447" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="41" t="s">
         <v>506</v>
       </c>
@@ -47846,7 +47847,7 @@
       <c r="I447" s="46"/>
       <c r="J447" s="46"/>
     </row>
-    <row r="448" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="16" t="s">
         <v>372</v>
       </c>
@@ -47859,7 +47860,7 @@
       <c r="H448" s="21"/>
       <c r="I448" s="21"/>
     </row>
-    <row r="449" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
         <v>1</v>
       </c>
@@ -47897,7 +47898,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="450" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="53" t="s">
         <v>696</v>
@@ -47936,7 +47937,7 @@
       <c r="O450" s="20"/>
       <c r="P450" s="20"/>
     </row>
-    <row r="451" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -47990,7 +47991,7 @@
       <c r="O451" s="22"/>
       <c r="P451" s="22"/>
     </row>
-    <row r="452" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
         <v>2</v>
       </c>
@@ -48043,7 +48044,7 @@
       <c r="O452" s="22"/>
       <c r="P452" s="22"/>
     </row>
-    <row r="453" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="4" t="s">
         <v>5</v>
       </c>
@@ -48096,7 +48097,7 @@
       <c r="O453" s="4"/>
       <c r="P453" s="4"/>
     </row>
-    <row r="454" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="3"/>
       <c r="B454" s="22"/>
       <c r="C454" s="22"/>
@@ -48107,7 +48108,7 @@
       <c r="H454" s="22"/>
       <c r="I454" s="22"/>
     </row>
-    <row r="455" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="16" t="s">
         <v>28</v>
       </c>
@@ -48142,7 +48143,7 @@
       <c r="AD455" s="23"/>
       <c r="AE455" s="23"/>
     </row>
-    <row r="456" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4" t="s">
         <v>1</v>
       </c>
@@ -48165,7 +48166,7 @@
       <c r="H456" s="22"/>
       <c r="I456" s="22"/>
     </row>
-    <row r="457" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3"/>
       <c r="B457" s="4" t="s">
         <v>287</v>
@@ -48189,7 +48190,7 @@
       <c r="K457" s="2"/>
       <c r="L457" s="2"/>
     </row>
-    <row r="458" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -48218,7 +48219,7 @@
       <c r="H458" s="22"/>
       <c r="I458" s="22"/>
     </row>
-    <row r="459" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -48250,7 +48251,7 @@
       <c r="K459" s="22"/>
       <c r="L459" s="22"/>
     </row>
-    <row r="460" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="3"/>
       <c r="B460" s="22"/>
       <c r="C460" s="22"/>
@@ -48261,7 +48262,7 @@
       <c r="H460" s="22"/>
       <c r="I460" s="22"/>
     </row>
-    <row r="461" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="16" t="s">
         <v>378</v>
       </c>
@@ -48296,7 +48297,7 @@
       <c r="AD461" s="23"/>
       <c r="AE461" s="23"/>
     </row>
-    <row r="462" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4" t="s">
         <v>1</v>
       </c>
@@ -48319,7 +48320,7 @@
       <c r="H462" s="22"/>
       <c r="I462" s="22"/>
     </row>
-    <row r="463" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="3"/>
       <c r="B463" s="4" t="s">
         <v>287</v>
@@ -48341,7 +48342,7 @@
       <c r="I463" s="2"/>
       <c r="J463" s="2"/>
     </row>
-    <row r="464" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -48371,7 +48372,7 @@
       <c r="I464" s="22"/>
       <c r="J464" s="4"/>
     </row>
-    <row r="465" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -48401,14 +48402,14 @@
       <c r="I465" s="22"/>
       <c r="J465" s="22"/>
     </row>
-    <row r="466" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="3"/>
       <c r="F466" s="22"/>
       <c r="G466" s="22"/>
       <c r="H466" s="22"/>
       <c r="I466" s="22"/>
     </row>
-    <row r="467" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="45" t="s">
         <v>507</v>
       </c>
@@ -48418,7 +48419,7 @@
       <c r="E467" s="47"/>
       <c r="F467" s="47"/>
     </row>
-    <row r="468" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="16" t="s">
         <v>384</v>
       </c>
@@ -48453,7 +48454,7 @@
       <c r="AD468" s="4"/>
       <c r="AE468" s="4"/>
     </row>
-    <row r="469" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4" t="s">
         <v>1</v>
       </c>
@@ -48490,7 +48491,7 @@
       <c r="AD469" s="4"/>
       <c r="AE469" s="4"/>
     </row>
-    <row r="470" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A470" s="3"/>
       <c r="B470" s="4" t="s">
         <v>302</v>
@@ -48525,7 +48526,7 @@
       <c r="AD470" s="4"/>
       <c r="AE470" s="4"/>
     </row>
-    <row r="471" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -48564,7 +48565,7 @@
       <c r="AD471" s="4"/>
       <c r="AE471" s="4"/>
     </row>
-    <row r="472" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -48603,7 +48604,7 @@
       <c r="AD472" s="4"/>
       <c r="AE472" s="4"/>
     </row>
-    <row r="473" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -48622,7 +48623,7 @@
       <c r="J473" s="5"/>
       <c r="K473" s="5"/>
     </row>
-    <row r="474" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="70"/>
       <c r="C474" s="70"/>
       <c r="D474" s="3"/>
@@ -48632,7 +48633,7 @@
       <c r="H474" s="70"/>
       <c r="I474" s="70"/>
     </row>
-    <row r="475" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="16" t="s">
         <v>385</v>
       </c>
@@ -48667,7 +48668,7 @@
       <c r="AD475" s="4"/>
       <c r="AE475" s="4"/>
     </row>
-    <row r="476" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="4" t="s">
         <v>1</v>
       </c>
@@ -48704,7 +48705,7 @@
       <c r="AD476" s="4"/>
       <c r="AE476" s="4"/>
     </row>
-    <row r="477" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A477" s="3"/>
       <c r="B477" s="4" t="s">
         <v>302</v>
@@ -48739,7 +48740,7 @@
       <c r="AD477" s="4"/>
       <c r="AE477" s="4"/>
     </row>
-    <row r="478" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -48778,7 +48779,7 @@
       <c r="AD478" s="4"/>
       <c r="AE478" s="4"/>
     </row>
-    <row r="479" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -48817,7 +48818,7 @@
       <c r="AD479" s="4"/>
       <c r="AE479" s="4"/>
     </row>
-    <row r="480" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -48836,7 +48837,7 @@
       <c r="J480" s="5"/>
       <c r="K480" s="5"/>
     </row>
-    <row r="481" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="3"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -48847,7 +48848,7 @@
       <c r="H481" s="2"/>
       <c r="I481" s="2"/>
     </row>
-    <row r="482" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="16" t="s">
         <v>386</v>
       </c>
@@ -48882,7 +48883,7 @@
       <c r="AD482" s="4"/>
       <c r="AE482" s="4"/>
     </row>
-    <row r="483" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4" t="s">
         <v>1</v>
       </c>
@@ -48919,7 +48920,7 @@
       <c r="AD483" s="4"/>
       <c r="AE483" s="4"/>
     </row>
-    <row r="484" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="3"/>
       <c r="B484" s="4" t="s">
         <v>302</v>
@@ -48954,7 +48955,7 @@
       <c r="AD484" s="4"/>
       <c r="AE484" s="4"/>
     </row>
-    <row r="485" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -48993,7 +48994,7 @@
       <c r="AD485" s="4"/>
       <c r="AE485" s="4"/>
     </row>
-    <row r="486" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -49032,7 +49033,7 @@
       <c r="AD486" s="4"/>
       <c r="AE486" s="4"/>
     </row>
-    <row r="487" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -49051,10 +49052,10 @@
       <c r="J487" s="5"/>
       <c r="K487" s="5"/>
     </row>
-    <row r="488" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="3"/>
     </row>
-    <row r="489" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="16" t="s">
         <v>378</v>
       </c>
@@ -49089,7 +49090,7 @@
       <c r="AD489" s="4"/>
       <c r="AE489" s="4"/>
     </row>
-    <row r="490" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="4" t="s">
         <v>1</v>
       </c>
@@ -49126,7 +49127,7 @@
       <c r="AD490" s="4"/>
       <c r="AE490" s="4"/>
     </row>
-    <row r="491" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="3"/>
       <c r="B491" s="4" t="s">
         <v>302</v>
@@ -49161,7 +49162,7 @@
       <c r="AD491" s="4"/>
       <c r="AE491" s="4"/>
     </row>
-    <row r="492" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -49200,7 +49201,7 @@
       <c r="AD492" s="4"/>
       <c r="AE492" s="4"/>
     </row>
-    <row r="493" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -49239,7 +49240,7 @@
       <c r="AD493" s="4"/>
       <c r="AE493" s="4"/>
     </row>
-    <row r="494" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -49258,21 +49259,21 @@
       <c r="J494" s="5"/>
       <c r="K494" s="5"/>
     </row>
-    <row r="495" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="3"/>
       <c r="F495" s="22"/>
       <c r="G495" s="22"/>
       <c r="H495" s="22"/>
       <c r="I495" s="22"/>
     </row>
-    <row r="496" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A496" s="41" t="s">
         <v>508</v>
       </c>
       <c r="B496" s="45"/>
       <c r="E496" s="47"/>
     </row>
-    <row r="497" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="16" t="s">
         <v>244</v>
       </c>
@@ -49307,7 +49308,7 @@
       <c r="AD497" s="23"/>
       <c r="AE497" s="23"/>
     </row>
-    <row r="498" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4" t="s">
         <v>1</v>
       </c>
@@ -49330,7 +49331,7 @@
       <c r="H498" s="22"/>
       <c r="I498" s="22"/>
     </row>
-    <row r="499" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="3"/>
       <c r="B499" s="4" t="s">
         <v>287</v>
@@ -49352,7 +49353,7 @@
       <c r="I499" s="2"/>
       <c r="J499" s="2"/>
     </row>
-    <row r="500" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -49382,7 +49383,7 @@
       <c r="I500" s="22"/>
       <c r="J500" s="4"/>
     </row>
-    <row r="501" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -49412,18 +49413,18 @@
       <c r="I501" s="22"/>
       <c r="J501" s="22"/>
     </row>
-    <row r="502" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B502" s="3"/>
       <c r="E502" s="4"/>
     </row>
-    <row r="503" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="41" t="s">
         <v>509</v>
       </c>
       <c r="B503" s="45"/>
       <c r="E503" s="47"/>
     </row>
-    <row r="504" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="16" t="s">
         <v>429</v>
       </c>
@@ -49458,7 +49459,7 @@
       <c r="AD504" s="23"/>
       <c r="AE504" s="23"/>
     </row>
-    <row r="505" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="4" t="s">
         <v>1</v>
       </c>
@@ -49481,7 +49482,7 @@
       <c r="H505" s="22"/>
       <c r="I505" s="22"/>
     </row>
-    <row r="506" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="3"/>
       <c r="B506" s="4" t="s">
         <v>287</v>
@@ -49503,7 +49504,7 @@
       <c r="I506" s="2"/>
       <c r="J506" s="2"/>
     </row>
-    <row r="507" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -49533,7 +49534,7 @@
       <c r="I507" s="22"/>
       <c r="J507" s="4"/>
     </row>
-    <row r="508" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -49563,7 +49564,7 @@
       <c r="I508" s="22"/>
       <c r="J508" s="22"/>
     </row>
-    <row r="509" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -49594,11 +49595,11 @@
       <c r="J509" s="5"/>
       <c r="K509" s="5"/>
     </row>
-    <row r="510" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B510" s="3"/>
       <c r="E510" s="4"/>
     </row>
-    <row r="511" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="16" t="s">
         <v>435</v>
       </c>
@@ -49633,7 +49634,7 @@
       <c r="AD511" s="4"/>
       <c r="AE511" s="4"/>
     </row>
-    <row r="512" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="4" t="s">
         <v>1</v>
       </c>
@@ -49670,7 +49671,7 @@
       <c r="AD512" s="4"/>
       <c r="AE512" s="4"/>
     </row>
-    <row r="513" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="3"/>
       <c r="B513" s="4" t="s">
         <v>302</v>
@@ -49705,7 +49706,7 @@
       <c r="AD513" s="4"/>
       <c r="AE513" s="4"/>
     </row>
-    <row r="514" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -49744,7 +49745,7 @@
       <c r="AD514" s="4"/>
       <c r="AE514" s="4"/>
     </row>
-    <row r="515" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -49783,7 +49784,7 @@
       <c r="AD515" s="4"/>
       <c r="AE515" s="4"/>
     </row>
-    <row r="516" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -49802,11 +49803,11 @@
       <c r="J516" s="5"/>
       <c r="K516" s="5"/>
     </row>
-    <row r="517" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B517" s="3"/>
       <c r="E517" s="4"/>
     </row>
-    <row r="518" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="16" t="s">
         <v>436</v>
       </c>
@@ -49841,7 +49842,7 @@
       <c r="AD518" s="23"/>
       <c r="AE518" s="23"/>
     </row>
-    <row r="519" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="4" t="s">
         <v>1</v>
       </c>
@@ -49864,7 +49865,7 @@
       <c r="H519" s="22"/>
       <c r="I519" s="22"/>
     </row>
-    <row r="520" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="3"/>
       <c r="B520" s="4" t="s">
         <v>287</v>
@@ -49886,7 +49887,7 @@
       <c r="I520" s="2"/>
       <c r="J520" s="2"/>
     </row>
-    <row r="521" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -49916,7 +49917,7 @@
       <c r="I521" s="22"/>
       <c r="J521" s="4"/>
     </row>
-    <row r="522" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -49946,7 +49947,7 @@
       <c r="I522" s="22"/>
       <c r="J522" s="22"/>
     </row>
-    <row r="523" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -49977,11 +49978,11 @@
       <c r="J523" s="5"/>
       <c r="K523" s="5"/>
     </row>
-    <row r="524" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B524" s="3"/>
       <c r="E524" s="4"/>
     </row>
-    <row r="525" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="16" t="s">
         <v>442</v>
       </c>
@@ -50016,7 +50017,7 @@
       <c r="AD525" s="23"/>
       <c r="AE525" s="23"/>
     </row>
-    <row r="526" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="4" t="s">
         <v>1</v>
       </c>
@@ -50039,7 +50040,7 @@
       <c r="H526" s="22"/>
       <c r="I526" s="22"/>
     </row>
-    <row r="527" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="3"/>
       <c r="B527" s="4" t="s">
         <v>287</v>
@@ -50061,7 +50062,7 @@
       <c r="I527" s="2"/>
       <c r="J527" s="2"/>
     </row>
-    <row r="528" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -50091,7 +50092,7 @@
       <c r="I528" s="22"/>
       <c r="J528" s="4"/>
     </row>
-    <row r="529" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -50121,7 +50122,7 @@
       <c r="I529" s="22"/>
       <c r="J529" s="22"/>
     </row>
-    <row r="530" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -50152,11 +50153,11 @@
       <c r="J530" s="5"/>
       <c r="K530" s="5"/>
     </row>
-    <row r="531" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B531" s="3"/>
       <c r="E531" s="4"/>
     </row>
-    <row r="532" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="16" t="s">
         <v>448</v>
       </c>
@@ -50191,7 +50192,7 @@
       <c r="AD532" s="4"/>
       <c r="AE532" s="4"/>
     </row>
-    <row r="533" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="4" t="s">
         <v>1</v>
       </c>
@@ -50228,7 +50229,7 @@
       <c r="AD533" s="4"/>
       <c r="AE533" s="4"/>
     </row>
-    <row r="534" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="3"/>
       <c r="B534" s="4" t="s">
         <v>302</v>
@@ -50263,7 +50264,7 @@
       <c r="AD534" s="4"/>
       <c r="AE534" s="4"/>
     </row>
-    <row r="535" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -50302,7 +50303,7 @@
       <c r="AD535" s="4"/>
       <c r="AE535" s="4"/>
     </row>
-    <row r="536" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -50341,7 +50342,7 @@
       <c r="AD536" s="4"/>
       <c r="AE536" s="4"/>
     </row>
-    <row r="537" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -50360,18 +50361,18 @@
       <c r="J537" s="5"/>
       <c r="K537" s="5"/>
     </row>
-    <row r="538" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B538" s="3"/>
       <c r="E538" s="4"/>
     </row>
-    <row r="539" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="41" t="s">
         <v>510</v>
       </c>
       <c r="B539" s="45"/>
       <c r="E539" s="47"/>
     </row>
-    <row r="540" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="16" t="s">
         <v>449</v>
       </c>
@@ -50384,7 +50385,7 @@
       <c r="H540" s="21"/>
       <c r="I540" s="21"/>
     </row>
-    <row r="541" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="4" t="s">
         <v>1</v>
       </c>
@@ -50413,7 +50414,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="542" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="3"/>
       <c r="B542" t="s">
         <v>302</v>
@@ -50442,7 +50443,7 @@
       <c r="J542" s="22"/>
       <c r="K542" s="22"/>
     </row>
-    <row r="543" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -50482,7 +50483,7 @@
       <c r="J543" s="22"/>
       <c r="K543" s="22"/>
     </row>
-    <row r="544" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -50522,7 +50523,7 @@
       <c r="J544" s="22"/>
       <c r="K544" s="22"/>
     </row>
-    <row r="545" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -50562,11 +50563,11 @@
       <c r="J545" s="5"/>
       <c r="K545" s="5"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B546" s="3"/>
       <c r="E546" s="4"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A547" s="16" t="s">
         <v>457</v>
       </c>
@@ -50575,7 +50576,7 @@
       <c r="D547" s="34"/>
       <c r="E547" s="23"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A548" s="4" t="s">
         <v>1</v>
       </c>
@@ -50590,7 +50591,7 @@
       </c>
       <c r="E548" s="4"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A549" s="3"/>
       <c r="B549" t="s">
         <v>302</v>
@@ -50603,7 +50604,7 @@
       </c>
       <c r="E549" s="4"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -50622,7 +50623,7 @@
       </c>
       <c r="E550" s="4"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -50641,7 +50642,7 @@
       </c>
       <c r="E551" s="4"/>
     </row>
-    <row r="552" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -50666,11 +50667,11 @@
       <c r="J552" s="5"/>
       <c r="K552" s="5"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B553" s="3"/>
       <c r="E553" s="4"/>
     </row>
-    <row r="554" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="16" t="s">
         <v>460</v>
       </c>
@@ -50683,7 +50684,7 @@
       <c r="H554" s="21"/>
       <c r="I554" s="21"/>
     </row>
-    <row r="555" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="4" t="s">
         <v>1</v>
       </c>
@@ -50712,7 +50713,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="556" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="3"/>
       <c r="B556" t="s">
         <v>302</v>
@@ -50741,7 +50742,7 @@
       <c r="J556" s="22"/>
       <c r="K556" s="22"/>
     </row>
-    <row r="557" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -50781,7 +50782,7 @@
       <c r="J557" s="22"/>
       <c r="K557" s="22"/>
     </row>
-    <row r="558" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -50821,7 +50822,7 @@
       <c r="J558" s="22"/>
       <c r="K558" s="22"/>
     </row>
-    <row r="559" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -50861,18 +50862,18 @@
       <c r="J559" s="5"/>
       <c r="K559" s="5"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B560" s="3"/>
       <c r="E560" s="4"/>
     </row>
-    <row r="561" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="41" t="s">
         <v>511</v>
       </c>
       <c r="B561" s="45"/>
       <c r="E561" s="47"/>
     </row>
-    <row r="562" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="16" t="s">
         <v>468</v>
       </c>
@@ -50907,7 +50908,7 @@
       <c r="AD562" s="4"/>
       <c r="AE562" s="4"/>
     </row>
-    <row r="563" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="4" t="s">
         <v>1</v>
       </c>
@@ -50944,7 +50945,7 @@
       <c r="AD563" s="4"/>
       <c r="AE563" s="4"/>
     </row>
-    <row r="564" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="3"/>
       <c r="B564" s="4" t="s">
         <v>302</v>
@@ -50979,7 +50980,7 @@
       <c r="AD564" s="4"/>
       <c r="AE564" s="4"/>
     </row>
-    <row r="565" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -51018,7 +51019,7 @@
       <c r="AD565" s="4"/>
       <c r="AE565" s="4"/>
     </row>
-    <row r="566" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -51057,7 +51058,7 @@
       <c r="AD566" s="4"/>
       <c r="AE566" s="4"/>
     </row>
-    <row r="567" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -51076,11 +51077,11 @@
       <c r="J567" s="5"/>
       <c r="K567" s="5"/>
     </row>
-    <row r="568" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B568" s="3"/>
       <c r="E568" s="4"/>
     </row>
-    <row r="569" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="16" t="s">
         <v>469</v>
       </c>
@@ -51115,7 +51116,7 @@
       <c r="AD569" s="23"/>
       <c r="AE569" s="23"/>
     </row>
-    <row r="570" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="4" t="s">
         <v>1</v>
       </c>
@@ -51138,7 +51139,7 @@
       <c r="H570" s="22"/>
       <c r="I570" s="22"/>
     </row>
-    <row r="571" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="3"/>
       <c r="B571" s="4" t="s">
         <v>287</v>
@@ -51160,7 +51161,7 @@
       <c r="I571" s="2"/>
       <c r="J571" s="2"/>
     </row>
-    <row r="572" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -51190,7 +51191,7 @@
       <c r="I572" s="22"/>
       <c r="J572" s="4"/>
     </row>
-    <row r="573" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -51220,7 +51221,7 @@
       <c r="I573" s="22"/>
       <c r="J573" s="22"/>
     </row>
-    <row r="574" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -51251,7 +51252,7 @@
       <c r="J574" s="5"/>
       <c r="K574" s="5"/>
     </row>
-    <row r="575" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="3"/>
       <c r="B575" s="22"/>
       <c r="C575" s="22"/>
@@ -51263,7 +51264,7 @@
       <c r="I575" s="22"/>
       <c r="J575" s="22"/>
     </row>
-    <row r="576" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="45" t="s">
         <v>512</v>
       </c>
@@ -51277,7 +51278,7 @@
       <c r="I576" s="46"/>
       <c r="J576" s="46"/>
     </row>
-    <row r="577" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="16" t="s">
         <v>475</v>
       </c>
@@ -51291,7 +51292,7 @@
       <c r="I577" s="22"/>
       <c r="J577" s="22"/>
     </row>
-    <row r="578" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="4" t="s">
         <v>1</v>
       </c>
@@ -51311,7 +51312,7 @@
       <c r="I578" s="22"/>
       <c r="J578" s="22"/>
     </row>
-    <row r="579" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="3"/>
       <c r="B579" s="4" t="s">
         <v>479</v>
@@ -51329,7 +51330,7 @@
       <c r="I579" s="22"/>
       <c r="J579" s="22"/>
     </row>
-    <row r="580" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -51353,7 +51354,7 @@
       <c r="I580" s="22"/>
       <c r="J580" s="22"/>
     </row>
-    <row r="581" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -51377,7 +51378,7 @@
       <c r="I581" s="22"/>
       <c r="J581" s="22"/>
     </row>
-    <row r="582" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="3"/>
       <c r="B582" s="22"/>
       <c r="C582" s="22"/>
@@ -51389,7 +51390,7 @@
       <c r="I582" s="22"/>
       <c r="J582" s="22"/>
     </row>
-    <row r="583" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="16" t="s">
         <v>4</v>
       </c>
@@ -51424,7 +51425,7 @@
       <c r="AD583" s="23"/>
       <c r="AE583" s="23"/>
     </row>
-    <row r="584" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="4" t="s">
         <v>1</v>
       </c>
@@ -51447,7 +51448,7 @@
       <c r="H584" s="22"/>
       <c r="I584" s="22"/>
     </row>
-    <row r="585" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="3"/>
       <c r="B585" s="4" t="s">
         <v>287</v>
@@ -51469,7 +51470,7 @@
       <c r="I585" s="2"/>
       <c r="J585" s="2"/>
     </row>
-    <row r="586" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -51499,7 +51500,7 @@
       <c r="I586" s="22"/>
       <c r="J586" s="4"/>
     </row>
-    <row r="587" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -51529,7 +51530,7 @@
       <c r="I587" s="22"/>
       <c r="J587" s="22"/>
     </row>
-    <row r="588" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="3"/>
       <c r="B588" s="22"/>
       <c r="C588" s="22"/>
@@ -51541,7 +51542,7 @@
       <c r="I588" s="22"/>
       <c r="J588" s="22"/>
     </row>
-    <row r="589" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="16" t="s">
         <v>481</v>
       </c>
@@ -51555,7 +51556,7 @@
       <c r="I589" s="22"/>
       <c r="J589" s="22"/>
     </row>
-    <row r="590" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="4" t="s">
         <v>1</v>
       </c>
@@ -51575,7 +51576,7 @@
       <c r="I590" s="22"/>
       <c r="J590" s="22"/>
     </row>
-    <row r="591" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="3"/>
       <c r="B591" s="4" t="s">
         <v>482</v>
@@ -51593,7 +51594,7 @@
       <c r="I591" s="22"/>
       <c r="J591" s="22"/>
     </row>
-    <row r="592" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -51617,7 +51618,7 @@
       <c r="I592" s="22"/>
       <c r="J592" s="22"/>
     </row>
-    <row r="593" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -51641,7 +51642,7 @@
       <c r="I593" s="22"/>
       <c r="J593" s="22"/>
     </row>
-    <row r="594" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="3"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
@@ -51653,7 +51654,7 @@
       <c r="I594" s="22"/>
       <c r="J594" s="22"/>
     </row>
-    <row r="595" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="3"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
@@ -51665,19 +51666,19 @@
       <c r="I595" s="22"/>
       <c r="J595" s="22"/>
     </row>
-    <row r="596" spans="1:31" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A596" s="37"/>
       <c r="B596" s="38"/>
       <c r="C596" s="39"/>
       <c r="D596" s="39"/>
       <c r="E596" s="39"/>
     </row>
-    <row r="598" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A598" s="41" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="599" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="16" t="s">
         <v>485</v>
       </c>
@@ -51712,7 +51713,7 @@
       <c r="AD599" s="23"/>
       <c r="AE599" s="23"/>
     </row>
-    <row r="600" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A600" s="4" t="s">
         <v>1</v>
       </c>
@@ -51723,7 +51724,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="601" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A601" s="3"/>
       <c r="B601" s="4" t="s">
         <v>487</v>
@@ -51733,7 +51734,7 @@
       </c>
       <c r="E601" s="4"/>
     </row>
-    <row r="602" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="str">
         <f>$B$7</f>
         <v>'s-Gravenhage</v>
@@ -51750,7 +51751,7 @@
       <c r="H602" s="22"/>
       <c r="I602" s="22"/>
     </row>
-    <row r="603" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="3"/>
       <c r="B603" s="22"/>
       <c r="C603" s="36"/>
@@ -51758,7 +51759,7 @@
       <c r="H603" s="22"/>
       <c r="I603" s="22"/>
     </row>
-    <row r="604" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="3"/>
       <c r="B604" s="22"/>
       <c r="C604" s="36"/>
@@ -51766,25 +51767,25 @@
       <c r="H604" s="22"/>
       <c r="I604" s="22"/>
     </row>
-    <row r="605" spans="1:31" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="608" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:31" s="40" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="608" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="3"/>
       <c r="C608" s="22"/>
       <c r="D608" s="22"/>
       <c r="E608" s="22"/>
     </row>
-    <row r="609" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A609" s="49" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="610" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" s="41" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="611" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="16" t="s">
         <v>277</v>
       </c>
@@ -51797,7 +51798,7 @@
       <c r="H611" s="17"/>
       <c r="I611" s="17"/>
     </row>
-    <row r="612" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="4" t="s">
         <v>1</v>
       </c>
@@ -51814,7 +51815,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="19"/>
       <c r="B613">
         <v>2012</v>
@@ -51835,7 +51836,7 @@
       <c r="J613" s="5"/>
       <c r="K613" s="5"/>
     </row>
-    <row r="614" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="19" t="str">
         <f>$B$10</f>
         <v>'s-Gravenhage</v>
@@ -51863,7 +51864,7 @@
       <c r="J614" s="5"/>
       <c r="K614" s="5"/>
     </row>
-    <row r="615" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="19" t="str">
         <f>$B$11</f>
         <v>GGD Limburg-Noord</v>
@@ -51891,7 +51892,7 @@
       <c r="J615" s="5"/>
       <c r="K615" s="5"/>
     </row>
-    <row r="617" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="16" t="s">
         <v>494</v>
       </c>
@@ -51904,7 +51905,7 @@
       <c r="H617" s="17"/>
       <c r="I617" s="17"/>
     </row>
-    <row r="618" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="4" t="s">
         <v>1</v>
       </c>
@@ -51921,7 +51922,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="619" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="19"/>
       <c r="B619">
         <v>2012</v>
@@ -51942,7 +51943,7 @@
       <c r="J619" s="5"/>
       <c r="K619" s="5"/>
     </row>
-    <row r="620" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="19" t="str">
         <f>$B$10</f>
         <v>'s-Gravenhage</v>
@@ -51970,7 +51971,7 @@
       <c r="J620" s="5"/>
       <c r="K620" s="5"/>
     </row>
-    <row r="621" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="19" t="str">
         <f>$B$11</f>
         <v>GGD Limburg-Noord</v>
@@ -51998,12 +51999,12 @@
       <c r="J621" s="5"/>
       <c r="K621" s="5"/>
     </row>
-    <row r="623" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A623" s="41" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="624" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="16" t="s">
         <v>336</v>
       </c>
@@ -52016,7 +52017,7 @@
       <c r="H624" s="17"/>
       <c r="I624" s="17"/>
     </row>
-    <row r="625" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="4" t="s">
         <v>1</v>
       </c>
@@ -52033,7 +52034,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="626" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="19"/>
       <c r="B626">
         <v>2012</v>
@@ -52054,7 +52055,7 @@
       <c r="J626" s="5"/>
       <c r="K626" s="5"/>
     </row>
-    <row r="627" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="19" t="str">
         <f>$B$10</f>
         <v>'s-Gravenhage</v>
@@ -52082,7 +52083,7 @@
       <c r="J627" s="5"/>
       <c r="K627" s="5"/>
     </row>
-    <row r="628" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="19" t="str">
         <f>$B$11</f>
         <v>GGD Limburg-Noord</v>
@@ -52110,7 +52111,7 @@
       <c r="J628" s="5"/>
       <c r="K628" s="5"/>
     </row>
-    <row r="630" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="16" t="s">
         <v>339</v>
       </c>
@@ -52123,7 +52124,7 @@
       <c r="H630" s="17"/>
       <c r="I630" s="17"/>
     </row>
-    <row r="631" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="4" t="s">
         <v>1</v>
       </c>
@@ -52140,7 +52141,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="632" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="19"/>
       <c r="B632">
         <v>2012</v>
@@ -52161,7 +52162,7 @@
       <c r="J632" s="5"/>
       <c r="K632" s="5"/>
     </row>
-    <row r="633" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="19" t="str">
         <f>$B$10</f>
         <v>'s-Gravenhage</v>
@@ -52189,7 +52190,7 @@
       <c r="J633" s="5"/>
       <c r="K633" s="5"/>
     </row>
-    <row r="634" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="19" t="str">
         <f>$B$11</f>
         <v>GGD Limburg-Noord</v>
@@ -52217,12 +52218,12 @@
       <c r="J634" s="5"/>
       <c r="K634" s="5"/>
     </row>
-    <row r="636" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A636" s="41" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="637" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="16" t="s">
         <v>495</v>
       </c>
@@ -52235,7 +52236,7 @@
       <c r="H637" s="17"/>
       <c r="I637" s="17"/>
     </row>
-    <row r="638" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="4" t="s">
         <v>1</v>
       </c>
@@ -52252,7 +52253,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="639" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="19"/>
       <c r="B639">
         <v>2012</v>
@@ -52273,7 +52274,7 @@
       <c r="J639" s="5"/>
       <c r="K639" s="5"/>
     </row>
-    <row r="640" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="19" t="str">
         <f>$B$10</f>
         <v>'s-Gravenhage</v>
@@ -52301,7 +52302,7 @@
       <c r="J640" s="5"/>
       <c r="K640" s="5"/>
     </row>
-    <row r="641" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="19" t="str">
         <f>$B$11</f>
         <v>GGD Limburg-Noord</v>
@@ -52329,7 +52330,7 @@
       <c r="J641" s="5"/>
       <c r="K641" s="5"/>
     </row>
-    <row r="643" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="16" t="s">
         <v>238</v>
       </c>
@@ -52342,7 +52343,7 @@
       <c r="H643" s="17"/>
       <c r="I643" s="17"/>
     </row>
-    <row r="644" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="4" t="s">
         <v>1</v>
       </c>
@@ -52359,7 +52360,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="645" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="19"/>
       <c r="B645">
         <v>2012</v>
@@ -52380,7 +52381,7 @@
       <c r="J645" s="5"/>
       <c r="K645" s="5"/>
     </row>
-    <row r="646" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="19" t="str">
         <f>$B$10</f>
         <v>'s-Gravenhage</v>
@@ -52408,7 +52409,7 @@
       <c r="J646" s="5"/>
       <c r="K646" s="5"/>
     </row>
-    <row r="647" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="19" t="str">
         <f>$B$11</f>
         <v>GGD Limburg-Noord</v>
@@ -52436,12 +52437,12 @@
       <c r="J647" s="5"/>
       <c r="K647" s="5"/>
     </row>
-    <row r="649" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A649" s="41" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="650" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="16" t="s">
         <v>496</v>
       </c>
@@ -52454,7 +52455,7 @@
       <c r="H650" s="17"/>
       <c r="I650" s="17"/>
     </row>
-    <row r="651" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="4" t="s">
         <v>1</v>
       </c>
@@ -52471,7 +52472,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="652" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="19"/>
       <c r="B652">
         <v>2012</v>
@@ -52492,7 +52493,7 @@
       <c r="J652" s="5"/>
       <c r="K652" s="5"/>
     </row>
-    <row r="653" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="19" t="str">
         <f>$B$10</f>
         <v>'s-Gravenhage</v>
@@ -52520,7 +52521,7 @@
       <c r="J653" s="5"/>
       <c r="K653" s="5"/>
     </row>
-    <row r="654" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="19" t="str">
         <f>$B$11</f>
         <v>GGD Limburg-Noord</v>
@@ -52548,12 +52549,12 @@
       <c r="J654" s="5"/>
       <c r="K654" s="5"/>
     </row>
-    <row r="656" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A656" s="41" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="657" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="16" t="s">
         <v>442</v>
       </c>
@@ -52566,7 +52567,7 @@
       <c r="H657" s="17"/>
       <c r="I657" s="17"/>
     </row>
-    <row r="658" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="4" t="s">
         <v>1</v>
       </c>
@@ -52583,7 +52584,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="659" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="19"/>
       <c r="B659">
         <v>2012</v>
@@ -52604,7 +52605,7 @@
       <c r="J659" s="5"/>
       <c r="K659" s="5"/>
     </row>
-    <row r="660" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="19" t="str">
         <f>$B$10</f>
         <v>'s-Gravenhage</v>
@@ -52632,7 +52633,7 @@
       <c r="J660" s="5"/>
       <c r="K660" s="5"/>
     </row>
-    <row r="661" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="19" t="str">
         <f>$B$11</f>
         <v>GGD Limburg-Noord</v>
@@ -52660,7 +52661,7 @@
       <c r="J661" s="5"/>
       <c r="K661" s="5"/>
     </row>
-    <row r="663" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="16" t="s">
         <v>436</v>
       </c>
@@ -52673,7 +52674,7 @@
       <c r="H663" s="17"/>
       <c r="I663" s="17"/>
     </row>
-    <row r="664" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="4" t="s">
         <v>1</v>
       </c>
@@ -52690,7 +52691,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="665" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="19"/>
       <c r="B665">
         <v>2012</v>
@@ -52711,7 +52712,7 @@
       <c r="J665" s="5"/>
       <c r="K665" s="5"/>
     </row>
-    <row r="666" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="19" t="str">
         <f>$B$10</f>
         <v>'s-Gravenhage</v>
@@ -52739,7 +52740,7 @@
       <c r="J666" s="5"/>
       <c r="K666" s="5"/>
     </row>
-    <row r="667" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="19" t="str">
         <f>$B$11</f>
         <v>GGD Limburg-Noord</v>
@@ -52767,12 +52768,12 @@
       <c r="J667" s="5"/>
       <c r="K667" s="5"/>
     </row>
-    <row r="669" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A669" s="41" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="670" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="16" t="s">
         <v>497</v>
       </c>
@@ -52785,7 +52786,7 @@
       <c r="H670" s="17"/>
       <c r="I670" s="17"/>
     </row>
-    <row r="671" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="4" t="s">
         <v>1</v>
       </c>
@@ -52802,7 +52803,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="672" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="19"/>
       <c r="B672">
         <v>2012</v>
@@ -52823,7 +52824,7 @@
       <c r="J672" s="5"/>
       <c r="K672" s="5"/>
     </row>
-    <row r="673" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="19" t="str">
         <f>$B$10</f>
         <v>'s-Gravenhage</v>
@@ -52851,7 +52852,7 @@
       <c r="J673" s="5"/>
       <c r="K673" s="5"/>
     </row>
-    <row r="674" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="19" t="str">
         <f>$B$11</f>
         <v>GGD Limburg-Noord</v>
@@ -52879,7 +52880,7 @@
       <c r="J674" s="5"/>
       <c r="K674" s="5"/>
     </row>
-    <row r="676" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="16" t="s">
         <v>498</v>
       </c>
@@ -52892,7 +52893,7 @@
       <c r="H676" s="17"/>
       <c r="I676" s="17"/>
     </row>
-    <row r="677" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="4" t="s">
         <v>1</v>
       </c>
@@ -52909,7 +52910,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="678" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="19"/>
       <c r="B678">
         <v>2012</v>
@@ -52930,7 +52931,7 @@
       <c r="J678" s="5"/>
       <c r="K678" s="5"/>
     </row>
-    <row r="679" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="19" t="str">
         <f>$B$10</f>
         <v>'s-Gravenhage</v>
@@ -52958,7 +52959,7 @@
       <c r="J679" s="5"/>
       <c r="K679" s="5"/>
     </row>
-    <row r="680" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="19" t="str">
         <f>$B$11</f>
         <v>GGD Limburg-Noord</v>
@@ -52986,7 +52987,7 @@
       <c r="J680" s="5"/>
       <c r="K680" s="5"/>
     </row>
-    <row r="682" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="16" t="s">
         <v>460</v>
       </c>
@@ -52999,7 +53000,7 @@
       <c r="H682" s="17"/>
       <c r="I682" s="17"/>
     </row>
-    <row r="683" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="4" t="s">
         <v>1</v>
       </c>
@@ -53013,7 +53014,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="684" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="19"/>
       <c r="B684">
         <v>2016</v>
@@ -53031,7 +53032,7 @@
       <c r="J684" s="5"/>
       <c r="K684" s="5"/>
     </row>
-    <row r="685" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="19" t="str">
         <f>$B$10</f>
         <v>'s-Gravenhage</v>
@@ -53055,7 +53056,7 @@
       <c r="J685" s="5"/>
       <c r="K685" s="5"/>
     </row>
-    <row r="686" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="19" t="str">
         <f>$B$11</f>
         <v>GGD Limburg-Noord</v>
@@ -53079,12 +53080,12 @@
       <c r="J686" s="5"/>
       <c r="K686" s="5"/>
     </row>
-    <row r="688" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A688" s="41" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="689" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="16" t="s">
         <v>469</v>
       </c>
@@ -53097,7 +53098,7 @@
       <c r="H689" s="17"/>
       <c r="I689" s="17"/>
     </row>
-    <row r="690" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="4" t="s">
         <v>1</v>
       </c>
@@ -53114,7 +53115,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="691" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="19"/>
       <c r="B691">
         <v>2012</v>
@@ -53135,7 +53136,7 @@
       <c r="J691" s="5"/>
       <c r="K691" s="5"/>
     </row>
-    <row r="692" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="19" t="str">
         <f>$B$10</f>
         <v>'s-Gravenhage</v>
@@ -53163,7 +53164,7 @@
       <c r="J692" s="5"/>
       <c r="K692" s="5"/>
     </row>
-    <row r="693" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="19" t="str">
         <f>$B$11</f>
         <v>GGD Limburg-Noord</v>
@@ -53254,13 +53255,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B197"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="L219" sqref="L219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>504</v>
       </c>
@@ -53268,7 +53269,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>505</v>
       </c>
@@ -53276,7 +53277,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>505</v>
       </c>
@@ -53284,7 +53285,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>505</v>
       </c>
@@ -53292,7 +53293,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>505</v>
       </c>
@@ -53300,7 +53301,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>505</v>
       </c>
@@ -53308,7 +53309,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>505</v>
       </c>
@@ -53316,7 +53317,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>505</v>
       </c>
@@ -53324,7 +53325,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>505</v>
       </c>
@@ -53332,7 +53333,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>505</v>
       </c>
@@ -53340,7 +53341,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>505</v>
       </c>
@@ -53363,14 +53364,14 @@
       <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.23046875" customWidth="1"/>
-    <col min="2" max="2" width="42.84375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="22.15234375" customWidth="1"/>
+    <col min="1" max="1" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="42.875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>545</v>
       </c>
@@ -53381,7 +53382,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>542</v>
       </c>
@@ -53393,7 +53394,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="57" t="str">
         <f>'Input figuren'!$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -53402,17 +53403,17 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="60">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="62" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="61">
         <v>3</v>
       </c>
@@ -53420,7 +53421,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>546</v>
       </c>
@@ -53432,7 +53433,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="57" t="str">
         <f>'Input figuren'!I24</f>
         <v>Geen waarde bekend</v>
@@ -53441,7 +53442,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="58" t="e">
         <f>'Input figuren'!B175</f>
         <v>#N/A</v>
@@ -53450,7 +53451,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="57" t="str">
         <f>'Input figuren'!K24</f>
         <v>Geen waarde bekend</v>
@@ -53459,7 +53460,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="58" t="e">
         <f>'Input figuren'!B176</f>
         <v>#N/A</v>
@@ -53468,7 +53469,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="str">
         <f>'Input figuren'!M24</f>
         <v>Geen waarde bekend</v>
@@ -53477,13 +53478,13 @@
         <v>790</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B13" s="62" t="s">
         <v>787</v>
       </c>
       <c r="C13" s="52"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>547</v>
       </c>
@@ -53495,7 +53496,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="58" t="e">
         <f>'Input figuren'!B181</f>
         <v>#N/A</v>
@@ -53504,7 +53505,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="57" t="str">
         <f>'Input figuren'!I26</f>
         <v>Geen waarde bekend</v>
@@ -53513,7 +53514,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" s="58" t="e">
         <f>'Input figuren'!B182</f>
         <v>#N/A</v>
@@ -53522,7 +53523,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="57" t="str">
         <f>'Input figuren'!K26</f>
         <v>Geen waarde bekend</v>
@@ -53531,7 +53532,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="58" t="e">
         <f>'Input figuren'!B183</f>
         <v>#N/A</v>
@@ -53540,7 +53541,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>560</v>
       </c>
@@ -53552,7 +53553,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="58" t="e">
         <f>'Input figuren'!B224</f>
         <v>#N/A</v>
@@ -53561,7 +53562,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="58" t="e">
         <f>'Input figuren'!B231</f>
         <v>#N/A</v>
@@ -53570,7 +53571,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="57" t="str">
         <f>'Input figuren'!B197</f>
         <v/>
@@ -53579,7 +53580,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="65" t="str">
         <f>'Input figuren'!B196</f>
         <v>-</v>
@@ -53588,7 +53589,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="57" t="str">
         <f>'Input figuren'!C197</f>
         <v/>
@@ -53597,7 +53598,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="65" t="str">
         <f>'Input figuren'!C196</f>
         <v>-</v>
@@ -53606,7 +53607,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" s="57" t="str">
         <f>'Input figuren'!D197</f>
         <v/>
@@ -53615,7 +53616,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="65" t="str">
         <f>'Input figuren'!D196</f>
         <v>-</v>
@@ -53624,7 +53625,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>564</v>
       </c>
@@ -53636,7 +53637,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="58" t="e">
         <f>'Input figuren'!B210</f>
         <v>#N/A</v>
@@ -53645,13 +53646,13 @@
         <v>570</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B31" s="64" t="s">
         <v>792</v>
       </c>
       <c r="C31" s="52"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>571</v>
       </c>
@@ -53663,7 +53664,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" s="65" t="str">
         <f>'Input figuren'!B246</f>
         <v>-</v>
@@ -53672,7 +53673,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="66" t="str">
         <f>'Input figuren'!C247</f>
         <v/>
@@ -53681,7 +53682,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" s="65" t="str">
         <f>'Input figuren'!C246</f>
         <v>-</v>
@@ -53690,7 +53691,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="66" t="str">
         <f>'Input figuren'!D247</f>
         <v/>
@@ -53699,7 +53700,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="65" t="str">
         <f>'Input figuren'!D246</f>
         <v>-</v>
@@ -53708,7 +53709,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="66" t="str">
         <f>'Input figuren'!B254</f>
         <v/>
@@ -53717,7 +53718,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="65" t="str">
         <f>'Input figuren'!B253</f>
         <v>-</v>
@@ -53726,7 +53727,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" s="66" t="str">
         <f>'Input figuren'!C254</f>
         <v/>
@@ -53735,7 +53736,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" s="65" t="str">
         <f>'Input figuren'!C253</f>
         <v>-</v>
@@ -53744,7 +53745,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="66" t="str">
         <f>'Input figuren'!D254</f>
         <v/>
@@ -53753,7 +53754,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" s="65" t="str">
         <f>'Input figuren'!D253</f>
         <v>-</v>
@@ -53762,7 +53763,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>578</v>
       </c>
@@ -53774,7 +53775,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" s="58" t="e">
         <f>'Input figuren'!B274</f>
         <v>#N/A</v>
@@ -53783,7 +53784,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" s="58" t="e">
         <f>'Input figuren'!B281</f>
         <v>#N/A</v>
@@ -53792,7 +53793,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" s="58" t="e">
         <f>'Input figuren'!B288</f>
         <v>#N/A</v>
@@ -53801,7 +53802,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="58" t="e">
         <f>'Input figuren'!B295</f>
         <v>#N/A</v>
@@ -53810,7 +53811,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49" s="57" t="str">
         <f>'Input figuren'!B261</f>
         <v/>
@@ -53819,7 +53820,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B50" s="65" t="str">
         <f>'Input figuren'!B260</f>
         <v>-</v>
@@ -53828,7 +53829,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B51" s="66" t="str">
         <f>'Input figuren'!C261</f>
         <v/>
@@ -53837,7 +53838,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" s="65" t="str">
         <f>'Input figuren'!C260</f>
         <v>-</v>
@@ -53846,7 +53847,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" s="66" t="str">
         <f>'Input figuren'!D261</f>
         <v/>
@@ -53855,7 +53856,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="65" t="str">
         <f>'Input figuren'!D260</f>
         <v>-</v>
@@ -53864,7 +53865,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" s="58" t="e">
         <f>'Input figuren'!B302</f>
         <v>#N/A</v>
@@ -53873,7 +53874,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>588</v>
       </c>
@@ -53885,7 +53886,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" s="58" t="e">
         <f>'Input figuren'!B316</f>
         <v>#N/A</v>
@@ -53894,7 +53895,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" s="57" t="str">
         <f>'Input figuren'!I104</f>
         <v>Geen waarde bekend</v>
@@ -53903,7 +53904,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B59" s="58" t="e">
         <f>'Input figuren'!B317</f>
         <v>#N/A</v>
@@ -53912,7 +53913,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" s="57" t="str">
         <f>'Input figuren'!K104</f>
         <v>Geen waarde bekend</v>
@@ -53921,7 +53922,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B61" s="58" t="e">
         <f>'Input figuren'!B318</f>
         <v>#N/A</v>
@@ -53930,7 +53931,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B62" s="58" t="e">
         <f>'Input figuren'!B323</f>
         <v>#N/A</v>
@@ -53939,7 +53940,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B63" s="57" t="str">
         <f>'Input figuren'!I105</f>
         <v>Geen waarde bekend</v>
@@ -53948,7 +53949,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64" s="58" t="e">
         <f>'Input figuren'!B324</f>
         <v>#N/A</v>
@@ -53957,7 +53958,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B65" s="57" t="str">
         <f>'Input figuren'!K105</f>
         <v>Geen waarde bekend</v>
@@ -53966,7 +53967,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B66" s="58" t="e">
         <f>'Input figuren'!B325</f>
         <v>#N/A</v>
@@ -53975,7 +53976,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>328</v>
       </c>
@@ -53987,7 +53988,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B68" s="58" t="e">
         <f>'Input figuren'!B345</f>
         <v>#N/A</v>
@@ -53996,7 +53997,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B69" s="58" t="e">
         <f>'Input figuren'!B352</f>
         <v>#N/A</v>
@@ -54005,7 +54006,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B70" s="58" t="str">
         <f>'Input figuren'!I106</f>
         <v>Geen waarde bekend</v>
@@ -54014,7 +54015,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B71" s="58" t="e">
         <f>'Input figuren'!B339</f>
         <v>#N/A</v>
@@ -54023,7 +54024,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B72" s="57" t="str">
         <f>'Input figuren'!K106</f>
         <v>Geen waarde bekend</v>
@@ -54032,7 +54033,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B73" s="58" t="e">
         <f>'Input figuren'!B340</f>
         <v>#N/A</v>
@@ -54041,12 +54042,12 @@
         <v>662</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B74" s="62" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B75" s="57" t="str">
         <f>'Input figuren'!M106</f>
         <v>Geen waarde bekend</v>
@@ -54055,7 +54056,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>656</v>
       </c>
@@ -54067,7 +54068,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B77" s="57" t="str">
         <f>'Input figuren'!I109</f>
         <v>Geen waarde bekend</v>
@@ -54076,7 +54077,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B78" s="58" t="e">
         <f>'Input figuren'!B360</f>
         <v>#N/A</v>
@@ -54085,7 +54086,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B79" s="57" t="str">
         <f>'Input figuren'!K109</f>
         <v>Geen waarde bekend</v>
@@ -54094,7 +54095,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B80" s="58" t="e">
         <f>'Input figuren'!B361</f>
         <v>#N/A</v>
@@ -54103,12 +54104,12 @@
         <v>667</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B81" s="64" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B82" s="58" t="str">
         <f>'Input figuren'!M109</f>
         <v>Geen waarde bekend</v>
@@ -54117,7 +54118,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>657</v>
       </c>
@@ -54129,7 +54130,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B84" s="57" t="str">
         <f>'Input figuren'!I110</f>
         <v>Geen waarde bekend</v>
@@ -54138,7 +54139,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B85" s="58" t="e">
         <f>'Input figuren'!B367</f>
         <v>#N/A</v>
@@ -54147,7 +54148,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B86" s="57" t="str">
         <f>'Input figuren'!K110</f>
         <v>Geen waarde bekend</v>
@@ -54156,7 +54157,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B87" s="58" t="e">
         <f>'Input figuren'!B368</f>
         <v>#N/A</v>
@@ -54165,7 +54166,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>674</v>
       </c>
@@ -54177,7 +54178,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B89" s="58" t="e">
         <f>'Input figuren'!B394</f>
         <v>#N/A</v>
@@ -54186,7 +54187,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B90" s="58" t="e">
         <f>'Input figuren'!B401</f>
         <v>#N/A</v>
@@ -54195,7 +54196,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>675</v>
       </c>
@@ -54207,7 +54208,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B92" s="57" t="str">
         <f>'Input figuren'!M115</f>
         <v>Geen waarde bekend</v>
@@ -54216,12 +54217,12 @@
         <v>680</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B93" s="57" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>681</v>
       </c>
@@ -54233,7 +54234,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B95" s="57" t="str">
         <f>'Input figuren'!I117</f>
         <v>Geen waarde bekend</v>
@@ -54242,7 +54243,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B96" s="58" t="e">
         <f>'Input figuren'!B430</f>
         <v>#N/A</v>
@@ -54251,7 +54252,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B97" s="57" t="str">
         <f>'Input figuren'!K117</f>
         <v>Geen waarde bekend</v>
@@ -54260,7 +54261,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B98" s="58" t="e">
         <f>'Input figuren'!B431</f>
         <v>#N/A</v>
@@ -54269,12 +54270,12 @@
         <v>688</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B99" s="62" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>682</v>
       </c>
@@ -54286,7 +54287,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B101" s="57" t="str">
         <f>'Input figuren'!I116</f>
         <v>Geen waarde bekend</v>
@@ -54295,7 +54296,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B102" s="58" t="e">
         <f>'Input figuren'!B437</f>
         <v>#N/A</v>
@@ -54304,7 +54305,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B103" s="57" t="str">
         <f>'Input figuren'!K116</f>
         <v>Geen waarde bekend</v>
@@ -54313,7 +54314,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B104" s="58" t="e">
         <f>'Input figuren'!B438</f>
         <v>#N/A</v>
@@ -54322,7 +54323,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105" s="57" t="str">
         <f>'Input figuren'!M116</f>
         <v>Geen waarde bekend</v>
@@ -54331,7 +54332,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>683</v>
       </c>
@@ -54343,13 +54344,13 @@
         <v>695</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B107" s="64" t="s">
         <v>798</v>
       </c>
       <c r="C107" s="51"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>28</v>
       </c>
@@ -54361,7 +54362,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B109" s="58" t="e">
         <f>'Input figuren'!B478</f>
         <v>#N/A</v>
@@ -54370,7 +54371,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B110" s="57" t="str">
         <f>'Input figuren'!I125</f>
         <v>Geen waarde bekend</v>
@@ -54379,7 +54380,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B111" s="58" t="e">
         <f>'Input figuren'!B479</f>
         <v>#N/A</v>
@@ -54388,7 +54389,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B112" s="57" t="str">
         <f>'Input figuren'!K125</f>
         <v>Geen waarde bekend</v>
@@ -54397,7 +54398,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B113" s="58" t="e">
         <f>'Input figuren'!B480</f>
         <v>#N/A</v>
@@ -54406,7 +54407,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B114" s="57" t="str">
         <f>'Input figuren'!B453</f>
         <v/>
@@ -54415,7 +54416,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B115" s="65" t="str">
         <f>'Input figuren'!B452</f>
         <v>-</v>
@@ -54424,7 +54425,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B116" s="66" t="str">
         <f>'Input figuren'!C453</f>
         <v/>
@@ -54433,7 +54434,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B117" s="65" t="str">
         <f>'Input figuren'!C452</f>
         <v>-</v>
@@ -54442,7 +54443,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B118" s="66" t="str">
         <f>'Input figuren'!D453</f>
         <v/>
@@ -54451,7 +54452,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B119" s="65" t="str">
         <f>'Input figuren'!D452</f>
         <v>-</v>
@@ -54460,7 +54461,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B120" s="66" t="str">
         <f>'Input figuren'!E453</f>
         <v/>
@@ -54469,7 +54470,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B121" s="65" t="str">
         <f>'Input figuren'!E452</f>
         <v>-</v>
@@ -54478,7 +54479,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B122" s="66" t="str">
         <f>'Input figuren'!F453</f>
         <v/>
@@ -54487,7 +54488,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B123" s="65" t="str">
         <f>'Input figuren'!F452</f>
         <v>-</v>
@@ -54496,12 +54497,12 @@
         <v>826</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B124" s="60" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>707</v>
       </c>
@@ -54513,7 +54514,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B126" s="57" t="str">
         <f>'Input figuren'!I137</f>
         <v>Geen waarde bekend</v>
@@ -54522,7 +54523,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B127" s="58" t="e">
         <f>'Input figuren'!B486</f>
         <v>#N/A</v>
@@ -54531,7 +54532,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B128" s="57" t="str">
         <f>'Input figuren'!K137</f>
         <v>Geen waarde bekend</v>
@@ -54540,7 +54541,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B129" s="58" t="e">
         <f>'Input figuren'!B487</f>
         <v>#N/A</v>
@@ -54549,7 +54550,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B130" s="58" t="e">
         <f>'Input figuren'!B492</f>
         <v>#N/A</v>
@@ -54558,7 +54559,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B131" s="57" t="str">
         <f>'Input figuren'!I138</f>
         <v>Geen waarde bekend</v>
@@ -54567,7 +54568,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B132" s="58" t="e">
         <f>'Input figuren'!B493</f>
         <v>#N/A</v>
@@ -54576,7 +54577,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B133" s="57" t="str">
         <f>'Input figuren'!K138</f>
         <v>Geen waarde bekend</v>
@@ -54585,7 +54586,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B134" s="58" t="e">
         <f>'Input figuren'!B494</f>
         <v>#N/A</v>
@@ -54594,7 +54595,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>729</v>
       </c>
@@ -54606,7 +54607,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B136" s="57" t="str">
         <f>'Input figuren'!I119</f>
         <v>Geen waarde bekend</v>
@@ -54615,7 +54616,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B137" s="58" t="e">
         <f>'Input figuren'!B508</f>
         <v>#N/A</v>
@@ -54624,7 +54625,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B138" s="57" t="str">
         <f>'Input figuren'!K119</f>
         <v>Geen waarde bekend</v>
@@ -54633,7 +54634,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B139" s="58" t="e">
         <f>'Input figuren'!B509</f>
         <v>#N/A</v>
@@ -54642,12 +54643,12 @@
         <v>735</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B140" s="64" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B141" s="57" t="str">
         <f>'Input figuren'!M120</f>
         <v>Geen waarde bekend</v>
@@ -54656,7 +54657,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B142" s="58" t="e">
         <f>'Input figuren'!B528</f>
         <v>#N/A</v>
@@ -54665,7 +54666,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B143" s="58" t="e">
         <f>'Input figuren'!B521</f>
         <v>#N/A</v>
@@ -54674,7 +54675,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>730</v>
       </c>
@@ -54686,7 +54687,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B145" s="57" t="str">
         <f>'Input figuren'!I123</f>
         <v>Geen waarde bekend</v>
@@ -54695,7 +54696,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B146" s="58" t="e">
         <f>'Input figuren'!B536</f>
         <v>#N/A</v>
@@ -54704,7 +54705,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B147" s="57" t="str">
         <f>'Input figuren'!K123</f>
         <v>Geen waarde bekend</v>
@@ -54713,7 +54714,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B148" s="58" t="e">
         <f>'Input figuren'!B537</f>
         <v>#N/A</v>
@@ -54722,12 +54723,12 @@
         <v>743</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B149" s="64" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>449</v>
       </c>
@@ -54739,7 +54740,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B151" s="57" t="str">
         <f>'Input figuren'!I139</f>
         <v>Geen waarde bekend</v>
@@ -54748,7 +54749,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B152" s="58" t="e">
         <f>'Input figuren'!B544</f>
         <v>#N/A</v>
@@ -54757,7 +54758,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B153" s="57" t="str">
         <f>'Input figuren'!K139</f>
         <v>Geen waarde bekend</v>
@@ -54766,7 +54767,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B154" s="58" t="e">
         <f>'Input figuren'!B545</f>
         <v>#N/A</v>
@@ -54775,12 +54776,12 @@
         <v>749</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B155" s="64" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B156" s="57" t="str">
         <f>'Input figuren'!M139</f>
         <v>Geen waarde bekend</v>
@@ -54789,7 +54790,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>744</v>
       </c>
@@ -54801,7 +54802,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B158" s="57" t="str">
         <f>'Input figuren'!I140</f>
         <v>Geen waarde bekend</v>
@@ -54810,7 +54811,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B159" s="58" t="e">
         <f>'Input figuren'!B551</f>
         <v>#N/A</v>
@@ -54819,7 +54820,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B160" s="57" t="str">
         <f>'Input figuren'!K140</f>
         <v>Geen waarde bekend</v>
@@ -54828,7 +54829,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B161" s="58" t="e">
         <f>'Input figuren'!B552</f>
         <v>#N/A</v>
@@ -54837,12 +54838,12 @@
         <v>755</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B162" s="64" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>460</v>
       </c>
@@ -54854,7 +54855,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B164" s="57" t="str">
         <f>'Input figuren'!I141</f>
         <v>Geen waarde bekend</v>
@@ -54863,7 +54864,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B165" s="58" t="e">
         <f>'Input figuren'!B558</f>
         <v>#N/A</v>
@@ -54872,7 +54873,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B166" s="57" t="str">
         <f>'Input figuren'!K141</f>
         <v>Geen waarde bekend</v>
@@ -54881,7 +54882,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B167" s="58" t="e">
         <f>'Input figuren'!B559</f>
         <v>#N/A</v>
@@ -54890,17 +54891,17 @@
         <v>760</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B168" s="64" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B169" s="64" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>468</v>
       </c>
@@ -54912,7 +54913,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B171" s="57" t="str">
         <f>'Input figuren'!I143</f>
         <v>Geen waarde bekend</v>
@@ -54921,7 +54922,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B172" s="58" t="e">
         <f>'Input figuren'!B566</f>
         <v>#N/A</v>
@@ -54930,7 +54931,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B173" s="57" t="str">
         <f>'Input figuren'!K143</f>
         <v>Geen waarde bekend</v>
@@ -54939,7 +54940,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B174" s="58" t="e">
         <f>'Input figuren'!B567</f>
         <v>#N/A</v>
@@ -54948,7 +54949,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B175" s="57" t="str">
         <f>'Input figuren'!M143</f>
         <v>Geen waarde bekend</v>
@@ -54957,7 +54958,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>469</v>
       </c>
@@ -54969,7 +54970,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B177" s="57" t="str">
         <f>'Input figuren'!I142</f>
         <v>Geen waarde bekend</v>
@@ -54978,7 +54979,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B178" s="58" t="e">
         <f>'Input figuren'!B573</f>
         <v>#N/A</v>
@@ -54987,7 +54988,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B179" s="57" t="str">
         <f>'Input figuren'!K142</f>
         <v>Geen waarde bekend</v>
@@ -54996,7 +54997,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B180" s="58" t="e">
         <f>'Input figuren'!B574</f>
         <v>#N/A</v>
@@ -55005,7 +55006,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B181" s="57" t="str">
         <f>'Input figuren'!M142</f>
         <v>Geen waarde bekend</v>
@@ -55014,12 +55015,12 @@
         <v>901</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B182" s="62" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>772</v>
       </c>
@@ -55031,7 +55032,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B184" s="58" t="e">
         <f>'Input figuren'!B602</f>
         <v>#N/A</v>
@@ -55040,7 +55041,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>475</v>
       </c>
@@ -55048,7 +55049,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -55056,7 +55057,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>773</v>
       </c>
@@ -55068,7 +55069,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B188" s="58" t="e">
         <f>'Input figuren'!C592</f>
         <v>#N/A</v>
@@ -55077,7 +55078,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B189" s="58" t="e">
         <f>'Input figuren'!D592</f>
         <v>#N/A</v>
@@ -55086,7 +55087,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>707</v>
       </c>
@@ -55094,207 +55095,207 @@
         <v>800</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B191" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B192" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B193" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B194" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B195" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B196" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B197" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B198" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B199" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B200" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B201" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B202" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B203" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B204" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B205" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B206" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B207" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B208" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230" s="57" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231" s="57" t="s">
         <v>786</v>
       </c>

--- a/Concept Rapportage VO.xlsx
+++ b/Concept Rapportage VO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ggdghornederland.sharepoint.com/sites/tss_Monitors/Gedeelde documenten/10 c. Gezondheidsmonitor V&amp;O 2022/Rapportage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11400206-0EAA-4133-A666-738A842A9DC6}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="8_{557C2D54-B3DD-4E2A-B1E7-A41AD5DFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EAA1D23-4B16-4E1B-A8C9-0CA7D00EA2EE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data R" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="886">
   <si>
     <t>Regiofilter:</t>
   </si>
@@ -1348,45 +1348,12 @@
     <t>GGEES217_75+</t>
   </si>
   <si>
-    <t>(zeer) sterk eenzaam</t>
-  </si>
-  <si>
     <t>Emotioneel eenzaam</t>
   </si>
   <si>
-    <t>GGEES218_1834</t>
-  </si>
-  <si>
-    <t>GGEES218_3549</t>
-  </si>
-  <si>
-    <t>GGEES218_5064</t>
-  </si>
-  <si>
-    <t>GGEES218_6574</t>
-  </si>
-  <si>
-    <t>GGEES218_75+</t>
-  </si>
-  <si>
     <t>Sociaal eenzaam</t>
   </si>
   <si>
-    <t>GGEES219_1834</t>
-  </si>
-  <si>
-    <t>GGEES219_3549</t>
-  </si>
-  <si>
-    <t>GGEES219_5064</t>
-  </si>
-  <si>
-    <t>GGEES219_6574</t>
-  </si>
-  <si>
-    <t>GGEES219_75+</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mist emotionele steun </t>
   </si>
   <si>
@@ -1453,21 +1420,6 @@
     <t>Moeite met rondkomen</t>
   </si>
   <si>
-    <t>MMIKA201_1834</t>
-  </si>
-  <si>
-    <t>MMIKA201_3549</t>
-  </si>
-  <si>
-    <t>MMIKA201_5064</t>
-  </si>
-  <si>
-    <t>MMIKA201_6574</t>
-  </si>
-  <si>
-    <t>MMIKA201_75+</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -2236,21 +2188,12 @@
     <t xml:space="preserve">Emotionele steun </t>
   </si>
   <si>
-    <t>'Input figuren'!B507</t>
-  </si>
-  <si>
     <t>'Input figuren'!I119</t>
   </si>
   <si>
-    <t>'Input figuren'!B508</t>
-  </si>
-  <si>
     <t>'Input figuren'!K119</t>
   </si>
   <si>
-    <t>'Input figuren'!B509</t>
-  </si>
-  <si>
     <t>'Input figuren'!M120</t>
   </si>
   <si>
@@ -2747,18 +2690,34 @@
   </si>
   <si>
     <t>Input figuren'!M142</t>
+  </si>
+  <si>
+    <t>Input figuren'!B514</t>
+  </si>
+  <si>
+    <t>Input figuren'!B515</t>
+  </si>
+  <si>
+    <t>Input figuren'!B516</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2860,7 +2819,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2903,6 +2862,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2916,150 +2881,150 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3071,10 +3036,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3086,23 +3051,38 @@
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -32348,10 +32328,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AE693"/>
+  <dimension ref="A1:AG693"/>
   <sheetViews>
-    <sheetView topLeftCell="A563" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C564" sqref="C564"/>
+    <sheetView tabSelected="1" topLeftCell="A533" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A571" sqref="A571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32383,7 +32363,7 @@
         <v>394</v>
       </c>
       <c r="C2" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -32391,10 +32371,10 @@
         <v>396</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="C3" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -32414,7 +32394,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="B6" s="3"/>
     </row>
@@ -32435,13 +32415,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>394</v>
@@ -32452,10 +32432,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -32500,10 +32480,10 @@
         <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="E15" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -32515,10 +32495,10 @@
         <v>400</v>
       </c>
       <c r="D16" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E16" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -32528,7 +32508,7 @@
         <v>401</v>
       </c>
       <c r="D17" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -32600,7 +32580,7 @@
       </c>
       <c r="I23" s="31"/>
       <c r="J23" s="11" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="K23" s="31"/>
       <c r="L23" s="11" t="s">
@@ -36859,7 +36839,7 @@
     </row>
     <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="68" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>233</v>
@@ -36909,7 +36889,7 @@
     </row>
     <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="68" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
         <v>234</v>
@@ -38559,7 +38539,7 @@
     </row>
     <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B143" s="20" t="s">
         <v>264</v>
@@ -38761,7 +38741,7 @@
     </row>
     <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="69" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="B152" s="20" t="s">
         <v>273</v>
@@ -38780,7 +38760,7 @@
     </row>
     <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="69" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="B153" s="20" t="s">
         <v>274</v>
@@ -38799,7 +38779,7 @@
     </row>
     <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="69" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="B154" s="20" t="s">
         <v>275</v>
@@ -38820,7 +38800,7 @@
     <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="157" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="41" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="B157" s="42"/>
       <c r="C157" s="43"/>
@@ -38851,13 +38831,13 @@
         <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="C159" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="D159" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="E159" t="s">
         <v>284</v>
@@ -38893,7 +38873,7 @@
         <v>292</v>
       </c>
       <c r="E160" s="63" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>290</v>
@@ -39149,7 +39129,7 @@
     </row>
     <row r="170" spans="1:11" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="45" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B170" s="42"/>
       <c r="C170" s="42"/>
@@ -39398,7 +39378,7 @@
     </row>
     <row r="185" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="41" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="B185" s="46"/>
       <c r="C185" s="47"/>
@@ -39451,7 +39431,7 @@
     <row r="188" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="19"/>
       <c r="B188" s="63" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>290</v>
@@ -39670,94 +39650,94 @@
     <row r="194" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="19"/>
       <c r="B194" s="53" t="s">
+        <v>573</v>
+      </c>
+      <c r="C194" s="53" t="s">
+        <v>574</v>
+      </c>
+      <c r="D194" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="E194" s="53" t="s">
+        <v>576</v>
+      </c>
+      <c r="F194" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="G194" s="53" t="s">
+        <v>578</v>
+      </c>
+      <c r="H194" s="53" t="s">
+        <v>579</v>
+      </c>
+      <c r="I194" s="53" t="s">
+        <v>580</v>
+      </c>
+      <c r="J194" s="53" t="s">
+        <v>581</v>
+      </c>
+      <c r="K194" s="53" t="s">
+        <v>582</v>
+      </c>
+      <c r="L194" s="53" t="s">
+        <v>583</v>
+      </c>
+      <c r="M194" s="53" t="s">
+        <v>584</v>
+      </c>
+      <c r="N194" s="53" t="s">
+        <v>585</v>
+      </c>
+      <c r="O194" s="53" t="s">
+        <v>586</v>
+      </c>
+      <c r="P194" s="53" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q194" s="53" t="s">
+        <v>588</v>
+      </c>
+      <c r="R194" s="53" t="s">
         <v>589</v>
       </c>
-      <c r="C194" s="53" t="s">
+      <c r="S194" s="53" t="s">
         <v>590</v>
       </c>
-      <c r="D194" s="53" t="s">
+      <c r="T194" s="53" t="s">
         <v>591</v>
       </c>
-      <c r="E194" s="53" t="s">
+      <c r="U194" s="53" t="s">
         <v>592</v>
       </c>
-      <c r="F194" s="53" t="s">
+      <c r="V194" s="53" t="s">
         <v>593</v>
       </c>
-      <c r="G194" s="53" t="s">
+      <c r="W194" s="53" t="s">
         <v>594</v>
       </c>
-      <c r="H194" s="53" t="s">
+      <c r="X194" s="53" t="s">
         <v>595</v>
       </c>
-      <c r="I194" s="53" t="s">
+      <c r="Y194" s="53" t="s">
         <v>596</v>
       </c>
-      <c r="J194" s="53" t="s">
+      <c r="Z194" s="53" t="s">
         <v>597</v>
       </c>
-      <c r="K194" s="53" t="s">
+      <c r="AA194" s="53" t="s">
         <v>598</v>
       </c>
-      <c r="L194" s="53" t="s">
+      <c r="AB194" s="53" t="s">
         <v>599</v>
       </c>
-      <c r="M194" s="53" t="s">
+      <c r="AC194" s="53" t="s">
         <v>600</v>
       </c>
-      <c r="N194" s="53" t="s">
+      <c r="AD194" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="O194" s="53" t="s">
+      <c r="AE194" s="53" t="s">
         <v>602</v>
-      </c>
-      <c r="P194" s="53" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q194" s="53" t="s">
-        <v>604</v>
-      </c>
-      <c r="R194" s="53" t="s">
-        <v>605</v>
-      </c>
-      <c r="S194" s="53" t="s">
-        <v>606</v>
-      </c>
-      <c r="T194" s="53" t="s">
-        <v>607</v>
-      </c>
-      <c r="U194" s="53" t="s">
-        <v>608</v>
-      </c>
-      <c r="V194" s="53" t="s">
-        <v>609</v>
-      </c>
-      <c r="W194" s="53" t="s">
-        <v>610</v>
-      </c>
-      <c r="X194" s="53" t="s">
-        <v>611</v>
-      </c>
-      <c r="Y194" s="53" t="s">
-        <v>612</v>
-      </c>
-      <c r="Z194" s="53" t="s">
-        <v>613</v>
-      </c>
-      <c r="AA194" s="53" t="s">
-        <v>614</v>
-      </c>
-      <c r="AB194" s="53" t="s">
-        <v>615</v>
-      </c>
-      <c r="AC194" s="53" t="s">
-        <v>616</v>
-      </c>
-      <c r="AD194" s="53" t="s">
-        <v>617</v>
-      </c>
-      <c r="AE194" s="53" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="195" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -40171,7 +40151,7 @@
     </row>
     <row r="199" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="45" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="B199" s="47"/>
       <c r="C199" s="47"/>
@@ -40423,7 +40403,7 @@
     </row>
     <row r="207" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="16" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="B207" s="17"/>
       <c r="C207" s="1"/>
@@ -41348,7 +41328,7 @@
     </row>
     <row r="235" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="41" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="B235" s="46"/>
       <c r="C235" s="47"/>
@@ -41395,16 +41375,16 @@
     </row>
     <row r="238" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="13" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="D238" s="13" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="E238" s="13" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="5"/>
@@ -41528,34 +41508,34 @@
     <row r="244" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="19"/>
       <c r="B244" s="54" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="C244" s="54" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="D244" s="54" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="E244" s="54" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="F244" s="54" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="G244" s="54" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="H244" s="54" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="I244" s="54" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="J244" s="53" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="K244" s="53" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="M244" s="13"/>
       <c r="N244" s="13"/>
@@ -41785,49 +41765,49 @@
     <row r="251" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="19"/>
       <c r="B251" s="53" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="C251" s="53" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="D251" s="54" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="E251" s="54" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="F251" s="54" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="G251" s="54" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="H251" s="54" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="I251" s="54" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="J251" s="54" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="K251" s="54" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="L251" s="54" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="M251" s="54" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="N251" s="54" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="O251" s="54" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="P251" s="54" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="252" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -42083,22 +42063,22 @@
     <row r="258" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="19"/>
       <c r="B258" s="56" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="C258" s="56" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="D258" s="56" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="E258" s="55" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="F258" s="55" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="G258" s="55" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="H258" s="20"/>
       <c r="I258" s="20"/>
@@ -42245,7 +42225,7 @@
     </row>
     <row r="263" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="45" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="B263" s="48"/>
       <c r="C263" s="47"/>
@@ -44305,7 +44285,7 @@
     </row>
     <row r="327" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="41" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="B327" s="46"/>
       <c r="C327" s="47"/>
@@ -44336,13 +44316,13 @@
         <v>1</v>
       </c>
       <c r="B329" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
       <c r="C329" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
       <c r="D329" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="E329" t="s">
         <v>335</v>
@@ -44378,7 +44358,7 @@
         <v>292</v>
       </c>
       <c r="E330" s="63" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="F330" s="5" t="s">
         <v>290</v>
@@ -44505,7 +44485,7 @@
     </row>
     <row r="334" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="45" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="B334" s="46"/>
       <c r="C334" s="46"/>
@@ -45200,7 +45180,7 @@
         <v>1</v>
       </c>
       <c r="B357" s="67" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -45379,7 +45359,7 @@
     </row>
     <row r="363" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="16" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B363" s="21"/>
       <c r="C363" s="4"/>
@@ -45417,7 +45397,7 @@
         <v>1</v>
       </c>
       <c r="B364" s="67" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -45594,7 +45574,7 @@
     </row>
     <row r="370" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="45" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="G370" s="46"/>
       <c r="H370" s="46"/>
@@ -45620,13 +45600,13 @@
         <v>1</v>
       </c>
       <c r="B372" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="C372" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="D372" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="E372" t="s">
         <v>347</v>
@@ -45662,7 +45642,7 @@
         <v>292</v>
       </c>
       <c r="E373" s="63" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="F373" s="5" t="s">
         <v>290</v>
@@ -45801,13 +45781,13 @@
         <v>1</v>
       </c>
       <c r="B378" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
       <c r="C378" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="D378" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
       <c r="E378" t="s">
         <v>355</v>
@@ -45843,7 +45823,7 @@
         <v>292</v>
       </c>
       <c r="E379" s="63" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="F379" s="5" t="s">
         <v>290</v>
@@ -45969,7 +45949,7 @@
     </row>
     <row r="383" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="45" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="B383" s="46"/>
       <c r="C383" s="46"/>
@@ -46862,7 +46842,7 @@
     </row>
     <row r="412" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="45" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B412" s="46"/>
       <c r="C412" s="46"/>
@@ -47180,7 +47160,7 @@
     </row>
     <row r="425" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="45" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B425" s="47"/>
       <c r="C425" s="47"/>
@@ -47835,7 +47815,7 @@
     </row>
     <row r="447" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="41" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="B447" s="45"/>
       <c r="C447" s="46"/>
@@ -47901,37 +47881,37 @@
     <row r="450" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="53" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="C450" s="53" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="D450" s="53" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="E450" s="53" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="F450" s="53" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="G450" s="53" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="H450" s="53" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="I450" s="53" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="J450" s="53" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="K450" s="53" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="L450" s="53" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="N450" s="20"/>
       <c r="O450" s="20"/>
@@ -48411,7 +48391,7 @@
     </row>
     <row r="467" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="45" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B467" s="47"/>
       <c r="C467" s="47"/>
@@ -49268,7 +49248,7 @@
     </row>
     <row r="496" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A496" s="41" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="B496" s="45"/>
       <c r="E496" s="47"/>
@@ -49419,7 +49399,7 @@
     </row>
     <row r="503" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="41" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="B503" s="45"/>
       <c r="E503" s="47"/>
@@ -49600,8 +49580,8 @@
       <c r="E510" s="4"/>
     </row>
     <row r="511" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="16" t="s">
-        <v>435</v>
+      <c r="A511" s="72" t="s">
+        <v>429</v>
       </c>
       <c r="B511" s="21"/>
       <c r="C511" s="4"/>
@@ -49638,8 +49618,8 @@
       <c r="A512" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B512" s="13" t="s">
-        <v>123</v>
+      <c r="B512" s="71" t="s">
+        <v>122</v>
       </c>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
@@ -49671,7 +49651,7 @@
       <c r="AD512" s="4"/>
       <c r="AE512" s="4"/>
     </row>
-    <row r="513" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="3"/>
       <c r="B513" s="4" t="s">
         <v>302</v>
@@ -49706,7 +49686,7 @@
       <c r="AD513" s="4"/>
       <c r="AE513" s="4"/>
     </row>
-    <row r="514" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -49745,7 +49725,7 @@
       <c r="AD514" s="4"/>
       <c r="AE514" s="4"/>
     </row>
-    <row r="515" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -49784,7 +49764,7 @@
       <c r="AD515" s="4"/>
       <c r="AE515" s="4"/>
     </row>
-    <row r="516" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -49803,91 +49783,122 @@
       <c r="J516" s="5"/>
       <c r="K516" s="5"/>
     </row>
-    <row r="517" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B517" s="3"/>
       <c r="E517" s="4"/>
     </row>
-    <row r="518" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B518" s="21"/>
-      <c r="C518" s="23"/>
-      <c r="D518" s="23"/>
-      <c r="E518" s="23"/>
-      <c r="F518" s="23"/>
-      <c r="G518" s="23"/>
-      <c r="H518" s="23"/>
-      <c r="I518" s="23"/>
-      <c r="J518" s="23"/>
-      <c r="K518" s="23"/>
-      <c r="L518" s="23"/>
-      <c r="M518" s="23"/>
-      <c r="N518" s="23"/>
-      <c r="O518" s="23"/>
-      <c r="P518" s="23"/>
-      <c r="Q518" s="23"/>
-      <c r="R518" s="23"/>
-      <c r="S518" s="23"/>
-      <c r="T518" s="23"/>
-      <c r="U518" s="23"/>
-      <c r="V518" s="23"/>
-      <c r="W518" s="23"/>
-      <c r="X518" s="23"/>
-      <c r="Y518" s="23"/>
-      <c r="Z518" s="23"/>
-      <c r="AA518" s="23"/>
-      <c r="AB518" s="23"/>
-      <c r="AC518" s="23"/>
-      <c r="AD518" s="23"/>
-      <c r="AE518" s="23"/>
-    </row>
-    <row r="519" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C518" s="76"/>
+      <c r="D518" s="5"/>
+      <c r="E518" s="5"/>
+      <c r="F518" s="5"/>
+      <c r="G518" s="5"/>
+      <c r="H518" s="5"/>
+      <c r="I518" s="5"/>
+      <c r="J518" s="5"/>
+      <c r="K518" s="5"/>
+      <c r="L518" s="5"/>
+      <c r="M518" s="5"/>
+      <c r="N518" s="5"/>
+      <c r="O518" s="5"/>
+      <c r="P518" s="5"/>
+      <c r="Q518" s="5"/>
+      <c r="R518" s="5"/>
+      <c r="S518" s="5"/>
+      <c r="T518" s="5"/>
+      <c r="U518" s="5"/>
+      <c r="V518" s="5"/>
+      <c r="W518" s="5"/>
+      <c r="X518" s="5"/>
+      <c r="Y518" s="5"/>
+      <c r="Z518" s="5"/>
+      <c r="AA518" s="5"/>
+      <c r="AB518" s="5"/>
+      <c r="AC518" s="5"/>
+      <c r="AD518" s="5"/>
+      <c r="AE518" s="5"/>
+      <c r="AF518" s="5"/>
+      <c r="AG518" s="5"/>
+    </row>
+    <row r="519" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B519" t="s">
-        <v>437</v>
-      </c>
-      <c r="C519" t="s">
-        <v>438</v>
-      </c>
-      <c r="D519" t="s">
-        <v>439</v>
-      </c>
-      <c r="E519" t="s">
-        <v>440</v>
-      </c>
-      <c r="F519" t="s">
-        <v>441</v>
-      </c>
-      <c r="G519" s="22"/>
-      <c r="H519" s="22"/>
-      <c r="I519" s="22"/>
-    </row>
-    <row r="520" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B519" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="C519" s="76"/>
+      <c r="D519" s="5"/>
+      <c r="E519" s="5"/>
+      <c r="F519" s="5"/>
+      <c r="G519" s="5"/>
+      <c r="H519" s="5"/>
+      <c r="I519" s="5"/>
+      <c r="J519" s="5"/>
+      <c r="K519" s="5"/>
+      <c r="L519" s="5"/>
+      <c r="M519" s="5"/>
+      <c r="N519" s="5"/>
+      <c r="O519" s="5"/>
+      <c r="P519" s="5"/>
+      <c r="Q519" s="5"/>
+      <c r="R519" s="5"/>
+      <c r="S519" s="5"/>
+      <c r="T519" s="5"/>
+      <c r="U519" s="5"/>
+      <c r="V519" s="5"/>
+      <c r="W519" s="5"/>
+      <c r="X519" s="5"/>
+      <c r="Y519" s="5"/>
+      <c r="Z519" s="5"/>
+      <c r="AA519" s="5"/>
+      <c r="AB519" s="5"/>
+      <c r="AC519" s="5"/>
+      <c r="AD519" s="5"/>
+      <c r="AE519" s="5"/>
+      <c r="AF519" s="5"/>
+      <c r="AG519" s="5"/>
+    </row>
+    <row r="520" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="3"/>
-      <c r="B520" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C520" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D520" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E520" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="F520" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G520" s="2"/>
-      <c r="H520" s="2"/>
-      <c r="I520" s="2"/>
-      <c r="J520" s="2"/>
-    </row>
-    <row r="521" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B520" s="4"/>
+      <c r="C520" s="76"/>
+      <c r="D520" s="5"/>
+      <c r="E520" s="5"/>
+      <c r="F520" s="5"/>
+      <c r="G520" s="5"/>
+      <c r="H520" s="5"/>
+      <c r="I520" s="5"/>
+      <c r="J520" s="5"/>
+      <c r="K520" s="5"/>
+      <c r="L520" s="5"/>
+      <c r="M520" s="5"/>
+      <c r="N520" s="5"/>
+      <c r="O520" s="5"/>
+      <c r="P520" s="5"/>
+      <c r="Q520" s="5"/>
+      <c r="R520" s="5"/>
+      <c r="S520" s="5"/>
+      <c r="T520" s="5"/>
+      <c r="U520" s="5"/>
+      <c r="V520" s="5"/>
+      <c r="W520" s="5"/>
+      <c r="X520" s="5"/>
+      <c r="Y520" s="5"/>
+      <c r="Z520" s="5"/>
+      <c r="AA520" s="5"/>
+      <c r="AB520" s="5"/>
+      <c r="AC520" s="5"/>
+      <c r="AD520" s="5"/>
+      <c r="AE520" s="5"/>
+      <c r="AF520" s="5"/>
+      <c r="AG520" s="5"/>
+    </row>
+    <row r="521" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -49896,28 +49907,39 @@
         <f>IF(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(B519,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(B519,'Data R'!$1:$1,),FALSE),"-"))</f>
         <v>#N/A</v>
       </c>
-      <c r="C521" s="5" t="e">
-        <f>IF(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(C519,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(C519,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D521" s="5" t="e">
-        <f>IF(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(D519,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(D519,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E521" s="5" t="e">
-        <f>IF(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(E519,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(E519,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F521" s="5" t="e">
-        <f>IF(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(F519,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(F519,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G521" s="25"/>
-      <c r="H521" s="22"/>
-      <c r="I521" s="22"/>
-      <c r="J521" s="4"/>
-    </row>
-    <row r="522" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C521" s="76"/>
+      <c r="D521" s="5"/>
+      <c r="E521" s="5"/>
+      <c r="F521" s="5"/>
+      <c r="G521" s="5"/>
+      <c r="H521" s="5"/>
+      <c r="I521" s="5"/>
+      <c r="J521" s="5"/>
+      <c r="K521" s="5"/>
+      <c r="L521" s="5"/>
+      <c r="M521" s="5"/>
+      <c r="N521" s="5"/>
+      <c r="O521" s="5"/>
+      <c r="P521" s="5"/>
+      <c r="Q521" s="5"/>
+      <c r="R521" s="5"/>
+      <c r="S521" s="5"/>
+      <c r="T521" s="5"/>
+      <c r="U521" s="5"/>
+      <c r="V521" s="5"/>
+      <c r="W521" s="5"/>
+      <c r="X521" s="5"/>
+      <c r="Y521" s="5"/>
+      <c r="Z521" s="5"/>
+      <c r="AA521" s="5"/>
+      <c r="AB521" s="5"/>
+      <c r="AC521" s="5"/>
+      <c r="AD521" s="5"/>
+      <c r="AE521" s="5"/>
+      <c r="AF521" s="5"/>
+      <c r="AG521" s="5"/>
+    </row>
+    <row r="522" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -49926,28 +49948,39 @@
         <f>IF(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(B519,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(B519,'Data R'!$1:$1,),FALSE),"-"))</f>
         <v>#N/A</v>
       </c>
-      <c r="C522" s="5" t="e">
-        <f>IF(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(C519,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(C519,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D522" s="5" t="e">
-        <f>IF(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(D519,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(D519,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E522" s="5" t="e">
-        <f>IF(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(E519,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(E519,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F522" s="5" t="e">
-        <f>IF(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(F519,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(F519,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G522" s="22"/>
-      <c r="H522" s="22"/>
-      <c r="I522" s="22"/>
-      <c r="J522" s="22"/>
-    </row>
-    <row r="523" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C522" s="76"/>
+      <c r="D522" s="5"/>
+      <c r="E522" s="5"/>
+      <c r="F522" s="5"/>
+      <c r="G522" s="5"/>
+      <c r="H522" s="5"/>
+      <c r="I522" s="5"/>
+      <c r="J522" s="5"/>
+      <c r="K522" s="5"/>
+      <c r="L522" s="5"/>
+      <c r="M522" s="5"/>
+      <c r="N522" s="5"/>
+      <c r="O522" s="5"/>
+      <c r="P522" s="5"/>
+      <c r="Q522" s="5"/>
+      <c r="R522" s="5"/>
+      <c r="S522" s="5"/>
+      <c r="T522" s="5"/>
+      <c r="U522" s="5"/>
+      <c r="V522" s="5"/>
+      <c r="W522" s="5"/>
+      <c r="X522" s="5"/>
+      <c r="Y522" s="5"/>
+      <c r="Z522" s="5"/>
+      <c r="AA522" s="5"/>
+      <c r="AB522" s="5"/>
+      <c r="AC522" s="5"/>
+      <c r="AD522" s="5"/>
+      <c r="AE522" s="5"/>
+      <c r="AF522" s="5"/>
+      <c r="AG522" s="5"/>
+    </row>
+    <row r="523" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -49956,113 +49989,161 @@
         <f>IF(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(B519,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(B519,'Data R'!$1:$1,),FALSE),"-"))</f>
         <v>#N/A</v>
       </c>
-      <c r="C523" s="5" t="e">
-        <f>IF(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(C519,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(C519,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D523" s="5" t="e">
-        <f>IF(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(D519,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(D519,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E523" s="5" t="e">
-        <f>IF(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(E519,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(E519,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F523" s="5" t="e">
-        <f>IF(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(F519,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(F519,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C523" s="76"/>
+      <c r="D523" s="5"/>
+      <c r="E523" s="5"/>
+      <c r="F523" s="5"/>
       <c r="G523" s="5"/>
       <c r="H523" s="5"/>
       <c r="I523" s="5"/>
       <c r="J523" s="5"/>
       <c r="K523" s="5"/>
-    </row>
-    <row r="524" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L523" s="5"/>
+      <c r="M523" s="5"/>
+      <c r="N523" s="5"/>
+      <c r="O523" s="5"/>
+      <c r="P523" s="5"/>
+      <c r="Q523" s="5"/>
+      <c r="R523" s="5"/>
+      <c r="S523" s="5"/>
+      <c r="T523" s="5"/>
+      <c r="U523" s="5"/>
+      <c r="V523" s="5"/>
+      <c r="W523" s="5"/>
+      <c r="X523" s="5"/>
+      <c r="Y523" s="5"/>
+      <c r="Z523" s="5"/>
+      <c r="AA523" s="5"/>
+      <c r="AB523" s="5"/>
+      <c r="AC523" s="5"/>
+      <c r="AD523" s="5"/>
+      <c r="AE523" s="5"/>
+      <c r="AF523" s="5"/>
+      <c r="AG523" s="5"/>
+    </row>
+    <row r="524" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B524" s="3"/>
-      <c r="E524" s="4"/>
-    </row>
-    <row r="525" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C524" s="76"/>
+      <c r="D524" s="5"/>
+      <c r="E524" s="5"/>
+      <c r="F524" s="5"/>
+      <c r="G524" s="5"/>
+      <c r="H524" s="5"/>
+      <c r="I524" s="5"/>
+      <c r="J524" s="5"/>
+      <c r="K524" s="5"/>
+      <c r="L524" s="5"/>
+      <c r="M524" s="5"/>
+      <c r="N524" s="5"/>
+      <c r="O524" s="5"/>
+      <c r="P524" s="5"/>
+      <c r="Q524" s="5"/>
+      <c r="R524" s="5"/>
+      <c r="S524" s="5"/>
+      <c r="T524" s="5"/>
+      <c r="U524" s="5"/>
+      <c r="V524" s="5"/>
+      <c r="W524" s="5"/>
+      <c r="X524" s="5"/>
+      <c r="Y524" s="5"/>
+      <c r="Z524" s="5"/>
+      <c r="AA524" s="5"/>
+      <c r="AB524" s="5"/>
+      <c r="AC524" s="5"/>
+      <c r="AD524" s="5"/>
+      <c r="AE524" s="5"/>
+      <c r="AF524" s="5"/>
+      <c r="AG524" s="5"/>
+    </row>
+    <row r="525" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B525" s="21"/>
-      <c r="C525" s="23"/>
-      <c r="D525" s="23"/>
-      <c r="E525" s="23"/>
-      <c r="F525" s="23"/>
-      <c r="G525" s="23"/>
-      <c r="H525" s="23"/>
-      <c r="I525" s="23"/>
-      <c r="J525" s="23"/>
-      <c r="K525" s="23"/>
-      <c r="L525" s="23"/>
-      <c r="M525" s="23"/>
-      <c r="N525" s="23"/>
-      <c r="O525" s="23"/>
-      <c r="P525" s="23"/>
-      <c r="Q525" s="23"/>
-      <c r="R525" s="23"/>
-      <c r="S525" s="23"/>
-      <c r="T525" s="23"/>
-      <c r="U525" s="23"/>
-      <c r="V525" s="23"/>
-      <c r="W525" s="23"/>
-      <c r="X525" s="23"/>
-      <c r="Y525" s="23"/>
-      <c r="Z525" s="23"/>
-      <c r="AA525" s="23"/>
-      <c r="AB525" s="23"/>
-      <c r="AC525" s="23"/>
-      <c r="AD525" s="23"/>
-      <c r="AE525" s="23"/>
-    </row>
-    <row r="526" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C525" s="76"/>
+      <c r="D525" s="5"/>
+      <c r="E525" s="5"/>
+      <c r="F525" s="5"/>
+      <c r="G525" s="5"/>
+      <c r="H525" s="5"/>
+      <c r="I525" s="5"/>
+      <c r="J525" s="5"/>
+      <c r="K525" s="5"/>
+      <c r="L525" s="5"/>
+      <c r="M525" s="5"/>
+      <c r="N525" s="5"/>
+      <c r="O525" s="5"/>
+      <c r="P525" s="5"/>
+      <c r="Q525" s="5"/>
+      <c r="R525" s="5"/>
+      <c r="S525" s="5"/>
+      <c r="T525" s="5"/>
+      <c r="U525" s="5"/>
+      <c r="V525" s="5"/>
+      <c r="W525" s="5"/>
+      <c r="X525" s="5"/>
+      <c r="Y525" s="5"/>
+      <c r="Z525" s="5"/>
+      <c r="AA525" s="5"/>
+      <c r="AB525" s="5"/>
+      <c r="AC525" s="5"/>
+      <c r="AD525" s="5"/>
+      <c r="AE525" s="5"/>
+      <c r="AF525" s="5"/>
+      <c r="AG525" s="5"/>
+    </row>
+    <row r="526" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B526" t="s">
-        <v>443</v>
-      </c>
-      <c r="C526" t="s">
-        <v>444</v>
-      </c>
-      <c r="D526" t="s">
-        <v>445</v>
-      </c>
-      <c r="E526" t="s">
-        <v>446</v>
-      </c>
-      <c r="F526" t="s">
-        <v>447</v>
-      </c>
-      <c r="G526" s="22"/>
-      <c r="H526" s="22"/>
-      <c r="I526" s="22"/>
-    </row>
-    <row r="527" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B526" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C526" s="76"/>
+      <c r="D526" s="5"/>
+      <c r="E526" s="5"/>
+      <c r="F526" s="5"/>
+      <c r="G526" s="5"/>
+      <c r="H526" s="5"/>
+      <c r="I526" s="5"/>
+      <c r="J526" s="5"/>
+      <c r="K526" s="5"/>
+      <c r="L526" s="5"/>
+      <c r="M526" s="5"/>
+      <c r="N526" s="5"/>
+      <c r="O526" s="5"/>
+      <c r="P526" s="5"/>
+      <c r="Q526" s="5"/>
+      <c r="R526" s="5"/>
+      <c r="S526" s="5"/>
+      <c r="T526" s="5"/>
+      <c r="U526" s="5"/>
+      <c r="V526" s="5"/>
+      <c r="W526" s="5"/>
+      <c r="X526" s="5"/>
+      <c r="Y526" s="5"/>
+      <c r="Z526" s="5"/>
+      <c r="AA526" s="5"/>
+      <c r="AB526" s="5"/>
+      <c r="AC526" s="5"/>
+      <c r="AD526" s="5"/>
+      <c r="AE526" s="5"/>
+      <c r="AF526" s="5"/>
+      <c r="AG526" s="5"/>
+    </row>
+    <row r="527" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="3"/>
-      <c r="B527" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C527" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D527" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E527" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="F527" s="22" t="s">
-        <v>291</v>
-      </c>
+      <c r="B527" s="4"/>
+      <c r="C527" s="77"/>
+      <c r="D527" s="4"/>
+      <c r="E527" s="22"/>
+      <c r="F527" s="22"/>
       <c r="G527" s="2"/>
       <c r="H527" s="2"/>
       <c r="I527" s="2"/>
       <c r="J527" s="2"/>
     </row>
-    <row r="528" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -50071,22 +50152,10 @@
         <f>IF(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(B526,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(B526,'Data R'!$1:$1,),FALSE),"-"))</f>
         <v>#N/A</v>
       </c>
-      <c r="C528" s="5" t="e">
-        <f>IF(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(C526,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(C526,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D528" s="5" t="e">
-        <f>IF(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(D526,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(D526,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E528" s="5" t="e">
-        <f>IF(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(E526,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(E526,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F528" s="5" t="e">
-        <f>IF(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(F526,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(F526,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C528" s="76"/>
+      <c r="D528" s="5"/>
+      <c r="E528" s="5"/>
+      <c r="F528" s="5"/>
       <c r="G528" s="25"/>
       <c r="H528" s="22"/>
       <c r="I528" s="22"/>
@@ -50101,22 +50170,10 @@
         <f>IF(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(B526,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(B526,'Data R'!$1:$1,),FALSE),"-"))</f>
         <v>#N/A</v>
       </c>
-      <c r="C529" s="5" t="e">
-        <f>IF(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(C526,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(C526,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D529" s="5" t="e">
-        <f>IF(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(D526,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(D526,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E529" s="5" t="e">
-        <f>IF(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(E526,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(E526,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F529" s="5" t="e">
-        <f>IF(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(F526,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(F526,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C529" s="76"/>
+      <c r="D529" s="5"/>
+      <c r="E529" s="5"/>
+      <c r="F529" s="5"/>
       <c r="G529" s="22"/>
       <c r="H529" s="22"/>
       <c r="I529" s="22"/>
@@ -50131,22 +50188,10 @@
         <f>IF(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(B526,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(B526,'Data R'!$1:$1,),FALSE),"-"))</f>
         <v>#N/A</v>
       </c>
-      <c r="C530" s="5" t="e">
-        <f>IF(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(C526,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(C526,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D530" s="5" t="e">
-        <f>IF(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(D526,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(D526,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E530" s="5" t="e">
-        <f>IF(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(E526,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(E526,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F530" s="5" t="e">
-        <f>IF(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(F526,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(F526,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C530" s="76"/>
+      <c r="D530" s="5"/>
+      <c r="E530" s="5"/>
+      <c r="F530" s="5"/>
       <c r="G530" s="5"/>
       <c r="H530" s="5"/>
       <c r="I530" s="5"/>
@@ -50159,7 +50204,7 @@
     </row>
     <row r="532" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="16" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B532" s="21"/>
       <c r="C532" s="4"/>
@@ -50367,14 +50412,14 @@
     </row>
     <row r="539" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="41" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="B539" s="45"/>
       <c r="E539" s="47"/>
     </row>
     <row r="540" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="16" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B540" s="21"/>
       <c r="C540" s="23"/>
@@ -50393,25 +50438,25 @@
         <v>141</v>
       </c>
       <c r="C541" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D541" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="E541" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="F541" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="G541" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="H541" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="I541" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="542" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -50569,7 +50614,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A547" s="16" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B547" s="21"/>
       <c r="C547" s="23"/>
@@ -50584,10 +50629,10 @@
         <v>142</v>
       </c>
       <c r="C548" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D548" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E548" s="4"/>
     </row>
@@ -50673,7 +50718,7 @@
     </row>
     <row r="554" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="16" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B554" s="21"/>
       <c r="C554" s="23"/>
@@ -50692,25 +50737,25 @@
         <v>143</v>
       </c>
       <c r="C555" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D555" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="E555" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F555" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="G555" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="H555" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="I555" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="556" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -50866,16 +50911,16 @@
       <c r="B560" s="3"/>
       <c r="E560" s="4"/>
     </row>
-    <row r="561" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:33" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="41" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B561" s="45"/>
       <c r="E561" s="47"/>
     </row>
-    <row r="562" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="16" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B562" s="21"/>
       <c r="C562" s="4"/>
@@ -50908,12 +50953,12 @@
       <c r="AD562" s="4"/>
       <c r="AE562" s="4"/>
     </row>
-    <row r="563" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B563" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
@@ -50945,7 +50990,7 @@
       <c r="AD563" s="4"/>
       <c r="AE563" s="4"/>
     </row>
-    <row r="564" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="3"/>
       <c r="B564" s="4" t="s">
         <v>302</v>
@@ -50980,7 +51025,7 @@
       <c r="AD564" s="4"/>
       <c r="AE564" s="4"/>
     </row>
-    <row r="565" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -51019,7 +51064,7 @@
       <c r="AD565" s="4"/>
       <c r="AE565" s="4"/>
     </row>
-    <row r="566" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -51058,7 +51103,7 @@
       <c r="AD566" s="4"/>
       <c r="AE566" s="4"/>
     </row>
-    <row r="567" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -51077,91 +51122,72 @@
       <c r="J567" s="5"/>
       <c r="K567" s="5"/>
     </row>
-    <row r="568" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B568" s="3"/>
       <c r="E568" s="4"/>
     </row>
-    <row r="569" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="16" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B569" s="21"/>
-      <c r="C569" s="23"/>
-      <c r="D569" s="23"/>
-      <c r="E569" s="23"/>
-      <c r="F569" s="23"/>
-      <c r="G569" s="23"/>
-      <c r="H569" s="23"/>
-      <c r="I569" s="23"/>
-      <c r="J569" s="23"/>
-      <c r="K569" s="23"/>
-      <c r="L569" s="23"/>
-      <c r="M569" s="23"/>
-      <c r="N569" s="23"/>
-      <c r="O569" s="23"/>
-      <c r="P569" s="23"/>
-      <c r="Q569" s="23"/>
-      <c r="R569" s="23"/>
-      <c r="S569" s="23"/>
-      <c r="T569" s="23"/>
-      <c r="U569" s="23"/>
-      <c r="V569" s="23"/>
-      <c r="W569" s="23"/>
-      <c r="X569" s="23"/>
-      <c r="Y569" s="23"/>
-      <c r="Z569" s="23"/>
-      <c r="AA569" s="23"/>
-      <c r="AB569" s="23"/>
-      <c r="AC569" s="23"/>
-      <c r="AD569" s="23"/>
-      <c r="AE569" s="23"/>
-    </row>
-    <row r="570" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C569" s="76"/>
+      <c r="D569" s="5"/>
+      <c r="E569" s="5"/>
+      <c r="F569" s="5"/>
+      <c r="G569" s="5"/>
+      <c r="H569" s="5"/>
+      <c r="I569" s="5"/>
+      <c r="J569" s="5"/>
+      <c r="K569" s="5"/>
+      <c r="L569" s="5"/>
+      <c r="M569" s="5"/>
+      <c r="N569" s="5"/>
+      <c r="O569" s="5"/>
+      <c r="P569" s="5"/>
+      <c r="Q569" s="5"/>
+      <c r="R569" s="5"/>
+      <c r="S569" s="5"/>
+      <c r="T569" s="5"/>
+      <c r="U569" s="5"/>
+      <c r="V569" s="5"/>
+      <c r="W569" s="5"/>
+      <c r="X569" s="5"/>
+      <c r="Y569" s="5"/>
+      <c r="Z569" s="5"/>
+      <c r="AA569" s="5"/>
+      <c r="AB569" s="5"/>
+      <c r="AC569" s="5"/>
+      <c r="AD569" s="5"/>
+      <c r="AE569" s="5"/>
+      <c r="AF569" s="5"/>
+      <c r="AG569" s="5"/>
+    </row>
+    <row r="570" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B570" t="s">
-        <v>470</v>
-      </c>
-      <c r="C570" t="s">
-        <v>471</v>
-      </c>
-      <c r="D570" t="s">
-        <v>472</v>
-      </c>
-      <c r="E570" t="s">
-        <v>473</v>
-      </c>
-      <c r="F570" t="s">
-        <v>474</v>
-      </c>
+      <c r="B570" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="C570" s="75"/>
       <c r="G570" s="22"/>
       <c r="H570" s="22"/>
       <c r="I570" s="22"/>
     </row>
-    <row r="571" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="3"/>
-      <c r="B571" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C571" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D571" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E571" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="F571" s="22" t="s">
-        <v>291</v>
-      </c>
+      <c r="B571" s="4"/>
+      <c r="C571" s="77"/>
+      <c r="D571" s="4"/>
+      <c r="E571" s="22"/>
+      <c r="F571" s="22"/>
       <c r="G571" s="2"/>
       <c r="H571" s="2"/>
       <c r="I571" s="2"/>
       <c r="J571" s="2"/>
     </row>
-    <row r="572" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="3" t="str">
         <f>$B$2</f>
         <v>'s-Gravenhage</v>
@@ -51170,28 +51196,16 @@
         <f>IF(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(B570,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(B570,'Data R'!$1:$1,),FALSE),"-"))</f>
         <v>#N/A</v>
       </c>
-      <c r="C572" s="5" t="e">
-        <f>IF(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(C570,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(C570,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D572" s="5" t="e">
-        <f>IF(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(D570,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(D570,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E572" s="5" t="e">
-        <f>IF(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(E570,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(E570,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F572" s="5" t="e">
-        <f>IF(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(F570,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$2,'Data R'!$1:$9999,MATCH(F570,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C572" s="76"/>
+      <c r="D572" s="5"/>
+      <c r="E572" s="5"/>
+      <c r="F572" s="5"/>
       <c r="G572" s="25"/>
       <c r="H572" s="22"/>
       <c r="I572" s="22"/>
       <c r="J572" s="4"/>
     </row>
-    <row r="573" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="str">
         <f>$B$3</f>
         <v>GGD Limburg-Noord</v>
@@ -51200,28 +51214,16 @@
         <f>IF(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(B570,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(B570,'Data R'!$1:$1,),FALSE),"-"))</f>
         <v>#N/A</v>
       </c>
-      <c r="C573" s="5" t="e">
-        <f>IF(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(C570,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(C570,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D573" s="5" t="e">
-        <f>IF(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(D570,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(D570,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E573" s="5" t="e">
-        <f>IF(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(E570,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(E570,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F573" s="5" t="e">
-        <f>IF(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(F570,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$3,'Data R'!$1:$9999,MATCH(F570,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C573" s="76"/>
+      <c r="D573" s="5"/>
+      <c r="E573" s="5"/>
+      <c r="F573" s="5"/>
       <c r="G573" s="22"/>
       <c r="H573" s="22"/>
       <c r="I573" s="22"/>
       <c r="J573" s="22"/>
     </row>
-    <row r="574" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="19" t="str">
         <f>$B$4</f>
         <v>Nederland</v>
@@ -51230,29 +51232,17 @@
         <f>IF(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(B570,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(B570,'Data R'!$1:$1,),FALSE),"-"))</f>
         <v>#N/A</v>
       </c>
-      <c r="C574" s="5" t="e">
-        <f>IF(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(C570,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(C570,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D574" s="5" t="e">
-        <f>IF(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(D570,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(D570,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E574" s="5" t="e">
-        <f>IF(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(E570,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(E570,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F574" s="5" t="e">
-        <f>IF(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(F570,'Data R'!$1:$1,),FALSE)="","x",IFERROR(VLOOKUP($B$4,'Data R'!$1:$9999,MATCH(F570,'Data R'!$1:$1,),FALSE),"-"))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C574" s="76"/>
+      <c r="D574" s="5"/>
+      <c r="E574" s="5"/>
+      <c r="F574" s="5"/>
       <c r="G574" s="5"/>
       <c r="H574" s="5"/>
       <c r="I574" s="5"/>
       <c r="J574" s="5"/>
       <c r="K574" s="5"/>
     </row>
-    <row r="575" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="3"/>
       <c r="B575" s="22"/>
       <c r="C575" s="22"/>
@@ -51264,9 +51254,9 @@
       <c r="I575" s="22"/>
       <c r="J575" s="22"/>
     </row>
-    <row r="576" spans="1:31" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:33" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="45" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="B576" s="46"/>
       <c r="C576" s="46"/>
@@ -51280,7 +51270,7 @@
     </row>
     <row r="577" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="16" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B577" s="21"/>
       <c r="C577" s="23"/>
@@ -51297,13 +51287,13 @@
         <v>1</v>
       </c>
       <c r="B578" s="20" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="C578" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="D578" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="E578" s="22"/>
       <c r="F578" s="22"/>
@@ -51315,13 +51305,13 @@
     <row r="579" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="3"/>
       <c r="B579" s="4" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C579" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D579" s="4" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="E579" s="22"/>
       <c r="F579" s="22"/>
@@ -51544,7 +51534,7 @@
     </row>
     <row r="589" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="16" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B589" s="21"/>
       <c r="C589" s="23"/>
@@ -51561,13 +51551,13 @@
         <v>1</v>
       </c>
       <c r="B590" s="69" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="C590" s="69" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="D590" s="69" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="E590" s="22"/>
       <c r="F590" s="22"/>
@@ -51579,13 +51569,13 @@
     <row r="591" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="3"/>
       <c r="B591" s="4" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="E591" s="22"/>
       <c r="F591" s="22"/>
@@ -51675,12 +51665,12 @@
     </row>
     <row r="598" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A598" s="41" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="599" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="16" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B599" s="21"/>
       <c r="C599" s="23"/>
@@ -51718,19 +51708,19 @@
         <v>1</v>
       </c>
       <c r="B600" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="C600" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
     </row>
     <row r="601" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A601" s="3"/>
       <c r="B601" s="4" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="E601" s="4"/>
     </row>
@@ -51777,12 +51767,12 @@
     </row>
     <row r="609" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A609" s="49" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
     </row>
     <row r="610" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" s="41" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
     </row>
     <row r="611" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -51803,16 +51793,16 @@
         <v>1</v>
       </c>
       <c r="B612" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="C612" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="D612" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="E612" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
     </row>
     <row r="613" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -51894,7 +51884,7 @@
     </row>
     <row r="617" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="16" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="B617" s="17"/>
       <c r="C617" s="18"/>
@@ -51910,16 +51900,16 @@
         <v>1</v>
       </c>
       <c r="B618" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="C618" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="D618" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="E618" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
     </row>
     <row r="619" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -52001,7 +51991,7 @@
     </row>
     <row r="623" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A623" s="41" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="624" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -52022,16 +52012,16 @@
         <v>1</v>
       </c>
       <c r="B625" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="C625" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="D625" t="s">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="E625" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
     </row>
     <row r="626" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -52129,16 +52119,16 @@
         <v>1</v>
       </c>
       <c r="B631" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="C631" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="D631" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="E631" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
     </row>
     <row r="632" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -52220,12 +52210,12 @@
     </row>
     <row r="636" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A636" s="41" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
     </row>
     <row r="637" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="16" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="B637" s="17"/>
       <c r="C637" s="18"/>
@@ -52241,16 +52231,16 @@
         <v>1</v>
       </c>
       <c r="B638" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="C638" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="D638" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
       <c r="E638" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
     </row>
     <row r="639" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -52348,16 +52338,16 @@
         <v>1</v>
       </c>
       <c r="B644" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="C644" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="D644" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="E644" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
     </row>
     <row r="645" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -52439,12 +52429,12 @@
     </row>
     <row r="649" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A649" s="41" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="650" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="16" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="B650" s="17"/>
       <c r="C650" s="18"/>
@@ -52460,16 +52450,16 @@
         <v>1</v>
       </c>
       <c r="B651" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
       <c r="C651" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="D651" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="E651" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
     </row>
     <row r="652" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -52551,12 +52541,12 @@
     </row>
     <row r="656" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A656" s="41" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="657" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B657" s="17"/>
       <c r="C657" s="18"/>
@@ -52572,16 +52562,16 @@
         <v>1</v>
       </c>
       <c r="B658" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="C658" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="D658" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
       <c r="E658" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
     </row>
     <row r="659" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -52663,7 +52653,7 @@
     </row>
     <row r="663" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B663" s="17"/>
       <c r="C663" s="18"/>
@@ -52679,16 +52669,16 @@
         <v>1</v>
       </c>
       <c r="B664" t="s">
-        <v>866</v>
+        <v>847</v>
       </c>
       <c r="C664" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
       <c r="D664" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
       <c r="E664" t="s">
-        <v>869</v>
+        <v>850</v>
       </c>
     </row>
     <row r="665" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -52770,12 +52760,12 @@
     </row>
     <row r="669" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A669" s="41" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
     </row>
     <row r="670" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="16" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B670" s="17"/>
       <c r="C670" s="18"/>
@@ -52791,16 +52781,16 @@
         <v>1</v>
       </c>
       <c r="B671" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
       <c r="C671" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
       <c r="D671" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="E671" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
     </row>
     <row r="672" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -52882,7 +52872,7 @@
     </row>
     <row r="676" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="16" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B676" s="17"/>
       <c r="C676" s="18"/>
@@ -52898,16 +52888,16 @@
         <v>1</v>
       </c>
       <c r="B677" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="C677" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="D677" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="E677" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
     </row>
     <row r="678" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -52989,7 +52979,7 @@
     </row>
     <row r="682" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="16" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B682" s="17"/>
       <c r="C682" s="18"/>
@@ -53005,13 +52995,13 @@
         <v>1</v>
       </c>
       <c r="B683" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
       <c r="C683" t="s">
-        <v>879</v>
+        <v>860</v>
       </c>
       <c r="D683" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
     </row>
     <row r="684" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -53082,12 +53072,12 @@
     </row>
     <row r="688" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A688" s="41" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="689" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="16" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B689" s="17"/>
       <c r="C689" s="18"/>
@@ -53103,16 +53093,16 @@
         <v>1</v>
       </c>
       <c r="B690" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="C690" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="D690" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
       <c r="E690" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
     </row>
     <row r="691" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -53255,7 +53245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
@@ -53263,7 +53253,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="B1" t="s">
         <v>387</v>
@@ -53271,7 +53261,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B23" t="s">
         <v>388</v>
@@ -53279,7 +53269,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B43" t="s">
         <v>389</v>
@@ -53287,7 +53277,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B62" t="s">
         <v>390</v>
@@ -53295,7 +53285,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B82" t="s">
         <v>391</v>
@@ -53303,7 +53293,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B102" t="s">
         <v>392</v>
@@ -53311,42 +53301,42 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B122" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B140" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B159" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B178" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B197" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -53360,8 +53350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DA447F-6B7F-45F8-94A4-FAECCB6EDF2E}">
   <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53373,25 +53363,25 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="C1" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'Input figuren'!$B$2</f>
         <v>'s-Gravenhage</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -53400,7 +53390,7 @@
         <v>GGD Limburg-Noord</v>
       </c>
       <c r="C3" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -53410,7 +53400,7 @@
     </row>
     <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="62" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -53418,19 +53408,19 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="B7" s="58" t="e">
         <f>'Input figuren'!B174</f>
         <v>#N/A</v>
       </c>
       <c r="C7" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -53439,7 +53429,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C8" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -53448,7 +53438,7 @@
         <v>#N/A</v>
       </c>
       <c r="C9" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -53457,7 +53447,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C10" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -53466,7 +53456,7 @@
         <v>#N/A</v>
       </c>
       <c r="C11" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -53475,25 +53465,25 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B13" s="62" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="C13" s="52"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="B14" s="57" t="str">
         <f>'Input figuren'!$M$25</f>
         <v>Geen waarde bekend</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -53502,7 +53492,7 @@
         <v>#N/A</v>
       </c>
       <c r="C15" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -53511,7 +53501,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C16" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -53520,7 +53510,7 @@
         <v>#N/A</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -53529,7 +53519,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C18" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -53538,19 +53528,19 @@
         <v>#N/A</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="B20" s="58" t="e">
         <f>'Input figuren'!B217</f>
         <v>#N/A</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -53559,7 +53549,7 @@
         <v>#N/A</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -53568,7 +53558,7 @@
         <v>#N/A</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -53577,7 +53567,7 @@
         <v/>
       </c>
       <c r="C23" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -53586,7 +53576,7 @@
         <v>-</v>
       </c>
       <c r="C24" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -53595,7 +53585,7 @@
         <v/>
       </c>
       <c r="C25" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -53604,7 +53594,7 @@
         <v>-</v>
       </c>
       <c r="C26" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -53613,7 +53603,7 @@
         <v/>
       </c>
       <c r="C27" s="52" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -53622,19 +53612,19 @@
         <v>-</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="B29" s="58" t="e">
         <f>'Input figuren'!B203</f>
         <v>#N/A</v>
       </c>
       <c r="C29" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -53643,25 +53633,25 @@
         <v>#N/A</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B31" s="64" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="C31" s="52"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="B32" s="57" t="str">
         <f>'Input figuren'!B247</f>
         <v/>
       </c>
       <c r="C32" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -53670,7 +53660,7 @@
         <v>-</v>
       </c>
       <c r="C33" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -53679,7 +53669,7 @@
         <v/>
       </c>
       <c r="C34" s="52" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -53688,7 +53678,7 @@
         <v>-</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -53697,7 +53687,7 @@
         <v/>
       </c>
       <c r="C36" s="52" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -53706,7 +53696,7 @@
         <v>-</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -53715,7 +53705,7 @@
         <v/>
       </c>
       <c r="C38" s="52" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -53724,7 +53714,7 @@
         <v>-</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -53733,7 +53723,7 @@
         <v/>
       </c>
       <c r="C40" s="52" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -53742,7 +53732,7 @@
         <v>-</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -53751,7 +53741,7 @@
         <v/>
       </c>
       <c r="C42" s="52" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -53760,19 +53750,19 @@
         <v>-</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="B44" s="58" t="e">
         <f>'Input figuren'!B267</f>
         <v>#N/A</v>
       </c>
       <c r="C44" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -53781,7 +53771,7 @@
         <v>#N/A</v>
       </c>
       <c r="C45" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -53790,7 +53780,7 @@
         <v>#N/A</v>
       </c>
       <c r="C46" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -53799,7 +53789,7 @@
         <v>#N/A</v>
       </c>
       <c r="C47" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -53808,7 +53798,7 @@
         <v>#N/A</v>
       </c>
       <c r="C48" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -53817,7 +53807,7 @@
         <v/>
       </c>
       <c r="C49" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -53826,7 +53816,7 @@
         <v>-</v>
       </c>
       <c r="C50" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -53835,7 +53825,7 @@
         <v/>
       </c>
       <c r="C51" s="52" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -53844,7 +53834,7 @@
         <v>-</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -53853,7 +53843,7 @@
         <v/>
       </c>
       <c r="C53" s="52" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -53862,7 +53852,7 @@
         <v>-</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -53871,19 +53861,19 @@
         <v>#N/A</v>
       </c>
       <c r="C55" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="B56" s="58" t="e">
         <f>'Input figuren'!B309</f>
         <v>#N/A</v>
       </c>
       <c r="C56" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -53892,7 +53882,7 @@
         <v>#N/A</v>
       </c>
       <c r="C57" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -53901,7 +53891,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C58" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -53910,7 +53900,7 @@
         <v>#N/A</v>
       </c>
       <c r="C59" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -53919,7 +53909,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C60" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -53928,7 +53918,7 @@
         <v>#N/A</v>
       </c>
       <c r="C61" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -53937,7 +53927,7 @@
         <v>#N/A</v>
       </c>
       <c r="C62" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -53946,7 +53936,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C63" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -53955,7 +53945,7 @@
         <v>#N/A</v>
       </c>
       <c r="C64" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -53964,7 +53954,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C65" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -53973,7 +53963,7 @@
         <v>#N/A</v>
       </c>
       <c r="C66" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -53985,7 +53975,7 @@
         <v>#N/A</v>
       </c>
       <c r="C67" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -53994,7 +53984,7 @@
         <v>#N/A</v>
       </c>
       <c r="C68" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -54003,7 +53993,7 @@
         <v>#N/A</v>
       </c>
       <c r="C69" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -54012,7 +54002,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C70" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -54021,7 +54011,7 @@
         <v>#N/A</v>
       </c>
       <c r="C71" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -54030,7 +54020,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C72" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -54039,12 +54029,12 @@
         <v>#N/A</v>
       </c>
       <c r="C73" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B74" s="62" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -54053,19 +54043,19 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="B76" s="58" t="e">
         <f>'Input figuren'!B359</f>
         <v>#N/A</v>
       </c>
       <c r="C76" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -54074,7 +54064,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C77" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -54083,7 +54073,7 @@
         <v>#N/A</v>
       </c>
       <c r="C78" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -54092,7 +54082,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C79" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -54101,12 +54091,12 @@
         <v>#N/A</v>
       </c>
       <c r="C80" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B81" s="64" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -54115,19 +54105,19 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C82" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="B83" s="58" t="e">
         <f>'Input figuren'!B366</f>
         <v>#N/A</v>
       </c>
       <c r="C83" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -54136,7 +54126,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -54145,7 +54135,7 @@
         <v>#N/A</v>
       </c>
       <c r="C85" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -54154,7 +54144,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C86" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -54163,19 +54153,19 @@
         <v>#N/A</v>
       </c>
       <c r="C87" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="B88" s="58" t="e">
         <f>'Input figuren'!B387</f>
         <v>#N/A</v>
       </c>
       <c r="C88" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -54184,7 +54174,7 @@
         <v>#N/A</v>
       </c>
       <c r="C89" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -54193,19 +54183,19 @@
         <v>#N/A</v>
       </c>
       <c r="C90" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="B91" s="58" t="e">
         <f>'Input figuren'!B408</f>
         <v>#N/A</v>
       </c>
       <c r="C91" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -54214,24 +54204,24 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C92" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B93" s="57" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="B94" s="58" t="e">
         <f>'Input figuren'!B429</f>
         <v>#N/A</v>
       </c>
       <c r="C94" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -54240,7 +54230,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C95" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -54249,7 +54239,7 @@
         <v>#N/A</v>
       </c>
       <c r="C96" s="51" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -54258,7 +54248,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C97" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -54267,24 +54257,24 @@
         <v>#N/A</v>
       </c>
       <c r="C98" s="51" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B99" s="62" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="B100" s="58" t="e">
         <f>'Input figuren'!B436</f>
         <v>#N/A</v>
       </c>
       <c r="C100" s="51" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -54293,7 +54283,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C101" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -54302,7 +54292,7 @@
         <v>#N/A</v>
       </c>
       <c r="C102" s="51" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -54311,7 +54301,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C103" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -54320,7 +54310,7 @@
         <v>#N/A</v>
       </c>
       <c r="C104" s="51" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -54329,24 +54319,24 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C105" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="B106" s="58" t="e">
         <f>'Input figuren'!B443</f>
         <v>#N/A</v>
       </c>
       <c r="C106" s="51" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B107" s="64" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="C107" s="51"/>
     </row>
@@ -54359,7 +54349,7 @@
         <v>#N/A</v>
       </c>
       <c r="C108" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -54368,7 +54358,7 @@
         <v>#N/A</v>
       </c>
       <c r="C109" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -54377,7 +54367,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C110" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -54386,7 +54376,7 @@
         <v>#N/A</v>
       </c>
       <c r="C111" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -54395,7 +54385,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C112" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -54404,7 +54394,7 @@
         <v>#N/A</v>
       </c>
       <c r="C113" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -54413,7 +54403,7 @@
         <v/>
       </c>
       <c r="C114" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -54422,7 +54412,7 @@
         <v>-</v>
       </c>
       <c r="C115" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -54431,7 +54421,7 @@
         <v/>
       </c>
       <c r="C116" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -54440,7 +54430,7 @@
         <v>-</v>
       </c>
       <c r="C117" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -54449,7 +54439,7 @@
         <v/>
       </c>
       <c r="C118" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -54458,7 +54448,7 @@
         <v>-</v>
       </c>
       <c r="C119" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -54467,7 +54457,7 @@
         <v/>
       </c>
       <c r="C120" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -54476,7 +54466,7 @@
         <v>-</v>
       </c>
       <c r="C121" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -54485,7 +54475,7 @@
         <v/>
       </c>
       <c r="C122" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -54494,24 +54484,24 @@
         <v>-</v>
       </c>
       <c r="C123" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B124" s="60" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="B125" s="58" t="e">
         <f>'Input figuren'!B485</f>
         <v>#N/A</v>
       </c>
       <c r="C125" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -54520,7 +54510,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C126" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -54529,7 +54519,7 @@
         <v>#N/A</v>
       </c>
       <c r="C127" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -54538,7 +54528,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C128" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -54547,7 +54537,7 @@
         <v>#N/A</v>
       </c>
       <c r="C129" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -54556,7 +54546,7 @@
         <v>#N/A</v>
       </c>
       <c r="C130" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -54565,7 +54555,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C131" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -54574,7 +54564,7 @@
         <v>#N/A</v>
       </c>
       <c r="C132" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -54583,7 +54573,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C133" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -54592,19 +54582,19 @@
         <v>#N/A</v>
       </c>
       <c r="C134" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>729</v>
-      </c>
-      <c r="B135" s="58" t="e">
-        <f>'Input figuren'!B507</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C135" t="s">
-        <v>731</v>
+        <v>713</v>
+      </c>
+      <c r="B135" s="74" t="e">
+        <f>'Input figuren'!B514</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C135" s="73" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -54613,16 +54603,16 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C136" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B137" s="58" t="e">
-        <f>'Input figuren'!B508</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C137" t="s">
-        <v>733</v>
+      <c r="B137" s="74" t="e">
+        <f>'Input figuren'!B515</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C137" s="73" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -54631,21 +54621,21 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C138" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B139" s="58" t="e">
-        <f>'Input figuren'!B509</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C139" t="s">
-        <v>735</v>
+      <c r="B139" s="74" t="e">
+        <f>'Input figuren'!B516</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C139" s="73" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B140" s="64" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -54654,7 +54644,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C141" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -54663,7 +54653,7 @@
         <v>#N/A</v>
       </c>
       <c r="C142" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -54672,19 +54662,19 @@
         <v>#N/A</v>
       </c>
       <c r="C143" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="B144" s="58" t="e">
         <f>'Input figuren'!B535</f>
         <v>#N/A</v>
       </c>
       <c r="C144" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -54693,7 +54683,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C145" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -54702,7 +54692,7 @@
         <v>#N/A</v>
       </c>
       <c r="C146" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -54711,7 +54701,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C147" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -54720,24 +54710,24 @@
         <v>#N/A</v>
       </c>
       <c r="C148" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B149" s="64" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B150" s="58" t="e">
         <f>'Input figuren'!B543</f>
         <v>#N/A</v>
       </c>
       <c r="C150" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -54746,7 +54736,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C151" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -54755,7 +54745,7 @@
         <v>#N/A</v>
       </c>
       <c r="C152" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -54764,7 +54754,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C153" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -54773,12 +54763,12 @@
         <v>#N/A</v>
       </c>
       <c r="C154" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B155" s="64" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -54787,19 +54777,19 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C156" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="B157" s="58" t="e">
         <f>'Input figuren'!B550</f>
         <v>#N/A</v>
       </c>
       <c r="C157" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -54808,7 +54798,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C158" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -54817,7 +54807,7 @@
         <v>#N/A</v>
       </c>
       <c r="C159" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -54826,7 +54816,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C160" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -54835,24 +54825,24 @@
         <v>#N/A</v>
       </c>
       <c r="C161" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B162" s="64" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B163" s="58" t="e">
         <f>'Input figuren'!B557</f>
         <v>#N/A</v>
       </c>
       <c r="C163" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -54861,7 +54851,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C164" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -54870,7 +54860,7 @@
         <v>#N/A</v>
       </c>
       <c r="C165" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -54879,7 +54869,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C166" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -54888,29 +54878,29 @@
         <v>#N/A</v>
       </c>
       <c r="C167" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B168" s="64" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B169" s="64" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B170" s="58" t="e">
         <f>'Input figuren'!B565</f>
         <v>#N/A</v>
       </c>
       <c r="C170" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -54919,7 +54909,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C171" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -54928,7 +54918,7 @@
         <v>#N/A</v>
       </c>
       <c r="C172" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -54937,7 +54927,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C173" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -54946,7 +54936,7 @@
         <v>#N/A</v>
       </c>
       <c r="C174" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -54955,19 +54945,19 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C175" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B176" s="58" t="e">
         <f>'Input figuren'!B572</f>
         <v>#N/A</v>
       </c>
       <c r="C176" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -54976,7 +54966,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C177" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -54985,7 +54975,7 @@
         <v>#N/A</v>
       </c>
       <c r="C178" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -54994,7 +54984,7 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C179" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -55003,7 +54993,7 @@
         <v>#N/A</v>
       </c>
       <c r="C180" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -55012,24 +55002,24 @@
         <v>Geen waarde bekend</v>
       </c>
       <c r="C181" s="52" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B182" s="62" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="B183" s="59" t="e">
         <f>'Input figuren'!C602</f>
         <v>#N/A</v>
       </c>
       <c r="C183" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -55038,15 +55028,15 @@
         <v>#N/A</v>
       </c>
       <c r="C184" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B185" s="64" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -55054,19 +55044,19 @@
         <v>4</v>
       </c>
       <c r="B186" s="64" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="B187" s="58" t="e">
         <f>'Input figuren'!B592</f>
         <v>#N/A</v>
       </c>
       <c r="C187" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -55075,7 +55065,7 @@
         <v>#N/A</v>
       </c>
       <c r="C188" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -55084,220 +55074,220 @@
         <v>#N/A</v>
       </c>
       <c r="C189" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="B190" s="62" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B191" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B192" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B193" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B194" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B195" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B196" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B197" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B198" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B199" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B200" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B201" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B202" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B203" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B204" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B205" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B206" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B207" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B208" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231" s="57" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -55307,15 +55297,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051EADF00008FE940B6D6113F52FEFE07" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="de54f9bfbc872adfb1e45e58ab594378">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aff6d44e-ba2a-4228-961e-5f8ded2976ff" xmlns:ns3="9c2910e3-625d-4012-8056-81ea95a8d605" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b24c634e1a4a376b30a44f03332f2b69" ns2:_="" ns3:_="">
     <xsd:import namespace="aff6d44e-ba2a-4228-961e-5f8ded2976ff"/>
@@ -55552,15 +55533,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D77EF3D-97BD-4AE7-AC41-2144F42901DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2379937A-B304-4F82-A933-E639453C0BA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55577,4 +55559,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D77EF3D-97BD-4AE7-AC41-2144F42901DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>